--- a/MapFiles/ProvinceInfoExcel.xlsx
+++ b/MapFiles/ProvinceInfoExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\redss\Desktop\APPDEV\Tauresium\MapFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0835A243-CF57-4372-90EC-76C1D25DC987}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D6425F-94D6-4716-AD34-CFD62D1E976D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1BFF37CF-5075-4621-9872-3602807B8ECF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1849" uniqueCount="812">
   <si>
     <t>Alaska_BristolBay</t>
   </si>
@@ -1675,15 +1675,9 @@
     <t>Chandigarh</t>
   </si>
   <si>
-    <t>Rio de janeiro</t>
-  </si>
-  <si>
     <t>(Christ the redeemer)</t>
   </si>
   <si>
-    <t>(Machu picchu)</t>
-  </si>
-  <si>
     <t>Lhasa</t>
   </si>
   <si>
@@ -2249,6 +2243,234 @@
   </si>
   <si>
     <t>Havana</t>
+  </si>
+  <si>
+    <t>Santo Domingo</t>
+  </si>
+  <si>
+    <t>Guiana</t>
+  </si>
+  <si>
+    <t>Amazonas</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Medellin</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Bogota</t>
+  </si>
+  <si>
+    <t>Caracas</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Ciudad Guayana</t>
+  </si>
+  <si>
+    <t>Maracaibo</t>
+  </si>
+  <si>
+    <t>Cayenne</t>
+  </si>
+  <si>
+    <t>Manaus</t>
+  </si>
+  <si>
+    <t>Quito</t>
+  </si>
+  <si>
+    <t>Chiclayo</t>
+  </si>
+  <si>
+    <t>North Peru</t>
+  </si>
+  <si>
+    <t>Central Peru</t>
+  </si>
+  <si>
+    <t>South Peru</t>
+  </si>
+  <si>
+    <t>Lima</t>
+  </si>
+  <si>
+    <t>Cusco</t>
+  </si>
+  <si>
+    <t>Sucre</t>
+  </si>
+  <si>
+    <t>Porto Velho</t>
+  </si>
+  <si>
+    <t>Rondonia</t>
+  </si>
+  <si>
+    <t>Sao Luis</t>
+  </si>
+  <si>
+    <t>Maranhao</t>
+  </si>
+  <si>
+    <t>Cuiaba</t>
+  </si>
+  <si>
+    <t>Mato grosso</t>
+  </si>
+  <si>
+    <t>Tocantins</t>
+  </si>
+  <si>
+    <t>Palmas</t>
+  </si>
+  <si>
+    <t>Natal</t>
+  </si>
+  <si>
+    <t>Rio Grande do Norte</t>
+  </si>
+  <si>
+    <t>Goiania</t>
+  </si>
+  <si>
+    <t>Goias</t>
+  </si>
+  <si>
+    <t>Asuncion</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>Concepcion</t>
+  </si>
+  <si>
+    <t>Montevideo</t>
+  </si>
+  <si>
+    <t>Calama</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Iquique</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Kujalleq</t>
+  </si>
+  <si>
+    <t>Qeqqata</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>Sermersooq</t>
+  </si>
+  <si>
+    <t>Qaasuitsup</t>
+  </si>
+  <si>
+    <t>Buenos Aires</t>
+  </si>
+  <si>
+    <t>Bahia Blanca</t>
+  </si>
+  <si>
+    <t>Neuquen</t>
+  </si>
+  <si>
+    <t>Santiago</t>
+  </si>
+  <si>
+    <t>rio Gallegos</t>
+  </si>
+  <si>
+    <t>Punta Arenas</t>
+  </si>
+  <si>
+    <t>Magellan</t>
+  </si>
+  <si>
+    <t>Tolhuin</t>
+  </si>
+  <si>
+    <t>Nanortalik</t>
+  </si>
+  <si>
+    <t>Scotland</t>
+  </si>
+  <si>
+    <t>Sisimiut</t>
+  </si>
+  <si>
+    <t>Nuuk</t>
+  </si>
+  <si>
+    <t>Atammik</t>
+  </si>
+  <si>
+    <t>Ilulissat</t>
+  </si>
+  <si>
+    <t>Nuussuaq</t>
+  </si>
+  <si>
+    <t>Kullorsuaq</t>
+  </si>
+  <si>
+    <t>North East Greenland</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Dublin</t>
+  </si>
+  <si>
+    <t>Edinburgh</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>York</t>
+  </si>
+  <si>
+    <t>Lancaster</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Marmara</t>
   </si>
 </sst>
 </file>
@@ -2765,8 +2987,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O435"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2815,7 +3037,7 @@
         <v>505</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>517</v>
@@ -2850,13 +3072,13 @@
         <v>508</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>510</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="3">
@@ -2885,13 +3107,13 @@
         <v>508</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>510</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="3">
@@ -2920,13 +3142,13 @@
         <v>509</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>510</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="3">
@@ -2955,13 +3177,13 @@
         <v>508</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="3">
@@ -2990,13 +3212,13 @@
         <v>508</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>510</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="3">
@@ -3025,13 +3247,13 @@
         <v>509</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="3">
@@ -3060,13 +3282,13 @@
         <v>509</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="3">
@@ -3095,13 +3317,13 @@
         <v>508</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>510</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="3">
@@ -3130,13 +3352,13 @@
         <v>509</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>510</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="3">
@@ -3165,13 +3387,13 @@
         <v>508</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>510</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="3">
@@ -3200,13 +3422,13 @@
         <v>508</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>510</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="3">
@@ -3235,13 +3457,13 @@
         <v>508</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="3">
@@ -3270,13 +3492,13 @@
         <v>509</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="3">
@@ -3305,13 +3527,13 @@
         <v>509</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="3">
@@ -3340,13 +3562,13 @@
         <v>509</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="3">
@@ -3375,13 +3597,13 @@
         <v>509</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="3">
@@ -3410,13 +3632,13 @@
         <v>509</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="3">
@@ -3445,13 +3667,13 @@
         <v>508</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="3">
@@ -3480,13 +3702,13 @@
         <v>509</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="3">
@@ -3515,13 +3737,13 @@
         <v>509</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="3">
@@ -3550,13 +3772,13 @@
         <v>509</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="3">
@@ -3585,13 +3807,13 @@
         <v>508</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>510</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="3">
@@ -3620,13 +3842,13 @@
         <v>508</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>510</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="3">
@@ -3655,13 +3877,13 @@
         <v>508</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="3">
@@ -3690,13 +3912,13 @@
         <v>508</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="3">
@@ -3725,13 +3947,13 @@
         <v>508</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="3">
@@ -3760,13 +3982,13 @@
         <v>508</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="3">
@@ -3795,13 +4017,13 @@
         <v>509</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="3">
@@ -3830,13 +4052,13 @@
         <v>509</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="3">
@@ -3865,16 +4087,16 @@
         <v>509</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="J31" s="3">
         <v>3000000</v>
@@ -3904,13 +4126,13 @@
         <v>509</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="3">
@@ -3939,13 +4161,13 @@
         <v>508</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="3">
@@ -3974,13 +4196,13 @@
         <v>509</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="3">
@@ -4009,13 +4231,13 @@
         <v>509</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="3">
@@ -4044,13 +4266,13 @@
         <v>509</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="3">
@@ -4079,13 +4301,13 @@
         <v>509</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="3">
@@ -4114,13 +4336,13 @@
         <v>509</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="3">
@@ -4149,13 +4371,13 @@
         <v>509</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="I39" s="5"/>
       <c r="J39" s="3">
@@ -4184,13 +4406,13 @@
         <v>509</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="I40" s="5"/>
       <c r="J40" s="3">
@@ -4219,13 +4441,13 @@
         <v>509</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="3">
@@ -4254,13 +4476,13 @@
         <v>508</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="I42" s="5"/>
       <c r="J42" s="3">
@@ -4289,16 +4511,16 @@
         <v>508</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="J43" s="3">
         <v>700000</v>
@@ -4328,13 +4550,13 @@
         <v>508</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="I44" s="5"/>
       <c r="J44" s="3">
@@ -4363,13 +4585,13 @@
         <v>509</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="I45" s="5"/>
       <c r="J45" s="3">
@@ -4398,7 +4620,7 @@
         <v>509</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>514</v>
@@ -4433,13 +4655,13 @@
         <v>508</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="I47" s="5"/>
       <c r="J47" s="3">
@@ -4468,13 +4690,13 @@
         <v>508</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="3">
@@ -4503,13 +4725,13 @@
         <v>508</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="I49" s="5"/>
       <c r="J49" s="3">
@@ -4538,13 +4760,13 @@
         <v>509</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="I50" s="5"/>
       <c r="J50" s="3">
@@ -4573,13 +4795,13 @@
         <v>508</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="I51" s="5"/>
       <c r="J51" s="3">
@@ -4608,13 +4830,13 @@
         <v>508</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="I52" s="5"/>
       <c r="J52" s="3">
@@ -4643,13 +4865,13 @@
         <v>509</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="I53" s="5"/>
       <c r="J53" s="3">
@@ -4678,13 +4900,13 @@
         <v>508</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I54" s="5"/>
       <c r="J54" s="3">
@@ -4713,13 +4935,13 @@
         <v>508</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="I55" s="5" t="s">
         <v>538</v>
@@ -4752,13 +4974,13 @@
         <v>508</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="I56" s="5"/>
       <c r="J56" s="3">
@@ -4787,13 +5009,13 @@
         <v>508</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="I57" s="5"/>
       <c r="J57" s="3">
@@ -4822,13 +5044,13 @@
         <v>508</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="I58" s="5"/>
       <c r="J58" s="3">
@@ -4857,13 +5079,13 @@
         <v>508</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="I59" s="5"/>
       <c r="J59" s="3">
@@ -4891,13 +5113,19 @@
       <c r="E60" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F60" s="3"/>
+      <c r="F60" s="3" t="s">
+        <v>736</v>
+      </c>
       <c r="G60" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="H60" s="3"/>
+      <c r="H60" s="3" t="s">
+        <v>741</v>
+      </c>
       <c r="I60" s="5"/>
-      <c r="J60" s="3"/>
+      <c r="J60" s="3">
+        <v>960000</v>
+      </c>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
@@ -4920,13 +5148,19 @@
       <c r="E61" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F61" s="3"/>
+      <c r="F61" s="3" t="s">
+        <v>742</v>
+      </c>
       <c r="G61" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="H61" s="3"/>
+      <c r="H61" s="3" t="s">
+        <v>743</v>
+      </c>
       <c r="I61" s="5"/>
-      <c r="J61" s="3"/>
+      <c r="J61" s="3">
+        <v>2500000</v>
+      </c>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
@@ -4949,13 +5183,19 @@
       <c r="E62" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F62" s="3"/>
+      <c r="F62" s="3" t="s">
+        <v>744</v>
+      </c>
       <c r="G62" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="H62" s="3"/>
+      <c r="H62" s="3" t="s">
+        <v>743</v>
+      </c>
       <c r="I62" s="5"/>
-      <c r="J62" s="3"/>
+      <c r="J62" s="3">
+        <v>7400000</v>
+      </c>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
@@ -4978,13 +5218,19 @@
       <c r="E63" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F63" s="3"/>
+      <c r="F63" s="3" t="s">
+        <v>748</v>
+      </c>
       <c r="G63" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="H63" s="3"/>
+      <c r="H63" s="3" t="s">
+        <v>746</v>
+      </c>
       <c r="I63" s="5"/>
-      <c r="J63" s="3"/>
+      <c r="J63" s="3">
+        <v>200000</v>
+      </c>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
@@ -5007,13 +5253,19 @@
       <c r="E64" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F64" s="3"/>
+      <c r="F64" s="3" t="s">
+        <v>745</v>
+      </c>
       <c r="G64" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="H64" s="3"/>
+      <c r="H64" s="3" t="s">
+        <v>746</v>
+      </c>
       <c r="I64" s="5"/>
-      <c r="J64" s="3"/>
+      <c r="J64" s="3">
+        <v>2200000</v>
+      </c>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
@@ -5036,13 +5288,19 @@
       <c r="E65" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F65" s="3"/>
+      <c r="F65" s="3" t="s">
+        <v>747</v>
+      </c>
       <c r="G65" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="H65" s="3"/>
+      <c r="H65" s="3" t="s">
+        <v>746</v>
+      </c>
       <c r="I65" s="5"/>
-      <c r="J65" s="3"/>
+      <c r="J65" s="3">
+        <v>700000</v>
+      </c>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
@@ -5065,13 +5323,19 @@
       <c r="E66" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F66" s="3"/>
+      <c r="F66" s="3" t="s">
+        <v>749</v>
+      </c>
       <c r="G66" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="H66" s="3"/>
+      <c r="H66" s="3" t="s">
+        <v>737</v>
+      </c>
       <c r="I66" s="5"/>
-      <c r="J66" s="3"/>
+      <c r="J66" s="3">
+        <v>60000</v>
+      </c>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
@@ -5094,13 +5358,19 @@
       <c r="E67" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F67" s="3"/>
+      <c r="F67" s="3" t="s">
+        <v>750</v>
+      </c>
       <c r="G67" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="H67" s="3"/>
+      <c r="H67" s="3" t="s">
+        <v>738</v>
+      </c>
       <c r="I67" s="5"/>
-      <c r="J67" s="3"/>
+      <c r="J67" s="3">
+        <v>2000000</v>
+      </c>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
@@ -5123,13 +5393,19 @@
       <c r="E68" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F68" s="3"/>
+      <c r="F68" s="3" t="s">
+        <v>751</v>
+      </c>
       <c r="G68" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="H68" s="3"/>
+      <c r="H68" s="3" t="s">
+        <v>739</v>
+      </c>
       <c r="I68" s="5"/>
-      <c r="J68" s="3"/>
+      <c r="J68" s="3">
+        <v>2000000</v>
+      </c>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
@@ -5152,13 +5428,19 @@
       <c r="E69" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F69" s="3"/>
+      <c r="F69" s="3" t="s">
+        <v>752</v>
+      </c>
       <c r="G69" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="H69" s="3"/>
+      <c r="H69" s="3" t="s">
+        <v>753</v>
+      </c>
       <c r="I69" s="5"/>
-      <c r="J69" s="3"/>
+      <c r="J69" s="3">
+        <v>550000</v>
+      </c>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
@@ -5181,19 +5463,21 @@
       <c r="E70" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F70" s="3"/>
+      <c r="F70" s="3" t="s">
+        <v>756</v>
+      </c>
       <c r="G70" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="H70" s="3"/>
-      <c r="I70" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="J70" s="3"/>
+      <c r="H70" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="I70" s="5"/>
+      <c r="J70" s="3">
+        <v>9500000</v>
+      </c>
       <c r="K70" s="3"/>
-      <c r="L70" s="17">
-        <v>0.05</v>
-      </c>
+      <c r="L70" s="17"/>
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
@@ -5214,15 +5498,21 @@
       <c r="E71" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F71" s="3"/>
+      <c r="F71" s="3" t="s">
+        <v>757</v>
+      </c>
       <c r="G71" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="H71" s="3"/>
+      <c r="H71" s="3" t="s">
+        <v>755</v>
+      </c>
       <c r="I71" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J71" s="3"/>
+        <v>537</v>
+      </c>
+      <c r="J71" s="3">
+        <v>420000</v>
+      </c>
       <c r="K71" s="3"/>
       <c r="L71" s="17">
         <v>0.1</v>
@@ -5247,13 +5537,19 @@
       <c r="E72" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F72" s="3"/>
+      <c r="F72" s="3" t="s">
+        <v>758</v>
+      </c>
       <c r="G72" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H72" s="3"/>
+      <c r="H72" s="3" t="s">
+        <v>740</v>
+      </c>
       <c r="I72" s="5"/>
-      <c r="J72" s="3"/>
+      <c r="J72" s="3">
+        <v>300000</v>
+      </c>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
@@ -5276,13 +5572,19 @@
       <c r="E73" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F73" s="3"/>
+      <c r="F73" s="3" t="s">
+        <v>759</v>
+      </c>
       <c r="G73" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="H73" s="3"/>
+      <c r="H73" s="3" t="s">
+        <v>760</v>
+      </c>
       <c r="I73" s="5"/>
-      <c r="J73" s="3"/>
+      <c r="J73" s="3">
+        <v>500000</v>
+      </c>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
@@ -5305,13 +5607,19 @@
       <c r="E74" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F74" s="3"/>
+      <c r="F74" s="3" t="s">
+        <v>761</v>
+      </c>
       <c r="G74" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="H74" s="3"/>
+      <c r="H74" s="3" t="s">
+        <v>762</v>
+      </c>
       <c r="I74" s="5"/>
-      <c r="J74" s="3"/>
+      <c r="J74" s="3">
+        <v>1100000</v>
+      </c>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
@@ -5334,13 +5642,19 @@
       <c r="E75" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F75" s="3"/>
+      <c r="F75" s="3" t="s">
+        <v>763</v>
+      </c>
       <c r="G75" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="H75" s="3"/>
+      <c r="H75" s="3" t="s">
+        <v>764</v>
+      </c>
       <c r="I75" s="5"/>
-      <c r="J75" s="3"/>
+      <c r="J75" s="3">
+        <v>600000</v>
+      </c>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
@@ -5363,13 +5677,19 @@
       <c r="E76" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F76" s="3"/>
+      <c r="F76" s="3" t="s">
+        <v>766</v>
+      </c>
       <c r="G76" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="H76" s="3"/>
+      <c r="H76" s="3" t="s">
+        <v>765</v>
+      </c>
       <c r="I76" s="5"/>
-      <c r="J76" s="3"/>
+      <c r="J76" s="3">
+        <v>300000</v>
+      </c>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
@@ -5392,13 +5712,19 @@
       <c r="E77" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F77" s="3"/>
+      <c r="F77" s="3" t="s">
+        <v>767</v>
+      </c>
       <c r="G77" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="H77" s="3"/>
+      <c r="H77" s="3" t="s">
+        <v>768</v>
+      </c>
       <c r="I77" s="5"/>
-      <c r="J77" s="3"/>
+      <c r="J77" s="3">
+        <v>890000</v>
+      </c>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
@@ -5421,13 +5747,19 @@
       <c r="E78" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F78" s="3"/>
+      <c r="F78" s="3" t="s">
+        <v>769</v>
+      </c>
       <c r="G78" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="H78" s="3"/>
+      <c r="H78" s="3" t="s">
+        <v>770</v>
+      </c>
       <c r="I78" s="5"/>
-      <c r="J78" s="3"/>
+      <c r="J78" s="3">
+        <v>1500000</v>
+      </c>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
@@ -5451,16 +5783,20 @@
         <v>508</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>546</v>
+        <v>774</v>
       </c>
       <c r="G79" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="H79" s="3"/>
+      <c r="H79" s="3" t="s">
+        <v>774</v>
+      </c>
       <c r="I79" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J79" s="3"/>
+        <v>546</v>
+      </c>
+      <c r="J79" s="3">
+        <v>6700000</v>
+      </c>
       <c r="K79" s="3"/>
       <c r="L79" s="17">
         <v>0.1</v>
@@ -5485,13 +5821,19 @@
       <c r="E80" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F80" s="3"/>
+      <c r="F80" s="3" t="s">
+        <v>775</v>
+      </c>
       <c r="G80" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="H80" s="3"/>
+      <c r="H80" s="3" t="s">
+        <v>772</v>
+      </c>
       <c r="I80" s="5"/>
-      <c r="J80" s="3"/>
+      <c r="J80" s="3">
+        <v>76000</v>
+      </c>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
       <c r="M80" s="3"/>
@@ -5514,13 +5856,19 @@
       <c r="E81" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F81" s="3"/>
+      <c r="F81" s="3" t="s">
+        <v>771</v>
+      </c>
       <c r="G81" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="H81" s="3"/>
+      <c r="H81" s="3" t="s">
+        <v>772</v>
+      </c>
       <c r="I81" s="5"/>
-      <c r="J81" s="3"/>
+      <c r="J81" s="3">
+        <v>520000</v>
+      </c>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
@@ -5543,13 +5891,19 @@
       <c r="E82" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F82" s="3"/>
+      <c r="F82" s="3" t="s">
+        <v>776</v>
+      </c>
       <c r="G82" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="H82" s="3"/>
+      <c r="H82" s="3" t="s">
+        <v>773</v>
+      </c>
       <c r="I82" s="5"/>
-      <c r="J82" s="3"/>
+      <c r="J82" s="3">
+        <v>1300000</v>
+      </c>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
@@ -5572,13 +5926,19 @@
       <c r="E83" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F83" s="3"/>
+      <c r="F83" s="3" t="s">
+        <v>777</v>
+      </c>
       <c r="G83" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="H83" s="3"/>
+      <c r="H83" s="3" t="s">
+        <v>778</v>
+      </c>
       <c r="I83" s="5"/>
-      <c r="J83" s="3"/>
+      <c r="J83" s="3">
+        <v>70000</v>
+      </c>
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
@@ -5601,13 +5961,19 @@
       <c r="E84" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F84" s="3"/>
+      <c r="F84" s="3" t="s">
+        <v>779</v>
+      </c>
       <c r="G84" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="H84" s="3"/>
+      <c r="H84" s="3" t="s">
+        <v>778</v>
+      </c>
       <c r="I84" s="5"/>
-      <c r="J84" s="3"/>
+      <c r="J84" s="3">
+        <v>190000</v>
+      </c>
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
@@ -5630,13 +5996,19 @@
       <c r="E85" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F85" s="3"/>
+      <c r="F85" s="3" t="s">
+        <v>783</v>
+      </c>
       <c r="G85" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="H85" s="3"/>
+      <c r="H85" s="3" t="s">
+        <v>780</v>
+      </c>
       <c r="I85" s="5"/>
-      <c r="J85" s="3"/>
+      <c r="J85" s="3">
+        <v>1300000</v>
+      </c>
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
@@ -5659,13 +6031,19 @@
       <c r="E86" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F86" s="3"/>
+      <c r="F86" s="3" t="s">
+        <v>786</v>
+      </c>
       <c r="G86" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="H86" s="3"/>
+      <c r="H86" s="3" t="s">
+        <v>780</v>
+      </c>
       <c r="I86" s="5"/>
-      <c r="J86" s="3"/>
+      <c r="J86" s="3">
+        <v>15000000</v>
+      </c>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
       <c r="M86" s="3"/>
@@ -5688,13 +6066,19 @@
       <c r="E87" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F87" s="3"/>
+      <c r="F87" s="3" t="s">
+        <v>787</v>
+      </c>
       <c r="G87" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="H87" s="3"/>
+      <c r="H87" s="3" t="s">
+        <v>780</v>
+      </c>
       <c r="I87" s="5"/>
-      <c r="J87" s="3"/>
+      <c r="J87" s="3">
+        <v>300000</v>
+      </c>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
@@ -5717,13 +6101,19 @@
       <c r="E88" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F88" s="3"/>
+      <c r="F88" s="3" t="s">
+        <v>788</v>
+      </c>
       <c r="G88" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="H88" s="3"/>
+      <c r="H88" s="3" t="s">
+        <v>780</v>
+      </c>
       <c r="I88" s="5"/>
-      <c r="J88" s="3"/>
+      <c r="J88" s="3">
+        <v>220000</v>
+      </c>
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
       <c r="M88" s="3"/>
@@ -5746,13 +6136,19 @@
       <c r="E89" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F89" s="3"/>
+      <c r="F89" s="3" t="s">
+        <v>789</v>
+      </c>
       <c r="G89" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H89" s="3"/>
+      <c r="H89" s="3" t="s">
+        <v>778</v>
+      </c>
       <c r="I89" s="5"/>
-      <c r="J89" s="3"/>
+      <c r="J89" s="3">
+        <v>5200000</v>
+      </c>
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
       <c r="M89" s="3"/>
@@ -5775,13 +6171,19 @@
       <c r="E90" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F90" s="3"/>
+      <c r="F90" s="3" t="s">
+        <v>790</v>
+      </c>
       <c r="G90" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="H90" s="3"/>
+      <c r="H90" s="3" t="s">
+        <v>780</v>
+      </c>
       <c r="I90" s="5"/>
-      <c r="J90" s="3"/>
+      <c r="J90" s="3">
+        <v>97000</v>
+      </c>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
@@ -5804,13 +6206,19 @@
       <c r="E91" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F91" s="3"/>
+      <c r="F91" s="3" t="s">
+        <v>791</v>
+      </c>
       <c r="G91" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H91" s="3"/>
+      <c r="H91" s="3" t="s">
+        <v>792</v>
+      </c>
       <c r="I91" s="5"/>
-      <c r="J91" s="3"/>
+      <c r="J91" s="3">
+        <v>120000</v>
+      </c>
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
       <c r="M91" s="3"/>
@@ -5833,13 +6241,19 @@
       <c r="E92" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F92" s="3"/>
+      <c r="F92" s="3" t="s">
+        <v>793</v>
+      </c>
       <c r="G92" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H92" s="3"/>
+      <c r="H92" s="3" t="s">
+        <v>792</v>
+      </c>
       <c r="I92" s="5"/>
-      <c r="J92" s="3"/>
+      <c r="J92" s="3">
+        <v>2900</v>
+      </c>
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
       <c r="M92" s="3"/>
@@ -5862,13 +6276,19 @@
       <c r="E93" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F93" s="3"/>
+      <c r="F93" s="3" t="s">
+        <v>794</v>
+      </c>
       <c r="G93" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="H93" s="3"/>
+      <c r="H93" s="3" t="s">
+        <v>781</v>
+      </c>
       <c r="I93" s="5"/>
-      <c r="J93" s="3"/>
+      <c r="J93" s="3">
+        <v>1100</v>
+      </c>
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
       <c r="M93" s="3"/>
@@ -5891,13 +6311,19 @@
       <c r="E94" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F94" s="3"/>
+      <c r="F94" s="3" t="s">
+        <v>796</v>
+      </c>
       <c r="G94" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="H94" s="3"/>
+      <c r="H94" s="3" t="s">
+        <v>782</v>
+      </c>
       <c r="I94" s="5"/>
-      <c r="J94" s="3"/>
+      <c r="J94" s="3">
+        <v>5500</v>
+      </c>
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
       <c r="M94" s="3"/>
@@ -5920,13 +6346,19 @@
       <c r="E95" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F95" s="3"/>
+      <c r="F95" s="3" t="s">
+        <v>797</v>
+      </c>
       <c r="G95" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="H95" s="3"/>
+      <c r="H95" s="3" t="s">
+        <v>784</v>
+      </c>
       <c r="I95" s="5"/>
-      <c r="J95" s="3"/>
+      <c r="J95" s="3">
+        <v>18000</v>
+      </c>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
@@ -5949,13 +6381,19 @@
       <c r="E96" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F96" s="3"/>
+      <c r="F96" s="3" t="s">
+        <v>798</v>
+      </c>
       <c r="G96" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="H96" s="3"/>
+      <c r="H96" s="3" t="s">
+        <v>784</v>
+      </c>
       <c r="I96" s="5"/>
-      <c r="J96" s="3"/>
+      <c r="J96" s="3">
+        <v>190</v>
+      </c>
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
       <c r="M96" s="3"/>
@@ -5978,13 +6416,19 @@
       <c r="E97" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F97" s="3"/>
+      <c r="F97" s="3" t="s">
+        <v>799</v>
+      </c>
       <c r="G97" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="H97" s="3"/>
+      <c r="H97" s="3" t="s">
+        <v>785</v>
+      </c>
       <c r="I97" s="5"/>
-      <c r="J97" s="3"/>
+      <c r="J97" s="3">
+        <v>4600</v>
+      </c>
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
       <c r="M97" s="3"/>
@@ -6007,13 +6451,19 @@
       <c r="E98" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F98" s="3"/>
+      <c r="F98" s="3" t="s">
+        <v>801</v>
+      </c>
       <c r="G98" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="H98" s="3"/>
+      <c r="H98" s="3" t="s">
+        <v>785</v>
+      </c>
       <c r="I98" s="5"/>
-      <c r="J98" s="3"/>
+      <c r="J98" s="3">
+        <v>450</v>
+      </c>
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
       <c r="M98" s="3"/>
@@ -6036,13 +6486,19 @@
       <c r="E99" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F99" s="3"/>
+      <c r="F99" s="3" t="s">
+        <v>800</v>
+      </c>
       <c r="G99" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="H99" s="3"/>
+      <c r="H99" s="3" t="s">
+        <v>802</v>
+      </c>
       <c r="I99" s="5"/>
-      <c r="J99" s="3"/>
+      <c r="J99" s="3">
+        <v>180</v>
+      </c>
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
       <c r="M99" s="3"/>
@@ -6066,13 +6522,13 @@
         <v>508</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>510</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="I100" s="5"/>
       <c r="J100" s="3">
@@ -6100,13 +6556,19 @@
       <c r="E101" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F101" s="3"/>
+      <c r="F101" s="3" t="s">
+        <v>803</v>
+      </c>
       <c r="G101" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H101" s="3"/>
+      <c r="H101" s="3" t="s">
+        <v>804</v>
+      </c>
       <c r="I101" s="5"/>
-      <c r="J101" s="3"/>
+      <c r="J101" s="3">
+        <v>280000</v>
+      </c>
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
       <c r="M101" s="3"/>
@@ -6129,13 +6591,19 @@
       <c r="E102" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F102" s="3"/>
+      <c r="F102" s="3" t="s">
+        <v>805</v>
+      </c>
       <c r="G102" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H102" s="3"/>
+      <c r="H102" s="3" t="s">
+        <v>804</v>
+      </c>
       <c r="I102" s="5"/>
-      <c r="J102" s="3"/>
+      <c r="J102" s="3">
+        <v>550000</v>
+      </c>
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
       <c r="M102" s="3"/>
@@ -6158,13 +6626,19 @@
       <c r="E103" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F103" s="3"/>
+      <c r="F103" s="3" t="s">
+        <v>806</v>
+      </c>
       <c r="G103" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H103" s="3"/>
+      <c r="H103" s="3" t="s">
+        <v>795</v>
+      </c>
       <c r="I103" s="5"/>
-      <c r="J103" s="3"/>
+      <c r="J103" s="3">
+        <v>480000</v>
+      </c>
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
       <c r="M103" s="3"/>
@@ -6187,13 +6661,19 @@
       <c r="E104" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F104" s="3"/>
+      <c r="F104" s="3" t="s">
+        <v>809</v>
+      </c>
       <c r="G104" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H104" s="3"/>
+      <c r="H104" s="3" t="s">
+        <v>807</v>
+      </c>
       <c r="I104" s="5"/>
-      <c r="J104" s="3"/>
+      <c r="J104" s="3">
+        <v>144000</v>
+      </c>
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
       <c r="M104" s="3"/>
@@ -6216,13 +6696,19 @@
       <c r="E105" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F105" s="3"/>
+      <c r="F105" s="3" t="s">
+        <v>808</v>
+      </c>
       <c r="G105" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H105" s="3"/>
+      <c r="H105" s="3" t="s">
+        <v>807</v>
+      </c>
       <c r="I105" s="5"/>
-      <c r="J105" s="3"/>
+      <c r="J105" s="3">
+        <v>210000</v>
+      </c>
       <c r="K105" s="3"/>
       <c r="L105" s="3"/>
       <c r="M105" s="3"/>
@@ -6245,13 +6731,19 @@
       <c r="E106" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F106" s="3"/>
+      <c r="F106" s="3" t="s">
+        <v>810</v>
+      </c>
       <c r="G106" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H106" s="3"/>
+      <c r="H106" s="3" t="s">
+        <v>807</v>
+      </c>
       <c r="I106" s="5"/>
-      <c r="J106" s="3"/>
+      <c r="J106" s="3">
+        <v>8900000</v>
+      </c>
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
       <c r="M106" s="3"/>
@@ -6571,7 +7063,7 @@
         <v>513</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="I117" s="5"/>
       <c r="J117" s="3">
@@ -6606,7 +7098,7 @@
         <v>513</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="I118" s="5" t="s">
         <v>539</v>
@@ -6755,13 +7247,13 @@
         <v>509</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="G123" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I123" s="5"/>
       <c r="J123" s="3">
@@ -7167,13 +7659,13 @@
         <v>509</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G137" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="I137" s="5"/>
       <c r="J137" s="3">
@@ -7347,13 +7839,13 @@
         <v>509</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="G143" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="I143" s="5"/>
       <c r="J143" s="3">
@@ -7846,13 +8338,13 @@
         <v>508</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G160" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H160" s="3" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="I160" s="5"/>
       <c r="J160" s="3">
@@ -7939,13 +8431,13 @@
         <v>509</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G163" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H163" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="I163" s="5"/>
       <c r="J163" s="3">
@@ -8356,11 +8848,15 @@
       <c r="G177" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H177" s="3"/>
+      <c r="H177" s="3" t="s">
+        <v>811</v>
+      </c>
       <c r="I177" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="J177" s="3"/>
+      <c r="J177" s="3">
+        <v>15000000</v>
+      </c>
       <c r="K177" s="17"/>
       <c r="L177" s="17">
         <v>0.15</v>
@@ -8415,13 +8911,13 @@
         <v>509</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G179" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H179" s="3" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="I179" s="5"/>
       <c r="J179" s="3">
@@ -8450,13 +8946,13 @@
         <v>509</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="G180" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H180" s="3" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="I180" s="5"/>
       <c r="J180" s="3">
@@ -8485,13 +8981,13 @@
         <v>509</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="G181" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H181" s="3" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="I181" s="5"/>
       <c r="J181" s="3">
@@ -8675,7 +9171,7 @@
         <v>512</v>
       </c>
       <c r="H187" s="3" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="I187" s="5" t="s">
         <v>540</v>
@@ -8940,12 +9436,14 @@
         <v>509</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G196" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="H196" s="3"/>
+      <c r="H196" s="3" t="s">
+        <v>578</v>
+      </c>
       <c r="I196" s="5"/>
       <c r="J196" s="3">
         <v>8100000</v>
@@ -9151,13 +9649,13 @@
         <v>508</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="G203" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H203" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="I203" s="5" t="s">
         <v>533</v>
@@ -9567,16 +10065,16 @@
         <v>508</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="G217" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H217" s="3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="I217" s="5" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="J217" s="3">
         <v>740000</v>
@@ -10045,13 +10543,13 @@
         <v>509</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G233" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H233" s="3" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="I233" s="5"/>
       <c r="J233" s="3">
@@ -10080,13 +10578,13 @@
         <v>509</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="G234" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H234" s="3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="I234" s="5"/>
       <c r="J234" s="3">
@@ -10289,13 +10787,13 @@
         <v>509</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G241" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H241" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="I241" s="5"/>
       <c r="J241" s="3">
@@ -10353,13 +10851,13 @@
         <v>509</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="G243" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H243" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="I243" s="5"/>
       <c r="J243" s="3">
@@ -10446,13 +10944,13 @@
         <v>508</v>
       </c>
       <c r="F246" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="G246" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H246" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="I246" s="5"/>
       <c r="J246" s="3">
@@ -10713,13 +11211,13 @@
         <v>509</v>
       </c>
       <c r="F255" s="3" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="G255" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H255" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="I255" s="5"/>
       <c r="J255" s="3">
@@ -10748,13 +11246,13 @@
         <v>509</v>
       </c>
       <c r="F256" s="3" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="G256" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H256" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="I256" s="5"/>
       <c r="J256" s="3">
@@ -10928,13 +11426,13 @@
         <v>508</v>
       </c>
       <c r="F262" s="3" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G262" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H262" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="I262" s="5"/>
       <c r="J262" s="3">
@@ -11079,13 +11577,13 @@
         <v>509</v>
       </c>
       <c r="F267" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G267" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H267" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="I267" s="5"/>
       <c r="J267" s="3">
@@ -11259,13 +11757,13 @@
         <v>509</v>
       </c>
       <c r="F273" s="3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="G273" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H273" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="I273" s="5"/>
       <c r="J273" s="3">
@@ -11468,13 +11966,13 @@
         <v>508</v>
       </c>
       <c r="F280" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="G280" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H280" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="I280" s="5"/>
       <c r="J280" s="3">
@@ -11648,13 +12146,13 @@
         <v>508</v>
       </c>
       <c r="F286" s="3" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G286" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H286" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="I286" s="5"/>
       <c r="J286" s="3">
@@ -11683,13 +12181,13 @@
         <v>508</v>
       </c>
       <c r="F287" s="3" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="G287" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H287" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="I287" s="5"/>
       <c r="J287" s="3">
@@ -11718,13 +12216,13 @@
         <v>508</v>
       </c>
       <c r="F288" s="3" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G288" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H288" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="I288" s="5"/>
       <c r="J288" s="3">
@@ -11840,13 +12338,13 @@
         <v>508</v>
       </c>
       <c r="F292" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="G292" s="3" t="s">
         <v>510</v>
       </c>
       <c r="H292" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="I292" s="5"/>
       <c r="J292" s="3">
@@ -12049,13 +12547,13 @@
         <v>509</v>
       </c>
       <c r="F299" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G299" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H299" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="I299" s="5"/>
       <c r="J299" s="3">
@@ -12171,13 +12669,13 @@
         <v>508</v>
       </c>
       <c r="F303" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G303" s="3" t="s">
         <v>510</v>
       </c>
       <c r="H303" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="I303" s="5"/>
       <c r="J303" s="3">
@@ -12235,13 +12733,13 @@
         <v>509</v>
       </c>
       <c r="F305" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G305" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H305" s="3" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="I305" s="5"/>
       <c r="J305" s="3">
@@ -12705,13 +13203,13 @@
         <v>508</v>
       </c>
       <c r="F321" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="G321" s="3" t="s">
         <v>510</v>
       </c>
       <c r="H321" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="I321" s="5"/>
       <c r="J321" s="3">
@@ -12798,13 +13296,13 @@
         <v>509</v>
       </c>
       <c r="F324" s="3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="G324" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H324" s="3" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="I324" s="5"/>
       <c r="J324" s="3">
@@ -13036,13 +13534,13 @@
         <v>508</v>
       </c>
       <c r="F332" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G332" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H332" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="I332" s="5"/>
       <c r="J332" s="3">
@@ -13259,7 +13757,7 @@
         <v>508</v>
       </c>
       <c r="F339" s="3" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="G339" s="3" t="s">
         <v>514</v>
@@ -13625,13 +14123,13 @@
         <v>509</v>
       </c>
       <c r="F351" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="G351" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H351" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="I351" s="5"/>
       <c r="J351" s="3">
@@ -13921,16 +14419,16 @@
         <v>509</v>
       </c>
       <c r="F361" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="G361" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H361" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="I361" s="5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="J361" s="3">
         <v>600000</v>
@@ -14732,7 +15230,7 @@
         <v>513</v>
       </c>
       <c r="H388" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="I388" s="5" t="s">
         <v>544</v>
@@ -14823,13 +15321,13 @@
         <v>508</v>
       </c>
       <c r="F391" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G391" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H391" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="I391" s="5"/>
       <c r="J391" s="3">
@@ -14858,13 +15356,13 @@
         <v>508</v>
       </c>
       <c r="F392" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G392" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H392" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="I392" s="5"/>
       <c r="J392" s="3">
@@ -15415,13 +15913,13 @@
         <v>508</v>
       </c>
       <c r="F411" s="3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="G411" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H411" s="3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="I411" s="5"/>
       <c r="J411" s="3">
@@ -15711,13 +16209,13 @@
         <v>508</v>
       </c>
       <c r="F421" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="G421" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H421" s="3" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="I421" s="5"/>
       <c r="J421" s="3">
@@ -15949,13 +16447,13 @@
         <v>509</v>
       </c>
       <c r="F429" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G429" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H429" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="I429" s="5"/>
       <c r="J429" s="3">
@@ -16042,13 +16540,13 @@
         <v>508</v>
       </c>
       <c r="F432" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="G432" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H432" s="3" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="I432" s="5"/>
       <c r="J432" s="3">
@@ -16077,16 +16575,16 @@
         <v>508</v>
       </c>
       <c r="F433" s="3" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G433" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H433" s="3" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="I433" s="5" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="J433" s="3">
         <v>210000</v>
@@ -16114,13 +16612,13 @@
         <v>508</v>
       </c>
       <c r="F434" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G434" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H434" s="3" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I434" s="5"/>
       <c r="J434" s="3">
@@ -16149,13 +16647,13 @@
         <v>508</v>
       </c>
       <c r="F435" s="3" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G435" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H435" s="3" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I435" s="5"/>
       <c r="J435" s="3">

--- a/MapFiles/ProvinceInfoExcel.xlsx
+++ b/MapFiles/ProvinceInfoExcel.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\redss\Desktop\APPDEV\Tauresium\MapFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D6425F-94D6-4716-AD34-CFD62D1E976D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC22D86D-D1C3-4A64-8738-6B0E189E0961}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1BFF37CF-5075-4621-9872-3602807B8ECF}"/>
   </bookViews>
   <sheets>
-    <sheet name="MapDelimited" sheetId="2" r:id="rId1"/>
+    <sheet name="Provinces" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1849" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2082" uniqueCount="1015">
   <si>
     <t>Alaska_BristolBay</t>
   </si>
@@ -2471,6 +2471,615 @@
   </si>
   <si>
     <t>Marmara</t>
+  </si>
+  <si>
+    <t>Bretange</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Pays De La Loire</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Rouen</t>
+  </si>
+  <si>
+    <t>Normandy</t>
+  </si>
+  <si>
+    <t>Occitanie</t>
+  </si>
+  <si>
+    <t>Alpes</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Milan</t>
+  </si>
+  <si>
+    <t>Bordeaux</t>
+  </si>
+  <si>
+    <t>Aquitaine</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Marseille</t>
+  </si>
+  <si>
+    <t>Grand Est</t>
+  </si>
+  <si>
+    <t>Bern</t>
+  </si>
+  <si>
+    <t>Amsterdam</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Sicily</t>
+  </si>
+  <si>
+    <t>Catalonia</t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>Lombardy</t>
+  </si>
+  <si>
+    <t>Palermo</t>
+  </si>
+  <si>
+    <t>Leon</t>
+  </si>
+  <si>
+    <t>Galicia</t>
+  </si>
+  <si>
+    <t>Extremadura</t>
+  </si>
+  <si>
+    <t>Andalusia</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>Toledo</t>
+  </si>
+  <si>
+    <t>La Mancha</t>
+  </si>
+  <si>
+    <t>La Coruna</t>
+  </si>
+  <si>
+    <t>Badajoz</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Bavaria</t>
+  </si>
+  <si>
+    <t>Saxony</t>
+  </si>
+  <si>
+    <t>Brandenberg</t>
+  </si>
+  <si>
+    <t>Schleswig</t>
+  </si>
+  <si>
+    <t>Pomerania</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>Lisbon</t>
+  </si>
+  <si>
+    <t>Munich</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Bosnia</t>
+  </si>
+  <si>
+    <t>Dresden</t>
+  </si>
+  <si>
+    <t>Kiel</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
+    <t>Peloponnese</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Schwerin</t>
+  </si>
+  <si>
+    <t>Warsaw</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Prague</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Zagreb</t>
+  </si>
+  <si>
+    <t>Budapest</t>
+  </si>
+  <si>
+    <t>Sarajevo</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Tirana</t>
+  </si>
+  <si>
+    <t>Belgrade</t>
+  </si>
+  <si>
+    <t>Bucharest</t>
+  </si>
+  <si>
+    <t>West Ukraine</t>
+  </si>
+  <si>
+    <t>Central Ukraine</t>
+  </si>
+  <si>
+    <t>Eastern Ukraine</t>
+  </si>
+  <si>
+    <t>Ternopil</t>
+  </si>
+  <si>
+    <t>Kyiv</t>
+  </si>
+  <si>
+    <t>Dnipro</t>
+  </si>
+  <si>
+    <t>Skopje</t>
+  </si>
+  <si>
+    <t>Skane</t>
+  </si>
+  <si>
+    <t>Smaland</t>
+  </si>
+  <si>
+    <t>Uppland</t>
+  </si>
+  <si>
+    <t>Vastergotland</t>
+  </si>
+  <si>
+    <t>Halland</t>
+  </si>
+  <si>
+    <t>Patras</t>
+  </si>
+  <si>
+    <t>Minsk</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Vilnius</t>
+  </si>
+  <si>
+    <t>Baltic States</t>
+  </si>
+  <si>
+    <t>Copenhagen</t>
+  </si>
+  <si>
+    <t>Malmo</t>
+  </si>
+  <si>
+    <t>Varmland</t>
+  </si>
+  <si>
+    <t>Nordland</t>
+  </si>
+  <si>
+    <t>Jonkoping</t>
+  </si>
+  <si>
+    <t>Stockholm</t>
+  </si>
+  <si>
+    <t>Gothenburg</t>
+  </si>
+  <si>
+    <t>Halmstad</t>
+  </si>
+  <si>
+    <t>Finnmark</t>
+  </si>
+  <si>
+    <t>Ostrobothnia</t>
+  </si>
+  <si>
+    <t>Karlstad</t>
+  </si>
+  <si>
+    <t>[Some Sami people prefer the name Sapmi]</t>
+  </si>
+  <si>
+    <t>Kiruna</t>
+  </si>
+  <si>
+    <t>Bodo</t>
+  </si>
+  <si>
+    <t>Molde</t>
+  </si>
+  <si>
+    <t>More og Romsdal</t>
+  </si>
+  <si>
+    <t>Rogaland</t>
+  </si>
+  <si>
+    <t>Stavanger</t>
+  </si>
+  <si>
+    <t>Innlandet</t>
+  </si>
+  <si>
+    <t>Hamar</t>
+  </si>
+  <si>
+    <t>Oslo</t>
+  </si>
+  <si>
+    <t>Tromso</t>
+  </si>
+  <si>
+    <t>Rovaniemi</t>
+  </si>
+  <si>
+    <t>Finnish Lapland</t>
+  </si>
+  <si>
+    <t>North Ostrobothnia</t>
+  </si>
+  <si>
+    <t>Swedish Lappland</t>
+  </si>
+  <si>
+    <t>Oulu</t>
+  </si>
+  <si>
+    <t>Vaasa</t>
+  </si>
+  <si>
+    <t>Helsinki</t>
+  </si>
+  <si>
+    <t>Uusimaa</t>
+  </si>
+  <si>
+    <t>Adana</t>
+  </si>
+  <si>
+    <t>Ankara</t>
+  </si>
+  <si>
+    <t>Yalova</t>
+  </si>
+  <si>
+    <t>Khorasan</t>
+  </si>
+  <si>
+    <t>Baluchistan</t>
+  </si>
+  <si>
+    <t>Izmir</t>
+  </si>
+  <si>
+    <t>Tbilisi</t>
+  </si>
+  <si>
+    <t>Yerevan</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Yeghegnadzor</t>
+  </si>
+  <si>
+    <t>Mashhad</t>
+  </si>
+  <si>
+    <t>Kurdistan</t>
+  </si>
+  <si>
+    <t>Zahedan</t>
+  </si>
+  <si>
+    <t>Isfahan</t>
+  </si>
+  <si>
+    <t>Kerman</t>
+  </si>
+  <si>
+    <t>Tehran</t>
+  </si>
+  <si>
+    <t>Tabriz</t>
+  </si>
+  <si>
+    <t>Gilan</t>
+  </si>
+  <si>
+    <t>Urmia</t>
+  </si>
+  <si>
+    <t>Sanandaj</t>
+  </si>
+  <si>
+    <t>Aleppo</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>Damascus</t>
+  </si>
+  <si>
+    <t>Al Anbar</t>
+  </si>
+  <si>
+    <t>Ramadi</t>
+  </si>
+  <si>
+    <t>Muthanna</t>
+  </si>
+  <si>
+    <t>Samawah</t>
+  </si>
+  <si>
+    <t>Kuwait city</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Jerusalem</t>
+  </si>
+  <si>
+    <t>Amman</t>
+  </si>
+  <si>
+    <t>Madinah</t>
+  </si>
+  <si>
+    <t>Asir</t>
+  </si>
+  <si>
+    <t>Tabuk</t>
+  </si>
+  <si>
+    <t>Riyadh</t>
+  </si>
+  <si>
+    <t>Medina</t>
+  </si>
+  <si>
+    <t>Al Baha</t>
+  </si>
+  <si>
+    <t>Al Bahah</t>
+  </si>
+  <si>
+    <t>Abha</t>
+  </si>
+  <si>
+    <t>Ha'il</t>
+  </si>
+  <si>
+    <t>Qasim</t>
+  </si>
+  <si>
+    <t>Buraidah</t>
+  </si>
+  <si>
+    <t>Dammam</t>
+  </si>
+  <si>
+    <t>Ash Sharqiyah</t>
+  </si>
+  <si>
+    <t>Shaybah</t>
+  </si>
+  <si>
+    <t>Layla</t>
+  </si>
+  <si>
+    <t>Muscat</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Nizwa</t>
+  </si>
+  <si>
+    <t>Salalah</t>
+  </si>
+  <si>
+    <t>Sana'a</t>
+  </si>
+  <si>
+    <t>Aden</t>
+  </si>
+  <si>
+    <t>Shenyang</t>
+  </si>
+  <si>
+    <t>Liaoning</t>
+  </si>
+  <si>
+    <t>Shandong</t>
+  </si>
+  <si>
+    <t>Jiangsu</t>
+  </si>
+  <si>
+    <t>Zhejiang</t>
+  </si>
+  <si>
+    <t>Jiangxi</t>
+  </si>
+  <si>
+    <t>Anhui</t>
+  </si>
+  <si>
+    <t>Hubei</t>
+  </si>
+  <si>
+    <t>Hunan</t>
+  </si>
+  <si>
+    <t>Heibei</t>
+  </si>
+  <si>
+    <t>Jinan</t>
+  </si>
+  <si>
+    <t>Nanjing</t>
+  </si>
+  <si>
+    <t>Hangzhou</t>
+  </si>
+  <si>
+    <t>Guangzhou</t>
+  </si>
+  <si>
+    <t>Guandong</t>
+  </si>
+  <si>
+    <t>Shenzhen</t>
+  </si>
+  <si>
+    <t>Nanchang</t>
+  </si>
+  <si>
+    <t>Hefei</t>
+  </si>
+  <si>
+    <t>Hainan</t>
+  </si>
+  <si>
+    <t>Haikou</t>
+  </si>
+  <si>
+    <t>Sanya</t>
+  </si>
+  <si>
+    <t>Wuhan</t>
+  </si>
+  <si>
+    <t>Guizhou</t>
+  </si>
+  <si>
+    <t>Shaanxi</t>
+  </si>
+  <si>
+    <t>Changsha</t>
+  </si>
+  <si>
+    <t>Shijiazhuang</t>
+  </si>
+  <si>
+    <t>Nanning</t>
+  </si>
+  <si>
+    <t>Guangxi</t>
+  </si>
+  <si>
+    <t>Chongqing</t>
+  </si>
+  <si>
+    <t>Shanxi</t>
+  </si>
+  <si>
+    <t>Liuzhou</t>
+  </si>
+  <si>
+    <t>Guiyang</t>
+  </si>
+  <si>
+    <t>Yuzhong</t>
+  </si>
+  <si>
+    <t>Jiangbei</t>
+  </si>
+  <si>
+    <t>Xi'an</t>
+  </si>
+  <si>
+    <t>Taiyuan</t>
   </si>
 </sst>
 </file>
@@ -2987,8 +3596,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O435"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F79" sqref="F78:F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6766,13 +7375,19 @@
       <c r="E107" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F107" s="3"/>
+      <c r="F107" s="3" t="s">
+        <v>813</v>
+      </c>
       <c r="G107" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H107" s="3"/>
+      <c r="H107" s="3" t="s">
+        <v>812</v>
+      </c>
       <c r="I107" s="5"/>
-      <c r="J107" s="3"/>
+      <c r="J107" s="3">
+        <v>210000</v>
+      </c>
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
       <c r="M107" s="3"/>
@@ -6795,13 +7410,19 @@
       <c r="E108" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F108" s="3"/>
+      <c r="F108" s="3" t="s">
+        <v>816</v>
+      </c>
       <c r="G108" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H108" s="3"/>
+      <c r="H108" s="3" t="s">
+        <v>814</v>
+      </c>
       <c r="I108" s="5"/>
-      <c r="J108" s="3"/>
+      <c r="J108" s="3">
+        <v>300000</v>
+      </c>
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
       <c r="M108" s="3"/>
@@ -6824,13 +7445,19 @@
       <c r="E109" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F109" s="3"/>
+      <c r="F109" s="3" t="s">
+        <v>817</v>
+      </c>
       <c r="G109" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H109" s="3"/>
+      <c r="H109" s="3" t="s">
+        <v>818</v>
+      </c>
       <c r="I109" s="5"/>
-      <c r="J109" s="3"/>
+      <c r="J109" s="3">
+        <v>110000</v>
+      </c>
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
       <c r="M109" s="3"/>
@@ -6853,13 +7480,19 @@
       <c r="E110" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F110" s="3"/>
+      <c r="F110" s="3" t="s">
+        <v>823</v>
+      </c>
       <c r="G110" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H110" s="3"/>
+      <c r="H110" s="3" t="s">
+        <v>824</v>
+      </c>
       <c r="I110" s="5"/>
-      <c r="J110" s="3"/>
+      <c r="J110" s="3">
+        <v>250000</v>
+      </c>
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
       <c r="M110" s="3"/>
@@ -6882,13 +7515,19 @@
       <c r="E111" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F111" s="3"/>
+      <c r="F111" s="3" t="s">
+        <v>825</v>
+      </c>
       <c r="G111" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H111" s="3"/>
+      <c r="H111" s="3" t="s">
+        <v>819</v>
+      </c>
       <c r="I111" s="5"/>
-      <c r="J111" s="3"/>
+      <c r="J111" s="3">
+        <v>470000</v>
+      </c>
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
       <c r="M111" s="3"/>
@@ -6911,13 +7550,19 @@
       <c r="E112" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F112" s="3"/>
+      <c r="F112" s="3" t="s">
+        <v>826</v>
+      </c>
       <c r="G112" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H112" s="3"/>
+      <c r="H112" s="3" t="s">
+        <v>820</v>
+      </c>
       <c r="I112" s="5"/>
-      <c r="J112" s="3"/>
+      <c r="J112" s="3">
+        <v>860000</v>
+      </c>
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
       <c r="M112" s="3"/>
@@ -6940,13 +7585,19 @@
       <c r="E113" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F113" s="3"/>
+      <c r="F113" s="3" t="s">
+        <v>821</v>
+      </c>
       <c r="G113" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H113" s="3"/>
+      <c r="H113" s="3" t="s">
+        <v>827</v>
+      </c>
       <c r="I113" s="5"/>
-      <c r="J113" s="3"/>
+      <c r="J113" s="3">
+        <v>280000</v>
+      </c>
       <c r="K113" s="3"/>
       <c r="L113" s="3"/>
       <c r="M113" s="3"/>
@@ -6969,13 +7620,19 @@
       <c r="E114" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F114" s="3"/>
+      <c r="F114" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="G114" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H114" s="3"/>
+      <c r="H114" s="3" t="s">
+        <v>815</v>
+      </c>
       <c r="I114" s="5"/>
-      <c r="J114" s="3"/>
+      <c r="J114" s="3">
+        <v>130000</v>
+      </c>
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
       <c r="M114" s="3"/>
@@ -6998,13 +7655,19 @@
       <c r="E115" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F115" s="3"/>
+      <c r="F115" s="3" t="s">
+        <v>829</v>
+      </c>
       <c r="G115" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H115" s="3"/>
+      <c r="H115" s="3" t="s">
+        <v>830</v>
+      </c>
       <c r="I115" s="5"/>
-      <c r="J115" s="3"/>
+      <c r="J115" s="3">
+        <v>870000</v>
+      </c>
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
       <c r="M115" s="3"/>
@@ -7027,13 +7690,19 @@
       <c r="E116" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F116" s="3"/>
+      <c r="F116" s="3" t="s">
+        <v>822</v>
+      </c>
       <c r="G116" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H116" s="3"/>
+      <c r="H116" s="3" t="s">
+        <v>834</v>
+      </c>
       <c r="I116" s="5"/>
-      <c r="J116" s="3"/>
+      <c r="J116" s="3">
+        <v>1300000</v>
+      </c>
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
       <c r="M116" s="3"/>
@@ -7130,13 +7799,19 @@
       <c r="E119" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F119" s="3"/>
+      <c r="F119" s="3" t="s">
+        <v>835</v>
+      </c>
       <c r="G119" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H119" s="3"/>
+      <c r="H119" s="3" t="s">
+        <v>831</v>
+      </c>
       <c r="I119" s="5"/>
-      <c r="J119" s="3"/>
+      <c r="J119" s="3">
+        <v>670000</v>
+      </c>
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
       <c r="M119" s="3"/>
@@ -7159,13 +7834,19 @@
       <c r="E120" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F120" s="3"/>
+      <c r="F120" s="3" t="s">
+        <v>840</v>
+      </c>
       <c r="G120" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H120" s="3"/>
+      <c r="H120" s="3" t="s">
+        <v>832</v>
+      </c>
       <c r="I120" s="5"/>
-      <c r="J120" s="3"/>
+      <c r="J120" s="3">
+        <v>1600000</v>
+      </c>
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
       <c r="M120" s="3"/>
@@ -7188,13 +7869,19 @@
       <c r="E121" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F121" s="3"/>
+      <c r="F121" s="3" t="s">
+        <v>833</v>
+      </c>
       <c r="G121" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H121" s="3"/>
+      <c r="H121" s="3" t="s">
+        <v>833</v>
+      </c>
       <c r="I121" s="5"/>
-      <c r="J121" s="3"/>
+      <c r="J121" s="3">
+        <v>800000</v>
+      </c>
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
       <c r="M121" s="3"/>
@@ -7217,13 +7904,19 @@
       <c r="E122" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F122" s="3"/>
+      <c r="F122" s="3" t="s">
+        <v>841</v>
+      </c>
       <c r="G122" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H122" s="3"/>
+      <c r="H122" s="3" t="s">
+        <v>842</v>
+      </c>
       <c r="I122" s="5"/>
-      <c r="J122" s="3"/>
+      <c r="J122" s="3">
+        <v>80000</v>
+      </c>
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
       <c r="M122" s="3"/>
@@ -7281,13 +7974,19 @@
       <c r="E124" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F124" s="3"/>
+      <c r="F124" s="3" t="s">
+        <v>836</v>
+      </c>
       <c r="G124" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H124" s="3"/>
+      <c r="H124" s="3" t="s">
+        <v>836</v>
+      </c>
       <c r="I124" s="5"/>
-      <c r="J124" s="3"/>
+      <c r="J124" s="3">
+        <v>120000</v>
+      </c>
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
       <c r="M124" s="3"/>
@@ -7310,13 +8009,19 @@
       <c r="E125" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F125" s="3"/>
+      <c r="F125" s="3" t="s">
+        <v>843</v>
+      </c>
       <c r="G125" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H125" s="3"/>
+      <c r="H125" s="3" t="s">
+        <v>837</v>
+      </c>
       <c r="I125" s="5"/>
-      <c r="J125" s="3"/>
+      <c r="J125" s="3">
+        <v>240000</v>
+      </c>
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
       <c r="M125" s="3"/>
@@ -7339,13 +8044,19 @@
       <c r="E126" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F126" s="3"/>
+      <c r="F126" s="3" t="s">
+        <v>844</v>
+      </c>
       <c r="G126" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H126" s="3"/>
+      <c r="H126" s="3" t="s">
+        <v>838</v>
+      </c>
       <c r="I126" s="5"/>
-      <c r="J126" s="3"/>
+      <c r="J126" s="3">
+        <v>150000</v>
+      </c>
       <c r="K126" s="3"/>
       <c r="L126" s="3"/>
       <c r="M126" s="3"/>
@@ -7368,13 +8079,19 @@
       <c r="E127" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F127" s="3"/>
+      <c r="F127" s="3" t="s">
+        <v>783</v>
+      </c>
       <c r="G127" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H127" s="3"/>
+      <c r="H127" s="3" t="s">
+        <v>839</v>
+      </c>
       <c r="I127" s="5"/>
-      <c r="J127" s="3"/>
+      <c r="J127" s="3">
+        <v>320000</v>
+      </c>
       <c r="K127" s="3"/>
       <c r="L127" s="3"/>
       <c r="M127" s="3"/>
@@ -7397,13 +8114,19 @@
       <c r="E128" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F128" s="3"/>
+      <c r="F128" s="3" t="s">
+        <v>851</v>
+      </c>
       <c r="G128" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H128" s="3"/>
+      <c r="H128" s="3" t="s">
+        <v>839</v>
+      </c>
       <c r="I128" s="5"/>
-      <c r="J128" s="3"/>
+      <c r="J128" s="3">
+        <v>110000</v>
+      </c>
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
       <c r="M128" s="3"/>
@@ -7426,13 +8149,19 @@
       <c r="E129" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F129" s="3"/>
+      <c r="F129" s="3" t="s">
+        <v>852</v>
+      </c>
       <c r="G129" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H129" s="3"/>
+      <c r="H129" s="3" t="s">
+        <v>845</v>
+      </c>
       <c r="I129" s="5"/>
-      <c r="J129" s="3"/>
+      <c r="J129" s="3">
+        <v>500000</v>
+      </c>
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
       <c r="M129" s="3"/>
@@ -7455,13 +8184,19 @@
       <c r="E130" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F130" s="3"/>
+      <c r="F130" s="3" t="s">
+        <v>853</v>
+      </c>
       <c r="G130" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H130" s="3"/>
+      <c r="H130" s="3" t="s">
+        <v>846</v>
+      </c>
       <c r="I130" s="5"/>
-      <c r="J130" s="3"/>
+      <c r="J130" s="3">
+        <v>1400000</v>
+      </c>
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
       <c r="M130" s="3"/>
@@ -7484,13 +8219,19 @@
       <c r="E131" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F131" s="3"/>
+      <c r="F131" s="3" t="s">
+        <v>857</v>
+      </c>
       <c r="G131" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H131" s="3"/>
+      <c r="H131" s="3" t="s">
+        <v>847</v>
+      </c>
       <c r="I131" s="5"/>
-      <c r="J131" s="3"/>
+      <c r="J131" s="3">
+        <v>550000</v>
+      </c>
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
       <c r="M131" s="3"/>
@@ -7513,13 +8254,19 @@
       <c r="E132" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F132" s="3"/>
+      <c r="F132" s="3" t="s">
+        <v>864</v>
+      </c>
       <c r="G132" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H132" s="3"/>
+      <c r="H132" s="3" t="s">
+        <v>848</v>
+      </c>
       <c r="I132" s="5"/>
-      <c r="J132" s="3"/>
+      <c r="J132" s="3">
+        <v>3600000</v>
+      </c>
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
       <c r="M132" s="3"/>
@@ -7542,13 +8289,19 @@
       <c r="E133" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F133" s="3"/>
+      <c r="F133" s="3" t="s">
+        <v>858</v>
+      </c>
       <c r="G133" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H133" s="3"/>
+      <c r="H133" s="3" t="s">
+        <v>849</v>
+      </c>
       <c r="I133" s="5"/>
-      <c r="J133" s="3"/>
+      <c r="J133" s="3">
+        <v>240000</v>
+      </c>
       <c r="K133" s="3"/>
       <c r="L133" s="3"/>
       <c r="M133" s="3"/>
@@ -7571,13 +8324,19 @@
       <c r="E134" s="14" t="s">
         <v>508</v>
       </c>
-      <c r="F134" s="14"/>
+      <c r="F134" s="14" t="s">
+        <v>865</v>
+      </c>
       <c r="G134" s="14" t="s">
         <v>514</v>
       </c>
-      <c r="H134" s="14"/>
+      <c r="H134" s="14" t="s">
+        <v>850</v>
+      </c>
       <c r="I134" s="15"/>
-      <c r="J134" s="16"/>
+      <c r="J134" s="14">
+        <v>95000</v>
+      </c>
       <c r="K134" s="16"/>
       <c r="L134" s="16"/>
       <c r="M134" s="16"/>
@@ -7600,13 +8359,19 @@
       <c r="E135" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F135" s="3"/>
+      <c r="F135" s="3" t="s">
+        <v>866</v>
+      </c>
       <c r="G135" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H135" s="3"/>
+      <c r="H135" s="3" t="s">
+        <v>867</v>
+      </c>
       <c r="I135" s="5"/>
-      <c r="J135" s="3"/>
+      <c r="J135" s="3">
+        <v>1700000</v>
+      </c>
       <c r="K135" s="3"/>
       <c r="L135" s="3"/>
       <c r="M135" s="3"/>
@@ -7629,13 +8394,19 @@
       <c r="E136" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F136" s="3"/>
+      <c r="F136" s="3" t="s">
+        <v>868</v>
+      </c>
       <c r="G136" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H136" s="3"/>
+      <c r="H136" s="3" t="s">
+        <v>869</v>
+      </c>
       <c r="I136" s="5"/>
-      <c r="J136" s="3"/>
+      <c r="J136" s="3">
+        <v>1300000</v>
+      </c>
       <c r="K136" s="3"/>
       <c r="L136" s="3"/>
       <c r="M136" s="3"/>
@@ -7669,7 +8440,7 @@
       </c>
       <c r="I137" s="5"/>
       <c r="J137" s="3">
-        <v>8900000</v>
+        <v>1800000</v>
       </c>
       <c r="K137" s="3"/>
       <c r="L137" s="3"/>
@@ -7693,13 +8464,19 @@
       <c r="E138" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F138" s="3"/>
+      <c r="F138" s="3" t="s">
+        <v>870</v>
+      </c>
       <c r="G138" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H138" s="3"/>
+      <c r="H138" s="3" t="s">
+        <v>854</v>
+      </c>
       <c r="I138" s="5"/>
-      <c r="J138" s="3"/>
+      <c r="J138" s="3">
+        <v>790000</v>
+      </c>
       <c r="K138" s="3"/>
       <c r="L138" s="3"/>
       <c r="M138" s="3"/>
@@ -7722,13 +8499,19 @@
       <c r="E139" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F139" s="3"/>
+      <c r="F139" s="3" t="s">
+        <v>871</v>
+      </c>
       <c r="G139" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H139" s="3"/>
+      <c r="H139" s="3" t="s">
+        <v>855</v>
+      </c>
       <c r="I139" s="5"/>
-      <c r="J139" s="3"/>
+      <c r="J139" s="3">
+        <v>1700000</v>
+      </c>
       <c r="K139" s="3"/>
       <c r="L139" s="3"/>
       <c r="M139" s="3"/>
@@ -7751,13 +8534,19 @@
       <c r="E140" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F140" s="3"/>
+      <c r="F140" s="3" t="s">
+        <v>872</v>
+      </c>
       <c r="G140" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H140" s="3"/>
+      <c r="H140" s="3" t="s">
+        <v>856</v>
+      </c>
       <c r="I140" s="5"/>
-      <c r="J140" s="3"/>
+      <c r="J140" s="3">
+        <v>270000</v>
+      </c>
       <c r="K140" s="3"/>
       <c r="L140" s="3"/>
       <c r="M140" s="3"/>
@@ -7780,13 +8569,19 @@
       <c r="E141" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F141" s="3"/>
+      <c r="F141" s="3" t="s">
+        <v>874</v>
+      </c>
       <c r="G141" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H141" s="3"/>
+      <c r="H141" s="3" t="s">
+        <v>859</v>
+      </c>
       <c r="I141" s="5"/>
-      <c r="J141" s="3"/>
+      <c r="J141" s="3">
+        <v>550000</v>
+      </c>
       <c r="K141" s="3"/>
       <c r="L141" s="3"/>
       <c r="M141" s="3"/>
@@ -7809,13 +8604,19 @@
       <c r="E142" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F142" s="3"/>
+      <c r="F142" s="3" t="s">
+        <v>875</v>
+      </c>
       <c r="G142" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H142" s="3"/>
+      <c r="H142" s="3" t="s">
+        <v>860</v>
+      </c>
       <c r="I142" s="5"/>
-      <c r="J142" s="3"/>
+      <c r="J142" s="3">
+        <v>1100000</v>
+      </c>
       <c r="K142" s="3"/>
       <c r="L142" s="3"/>
       <c r="M142" s="3"/>
@@ -7873,13 +8674,19 @@
       <c r="E144" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F144" s="3"/>
+      <c r="F144" s="3" t="s">
+        <v>876</v>
+      </c>
       <c r="G144" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H144" s="3"/>
+      <c r="H144" s="3" t="s">
+        <v>861</v>
+      </c>
       <c r="I144" s="5"/>
-      <c r="J144" s="3"/>
+      <c r="J144" s="3">
+        <v>1800000</v>
+      </c>
       <c r="K144" s="3"/>
       <c r="L144" s="3"/>
       <c r="M144" s="3"/>
@@ -7902,13 +8709,19 @@
       <c r="E145" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F145" s="3"/>
+      <c r="F145" s="3" t="s">
+        <v>880</v>
+      </c>
       <c r="G145" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H145" s="3"/>
+      <c r="H145" s="3" t="s">
+        <v>877</v>
+      </c>
       <c r="I145" s="5"/>
-      <c r="J145" s="3"/>
+      <c r="J145" s="3">
+        <v>220000</v>
+      </c>
       <c r="K145" s="3"/>
       <c r="L145" s="3"/>
       <c r="M145" s="3"/>
@@ -7931,13 +8744,19 @@
       <c r="E146" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F146" s="3"/>
+      <c r="F146" s="3" t="s">
+        <v>881</v>
+      </c>
       <c r="G146" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H146" s="3"/>
+      <c r="H146" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="I146" s="5"/>
-      <c r="J146" s="3"/>
+      <c r="J146" s="3">
+        <v>2800000</v>
+      </c>
       <c r="K146" s="3"/>
       <c r="L146" s="3"/>
       <c r="M146" s="3"/>
@@ -7960,13 +8779,19 @@
       <c r="E147" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F147" s="3"/>
+      <c r="F147" s="3" t="s">
+        <v>882</v>
+      </c>
       <c r="G147" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H147" s="3"/>
+      <c r="H147" s="3" t="s">
+        <v>879</v>
+      </c>
       <c r="I147" s="5"/>
-      <c r="J147" s="3"/>
+      <c r="J147" s="3">
+        <v>960000</v>
+      </c>
       <c r="K147" s="3"/>
       <c r="L147" s="3"/>
       <c r="M147" s="3"/>
@@ -7989,13 +8814,19 @@
       <c r="E148" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F148" s="3"/>
+      <c r="F148" s="3" t="s">
+        <v>883</v>
+      </c>
       <c r="G148" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H148" s="3"/>
+      <c r="H148" s="3" t="s">
+        <v>862</v>
+      </c>
       <c r="I148" s="5"/>
-      <c r="J148" s="3"/>
+      <c r="J148" s="3">
+        <v>500000</v>
+      </c>
       <c r="K148" s="3"/>
       <c r="L148" s="3"/>
       <c r="M148" s="3"/>
@@ -8018,13 +8849,19 @@
       <c r="E149" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F149" s="3"/>
+      <c r="F149" s="3" t="s">
+        <v>889</v>
+      </c>
       <c r="G149" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H149" s="3"/>
+      <c r="H149" s="3" t="s">
+        <v>863</v>
+      </c>
       <c r="I149" s="5"/>
-      <c r="J149" s="3"/>
+      <c r="J149" s="3">
+        <v>160000</v>
+      </c>
       <c r="K149" s="3"/>
       <c r="L149" s="3"/>
       <c r="M149" s="3"/>
@@ -8047,13 +8884,19 @@
       <c r="E150" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F150" s="3"/>
+      <c r="F150" s="3" t="s">
+        <v>892</v>
+      </c>
       <c r="G150" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H150" s="3"/>
+      <c r="H150" s="3" t="s">
+        <v>891</v>
+      </c>
       <c r="I150" s="5"/>
-      <c r="J150" s="3"/>
+      <c r="J150" s="3">
+        <v>350000</v>
+      </c>
       <c r="K150" s="3"/>
       <c r="L150" s="3"/>
       <c r="M150" s="3"/>
@@ -8076,13 +8919,19 @@
       <c r="E151" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F151" s="3"/>
+      <c r="F151" s="3" t="s">
+        <v>890</v>
+      </c>
       <c r="G151" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H151" s="3"/>
+      <c r="H151" s="3" t="s">
+        <v>891</v>
+      </c>
       <c r="I151" s="5"/>
-      <c r="J151" s="3"/>
+      <c r="J151" s="3">
+        <v>2000000</v>
+      </c>
       <c r="K151" s="3"/>
       <c r="L151" s="3"/>
       <c r="M151" s="3"/>
@@ -8105,13 +8954,19 @@
       <c r="E152" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F152" s="3"/>
+      <c r="F152" s="3" t="s">
+        <v>893</v>
+      </c>
       <c r="G152" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H152" s="3"/>
+      <c r="H152" s="3" t="s">
+        <v>894</v>
+      </c>
       <c r="I152" s="5"/>
-      <c r="J152" s="3"/>
+      <c r="J152" s="3">
+        <v>580000</v>
+      </c>
       <c r="K152" s="3"/>
       <c r="L152" s="3"/>
       <c r="M152" s="3"/>
@@ -8134,13 +8989,19 @@
       <c r="E153" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F153" s="3"/>
+      <c r="F153" s="3" t="s">
+        <v>895</v>
+      </c>
       <c r="G153" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H153" s="3"/>
+      <c r="H153" s="3" t="s">
+        <v>873</v>
+      </c>
       <c r="I153" s="5"/>
-      <c r="J153" s="3"/>
+      <c r="J153" s="3">
+        <v>790000</v>
+      </c>
       <c r="K153" s="3"/>
       <c r="L153" s="3"/>
       <c r="M153" s="3"/>
@@ -8163,13 +9024,19 @@
       <c r="E154" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F154" s="3"/>
+      <c r="F154" s="3" t="s">
+        <v>896</v>
+      </c>
       <c r="G154" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H154" s="3"/>
+      <c r="H154" s="3" t="s">
+        <v>884</v>
+      </c>
       <c r="I154" s="5"/>
-      <c r="J154" s="3"/>
+      <c r="J154" s="3">
+        <v>340000</v>
+      </c>
       <c r="K154" s="3"/>
       <c r="L154" s="3"/>
       <c r="M154" s="3"/>
@@ -8192,13 +9059,19 @@
       <c r="E155" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F155" s="3"/>
+      <c r="F155" s="3" t="s">
+        <v>899</v>
+      </c>
       <c r="G155" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H155" s="3"/>
+      <c r="H155" s="3" t="s">
+        <v>885</v>
+      </c>
       <c r="I155" s="5"/>
-      <c r="J155" s="3"/>
+      <c r="J155" s="3">
+        <v>93000</v>
+      </c>
       <c r="K155" s="3"/>
       <c r="L155" s="3"/>
       <c r="M155" s="3"/>
@@ -8221,13 +9094,19 @@
       <c r="E156" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F156" s="3"/>
+      <c r="F156" s="3" t="s">
+        <v>900</v>
+      </c>
       <c r="G156" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H156" s="3"/>
+      <c r="H156" s="3" t="s">
+        <v>886</v>
+      </c>
       <c r="I156" s="5"/>
-      <c r="J156" s="3"/>
+      <c r="J156" s="3">
+        <v>970000</v>
+      </c>
       <c r="K156" s="3"/>
       <c r="L156" s="3"/>
       <c r="M156" s="3"/>
@@ -8250,13 +9129,19 @@
       <c r="E157" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F157" s="3"/>
+      <c r="F157" s="3" t="s">
+        <v>901</v>
+      </c>
       <c r="G157" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H157" s="3"/>
+      <c r="H157" s="3" t="s">
+        <v>887</v>
+      </c>
       <c r="I157" s="5"/>
-      <c r="J157" s="3"/>
+      <c r="J157" s="3">
+        <v>570000</v>
+      </c>
       <c r="K157" s="3"/>
       <c r="L157" s="3"/>
       <c r="M157" s="3"/>
@@ -8279,13 +9164,19 @@
       <c r="E158" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F158" s="3"/>
+      <c r="F158" s="3" t="s">
+        <v>902</v>
+      </c>
       <c r="G158" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H158" s="3"/>
+      <c r="H158" s="3" t="s">
+        <v>888</v>
+      </c>
       <c r="I158" s="5"/>
-      <c r="J158" s="3"/>
+      <c r="J158" s="3">
+        <v>70000</v>
+      </c>
       <c r="K158" s="3"/>
       <c r="L158" s="3"/>
       <c r="M158" s="3"/>
@@ -8308,13 +9199,19 @@
       <c r="E159" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F159" s="3"/>
+      <c r="F159" s="3" t="s">
+        <v>905</v>
+      </c>
       <c r="G159" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H159" s="3"/>
+      <c r="H159" s="3" t="s">
+        <v>897</v>
+      </c>
       <c r="I159" s="5"/>
-      <c r="J159" s="3"/>
+      <c r="J159" s="3">
+        <v>61000</v>
+      </c>
       <c r="K159" s="3"/>
       <c r="L159" s="3"/>
       <c r="M159" s="3"/>
@@ -8372,13 +9269,21 @@
       <c r="E161" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F161" s="3"/>
+      <c r="F161" s="3" t="s">
+        <v>907</v>
+      </c>
       <c r="G161" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="H161" s="3"/>
-      <c r="I161" s="5"/>
-      <c r="J161" s="3"/>
+      <c r="H161" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="I161" s="5" t="s">
+        <v>906</v>
+      </c>
+      <c r="J161" s="3">
+        <v>18000</v>
+      </c>
       <c r="K161" s="3"/>
       <c r="L161" s="3"/>
       <c r="M161" s="3"/>
@@ -8401,13 +9306,19 @@
       <c r="E162" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F162" s="3"/>
+      <c r="F162" s="3" t="s">
+        <v>908</v>
+      </c>
       <c r="G162" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="H162" s="3"/>
+      <c r="H162" s="3" t="s">
+        <v>898</v>
+      </c>
       <c r="I162" s="5"/>
-      <c r="J162" s="3"/>
+      <c r="J162" s="3">
+        <v>55000</v>
+      </c>
       <c r="K162" s="3"/>
       <c r="L162" s="3"/>
       <c r="M162" s="3"/>
@@ -8465,13 +9376,19 @@
       <c r="E164" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F164" s="3"/>
+      <c r="F164" s="3" t="s">
+        <v>909</v>
+      </c>
       <c r="G164" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H164" s="3"/>
+      <c r="H164" s="3" t="s">
+        <v>910</v>
+      </c>
       <c r="I164" s="5"/>
-      <c r="J164" s="3"/>
+      <c r="J164" s="3">
+        <v>21000</v>
+      </c>
       <c r="K164" s="3"/>
       <c r="L164" s="3"/>
       <c r="M164" s="3"/>
@@ -8494,13 +9411,19 @@
       <c r="E165" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F165" s="3"/>
+      <c r="F165" s="3" t="s">
+        <v>912</v>
+      </c>
       <c r="G165" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H165" s="3"/>
+      <c r="H165" s="3" t="s">
+        <v>911</v>
+      </c>
       <c r="I165" s="5"/>
-      <c r="J165" s="3"/>
+      <c r="J165" s="3">
+        <v>130000</v>
+      </c>
       <c r="K165" s="3"/>
       <c r="L165" s="3"/>
       <c r="M165" s="3"/>
@@ -8523,13 +9446,19 @@
       <c r="E166" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F166" s="3"/>
+      <c r="F166" s="3" t="s">
+        <v>914</v>
+      </c>
       <c r="G166" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H166" s="3"/>
+      <c r="H166" s="3" t="s">
+        <v>913</v>
+      </c>
       <c r="I166" s="5"/>
-      <c r="J166" s="3"/>
+      <c r="J166" s="3">
+        <v>30000</v>
+      </c>
       <c r="K166" s="3"/>
       <c r="L166" s="3"/>
       <c r="M166" s="3"/>
@@ -8552,13 +9481,19 @@
       <c r="E167" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F167" s="3"/>
+      <c r="F167" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="G167" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H167" s="3"/>
+      <c r="H167" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="I167" s="5"/>
-      <c r="J167" s="3"/>
+      <c r="J167" s="3">
+        <v>690000</v>
+      </c>
       <c r="K167" s="3"/>
       <c r="L167" s="3"/>
       <c r="M167" s="3"/>
@@ -8581,13 +9516,19 @@
       <c r="E168" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F168" s="3"/>
+      <c r="F168" s="3" t="s">
+        <v>916</v>
+      </c>
       <c r="G168" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="H168" s="3"/>
+      <c r="H168" s="3" t="s">
+        <v>903</v>
+      </c>
       <c r="I168" s="5"/>
-      <c r="J168" s="3"/>
+      <c r="J168" s="3">
+        <v>64000</v>
+      </c>
       <c r="K168" s="3"/>
       <c r="L168" s="3"/>
       <c r="M168" s="3"/>
@@ -8610,13 +9551,19 @@
       <c r="E169" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F169" s="3"/>
+      <c r="F169" s="3" t="s">
+        <v>917</v>
+      </c>
       <c r="G169" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="H169" s="3"/>
+      <c r="H169" s="3" t="s">
+        <v>918</v>
+      </c>
       <c r="I169" s="5"/>
-      <c r="J169" s="3"/>
+      <c r="J169" s="3">
+        <v>63000</v>
+      </c>
       <c r="K169" s="3"/>
       <c r="L169" s="3"/>
       <c r="M169" s="3"/>
@@ -8639,13 +9586,19 @@
       <c r="E170" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F170" s="3"/>
+      <c r="F170" s="3" t="s">
+        <v>921</v>
+      </c>
       <c r="G170" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="H170" s="3"/>
+      <c r="H170" s="3" t="s">
+        <v>919</v>
+      </c>
       <c r="I170" s="5"/>
-      <c r="J170" s="3"/>
+      <c r="J170" s="3">
+        <v>200000</v>
+      </c>
       <c r="K170" s="3"/>
       <c r="L170" s="3"/>
       <c r="M170" s="3"/>
@@ -8668,13 +9621,19 @@
       <c r="E171" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F171" s="3"/>
+      <c r="F171" s="3" t="s">
+        <v>922</v>
+      </c>
       <c r="G171" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="H171" s="3"/>
+      <c r="H171" s="3" t="s">
+        <v>904</v>
+      </c>
       <c r="I171" s="5"/>
-      <c r="J171" s="3"/>
+      <c r="J171" s="3">
+        <v>66000</v>
+      </c>
       <c r="K171" s="3"/>
       <c r="L171" s="3"/>
       <c r="M171" s="3"/>
@@ -8697,13 +9656,19 @@
       <c r="E172" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F172" s="3"/>
+      <c r="F172" s="3" t="s">
+        <v>923</v>
+      </c>
       <c r="G172" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="H172" s="3"/>
+      <c r="H172" s="3" t="s">
+        <v>924</v>
+      </c>
       <c r="I172" s="5"/>
-      <c r="J172" s="3"/>
+      <c r="J172" s="3">
+        <v>650000</v>
+      </c>
       <c r="K172" s="3"/>
       <c r="L172" s="3"/>
       <c r="M172" s="3"/>
@@ -8726,13 +9691,19 @@
       <c r="E173" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F173" s="3"/>
+      <c r="F173" s="3" t="s">
+        <v>925</v>
+      </c>
       <c r="G173" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="H173" s="3"/>
+      <c r="H173" s="3" t="s">
+        <v>925</v>
+      </c>
       <c r="I173" s="5"/>
-      <c r="J173" s="3"/>
+      <c r="J173" s="3">
+        <v>1700000</v>
+      </c>
       <c r="K173" s="3"/>
       <c r="L173" s="3"/>
       <c r="M173" s="3"/>
@@ -8755,13 +9726,19 @@
       <c r="E174" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F174" s="3"/>
+      <c r="F174" s="3" t="s">
+        <v>926</v>
+      </c>
       <c r="G174" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H174" s="3"/>
+      <c r="H174" s="3" t="s">
+        <v>926</v>
+      </c>
       <c r="I174" s="5"/>
-      <c r="J174" s="3"/>
+      <c r="J174" s="3">
+        <v>5600000</v>
+      </c>
       <c r="K174" s="3"/>
       <c r="L174" s="3"/>
       <c r="M174" s="3"/>
@@ -8784,13 +9761,19 @@
       <c r="E175" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F175" s="3"/>
+      <c r="F175" s="3" t="s">
+        <v>927</v>
+      </c>
       <c r="G175" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H175" s="3"/>
+      <c r="H175" s="3" t="s">
+        <v>811</v>
+      </c>
       <c r="I175" s="5"/>
-      <c r="J175" s="3"/>
+      <c r="J175" s="3">
+        <v>100000</v>
+      </c>
       <c r="K175" s="3"/>
       <c r="L175" s="3"/>
       <c r="M175" s="3"/>
@@ -8813,13 +9796,19 @@
       <c r="E176" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F176" s="3"/>
+      <c r="F176" s="3" t="s">
+        <v>930</v>
+      </c>
       <c r="G176" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H176" s="3"/>
+      <c r="H176" s="3" t="s">
+        <v>930</v>
+      </c>
       <c r="I176" s="5"/>
-      <c r="J176" s="3"/>
+      <c r="J176" s="3">
+        <v>4300000</v>
+      </c>
       <c r="K176" s="3"/>
       <c r="L176" s="3"/>
       <c r="M176" s="3"/>
@@ -8881,13 +9870,19 @@
       <c r="E178" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F178" s="3"/>
+      <c r="F178" s="3" t="s">
+        <v>931</v>
+      </c>
       <c r="G178" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="H178" s="3"/>
+      <c r="H178" s="3" t="s">
+        <v>525</v>
+      </c>
       <c r="I178" s="5"/>
-      <c r="J178" s="3"/>
+      <c r="J178" s="3">
+        <v>1100000</v>
+      </c>
       <c r="K178" s="3"/>
       <c r="L178" s="3"/>
       <c r="M178" s="3"/>
@@ -9015,13 +10010,19 @@
       <c r="E182" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F182" s="3"/>
+      <c r="F182" s="3" t="s">
+        <v>932</v>
+      </c>
       <c r="G182" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="H182" s="3"/>
+      <c r="H182" s="3" t="s">
+        <v>933</v>
+      </c>
       <c r="I182" s="5"/>
-      <c r="J182" s="3"/>
+      <c r="J182" s="3">
+        <v>1000000</v>
+      </c>
       <c r="K182" s="3"/>
       <c r="L182" s="3"/>
       <c r="M182" s="3"/>
@@ -9044,13 +10045,19 @@
       <c r="E183" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F183" s="3"/>
+      <c r="F183" s="3" t="s">
+        <v>934</v>
+      </c>
       <c r="G183" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="H183" s="3"/>
+      <c r="H183" s="3" t="s">
+        <v>933</v>
+      </c>
       <c r="I183" s="5"/>
-      <c r="J183" s="3"/>
+      <c r="J183" s="3">
+        <v>7900</v>
+      </c>
       <c r="K183" s="3"/>
       <c r="L183" s="3"/>
       <c r="M183" s="3"/>
@@ -9073,15 +10080,21 @@
       <c r="E184" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F184" s="3"/>
+      <c r="F184" s="3" t="s">
+        <v>935</v>
+      </c>
       <c r="G184" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="H184" s="3"/>
+      <c r="H184" s="3" t="s">
+        <v>928</v>
+      </c>
       <c r="I184" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="J184" s="3"/>
+      <c r="J184" s="3">
+        <v>3300000</v>
+      </c>
       <c r="K184" s="17"/>
       <c r="L184" s="17">
         <v>0.05</v>
@@ -9106,13 +10119,19 @@
       <c r="E185" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F185" s="3"/>
+      <c r="F185" s="3" t="s">
+        <v>937</v>
+      </c>
       <c r="G185" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="H185" s="3"/>
+      <c r="H185" s="3" t="s">
+        <v>929</v>
+      </c>
       <c r="I185" s="5"/>
-      <c r="J185" s="3"/>
+      <c r="J185" s="3">
+        <v>580000</v>
+      </c>
       <c r="K185" s="3"/>
       <c r="L185" s="3"/>
       <c r="M185" s="3"/>
@@ -9135,13 +10154,19 @@
       <c r="E186" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F186" s="3"/>
+      <c r="F186" s="3" t="s">
+        <v>938</v>
+      </c>
       <c r="G186" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="H186" s="3"/>
+      <c r="H186" s="3" t="s">
+        <v>938</v>
+      </c>
       <c r="I186" s="5"/>
-      <c r="J186" s="3"/>
+      <c r="J186" s="3">
+        <v>2000000</v>
+      </c>
       <c r="K186" s="3"/>
       <c r="L186" s="3"/>
       <c r="M186" s="3"/>
@@ -9203,13 +10228,19 @@
       <c r="E188" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F188" s="3"/>
+      <c r="F188" s="3" t="s">
+        <v>939</v>
+      </c>
       <c r="G188" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="H188" s="3"/>
+      <c r="H188" s="3" t="s">
+        <v>939</v>
+      </c>
       <c r="I188" s="5"/>
-      <c r="J188" s="3"/>
+      <c r="J188" s="3">
+        <v>780000</v>
+      </c>
       <c r="K188" s="3"/>
       <c r="L188" s="3"/>
       <c r="M188" s="3"/>
@@ -9232,13 +10263,19 @@
       <c r="E189" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F189" s="3"/>
+      <c r="F189" s="3" t="s">
+        <v>940</v>
+      </c>
       <c r="G189" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="H189" s="3"/>
+      <c r="H189" s="3" t="s">
+        <v>940</v>
+      </c>
       <c r="I189" s="5"/>
-      <c r="J189" s="3"/>
+      <c r="J189" s="3">
+        <v>9000000</v>
+      </c>
       <c r="K189" s="3"/>
       <c r="L189" s="3"/>
       <c r="M189" s="3"/>
@@ -9261,13 +10298,19 @@
       <c r="E190" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F190" s="3"/>
+      <c r="F190" s="3" t="s">
+        <v>941</v>
+      </c>
       <c r="G190" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="H190" s="3"/>
+      <c r="H190" s="3" t="s">
+        <v>942</v>
+      </c>
       <c r="I190" s="5"/>
-      <c r="J190" s="3"/>
+      <c r="J190" s="3">
+        <v>1500000</v>
+      </c>
       <c r="K190" s="3"/>
       <c r="L190" s="3"/>
       <c r="M190" s="3"/>
@@ -9290,13 +10333,19 @@
       <c r="E191" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F191" s="3"/>
+      <c r="F191" s="3" t="s">
+        <v>943</v>
+      </c>
       <c r="G191" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="H191" s="3"/>
+      <c r="H191" s="3" t="s">
+        <v>617</v>
+      </c>
       <c r="I191" s="5"/>
-      <c r="J191" s="3"/>
+      <c r="J191" s="3">
+        <v>730000</v>
+      </c>
       <c r="K191" s="3"/>
       <c r="L191" s="3"/>
       <c r="M191" s="3"/>
@@ -9319,13 +10368,19 @@
       <c r="E192" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F192" s="3"/>
+      <c r="F192" s="3" t="s">
+        <v>944</v>
+      </c>
       <c r="G192" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="H192" s="3"/>
+      <c r="H192" s="3" t="s">
+        <v>936</v>
+      </c>
       <c r="I192" s="5"/>
-      <c r="J192" s="3"/>
+      <c r="J192" s="3">
+        <v>400000</v>
+      </c>
       <c r="K192" s="3"/>
       <c r="L192" s="3"/>
       <c r="M192" s="3"/>
@@ -9348,13 +10403,19 @@
       <c r="E193" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F193" s="3"/>
+      <c r="F193" s="3" t="s">
+        <v>945</v>
+      </c>
       <c r="G193" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="H193" s="3"/>
+      <c r="H193" s="3" t="s">
+        <v>946</v>
+      </c>
       <c r="I193" s="5"/>
-      <c r="J193" s="3"/>
+      <c r="J193" s="3">
+        <v>1800000</v>
+      </c>
       <c r="K193" s="3"/>
       <c r="L193" s="3"/>
       <c r="M193" s="3"/>
@@ -9377,13 +10438,19 @@
       <c r="E194" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F194" s="3"/>
+      <c r="F194" s="3" t="s">
+        <v>947</v>
+      </c>
       <c r="G194" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="H194" s="3"/>
+      <c r="H194" s="3" t="s">
+        <v>946</v>
+      </c>
       <c r="I194" s="5"/>
-      <c r="J194" s="3"/>
+      <c r="J194" s="3">
+        <v>2000000</v>
+      </c>
       <c r="K194" s="3"/>
       <c r="L194" s="3"/>
       <c r="M194" s="3"/>
@@ -9406,13 +10473,19 @@
       <c r="E195" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F195" s="3"/>
+      <c r="F195" s="3" t="s">
+        <v>949</v>
+      </c>
       <c r="G195" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="H195" s="3"/>
+      <c r="H195" s="3" t="s">
+        <v>948</v>
+      </c>
       <c r="I195" s="5"/>
-      <c r="J195" s="3"/>
+      <c r="J195" s="3">
+        <v>220000</v>
+      </c>
       <c r="K195" s="3"/>
       <c r="L195" s="3"/>
       <c r="M195" s="3"/>
@@ -9470,13 +10543,19 @@
       <c r="E197" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F197" s="3"/>
+      <c r="F197" s="3" t="s">
+        <v>951</v>
+      </c>
       <c r="G197" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="H197" s="3"/>
+      <c r="H197" s="3" t="s">
+        <v>950</v>
+      </c>
       <c r="I197" s="5"/>
-      <c r="J197" s="3"/>
+      <c r="J197" s="3">
+        <v>150000</v>
+      </c>
       <c r="K197" s="3"/>
       <c r="L197" s="3"/>
       <c r="M197" s="3"/>
@@ -9499,13 +10578,19 @@
       <c r="E198" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F198" s="3"/>
+      <c r="F198" s="3" t="s">
+        <v>952</v>
+      </c>
       <c r="G198" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="H198" s="3"/>
+      <c r="H198" s="3" t="s">
+        <v>953</v>
+      </c>
       <c r="I198" s="5"/>
-      <c r="J198" s="3"/>
+      <c r="J198" s="3">
+        <v>32000</v>
+      </c>
       <c r="K198" s="3"/>
       <c r="L198" s="3"/>
       <c r="M198" s="3"/>
@@ -9528,13 +10613,19 @@
       <c r="E199" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F199" s="3"/>
+      <c r="F199" s="3" t="s">
+        <v>956</v>
+      </c>
       <c r="G199" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="H199" s="3"/>
+      <c r="H199" s="3" t="s">
+        <v>954</v>
+      </c>
       <c r="I199" s="5"/>
-      <c r="J199" s="3"/>
+      <c r="J199" s="3">
+        <v>4300000</v>
+      </c>
       <c r="K199" s="3"/>
       <c r="L199" s="3"/>
       <c r="M199" s="3"/>
@@ -9557,15 +10648,21 @@
       <c r="E200" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F200" s="3"/>
+      <c r="F200" s="3" t="s">
+        <v>955</v>
+      </c>
       <c r="G200" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="H200" s="3"/>
+      <c r="H200" s="3" t="s">
+        <v>955</v>
+      </c>
       <c r="I200" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="J200" s="3"/>
+      <c r="J200" s="3">
+        <v>900000</v>
+      </c>
       <c r="K200" s="3"/>
       <c r="L200" s="17">
         <v>0.4</v>
@@ -9590,13 +10687,19 @@
       <c r="E201" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F201" s="3"/>
+      <c r="F201" s="3" t="s">
+        <v>957</v>
+      </c>
       <c r="G201" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="H201" s="3"/>
+      <c r="H201" s="3" t="s">
+        <v>961</v>
+      </c>
       <c r="I201" s="5"/>
-      <c r="J201" s="3"/>
+      <c r="J201" s="3">
+        <v>1100000</v>
+      </c>
       <c r="K201" s="3"/>
       <c r="L201" s="3"/>
       <c r="M201" s="3"/>
@@ -9619,13 +10722,19 @@
       <c r="E202" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F202" s="3"/>
+      <c r="F202" s="3" t="s">
+        <v>962</v>
+      </c>
       <c r="G202" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="H202" s="3"/>
+      <c r="H202" s="3" t="s">
+        <v>963</v>
+      </c>
       <c r="I202" s="5"/>
-      <c r="J202" s="3"/>
+      <c r="J202" s="3">
+        <v>100000</v>
+      </c>
       <c r="K202" s="3"/>
       <c r="L202" s="3"/>
       <c r="M202" s="3"/>
@@ -9687,13 +10796,19 @@
       <c r="E204" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F204" s="3"/>
+      <c r="F204" s="3" t="s">
+        <v>964</v>
+      </c>
       <c r="G204" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="H204" s="3"/>
+      <c r="H204" s="3" t="s">
+        <v>958</v>
+      </c>
       <c r="I204" s="5"/>
-      <c r="J204" s="3"/>
+      <c r="J204" s="3">
+        <v>780000</v>
+      </c>
       <c r="K204" s="3"/>
       <c r="L204" s="3"/>
       <c r="M204" s="3"/>
@@ -9716,13 +10831,19 @@
       <c r="E205" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F205" s="3"/>
+      <c r="F205" s="3" t="s">
+        <v>959</v>
+      </c>
       <c r="G205" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="H205" s="3"/>
+      <c r="H205" s="3" t="s">
+        <v>959</v>
+      </c>
       <c r="I205" s="5"/>
-      <c r="J205" s="3"/>
+      <c r="J205" s="3">
+        <v>550000</v>
+      </c>
       <c r="K205" s="3"/>
       <c r="L205" s="3"/>
       <c r="M205" s="3"/>
@@ -9745,13 +10866,19 @@
       <c r="E206" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F206" s="3"/>
+      <c r="F206" s="3" t="s">
+        <v>960</v>
+      </c>
       <c r="G206" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="H206" s="3"/>
+      <c r="H206" s="3" t="s">
+        <v>960</v>
+      </c>
       <c r="I206" s="5"/>
-      <c r="J206" s="3"/>
+      <c r="J206" s="3">
+        <v>7600000</v>
+      </c>
       <c r="K206" s="3"/>
       <c r="L206" s="3"/>
       <c r="M206" s="3"/>
@@ -9774,13 +10901,19 @@
       <c r="E207" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F207" s="3"/>
+      <c r="F207" s="3" t="s">
+        <v>965</v>
+      </c>
       <c r="G207" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="H207" s="3"/>
+      <c r="H207" s="3" t="s">
+        <v>965</v>
+      </c>
       <c r="I207" s="5"/>
-      <c r="J207" s="3"/>
+      <c r="J207" s="3">
+        <v>600000</v>
+      </c>
       <c r="K207" s="3"/>
       <c r="L207" s="3"/>
       <c r="M207" s="3"/>
@@ -9803,13 +10936,19 @@
       <c r="E208" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F208" s="3"/>
+      <c r="F208" s="3" t="s">
+        <v>967</v>
+      </c>
       <c r="G208" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="H208" s="3"/>
+      <c r="H208" s="3" t="s">
+        <v>966</v>
+      </c>
       <c r="I208" s="5"/>
-      <c r="J208" s="3"/>
+      <c r="J208" s="3">
+        <v>610000</v>
+      </c>
       <c r="K208" s="3"/>
       <c r="L208" s="3"/>
       <c r="M208" s="3"/>
@@ -9832,13 +10971,19 @@
       <c r="E209" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F209" s="3"/>
+      <c r="F209" s="3" t="s">
+        <v>968</v>
+      </c>
       <c r="G209" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="H209" s="3"/>
+      <c r="H209" s="3" t="s">
+        <v>969</v>
+      </c>
       <c r="I209" s="5"/>
-      <c r="J209" s="3"/>
+      <c r="J209" s="3">
+        <v>1000000</v>
+      </c>
       <c r="K209" s="3"/>
       <c r="L209" s="3"/>
       <c r="M209" s="3"/>
@@ -9861,13 +11006,19 @@
       <c r="E210" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F210" s="3"/>
+      <c r="F210" s="3" t="s">
+        <v>970</v>
+      </c>
       <c r="G210" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="H210" s="3"/>
+      <c r="H210" s="3" t="s">
+        <v>969</v>
+      </c>
       <c r="I210" s="5"/>
-      <c r="J210" s="3"/>
+      <c r="J210" s="3">
+        <v>1500</v>
+      </c>
       <c r="K210" s="3"/>
       <c r="L210" s="3"/>
       <c r="M210" s="3"/>
@@ -9890,13 +11041,19 @@
       <c r="E211" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F211" s="3"/>
+      <c r="F211" s="3" t="s">
+        <v>971</v>
+      </c>
       <c r="G211" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="H211" s="3"/>
+      <c r="H211" s="3" t="s">
+        <v>969</v>
+      </c>
       <c r="I211" s="5"/>
-      <c r="J211" s="3"/>
+      <c r="J211" s="3">
+        <v>76000</v>
+      </c>
       <c r="K211" s="3"/>
       <c r="L211" s="3"/>
       <c r="M211" s="3"/>
@@ -9919,13 +11076,19 @@
       <c r="E212" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F212" s="3"/>
+      <c r="F212" s="3" t="s">
+        <v>975</v>
+      </c>
       <c r="G212" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="H212" s="3"/>
+      <c r="H212" s="3" t="s">
+        <v>973</v>
+      </c>
       <c r="I212" s="5"/>
-      <c r="J212" s="3"/>
+      <c r="J212" s="3">
+        <v>120000</v>
+      </c>
       <c r="K212" s="3"/>
       <c r="L212" s="3"/>
       <c r="M212" s="3"/>
@@ -9948,13 +11111,19 @@
       <c r="E213" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F213" s="3"/>
+      <c r="F213" s="3" t="s">
+        <v>972</v>
+      </c>
       <c r="G213" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="H213" s="3"/>
+      <c r="H213" s="3" t="s">
+        <v>973</v>
+      </c>
       <c r="I213" s="5"/>
-      <c r="J213" s="3"/>
+      <c r="J213" s="3">
+        <v>24000</v>
+      </c>
       <c r="K213" s="3"/>
       <c r="L213" s="3"/>
       <c r="M213" s="3"/>
@@ -9977,13 +11146,19 @@
       <c r="E214" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F214" s="3"/>
+      <c r="F214" s="3" t="s">
+        <v>976</v>
+      </c>
       <c r="G214" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="H214" s="3"/>
+      <c r="H214" s="3" t="s">
+        <v>973</v>
+      </c>
       <c r="I214" s="5"/>
-      <c r="J214" s="3"/>
+      <c r="J214" s="3">
+        <v>340000</v>
+      </c>
       <c r="K214" s="3"/>
       <c r="L214" s="3"/>
       <c r="M214" s="3"/>
@@ -10006,13 +11181,19 @@
       <c r="E215" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F215" s="3"/>
+      <c r="F215" s="3" t="s">
+        <v>977</v>
+      </c>
       <c r="G215" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="H215" s="3"/>
+      <c r="H215" s="3" t="s">
+        <v>974</v>
+      </c>
       <c r="I215" s="5"/>
-      <c r="J215" s="3"/>
+      <c r="J215" s="3">
+        <v>2500000</v>
+      </c>
       <c r="K215" s="3"/>
       <c r="L215" s="3"/>
       <c r="M215" s="3"/>
@@ -10035,13 +11216,19 @@
       <c r="E216" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F216" s="3"/>
+      <c r="F216" s="3" t="s">
+        <v>978</v>
+      </c>
       <c r="G216" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="H216" s="3"/>
+      <c r="H216" s="3" t="s">
+        <v>974</v>
+      </c>
       <c r="I216" s="5"/>
-      <c r="J216" s="3"/>
+      <c r="J216" s="3">
+        <v>860000</v>
+      </c>
       <c r="K216" s="3"/>
       <c r="L216" s="3"/>
       <c r="M216" s="3"/>
@@ -13568,13 +14755,19 @@
       <c r="E333" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F333" s="3"/>
+      <c r="F333" s="3" t="s">
+        <v>979</v>
+      </c>
       <c r="G333" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H333" s="3"/>
+      <c r="H333" s="3" t="s">
+        <v>980</v>
+      </c>
       <c r="I333" s="5"/>
-      <c r="J333" s="3"/>
+      <c r="J333" s="3">
+        <v>8200000</v>
+      </c>
       <c r="K333" s="3"/>
       <c r="L333" s="3"/>
       <c r="M333" s="3"/>
@@ -13665,15 +14858,21 @@
       <c r="E336" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F336" s="3"/>
+      <c r="F336" s="3" t="s">
+        <v>989</v>
+      </c>
       <c r="G336" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H336" s="3"/>
+      <c r="H336" s="3" t="s">
+        <v>981</v>
+      </c>
       <c r="I336" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="J336" s="3"/>
+      <c r="J336" s="3">
+        <v>8700000</v>
+      </c>
       <c r="K336" s="3"/>
       <c r="L336" s="17">
         <v>0.2</v>
@@ -13698,13 +14897,19 @@
       <c r="E337" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F337" s="3"/>
+      <c r="F337" s="3" t="s">
+        <v>990</v>
+      </c>
       <c r="G337" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H337" s="3"/>
+      <c r="H337" s="3" t="s">
+        <v>982</v>
+      </c>
       <c r="I337" s="5"/>
-      <c r="J337" s="3"/>
+      <c r="J337" s="3">
+        <v>8500000</v>
+      </c>
       <c r="K337" s="3"/>
       <c r="L337" s="3"/>
       <c r="M337" s="3"/>
@@ -13727,13 +14932,19 @@
       <c r="E338" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F338" s="3"/>
+      <c r="F338" s="3" t="s">
+        <v>991</v>
+      </c>
       <c r="G338" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H338" s="3"/>
+      <c r="H338" s="3" t="s">
+        <v>983</v>
+      </c>
       <c r="I338" s="5"/>
-      <c r="J338" s="3"/>
+      <c r="J338" s="3">
+        <v>10300000</v>
+      </c>
       <c r="K338" s="3"/>
       <c r="L338" s="3"/>
       <c r="M338" s="3"/>
@@ -13791,13 +15002,19 @@
       <c r="E340" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F340" s="3"/>
+      <c r="F340" s="3" t="s">
+        <v>992</v>
+      </c>
       <c r="G340" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H340" s="3"/>
+      <c r="H340" s="3" t="s">
+        <v>993</v>
+      </c>
       <c r="I340" s="5"/>
-      <c r="J340" s="3"/>
+      <c r="J340" s="3">
+        <v>15000000</v>
+      </c>
       <c r="K340" s="3"/>
       <c r="L340" s="3"/>
       <c r="M340" s="3"/>
@@ -13820,13 +15037,19 @@
       <c r="E341" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F341" s="3"/>
+      <c r="F341" s="3" t="s">
+        <v>994</v>
+      </c>
       <c r="G341" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H341" s="3"/>
+      <c r="H341" s="3" t="s">
+        <v>993</v>
+      </c>
       <c r="I341" s="5"/>
-      <c r="J341" s="3"/>
+      <c r="J341" s="3">
+        <v>12000000</v>
+      </c>
       <c r="K341" s="3"/>
       <c r="L341" s="3"/>
       <c r="M341" s="3"/>
@@ -13849,15 +15072,21 @@
       <c r="E342" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F342" s="3"/>
+      <c r="F342" s="3" t="s">
+        <v>995</v>
+      </c>
       <c r="G342" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H342" s="3"/>
+      <c r="H342" s="3" t="s">
+        <v>984</v>
+      </c>
       <c r="I342" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="J342" s="3"/>
+      <c r="J342" s="3">
+        <v>5000000</v>
+      </c>
       <c r="K342" s="3"/>
       <c r="L342" s="17">
         <v>0.1</v>
@@ -13882,15 +15111,21 @@
       <c r="E343" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F343" s="3"/>
+      <c r="F343" s="3" t="s">
+        <v>996</v>
+      </c>
       <c r="G343" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H343" s="3"/>
+      <c r="H343" s="3" t="s">
+        <v>985</v>
+      </c>
       <c r="I343" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="J343" s="3"/>
+      <c r="J343" s="3">
+        <v>7900000</v>
+      </c>
       <c r="K343" s="3"/>
       <c r="L343" s="17">
         <v>0.1</v>
@@ -13915,13 +15150,19 @@
       <c r="E344" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F344" s="3"/>
+      <c r="F344" s="3" t="s">
+        <v>998</v>
+      </c>
       <c r="G344" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H344" s="3"/>
+      <c r="H344" s="3" t="s">
+        <v>997</v>
+      </c>
       <c r="I344" s="5"/>
-      <c r="J344" s="3"/>
+      <c r="J344" s="3">
+        <v>2000000</v>
+      </c>
       <c r="K344" s="3"/>
       <c r="L344" s="3"/>
       <c r="M344" s="3"/>
@@ -13944,13 +15185,19 @@
       <c r="E345" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F345" s="3"/>
+      <c r="F345" s="3" t="s">
+        <v>999</v>
+      </c>
       <c r="G345" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H345" s="3"/>
+      <c r="H345" s="3" t="s">
+        <v>997</v>
+      </c>
       <c r="I345" s="5"/>
-      <c r="J345" s="3"/>
+      <c r="J345" s="3">
+        <v>680000</v>
+      </c>
       <c r="K345" s="3"/>
       <c r="L345" s="3"/>
       <c r="M345" s="3"/>
@@ -13973,15 +15220,21 @@
       <c r="E346" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F346" s="3"/>
+      <c r="F346" s="3" t="s">
+        <v>1000</v>
+      </c>
       <c r="G346" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H346" s="3"/>
+      <c r="H346" s="3" t="s">
+        <v>986</v>
+      </c>
       <c r="I346" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="J346" s="3"/>
+      <c r="J346" s="3">
+        <v>11000000</v>
+      </c>
       <c r="K346" s="3"/>
       <c r="L346" s="17">
         <v>0.1</v>
@@ -14006,13 +15259,19 @@
       <c r="E347" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F347" s="3"/>
+      <c r="F347" s="3" t="s">
+        <v>1003</v>
+      </c>
       <c r="G347" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H347" s="3"/>
+      <c r="H347" s="3" t="s">
+        <v>987</v>
+      </c>
       <c r="I347" s="5"/>
-      <c r="J347" s="3"/>
+      <c r="J347" s="3">
+        <v>8100000</v>
+      </c>
       <c r="K347" s="3"/>
       <c r="L347" s="3"/>
       <c r="M347" s="3"/>
@@ -14035,13 +15294,19 @@
       <c r="E348" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F348" s="3"/>
+      <c r="F348" s="3" t="s">
+        <v>1004</v>
+      </c>
       <c r="G348" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H348" s="3"/>
+      <c r="H348" s="3" t="s">
+        <v>988</v>
+      </c>
       <c r="I348" s="5"/>
-      <c r="J348" s="3"/>
+      <c r="J348" s="3">
+        <v>11000000</v>
+      </c>
       <c r="K348" s="3"/>
       <c r="L348" s="3"/>
       <c r="M348" s="3"/>
@@ -14064,13 +15329,19 @@
       <c r="E349" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F349" s="3"/>
+      <c r="F349" s="3" t="s">
+        <v>1005</v>
+      </c>
       <c r="G349" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H349" s="3"/>
+      <c r="H349" s="3" t="s">
+        <v>1006</v>
+      </c>
       <c r="I349" s="5"/>
-      <c r="J349" s="3"/>
+      <c r="J349" s="3">
+        <v>7200000</v>
+      </c>
       <c r="K349" s="3"/>
       <c r="L349" s="3"/>
       <c r="M349" s="3"/>
@@ -14093,13 +15364,19 @@
       <c r="E350" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F350" s="3"/>
+      <c r="F350" s="3" t="s">
+        <v>1009</v>
+      </c>
       <c r="G350" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H350" s="3"/>
+      <c r="H350" s="3" t="s">
+        <v>1006</v>
+      </c>
       <c r="I350" s="5"/>
-      <c r="J350" s="3"/>
+      <c r="J350" s="3">
+        <v>3700000</v>
+      </c>
       <c r="K350" s="3"/>
       <c r="L350" s="3"/>
       <c r="M350" s="3"/>
@@ -14157,13 +15434,19 @@
       <c r="E352" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F352" s="3"/>
+      <c r="F352" s="3" t="s">
+        <v>1010</v>
+      </c>
       <c r="G352" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H352" s="3"/>
+      <c r="H352" s="3" t="s">
+        <v>1001</v>
+      </c>
       <c r="I352" s="5"/>
-      <c r="J352" s="3"/>
+      <c r="J352" s="3">
+        <v>4600000</v>
+      </c>
       <c r="K352" s="3"/>
       <c r="L352" s="3"/>
       <c r="M352" s="3"/>
@@ -14186,13 +15469,19 @@
       <c r="E353" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F353" s="3"/>
+      <c r="F353" s="3" t="s">
+        <v>1011</v>
+      </c>
       <c r="G353" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H353" s="3"/>
+      <c r="H353" s="3" t="s">
+        <v>1007</v>
+      </c>
       <c r="I353" s="5"/>
-      <c r="J353" s="3"/>
+      <c r="J353" s="3">
+        <v>630000</v>
+      </c>
       <c r="K353" s="3"/>
       <c r="L353" s="3"/>
       <c r="M353" s="3"/>
@@ -14215,13 +15504,19 @@
       <c r="E354" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F354" s="3"/>
+      <c r="F354" s="3" t="s">
+        <v>1012</v>
+      </c>
       <c r="G354" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H354" s="3"/>
+      <c r="H354" s="3" t="s">
+        <v>1007</v>
+      </c>
       <c r="I354" s="5"/>
-      <c r="J354" s="3"/>
+      <c r="J354" s="3">
+        <v>230000</v>
+      </c>
       <c r="K354" s="3"/>
       <c r="L354" s="3"/>
       <c r="M354" s="3"/>
@@ -14244,13 +15539,19 @@
       <c r="E355" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F355" s="3"/>
+      <c r="F355" s="3" t="s">
+        <v>1013</v>
+      </c>
       <c r="G355" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H355" s="3"/>
+      <c r="H355" s="3" t="s">
+        <v>1002</v>
+      </c>
       <c r="I355" s="5"/>
-      <c r="J355" s="3"/>
+      <c r="J355" s="3">
+        <v>12000000</v>
+      </c>
       <c r="K355" s="3"/>
       <c r="L355" s="3"/>
       <c r="M355" s="3"/>
@@ -14273,13 +15574,19 @@
       <c r="E356" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F356" s="3"/>
+      <c r="F356" s="3" t="s">
+        <v>1014</v>
+      </c>
       <c r="G356" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H356" s="3"/>
+      <c r="H356" s="3" t="s">
+        <v>1008</v>
+      </c>
       <c r="I356" s="5"/>
-      <c r="J356" s="3"/>
+      <c r="J356" s="3">
+        <v>4200000</v>
+      </c>
       <c r="K356" s="3"/>
       <c r="L356" s="3"/>
       <c r="M356" s="3"/>

--- a/MapFiles/ProvinceInfoExcel.xlsx
+++ b/MapFiles/ProvinceInfoExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\redss\Desktop\APPDEV\Tauresium\MapFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC22D86D-D1C3-4A64-8738-6B0E189E0961}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0ECE554-7B13-466A-9276-D61686F7C18A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1BFF37CF-5075-4621-9872-3602807B8ECF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2082" uniqueCount="1015">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2141" uniqueCount="1073">
   <si>
     <t>Alaska_BristolBay</t>
   </si>
@@ -1672,9 +1672,6 @@
     <t>(Holy site - Sikh temple of god)</t>
   </si>
   <si>
-    <t>Chandigarh</t>
-  </si>
-  <si>
     <t>(Christ the redeemer)</t>
   </si>
   <si>
@@ -1954,9 +1951,6 @@
     <t>North island</t>
   </si>
   <si>
-    <t>(True capital of new zealand)</t>
-  </si>
-  <si>
     <t>Anchorage</t>
   </si>
   <si>
@@ -3080,6 +3074,186 @@
   </si>
   <si>
     <t>Taiyuan</t>
+  </si>
+  <si>
+    <t>[True capital of new zealand]</t>
+  </si>
+  <si>
+    <t>Sapporo</t>
+  </si>
+  <si>
+    <t>Hokkaido</t>
+  </si>
+  <si>
+    <t>Tohoku</t>
+  </si>
+  <si>
+    <t>Chubu</t>
+  </si>
+  <si>
+    <t>Kyushu</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Odisha</t>
+  </si>
+  <si>
+    <t>Tokyo</t>
+  </si>
+  <si>
+    <t>Kanto</t>
+  </si>
+  <si>
+    <t>Fukushima</t>
+  </si>
+  <si>
+    <t>Nagoya</t>
+  </si>
+  <si>
+    <t>Dazaifu</t>
+  </si>
+  <si>
+    <t>Dhaka</t>
+  </si>
+  <si>
+    <t>Kathmandu</t>
+  </si>
+  <si>
+    <t>Bhubaneswar</t>
+  </si>
+  <si>
+    <t>Amaravati</t>
+  </si>
+  <si>
+    <t>Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>Tamil Nadu</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>Kerala</t>
+  </si>
+  <si>
+    <t>Thiruvananthapuram</t>
+  </si>
+  <si>
+    <t>Telangana</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>Chhattisgarh</t>
+  </si>
+  <si>
+    <t>Gujarat</t>
+  </si>
+  <si>
+    <t>New Delhi</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Bhopal</t>
+  </si>
+  <si>
+    <t>Madhya Pradesh</t>
+  </si>
+  <si>
+    <t>Uttar Pradesh</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Naya Raipur</t>
+  </si>
+  <si>
+    <t>Lucknow</t>
+  </si>
+  <si>
+    <t>Gandhinagar</t>
+  </si>
+  <si>
+    <t>Makran</t>
+  </si>
+  <si>
+    <t>Sindh</t>
+  </si>
+  <si>
+    <t>Quetta</t>
+  </si>
+  <si>
+    <t>Chabahar</t>
+  </si>
+  <si>
+    <t>Islamabad</t>
+  </si>
+  <si>
+    <t>Karachi</t>
+  </si>
+  <si>
+    <t>Kotte</t>
+  </si>
+  <si>
+    <t>Tunis</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>(Carthage site)</t>
+  </si>
+  <si>
+    <t>Rabat</t>
+  </si>
+  <si>
+    <t>Kampala</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Luanda</t>
+  </si>
+  <si>
+    <t>Gaborone</t>
+  </si>
+  <si>
+    <t>Accra</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Dakar</t>
   </si>
 </sst>
 </file>
@@ -3596,8 +3770,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O435"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F79" sqref="F78:F79"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3646,7 +3820,7 @@
         <v>505</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>517</v>
@@ -3681,13 +3855,13 @@
         <v>508</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>510</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="3">
@@ -3716,13 +3890,13 @@
         <v>508</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>510</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="3">
@@ -3751,13 +3925,13 @@
         <v>509</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>510</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="3">
@@ -3786,13 +3960,13 @@
         <v>508</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="3">
@@ -3821,13 +3995,13 @@
         <v>508</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>510</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="3">
@@ -3856,13 +4030,13 @@
         <v>509</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="3">
@@ -3891,13 +4065,13 @@
         <v>509</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="3">
@@ -3926,13 +4100,13 @@
         <v>508</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>510</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="3">
@@ -3961,13 +4135,13 @@
         <v>509</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>510</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="3">
@@ -3996,13 +4170,13 @@
         <v>508</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>510</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="3">
@@ -4031,13 +4205,13 @@
         <v>508</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>510</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="3">
@@ -4066,13 +4240,13 @@
         <v>508</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="3">
@@ -4101,13 +4275,13 @@
         <v>509</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="3">
@@ -4136,13 +4310,13 @@
         <v>509</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="3">
@@ -4171,13 +4345,13 @@
         <v>509</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="3">
@@ -4206,13 +4380,13 @@
         <v>509</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="3">
@@ -4241,13 +4415,13 @@
         <v>509</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="3">
@@ -4276,13 +4450,13 @@
         <v>508</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="3">
@@ -4311,13 +4485,13 @@
         <v>509</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="3">
@@ -4346,13 +4520,13 @@
         <v>509</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="3">
@@ -4381,13 +4555,13 @@
         <v>509</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="3">
@@ -4416,13 +4590,13 @@
         <v>508</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>510</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="3">
@@ -4451,13 +4625,13 @@
         <v>508</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>510</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="3">
@@ -4486,13 +4660,13 @@
         <v>508</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="3">
@@ -4521,13 +4695,13 @@
         <v>508</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="3">
@@ -4556,13 +4730,13 @@
         <v>508</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="3">
@@ -4591,13 +4765,13 @@
         <v>508</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="3">
@@ -4626,13 +4800,13 @@
         <v>509</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="3">
@@ -4661,13 +4835,13 @@
         <v>509</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="3">
@@ -4696,16 +4870,16 @@
         <v>509</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J31" s="3">
         <v>3000000</v>
@@ -4735,13 +4909,13 @@
         <v>509</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="3">
@@ -4770,13 +4944,13 @@
         <v>508</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="3">
@@ -4805,13 +4979,13 @@
         <v>509</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="3">
@@ -4840,13 +5014,13 @@
         <v>509</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="3">
@@ -4875,13 +5049,13 @@
         <v>509</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="3">
@@ -4910,13 +5084,13 @@
         <v>509</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="3">
@@ -4945,13 +5119,13 @@
         <v>509</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="3">
@@ -4980,13 +5154,13 @@
         <v>509</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="I39" s="5"/>
       <c r="J39" s="3">
@@ -5015,13 +5189,13 @@
         <v>509</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="I40" s="5"/>
       <c r="J40" s="3">
@@ -5050,13 +5224,13 @@
         <v>509</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="3">
@@ -5085,13 +5259,13 @@
         <v>508</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="I42" s="5"/>
       <c r="J42" s="3">
@@ -5120,16 +5294,16 @@
         <v>508</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="J43" s="3">
         <v>700000</v>
@@ -5159,13 +5333,13 @@
         <v>508</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="I44" s="5"/>
       <c r="J44" s="3">
@@ -5194,13 +5368,13 @@
         <v>509</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="I45" s="5"/>
       <c r="J45" s="3">
@@ -5229,7 +5403,7 @@
         <v>509</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>514</v>
@@ -5264,13 +5438,13 @@
         <v>508</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="I47" s="5"/>
       <c r="J47" s="3">
@@ -5299,13 +5473,13 @@
         <v>508</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="3">
@@ -5334,13 +5508,13 @@
         <v>508</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="I49" s="5"/>
       <c r="J49" s="3">
@@ -5369,13 +5543,13 @@
         <v>509</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="I50" s="5"/>
       <c r="J50" s="3">
@@ -5404,13 +5578,13 @@
         <v>508</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="I51" s="5"/>
       <c r="J51" s="3">
@@ -5439,13 +5613,13 @@
         <v>508</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="I52" s="5"/>
       <c r="J52" s="3">
@@ -5474,13 +5648,13 @@
         <v>509</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="I53" s="5"/>
       <c r="J53" s="3">
@@ -5509,13 +5683,13 @@
         <v>508</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="I54" s="5"/>
       <c r="J54" s="3">
@@ -5544,13 +5718,13 @@
         <v>508</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I55" s="5" t="s">
         <v>538</v>
@@ -5583,13 +5757,13 @@
         <v>508</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I56" s="5"/>
       <c r="J56" s="3">
@@ -5618,13 +5792,13 @@
         <v>508</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="I57" s="5"/>
       <c r="J57" s="3">
@@ -5653,13 +5827,13 @@
         <v>508</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="I58" s="5"/>
       <c r="J58" s="3">
@@ -5688,13 +5862,13 @@
         <v>508</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="I59" s="5"/>
       <c r="J59" s="3">
@@ -5723,13 +5897,13 @@
         <v>508</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I60" s="5"/>
       <c r="J60" s="3">
@@ -5758,13 +5932,13 @@
         <v>509</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="I61" s="5"/>
       <c r="J61" s="3">
@@ -5793,13 +5967,13 @@
         <v>508</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="I62" s="5"/>
       <c r="J62" s="3">
@@ -5828,13 +6002,13 @@
         <v>508</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="I63" s="5"/>
       <c r="J63" s="3">
@@ -5863,13 +6037,13 @@
         <v>509</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="I64" s="5"/>
       <c r="J64" s="3">
@@ -5898,13 +6072,13 @@
         <v>508</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="I65" s="5"/>
       <c r="J65" s="3">
@@ -5933,13 +6107,13 @@
         <v>508</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="I66" s="5"/>
       <c r="J66" s="3">
@@ -5968,13 +6142,13 @@
         <v>509</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="I67" s="5"/>
       <c r="J67" s="3">
@@ -6003,13 +6177,13 @@
         <v>508</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="I68" s="5"/>
       <c r="J68" s="3">
@@ -6038,13 +6212,13 @@
         <v>509</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="I69" s="5"/>
       <c r="J69" s="3">
@@ -6073,13 +6247,13 @@
         <v>508</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="I70" s="5"/>
       <c r="J70" s="3">
@@ -6108,13 +6282,13 @@
         <v>509</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="I71" s="5" t="s">
         <v>537</v>
@@ -6147,13 +6321,13 @@
         <v>509</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I72" s="5"/>
       <c r="J72" s="3">
@@ -6182,13 +6356,13 @@
         <v>509</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="I73" s="5"/>
       <c r="J73" s="3">
@@ -6217,13 +6391,13 @@
         <v>508</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="G74" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="I74" s="5"/>
       <c r="J74" s="3">
@@ -6252,13 +6426,13 @@
         <v>509</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="I75" s="5"/>
       <c r="J75" s="3">
@@ -6287,13 +6461,13 @@
         <v>509</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I76" s="5"/>
       <c r="J76" s="3">
@@ -6322,13 +6496,13 @@
         <v>508</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="I77" s="5"/>
       <c r="J77" s="3">
@@ -6357,13 +6531,13 @@
         <v>509</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="I78" s="5"/>
       <c r="J78" s="3">
@@ -6392,16 +6566,16 @@
         <v>508</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="G79" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J79" s="3">
         <v>6700000</v>
@@ -6431,13 +6605,13 @@
         <v>509</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="G80" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="I80" s="5"/>
       <c r="J80" s="3">
@@ -6466,13 +6640,13 @@
         <v>509</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="I81" s="5"/>
       <c r="J81" s="3">
@@ -6501,13 +6675,13 @@
         <v>508</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="I82" s="5"/>
       <c r="J82" s="3">
@@ -6536,13 +6710,13 @@
         <v>508</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="I83" s="5"/>
       <c r="J83" s="3">
@@ -6571,13 +6745,13 @@
         <v>508</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="I84" s="5"/>
       <c r="J84" s="3">
@@ -6606,13 +6780,13 @@
         <v>509</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="I85" s="5"/>
       <c r="J85" s="3">
@@ -6641,13 +6815,13 @@
         <v>509</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="I86" s="5"/>
       <c r="J86" s="3">
@@ -6676,13 +6850,13 @@
         <v>508</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="I87" s="5"/>
       <c r="J87" s="3">
@@ -6711,13 +6885,13 @@
         <v>509</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="I88" s="5"/>
       <c r="J88" s="3">
@@ -6746,13 +6920,13 @@
         <v>508</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="I89" s="5"/>
       <c r="J89" s="3">
@@ -6781,13 +6955,13 @@
         <v>508</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="G90" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="I90" s="5"/>
       <c r="J90" s="3">
@@ -6816,13 +6990,13 @@
         <v>509</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="I91" s="5"/>
       <c r="J91" s="3">
@@ -6851,13 +7025,13 @@
         <v>508</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="G92" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="I92" s="5"/>
       <c r="J92" s="3">
@@ -6886,13 +7060,13 @@
         <v>508</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>510</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="I93" s="5"/>
       <c r="J93" s="3">
@@ -6921,13 +7095,13 @@
         <v>508</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>510</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="I94" s="5"/>
       <c r="J94" s="3">
@@ -6956,13 +7130,13 @@
         <v>509</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="G95" s="3" t="s">
         <v>510</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="I95" s="5"/>
       <c r="J95" s="3">
@@ -6991,13 +7165,13 @@
         <v>508</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="G96" s="3" t="s">
         <v>510</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="I96" s="5"/>
       <c r="J96" s="3">
@@ -7026,13 +7200,13 @@
         <v>508</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="G97" s="3" t="s">
         <v>510</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="I97" s="5"/>
       <c r="J97" s="3">
@@ -7061,13 +7235,13 @@
         <v>508</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>510</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="I98" s="5"/>
       <c r="J98" s="3">
@@ -7096,13 +7270,13 @@
         <v>508</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="G99" s="3" t="s">
         <v>510</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="I99" s="5"/>
       <c r="J99" s="3">
@@ -7131,13 +7305,13 @@
         <v>508</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>510</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I100" s="5"/>
       <c r="J100" s="3">
@@ -7166,13 +7340,13 @@
         <v>508</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="I101" s="5"/>
       <c r="J101" s="3">
@@ -7201,13 +7375,13 @@
         <v>508</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="I102" s="5"/>
       <c r="J102" s="3">
@@ -7236,13 +7410,13 @@
         <v>508</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="G103" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="I103" s="5"/>
       <c r="J103" s="3">
@@ -7271,13 +7445,13 @@
         <v>508</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="G104" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="I104" s="5"/>
       <c r="J104" s="3">
@@ -7306,13 +7480,13 @@
         <v>508</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G105" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="I105" s="5"/>
       <c r="J105" s="3">
@@ -7341,13 +7515,13 @@
         <v>508</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G106" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="I106" s="5"/>
       <c r="J106" s="3">
@@ -7376,13 +7550,13 @@
         <v>508</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="G107" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="I107" s="5"/>
       <c r="J107" s="3">
@@ -7411,13 +7585,13 @@
         <v>509</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="G108" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="I108" s="5"/>
       <c r="J108" s="3">
@@ -7446,13 +7620,13 @@
         <v>508</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="G109" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="I109" s="5"/>
       <c r="J109" s="3">
@@ -7481,13 +7655,13 @@
         <v>508</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="G110" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I110" s="5"/>
       <c r="J110" s="3">
@@ -7516,13 +7690,13 @@
         <v>509</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="G111" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="I111" s="5"/>
       <c r="J111" s="3">
@@ -7551,13 +7725,13 @@
         <v>508</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="G112" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="I112" s="5"/>
       <c r="J112" s="3">
@@ -7586,13 +7760,13 @@
         <v>509</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="G113" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="I113" s="5"/>
       <c r="J113" s="3">
@@ -7621,13 +7795,13 @@
         <v>509</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="G114" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="I114" s="5"/>
       <c r="J114" s="3">
@@ -7656,13 +7830,13 @@
         <v>508</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="G115" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="I115" s="5"/>
       <c r="J115" s="3">
@@ -7691,13 +7865,13 @@
         <v>509</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="G116" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="I116" s="5"/>
       <c r="J116" s="3">
@@ -7732,7 +7906,7 @@
         <v>513</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I117" s="5"/>
       <c r="J117" s="3">
@@ -7767,7 +7941,7 @@
         <v>513</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I118" s="5" t="s">
         <v>539</v>
@@ -7800,13 +7974,13 @@
         <v>508</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="G119" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="I119" s="5"/>
       <c r="J119" s="3">
@@ -7835,13 +8009,13 @@
         <v>508</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="G120" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="I120" s="5"/>
       <c r="J120" s="3">
@@ -7870,13 +8044,13 @@
         <v>508</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="G121" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="I121" s="5"/>
       <c r="J121" s="3">
@@ -7905,13 +8079,13 @@
         <v>509</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="G122" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="I122" s="5"/>
       <c r="J122" s="3">
@@ -7940,13 +8114,13 @@
         <v>509</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G123" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I123" s="5"/>
       <c r="J123" s="3">
@@ -7975,13 +8149,13 @@
         <v>508</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="G124" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="I124" s="5"/>
       <c r="J124" s="3">
@@ -8010,13 +8184,13 @@
         <v>508</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="G125" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="I125" s="5"/>
       <c r="J125" s="3">
@@ -8045,13 +8219,13 @@
         <v>509</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="G126" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="I126" s="5"/>
       <c r="J126" s="3">
@@ -8080,13 +8254,13 @@
         <v>509</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="G127" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="I127" s="5"/>
       <c r="J127" s="3">
@@ -8115,13 +8289,13 @@
         <v>508</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="G128" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="I128" s="5"/>
       <c r="J128" s="3">
@@ -8150,13 +8324,13 @@
         <v>508</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="G129" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="I129" s="5"/>
       <c r="J129" s="3">
@@ -8185,13 +8359,13 @@
         <v>509</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="G130" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="I130" s="5"/>
       <c r="J130" s="3">
@@ -8220,13 +8394,13 @@
         <v>509</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G131" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="I131" s="5"/>
       <c r="J131" s="3">
@@ -8255,13 +8429,13 @@
         <v>508</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="G132" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="I132" s="5"/>
       <c r="J132" s="3">
@@ -8290,13 +8464,13 @@
         <v>508</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="G133" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="I133" s="5"/>
       <c r="J133" s="3">
@@ -8325,13 +8499,13 @@
         <v>508</v>
       </c>
       <c r="F134" s="14" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="G134" s="14" t="s">
         <v>514</v>
       </c>
       <c r="H134" s="14" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="I134" s="15"/>
       <c r="J134" s="14">
@@ -8360,13 +8534,13 @@
         <v>509</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G135" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="I135" s="5"/>
       <c r="J135" s="3">
@@ -8395,13 +8569,13 @@
         <v>509</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="G136" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="I136" s="5"/>
       <c r="J136" s="3">
@@ -8430,13 +8604,13 @@
         <v>509</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G137" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="I137" s="5"/>
       <c r="J137" s="3">
@@ -8465,13 +8639,13 @@
         <v>508</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="G138" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="I138" s="5"/>
       <c r="J138" s="3">
@@ -8500,13 +8674,13 @@
         <v>509</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="G139" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="I139" s="5"/>
       <c r="J139" s="3">
@@ -8535,13 +8709,13 @@
         <v>509</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G140" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="I140" s="5"/>
       <c r="J140" s="3">
@@ -8570,13 +8744,13 @@
         <v>508</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="G141" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="I141" s="5"/>
       <c r="J141" s="3">
@@ -8605,13 +8779,13 @@
         <v>509</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="G142" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="I142" s="5"/>
       <c r="J142" s="3">
@@ -8640,13 +8814,13 @@
         <v>509</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G143" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="I143" s="5"/>
       <c r="J143" s="3">
@@ -8675,13 +8849,13 @@
         <v>509</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="G144" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="I144" s="5"/>
       <c r="J144" s="3">
@@ -8710,13 +8884,13 @@
         <v>509</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="G145" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H145" s="3" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="I145" s="5"/>
       <c r="J145" s="3">
@@ -8745,13 +8919,13 @@
         <v>508</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="G146" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="I146" s="5"/>
       <c r="J146" s="3">
@@ -8780,13 +8954,13 @@
         <v>509</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="G147" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="I147" s="5"/>
       <c r="J147" s="3">
@@ -8815,13 +8989,13 @@
         <v>509</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G148" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="I148" s="5"/>
       <c r="J148" s="3">
@@ -8850,13 +9024,13 @@
         <v>508</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="G149" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="I149" s="5"/>
       <c r="J149" s="3">
@@ -8885,13 +9059,13 @@
         <v>509</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="G150" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="I150" s="5"/>
       <c r="J150" s="3">
@@ -8920,13 +9094,13 @@
         <v>509</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="G151" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="I151" s="5"/>
       <c r="J151" s="3">
@@ -8955,13 +9129,13 @@
         <v>508</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="G152" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="I152" s="5"/>
       <c r="J152" s="3">
@@ -8990,13 +9164,13 @@
         <v>508</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="G153" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="I153" s="5"/>
       <c r="J153" s="3">
@@ -9025,13 +9199,13 @@
         <v>508</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="G154" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H154" s="3" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="I154" s="5"/>
       <c r="J154" s="3">
@@ -9060,13 +9234,13 @@
         <v>508</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="G155" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H155" s="3" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="I155" s="5"/>
       <c r="J155" s="3">
@@ -9095,13 +9269,13 @@
         <v>508</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="G156" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H156" s="3" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="I156" s="5"/>
       <c r="J156" s="3">
@@ -9130,13 +9304,13 @@
         <v>509</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="G157" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H157" s="3" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="I157" s="5"/>
       <c r="J157" s="3">
@@ -9165,13 +9339,13 @@
         <v>508</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="G158" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H158" s="3" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="I158" s="5"/>
       <c r="J158" s="3">
@@ -9200,13 +9374,13 @@
         <v>509</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="G159" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H159" s="3" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="I159" s="5"/>
       <c r="J159" s="3">
@@ -9235,13 +9409,13 @@
         <v>508</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G160" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H160" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I160" s="5"/>
       <c r="J160" s="3">
@@ -9270,16 +9444,16 @@
         <v>509</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="G161" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H161" s="3" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="I161" s="5" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="J161" s="3">
         <v>18000</v>
@@ -9307,13 +9481,13 @@
         <v>508</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="G162" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H162" s="3" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="I162" s="5"/>
       <c r="J162" s="3">
@@ -9342,13 +9516,13 @@
         <v>509</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G163" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H163" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="I163" s="5"/>
       <c r="J163" s="3">
@@ -9377,13 +9551,13 @@
         <v>508</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="G164" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H164" s="3" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="I164" s="5"/>
       <c r="J164" s="3">
@@ -9412,13 +9586,13 @@
         <v>508</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="G165" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H165" s="3" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="I165" s="5"/>
       <c r="J165" s="3">
@@ -9447,13 +9621,13 @@
         <v>509</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="G166" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H166" s="3" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="I166" s="5"/>
       <c r="J166" s="3">
@@ -9482,13 +9656,13 @@
         <v>508</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="G167" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H167" s="3" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="I167" s="5"/>
       <c r="J167" s="3">
@@ -9517,13 +9691,13 @@
         <v>508</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="G168" s="3" t="s">
         <v>510</v>
       </c>
       <c r="H168" s="3" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="I168" s="5"/>
       <c r="J168" s="3">
@@ -9552,13 +9726,13 @@
         <v>508</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G169" s="3" t="s">
         <v>510</v>
       </c>
       <c r="H169" s="3" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="I169" s="5"/>
       <c r="J169" s="3">
@@ -9587,13 +9761,13 @@
         <v>508</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="G170" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H170" s="3" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="I170" s="5"/>
       <c r="J170" s="3">
@@ -9622,13 +9796,13 @@
         <v>508</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="G171" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H171" s="3" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="I171" s="5"/>
       <c r="J171" s="3">
@@ -9657,13 +9831,13 @@
         <v>508</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="G172" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H172" s="3" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I172" s="5"/>
       <c r="J172" s="3">
@@ -9692,13 +9866,13 @@
         <v>508</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="G173" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H173" s="3" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I173" s="5"/>
       <c r="J173" s="3">
@@ -9727,13 +9901,13 @@
         <v>508</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="G174" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H174" s="3" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="I174" s="5"/>
       <c r="J174" s="3">
@@ -9762,13 +9936,13 @@
         <v>508</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="G175" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H175" s="3" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="I175" s="5"/>
       <c r="J175" s="3">
@@ -9797,13 +9971,13 @@
         <v>508</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="G176" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H176" s="3" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="I176" s="5"/>
       <c r="J176" s="3">
@@ -9838,7 +10012,7 @@
         <v>513</v>
       </c>
       <c r="H177" s="3" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="I177" s="5" t="s">
         <v>535</v>
@@ -9871,7 +10045,7 @@
         <v>508</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="G178" s="3" t="s">
         <v>512</v>
@@ -9906,13 +10080,13 @@
         <v>509</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G179" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H179" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I179" s="5"/>
       <c r="J179" s="3">
@@ -9941,13 +10115,13 @@
         <v>509</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G180" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H180" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I180" s="5"/>
       <c r="J180" s="3">
@@ -9976,13 +10150,13 @@
         <v>509</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G181" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H181" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I181" s="5"/>
       <c r="J181" s="3">
@@ -10011,13 +10185,13 @@
         <v>508</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G182" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H182" s="3" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="I182" s="5"/>
       <c r="J182" s="3">
@@ -10046,13 +10220,13 @@
         <v>509</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="G183" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="I183" s="5"/>
       <c r="J183" s="3">
@@ -10081,13 +10255,13 @@
         <v>509</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="G184" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H184" s="3" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="I184" s="5" t="s">
         <v>536</v>
@@ -10120,13 +10294,13 @@
         <v>509</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="G185" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H185" s="3" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="I185" s="5"/>
       <c r="J185" s="3">
@@ -10155,13 +10329,13 @@
         <v>508</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="G186" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H186" s="3" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="I186" s="5"/>
       <c r="J186" s="3">
@@ -10196,7 +10370,7 @@
         <v>512</v>
       </c>
       <c r="H187" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I187" s="5" t="s">
         <v>540</v>
@@ -10229,13 +10403,13 @@
         <v>509</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="G188" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H188" s="3" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="I188" s="5"/>
       <c r="J188" s="3">
@@ -10264,13 +10438,13 @@
         <v>509</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="G189" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H189" s="3" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="I189" s="5"/>
       <c r="J189" s="3">
@@ -10299,13 +10473,13 @@
         <v>509</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="G190" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H190" s="3" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="I190" s="5"/>
       <c r="J190" s="3">
@@ -10334,13 +10508,13 @@
         <v>509</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="G191" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H191" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I191" s="5"/>
       <c r="J191" s="3">
@@ -10369,13 +10543,13 @@
         <v>509</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="G192" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H192" s="3" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="I192" s="5"/>
       <c r="J192" s="3">
@@ -10404,13 +10578,13 @@
         <v>509</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="G193" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H193" s="3" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="I193" s="5"/>
       <c r="J193" s="3">
@@ -10439,13 +10613,13 @@
         <v>508</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="G194" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H194" s="3" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="I194" s="5"/>
       <c r="J194" s="3">
@@ -10474,13 +10648,13 @@
         <v>509</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="G195" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H195" s="3" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="I195" s="5"/>
       <c r="J195" s="3">
@@ -10509,13 +10683,13 @@
         <v>509</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G196" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H196" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I196" s="5"/>
       <c r="J196" s="3">
@@ -10544,13 +10718,13 @@
         <v>509</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="G197" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H197" s="3" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="I197" s="5"/>
       <c r="J197" s="3">
@@ -10579,13 +10753,13 @@
         <v>508</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="G198" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H198" s="3" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="I198" s="5"/>
       <c r="J198" s="3">
@@ -10614,13 +10788,13 @@
         <v>509</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="G199" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H199" s="3" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="I199" s="5"/>
       <c r="J199" s="3">
@@ -10649,13 +10823,13 @@
         <v>508</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="G200" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H200" s="3" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="I200" s="5" t="s">
         <v>532</v>
@@ -10688,13 +10862,13 @@
         <v>508</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="G201" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H201" s="3" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="I201" s="5"/>
       <c r="J201" s="3">
@@ -10723,13 +10897,13 @@
         <v>509</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G202" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H202" s="3" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="I202" s="5"/>
       <c r="J202" s="3">
@@ -10758,13 +10932,13 @@
         <v>508</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G203" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H203" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I203" s="5" t="s">
         <v>533</v>
@@ -10797,13 +10971,13 @@
         <v>508</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="G204" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H204" s="3" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="I204" s="5"/>
       <c r="J204" s="3">
@@ -10832,13 +11006,13 @@
         <v>509</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="G205" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H205" s="3" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="I205" s="5"/>
       <c r="J205" s="3">
@@ -10867,13 +11041,13 @@
         <v>509</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="G206" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H206" s="3" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="I206" s="5"/>
       <c r="J206" s="3">
@@ -10902,13 +11076,13 @@
         <v>509</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="G207" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H207" s="3" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="I207" s="5"/>
       <c r="J207" s="3">
@@ -10937,13 +11111,13 @@
         <v>509</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="G208" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H208" s="3" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="I208" s="5"/>
       <c r="J208" s="3">
@@ -10972,13 +11146,13 @@
         <v>508</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="G209" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H209" s="3" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="I209" s="5"/>
       <c r="J209" s="3">
@@ -11007,13 +11181,13 @@
         <v>509</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="G210" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H210" s="3" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="I210" s="5"/>
       <c r="J210" s="3">
@@ -11042,13 +11216,13 @@
         <v>509</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="G211" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H211" s="3" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="I211" s="5"/>
       <c r="J211" s="3">
@@ -11077,13 +11251,13 @@
         <v>508</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="G212" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H212" s="3" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="I212" s="5"/>
       <c r="J212" s="3">
@@ -11112,13 +11286,13 @@
         <v>509</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="G213" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H213" s="3" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="I213" s="5"/>
       <c r="J213" s="3">
@@ -11147,13 +11321,13 @@
         <v>508</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="G214" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H214" s="3" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="I214" s="5"/>
       <c r="J214" s="3">
@@ -11182,13 +11356,13 @@
         <v>509</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="G215" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H215" s="3" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="I215" s="5"/>
       <c r="J215" s="3">
@@ -11217,13 +11391,13 @@
         <v>508</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="G216" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H216" s="3" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="I216" s="5"/>
       <c r="J216" s="3">
@@ -11252,16 +11426,16 @@
         <v>508</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G217" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H217" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="I217" s="5" t="s">
         <v>601</v>
-      </c>
-      <c r="I217" s="5" t="s">
-        <v>602</v>
       </c>
       <c r="J217" s="3">
         <v>740000</v>
@@ -11555,15 +11729,25 @@
       <c r="E227" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F227" s="3"/>
+      <c r="F227" s="3" t="s">
+        <v>1058</v>
+      </c>
       <c r="G227" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H227" s="3"/>
-      <c r="I227" s="5"/>
-      <c r="J227" s="3"/>
+      <c r="H227" s="3" t="s">
+        <v>1059</v>
+      </c>
+      <c r="I227" s="5" t="s">
+        <v>1061</v>
+      </c>
+      <c r="J227" s="3">
+        <v>11000000</v>
+      </c>
       <c r="K227" s="3"/>
-      <c r="L227" s="3"/>
+      <c r="L227" s="17">
+        <v>0.05</v>
+      </c>
       <c r="M227" s="3"/>
       <c r="N227" s="3"/>
       <c r="O227" s="3"/>
@@ -11700,13 +11884,19 @@
       <c r="E232" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F232" s="3"/>
+      <c r="F232" s="3" t="s">
+        <v>1062</v>
+      </c>
       <c r="G232" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H232" s="3"/>
+      <c r="H232" s="3" t="s">
+        <v>1060</v>
+      </c>
       <c r="I232" s="5"/>
-      <c r="J232" s="3"/>
+      <c r="J232" s="3">
+        <v>570000</v>
+      </c>
       <c r="K232" s="3"/>
       <c r="L232" s="3"/>
       <c r="M232" s="3"/>
@@ -11730,13 +11920,13 @@
         <v>509</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G233" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H233" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I233" s="5"/>
       <c r="J233" s="3">
@@ -11765,13 +11955,13 @@
         <v>509</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G234" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H234" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I234" s="5"/>
       <c r="J234" s="3">
@@ -11974,13 +12164,13 @@
         <v>509</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G241" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H241" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I241" s="5"/>
       <c r="J241" s="3">
@@ -12038,13 +12228,13 @@
         <v>509</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G243" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H243" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I243" s="5"/>
       <c r="J243" s="3">
@@ -12131,13 +12321,13 @@
         <v>508</v>
       </c>
       <c r="F246" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G246" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H246" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I246" s="5"/>
       <c r="J246" s="3">
@@ -12310,13 +12500,19 @@
       <c r="E252" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F252" s="3"/>
+      <c r="F252" s="3" t="s">
+        <v>1063</v>
+      </c>
       <c r="G252" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H252" s="3"/>
+      <c r="H252" s="3" t="s">
+        <v>1064</v>
+      </c>
       <c r="I252" s="5"/>
-      <c r="J252" s="3"/>
+      <c r="J252" s="3">
+        <v>1600000</v>
+      </c>
       <c r="K252" s="3"/>
       <c r="L252" s="3"/>
       <c r="M252" s="3"/>
@@ -12398,13 +12594,13 @@
         <v>509</v>
       </c>
       <c r="F255" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G255" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H255" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I255" s="5"/>
       <c r="J255" s="3">
@@ -12433,13 +12629,13 @@
         <v>509</v>
       </c>
       <c r="F256" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G256" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H256" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I256" s="5"/>
       <c r="J256" s="3">
@@ -12613,13 +12809,13 @@
         <v>508</v>
       </c>
       <c r="F262" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G262" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H262" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I262" s="5"/>
       <c r="J262" s="3">
@@ -12647,13 +12843,19 @@
       <c r="E263" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F263" s="3"/>
+      <c r="F263" s="3" t="s">
+        <v>1067</v>
+      </c>
       <c r="G263" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="H263" s="3"/>
+      <c r="H263" s="3" t="s">
+        <v>1065</v>
+      </c>
       <c r="I263" s="5"/>
-      <c r="J263" s="3"/>
+      <c r="J263" s="3">
+        <v>2500000</v>
+      </c>
       <c r="K263" s="3"/>
       <c r="L263" s="3"/>
       <c r="M263" s="3"/>
@@ -12676,13 +12878,19 @@
       <c r="E264" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F264" s="3"/>
+      <c r="F264" s="3" t="s">
+        <v>1068</v>
+      </c>
       <c r="G264" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="H264" s="3"/>
+      <c r="H264" s="3" t="s">
+        <v>1066</v>
+      </c>
       <c r="I264" s="5"/>
-      <c r="J264" s="3"/>
+      <c r="J264" s="3">
+        <v>230000</v>
+      </c>
       <c r="K264" s="3"/>
       <c r="L264" s="3"/>
       <c r="M264" s="3"/>
@@ -12764,13 +12972,13 @@
         <v>509</v>
       </c>
       <c r="F267" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G267" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H267" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I267" s="5"/>
       <c r="J267" s="3">
@@ -12944,13 +13152,13 @@
         <v>509</v>
       </c>
       <c r="F273" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G273" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H273" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I273" s="5"/>
       <c r="J273" s="3">
@@ -13065,13 +13273,19 @@
       <c r="E277" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F277" s="3"/>
+      <c r="F277" s="3" t="s">
+        <v>1069</v>
+      </c>
       <c r="G277" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="H277" s="3"/>
+      <c r="H277" s="3" t="s">
+        <v>1070</v>
+      </c>
       <c r="I277" s="5"/>
-      <c r="J277" s="3"/>
+      <c r="J277" s="3">
+        <v>5000000</v>
+      </c>
       <c r="K277" s="3"/>
       <c r="L277" s="3"/>
       <c r="M277" s="3"/>
@@ -13153,13 +13367,13 @@
         <v>508</v>
       </c>
       <c r="F280" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G280" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H280" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I280" s="5"/>
       <c r="J280" s="3">
@@ -13245,13 +13459,19 @@
       <c r="E283" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F283" s="3"/>
+      <c r="F283" s="3" t="s">
+        <v>1072</v>
+      </c>
       <c r="G283" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H283" s="3"/>
+      <c r="H283" s="3" t="s">
+        <v>1071</v>
+      </c>
       <c r="I283" s="5"/>
-      <c r="J283" s="3"/>
+      <c r="J283" s="3">
+        <v>1100000</v>
+      </c>
       <c r="K283" s="3"/>
       <c r="L283" s="3"/>
       <c r="M283" s="3"/>
@@ -13333,13 +13553,13 @@
         <v>508</v>
       </c>
       <c r="F286" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G286" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H286" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I286" s="5"/>
       <c r="J286" s="3">
@@ -13368,13 +13588,13 @@
         <v>508</v>
       </c>
       <c r="F287" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G287" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H287" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I287" s="5"/>
       <c r="J287" s="3">
@@ -13403,13 +13623,13 @@
         <v>508</v>
       </c>
       <c r="F288" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G288" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H288" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I288" s="5"/>
       <c r="J288" s="3">
@@ -13525,13 +13745,13 @@
         <v>508</v>
       </c>
       <c r="F292" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G292" s="3" t="s">
         <v>510</v>
       </c>
       <c r="H292" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="I292" s="5"/>
       <c r="J292" s="3">
@@ -13734,13 +13954,13 @@
         <v>509</v>
       </c>
       <c r="F299" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G299" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H299" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I299" s="5"/>
       <c r="J299" s="3">
@@ -13856,13 +14076,13 @@
         <v>508</v>
       </c>
       <c r="F303" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G303" s="3" t="s">
         <v>510</v>
       </c>
       <c r="H303" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="I303" s="5"/>
       <c r="J303" s="3">
@@ -13920,13 +14140,13 @@
         <v>509</v>
       </c>
       <c r="F305" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G305" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H305" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I305" s="5"/>
       <c r="J305" s="3">
@@ -14390,13 +14610,13 @@
         <v>508</v>
       </c>
       <c r="F321" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G321" s="3" t="s">
         <v>510</v>
       </c>
       <c r="H321" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I321" s="5"/>
       <c r="J321" s="3">
@@ -14483,13 +14703,13 @@
         <v>509</v>
       </c>
       <c r="F324" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="G324" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H324" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I324" s="5"/>
       <c r="J324" s="3">
@@ -14721,13 +14941,13 @@
         <v>508</v>
       </c>
       <c r="F332" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G332" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H332" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I332" s="5"/>
       <c r="J332" s="3">
@@ -14756,13 +14976,13 @@
         <v>509</v>
       </c>
       <c r="F333" s="3" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="G333" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H333" s="3" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="I333" s="5"/>
       <c r="J333" s="3">
@@ -14859,13 +15079,13 @@
         <v>509</v>
       </c>
       <c r="F336" s="3" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="G336" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H336" s="3" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="I336" s="5" t="s">
         <v>530</v>
@@ -14898,13 +15118,13 @@
         <v>508</v>
       </c>
       <c r="F337" s="3" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="G337" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H337" s="3" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="I337" s="5"/>
       <c r="J337" s="3">
@@ -14933,13 +15153,13 @@
         <v>508</v>
       </c>
       <c r="F338" s="3" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="G338" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H338" s="3" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="I338" s="5"/>
       <c r="J338" s="3">
@@ -14968,7 +15188,7 @@
         <v>508</v>
       </c>
       <c r="F339" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G339" s="3" t="s">
         <v>514</v>
@@ -15003,13 +15223,13 @@
         <v>508</v>
       </c>
       <c r="F340" s="3" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="G340" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H340" s="3" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="I340" s="5"/>
       <c r="J340" s="3">
@@ -15038,13 +15258,13 @@
         <v>508</v>
       </c>
       <c r="F341" s="3" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="G341" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H341" s="3" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="I341" s="5"/>
       <c r="J341" s="3">
@@ -15073,13 +15293,13 @@
         <v>509</v>
       </c>
       <c r="F342" s="3" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="G342" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H342" s="3" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="I342" s="5" t="s">
         <v>534</v>
@@ -15112,13 +15332,13 @@
         <v>509</v>
       </c>
       <c r="F343" s="3" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="G343" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H343" s="3" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="I343" s="5" t="s">
         <v>534</v>
@@ -15151,13 +15371,13 @@
         <v>509</v>
       </c>
       <c r="F344" s="3" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="G344" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H344" s="3" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="I344" s="5"/>
       <c r="J344" s="3">
@@ -15186,13 +15406,13 @@
         <v>509</v>
       </c>
       <c r="F345" s="3" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="G345" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H345" s="3" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="I345" s="5"/>
       <c r="J345" s="3">
@@ -15221,13 +15441,13 @@
         <v>509</v>
       </c>
       <c r="F346" s="3" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="G346" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H346" s="3" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="I346" s="5" t="s">
         <v>534</v>
@@ -15260,13 +15480,13 @@
         <v>509</v>
       </c>
       <c r="F347" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G347" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H347" s="3" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="I347" s="5"/>
       <c r="J347" s="3">
@@ -15295,13 +15515,13 @@
         <v>509</v>
       </c>
       <c r="F348" s="3" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="G348" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H348" s="3" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="I348" s="5"/>
       <c r="J348" s="3">
@@ -15330,13 +15550,13 @@
         <v>509</v>
       </c>
       <c r="F349" s="3" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="G349" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H349" s="3" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="I349" s="5"/>
       <c r="J349" s="3">
@@ -15365,13 +15585,13 @@
         <v>509</v>
       </c>
       <c r="F350" s="3" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="G350" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H350" s="3" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="I350" s="5"/>
       <c r="J350" s="3">
@@ -15400,13 +15620,13 @@
         <v>509</v>
       </c>
       <c r="F351" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G351" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H351" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I351" s="5"/>
       <c r="J351" s="3">
@@ -15435,13 +15655,13 @@
         <v>509</v>
       </c>
       <c r="F352" s="3" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="G352" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H352" s="3" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="I352" s="5"/>
       <c r="J352" s="3">
@@ -15470,13 +15690,13 @@
         <v>509</v>
       </c>
       <c r="F353" s="3" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="G353" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H353" s="3" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="I353" s="5"/>
       <c r="J353" s="3">
@@ -15505,13 +15725,13 @@
         <v>509</v>
       </c>
       <c r="F354" s="3" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="G354" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H354" s="3" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="I354" s="5"/>
       <c r="J354" s="3">
@@ -15540,13 +15760,13 @@
         <v>509</v>
       </c>
       <c r="F355" s="3" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="G355" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H355" s="3" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="I355" s="5"/>
       <c r="J355" s="3">
@@ -15575,13 +15795,13 @@
         <v>509</v>
       </c>
       <c r="F356" s="3" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="G356" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H356" s="3" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="I356" s="5"/>
       <c r="J356" s="3">
@@ -15726,16 +15946,16 @@
         <v>509</v>
       </c>
       <c r="F361" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G361" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H361" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I361" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="J361" s="3">
         <v>600000</v>
@@ -15938,13 +16158,19 @@
       <c r="E368" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F368" s="3"/>
+      <c r="F368" s="3" t="s">
+        <v>1014</v>
+      </c>
       <c r="G368" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H368" s="3"/>
+      <c r="H368" s="3" t="s">
+        <v>1015</v>
+      </c>
       <c r="I368" s="5"/>
-      <c r="J368" s="3"/>
+      <c r="J368" s="3">
+        <v>1900000</v>
+      </c>
       <c r="K368" s="3"/>
       <c r="L368" s="3"/>
       <c r="M368" s="3"/>
@@ -15967,13 +16193,19 @@
       <c r="E369" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F369" s="3"/>
+      <c r="F369" s="3" t="s">
+        <v>1024</v>
+      </c>
       <c r="G369" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H369" s="3"/>
+      <c r="H369" s="3" t="s">
+        <v>1016</v>
+      </c>
       <c r="I369" s="5"/>
-      <c r="J369" s="3"/>
+      <c r="J369" s="3">
+        <v>280000</v>
+      </c>
       <c r="K369" s="3"/>
       <c r="L369" s="3"/>
       <c r="M369" s="3"/>
@@ -15996,13 +16228,19 @@
       <c r="E370" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F370" s="3"/>
+      <c r="F370" s="3" t="s">
+        <v>1025</v>
+      </c>
       <c r="G370" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H370" s="3"/>
+      <c r="H370" s="3" t="s">
+        <v>1017</v>
+      </c>
       <c r="I370" s="5"/>
-      <c r="J370" s="3"/>
+      <c r="J370" s="3">
+        <v>2300000</v>
+      </c>
       <c r="K370" s="3"/>
       <c r="L370" s="3"/>
       <c r="M370" s="3"/>
@@ -16025,13 +16263,19 @@
       <c r="E371" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F371" s="3"/>
+      <c r="F371" s="3" t="s">
+        <v>1022</v>
+      </c>
       <c r="G371" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H371" s="3"/>
+      <c r="H371" s="3" t="s">
+        <v>1023</v>
+      </c>
       <c r="I371" s="5"/>
-      <c r="J371" s="3"/>
+      <c r="J371" s="3">
+        <v>14000000</v>
+      </c>
       <c r="K371" s="3"/>
       <c r="L371" s="3"/>
       <c r="M371" s="3"/>
@@ -16054,13 +16298,19 @@
       <c r="E372" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F372" s="3"/>
+      <c r="F372" s="3" t="s">
+        <v>1026</v>
+      </c>
       <c r="G372" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H372" s="3"/>
+      <c r="H372" s="3" t="s">
+        <v>1018</v>
+      </c>
       <c r="I372" s="5"/>
-      <c r="J372" s="3"/>
+      <c r="J372" s="3">
+        <v>72000</v>
+      </c>
       <c r="K372" s="3"/>
       <c r="L372" s="3"/>
       <c r="M372" s="3"/>
@@ -16083,13 +16333,19 @@
       <c r="E373" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F373" s="3"/>
+      <c r="F373" s="3" t="s">
+        <v>1027</v>
+      </c>
       <c r="G373" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H373" s="3"/>
+      <c r="H373" s="3" t="s">
+        <v>1019</v>
+      </c>
       <c r="I373" s="5"/>
-      <c r="J373" s="3"/>
+      <c r="J373" s="3">
+        <v>8900000</v>
+      </c>
       <c r="K373" s="3"/>
       <c r="L373" s="3"/>
       <c r="M373" s="3"/>
@@ -16112,15 +16368,21 @@
       <c r="E374" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F374" s="3"/>
+      <c r="F374" s="3" t="s">
+        <v>1028</v>
+      </c>
       <c r="G374" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H374" s="3"/>
+      <c r="H374" s="3" t="s">
+        <v>1020</v>
+      </c>
       <c r="I374" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="J374" s="3"/>
+      <c r="J374" s="3">
+        <v>1400000</v>
+      </c>
       <c r="K374" s="3"/>
       <c r="L374" s="17">
         <v>0.2</v>
@@ -16145,13 +16407,19 @@
       <c r="E375" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F375" s="3"/>
+      <c r="F375" s="3" t="s">
+        <v>1029</v>
+      </c>
       <c r="G375" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H375" s="3"/>
+      <c r="H375" s="3" t="s">
+        <v>1021</v>
+      </c>
       <c r="I375" s="5"/>
-      <c r="J375" s="3"/>
+      <c r="J375" s="3">
+        <v>830000</v>
+      </c>
       <c r="K375" s="3"/>
       <c r="L375" s="3"/>
       <c r="M375" s="3"/>
@@ -16174,13 +16442,19 @@
       <c r="E376" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F376" s="3"/>
+      <c r="F376" s="3" t="s">
+        <v>1030</v>
+      </c>
       <c r="G376" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H376" s="3"/>
+      <c r="H376" s="3" t="s">
+        <v>1031</v>
+      </c>
       <c r="I376" s="5"/>
-      <c r="J376" s="3"/>
+      <c r="J376" s="3">
+        <v>100000</v>
+      </c>
       <c r="K376" s="3"/>
       <c r="L376" s="3"/>
       <c r="M376" s="3"/>
@@ -16203,13 +16477,19 @@
       <c r="E377" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F377" s="3"/>
+      <c r="F377" s="3" t="s">
+        <v>1033</v>
+      </c>
       <c r="G377" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H377" s="3"/>
+      <c r="H377" s="3" t="s">
+        <v>1032</v>
+      </c>
       <c r="I377" s="5"/>
-      <c r="J377" s="3"/>
+      <c r="J377" s="3">
+        <v>7000000</v>
+      </c>
       <c r="K377" s="3"/>
       <c r="L377" s="3"/>
       <c r="M377" s="3"/>
@@ -16232,13 +16512,19 @@
       <c r="E378" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F378" s="3"/>
+      <c r="F378" s="3" t="s">
+        <v>1035</v>
+      </c>
       <c r="G378" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="H378" s="3"/>
+      <c r="H378" s="3" t="s">
+        <v>1034</v>
+      </c>
       <c r="I378" s="5"/>
-      <c r="J378" s="3"/>
+      <c r="J378" s="3">
+        <v>750000</v>
+      </c>
       <c r="K378" s="3"/>
       <c r="L378" s="3"/>
       <c r="M378" s="3"/>
@@ -16261,13 +16547,19 @@
       <c r="E379" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F379" s="3"/>
+      <c r="F379" s="3" t="s">
+        <v>1037</v>
+      </c>
       <c r="G379" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H379" s="3"/>
+      <c r="H379" s="3" t="s">
+        <v>1036</v>
+      </c>
       <c r="I379" s="5"/>
-      <c r="J379" s="3"/>
+      <c r="J379" s="3">
+        <v>6800000</v>
+      </c>
       <c r="K379" s="3"/>
       <c r="L379" s="3"/>
       <c r="M379" s="3"/>
@@ -16290,13 +16582,19 @@
       <c r="E380" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F380" s="3"/>
+      <c r="F380" s="3" t="s">
+        <v>1038</v>
+      </c>
       <c r="G380" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H380" s="3"/>
+      <c r="H380" s="3" t="s">
+        <v>1039</v>
+      </c>
       <c r="I380" s="5"/>
-      <c r="J380" s="3"/>
+      <c r="J380" s="3">
+        <v>12000000</v>
+      </c>
       <c r="K380" s="3"/>
       <c r="L380" s="3"/>
       <c r="M380" s="3"/>
@@ -16319,13 +16617,19 @@
       <c r="E381" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F381" s="3"/>
+      <c r="F381" s="3" t="s">
+        <v>1044</v>
+      </c>
       <c r="G381" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H381" s="3"/>
+      <c r="H381" s="3" t="s">
+        <v>1045</v>
+      </c>
       <c r="I381" s="5"/>
-      <c r="J381" s="3"/>
+      <c r="J381" s="3">
+        <v>1700000</v>
+      </c>
       <c r="K381" s="3"/>
       <c r="L381" s="3"/>
       <c r="M381" s="3"/>
@@ -16348,13 +16652,19 @@
       <c r="E382" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F382" s="3"/>
+      <c r="F382" s="3" t="s">
+        <v>1048</v>
+      </c>
       <c r="G382" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H382" s="3"/>
+      <c r="H382" s="3" t="s">
+        <v>1040</v>
+      </c>
       <c r="I382" s="5"/>
-      <c r="J382" s="3"/>
+      <c r="J382" s="3">
+        <v>560000</v>
+      </c>
       <c r="K382" s="3"/>
       <c r="L382" s="3"/>
       <c r="M382" s="3"/>
@@ -16377,15 +16687,21 @@
       <c r="E383" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F383" s="3"/>
+      <c r="F383" s="3" t="s">
+        <v>1049</v>
+      </c>
       <c r="G383" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H383" s="3"/>
+      <c r="H383" s="3" t="s">
+        <v>1046</v>
+      </c>
       <c r="I383" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="J383" s="3"/>
+      <c r="J383" s="3">
+        <v>3500000</v>
+      </c>
       <c r="K383" s="3"/>
       <c r="L383" s="17">
         <v>0.25</v>
@@ -16410,15 +16726,21 @@
       <c r="E384" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F384" s="3"/>
+      <c r="F384" s="3" t="s">
+        <v>1050</v>
+      </c>
       <c r="G384" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H384" s="3"/>
+      <c r="H384" s="3" t="s">
+        <v>1041</v>
+      </c>
       <c r="I384" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="J384" s="3"/>
+      <c r="J384" s="3">
+        <v>290000</v>
+      </c>
       <c r="K384" s="3"/>
       <c r="L384" s="17">
         <v>0.15</v>
@@ -16443,13 +16765,19 @@
       <c r="E385" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F385" s="3"/>
+      <c r="F385" s="3" t="s">
+        <v>1042</v>
+      </c>
       <c r="G385" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H385" s="3"/>
+      <c r="H385" s="3" t="s">
+        <v>1043</v>
+      </c>
       <c r="I385" s="5"/>
-      <c r="J385" s="3"/>
+      <c r="J385" s="3">
+        <v>250000</v>
+      </c>
       <c r="K385" s="3"/>
       <c r="L385" s="3"/>
       <c r="M385" s="3"/>
@@ -16472,13 +16800,19 @@
       <c r="E386" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F386" s="3"/>
+      <c r="F386" s="3" t="s">
+        <v>1053</v>
+      </c>
       <c r="G386" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H386" s="3"/>
+      <c r="H386" s="3" t="s">
+        <v>927</v>
+      </c>
       <c r="I386" s="5"/>
-      <c r="J386" s="3"/>
+      <c r="J386" s="3">
+        <v>1000000</v>
+      </c>
       <c r="K386" s="3"/>
       <c r="L386" s="3"/>
       <c r="M386" s="3"/>
@@ -16501,13 +16835,19 @@
       <c r="E387" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F387" s="3"/>
+      <c r="F387" s="3" t="s">
+        <v>1054</v>
+      </c>
       <c r="G387" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H387" s="3"/>
+      <c r="H387" s="3" t="s">
+        <v>1051</v>
+      </c>
       <c r="I387" s="5"/>
-      <c r="J387" s="3"/>
+      <c r="J387" s="3">
+        <v>100000</v>
+      </c>
       <c r="K387" s="3"/>
       <c r="L387" s="3"/>
       <c r="M387" s="3"/>
@@ -16531,19 +16871,19 @@
         <v>509</v>
       </c>
       <c r="F388" s="3" t="s">
-        <v>545</v>
+        <v>1055</v>
       </c>
       <c r="G388" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H388" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I388" s="5" t="s">
         <v>544</v>
       </c>
       <c r="J388" s="3">
-        <v>260000</v>
+        <v>1000000</v>
       </c>
       <c r="K388" s="3"/>
       <c r="L388" s="17">
@@ -16569,13 +16909,19 @@
       <c r="E389" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F389" s="3"/>
+      <c r="F389" s="3" t="s">
+        <v>1056</v>
+      </c>
       <c r="G389" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H389" s="3"/>
+      <c r="H389" s="3" t="s">
+        <v>1052</v>
+      </c>
       <c r="I389" s="5"/>
-      <c r="J389" s="3"/>
+      <c r="J389" s="3">
+        <v>15000000</v>
+      </c>
       <c r="K389" s="3"/>
       <c r="L389" s="3"/>
       <c r="M389" s="3"/>
@@ -16598,13 +16944,19 @@
       <c r="E390" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F390" s="3"/>
+      <c r="F390" s="3" t="s">
+        <v>1057</v>
+      </c>
       <c r="G390" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="H390" s="3"/>
+      <c r="H390" s="3" t="s">
+        <v>1047</v>
+      </c>
       <c r="I390" s="5"/>
-      <c r="J390" s="3"/>
+      <c r="J390" s="3">
+        <v>110000</v>
+      </c>
       <c r="K390" s="3"/>
       <c r="L390" s="3"/>
       <c r="M390" s="3"/>
@@ -16628,13 +16980,13 @@
         <v>508</v>
       </c>
       <c r="F391" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G391" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H391" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="I391" s="5"/>
       <c r="J391" s="3">
@@ -16663,13 +17015,13 @@
         <v>508</v>
       </c>
       <c r="F392" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G392" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H392" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="I392" s="5"/>
       <c r="J392" s="3">
@@ -17220,13 +17572,13 @@
         <v>508</v>
       </c>
       <c r="F411" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G411" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H411" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I411" s="5"/>
       <c r="J411" s="3">
@@ -17516,13 +17868,13 @@
         <v>508</v>
       </c>
       <c r="F421" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G421" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H421" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I421" s="5"/>
       <c r="J421" s="3">
@@ -17754,13 +18106,13 @@
         <v>509</v>
       </c>
       <c r="F429" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G429" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H429" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I429" s="5"/>
       <c r="J429" s="3">
@@ -17847,13 +18199,13 @@
         <v>508</v>
       </c>
       <c r="F432" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G432" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H432" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I432" s="5"/>
       <c r="J432" s="3">
@@ -17882,16 +18234,16 @@
         <v>508</v>
       </c>
       <c r="F433" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G433" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H433" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I433" s="5" t="s">
-        <v>639</v>
+        <v>1013</v>
       </c>
       <c r="J433" s="3">
         <v>210000</v>
@@ -17919,13 +18271,13 @@
         <v>508</v>
       </c>
       <c r="F434" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G434" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H434" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I434" s="5"/>
       <c r="J434" s="3">
@@ -17954,13 +18306,13 @@
         <v>508</v>
       </c>
       <c r="F435" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G435" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H435" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I435" s="5"/>
       <c r="J435" s="3">

--- a/MapFiles/ProvinceInfoExcel.xlsx
+++ b/MapFiles/ProvinceInfoExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\redss\Desktop\APPDEV\Tauresium\MapFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB36D6B-AB79-4A9E-A9E8-5BBDF0FA7DAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C631B2DC-1A55-485A-B79E-7F745F473ADA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1BFF37CF-5075-4621-9872-3602807B8ECF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1BFF37CF-5075-4621-9872-3602807B8ECF}"/>
   </bookViews>
   <sheets>
     <sheet name="Provinces" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2173" uniqueCount="1096">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2243" uniqueCount="1151">
   <si>
     <t>Alaska_BristolBay</t>
   </si>
@@ -3323,6 +3323,171 @@
   </si>
   <si>
     <t>Atar</t>
+  </si>
+  <si>
+    <t>America West</t>
+  </si>
+  <si>
+    <t>Laayoune</t>
+  </si>
+  <si>
+    <t>West Sahara</t>
+  </si>
+  <si>
+    <t>Khartoum</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Port Sudan</t>
+  </si>
+  <si>
+    <t>Al-Ubayyid</t>
+  </si>
+  <si>
+    <t>Asmara</t>
+  </si>
+  <si>
+    <t>Yaounde</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Kuala Lumpur</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Phnom Penh</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Vientiane</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>Nur-Sultan</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Aktau</t>
+  </si>
+  <si>
+    <t>Addis Ababa</t>
+  </si>
+  <si>
+    <t>Oromiya</t>
+  </si>
+  <si>
+    <t>Somali</t>
+  </si>
+  <si>
+    <t>Jigjiga</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Horn Of Africa</t>
+  </si>
+  <si>
+    <t>Nairobi</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Mombasa</t>
+  </si>
+  <si>
+    <t>Dar es Salaam</t>
+  </si>
+  <si>
+    <t>Mtwara</t>
+  </si>
+  <si>
+    <t>Maputo</t>
+  </si>
+  <si>
+    <t>Lilongwe</t>
+  </si>
+  <si>
+    <t>Polokwane</t>
+  </si>
+  <si>
+    <t>Limpopo</t>
+  </si>
+  <si>
+    <t>Durban</t>
+  </si>
+  <si>
+    <t>KwaZula-Natal</t>
+  </si>
+  <si>
+    <t>Port Elizabeth</t>
+  </si>
+  <si>
+    <t>Cape Of Good Hope</t>
+  </si>
+  <si>
+    <t>Cape Town</t>
+  </si>
+  <si>
+    <t>Johannesburg</t>
+  </si>
+  <si>
+    <t>Gauteng</t>
+  </si>
+  <si>
+    <t>Lubumbashi</t>
+  </si>
+  <si>
+    <t>Katanga</t>
+  </si>
+  <si>
+    <t>Equateur</t>
+  </si>
+  <si>
+    <t>Bandudu</t>
+  </si>
+  <si>
+    <t>Mbandaka</t>
+  </si>
+  <si>
+    <t>Bangui</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Lai</t>
+  </si>
+  <si>
+    <t>Tandjile</t>
+  </si>
+  <si>
+    <t>N'Djamena</t>
+  </si>
+  <si>
+    <t>Fada</t>
   </si>
 </sst>
 </file>
@@ -3469,11 +3634,11 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -3535,15 +3700,15 @@
     <tableColumn id="6" xr3:uid="{70567373-7149-4072-B40C-F12E25F01158}" name="Capital" dataDxfId="11"/>
     <tableColumn id="9" xr3:uid="{50D709BB-24E3-418E-917C-1FC90D5E3D67}" name="Climate" dataDxfId="10"/>
     <tableColumn id="8" xr3:uid="{392E9EF2-6D86-4F40-BA63-FDDE5FAFA031}" name="Region" dataDxfId="9"/>
-    <tableColumn id="20" xr3:uid="{47D7ED67-4135-4227-A884-EB47174ED581}" name="Coastal Region" dataDxfId="0"/>
-    <tableColumn id="7" xr3:uid="{41CC5C72-302E-42DC-96EF-966AE29CDBEF}" name="Description" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{F90EBD04-4BA7-4952-A20B-2F9CB4512BCE}" name="City Population (Total)" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{8BF939FD-0C7E-4D5B-8550-48C36771ECB9}" name="National HDI" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{55A1BD7C-91C1-4086-B424-3AD1F292C066}" name="Culture Additive" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{49423110-5733-4638-B829-6BCE84E13431}" name="Culture Cost" dataDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{16E85861-02C1-42B1-B650-7AE680AFBCB8}" name="Economic Cost" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{027A8570-4D49-4446-AD33-59BFA4DA3162}" name="Military Cost" dataDxfId="2"/>
-    <tableColumn id="16" xr3:uid="{160CCB0B-9916-4031-9F0D-50CB0E1AB6C7}" name="Score" dataDxfId="1"/>
+    <tableColumn id="20" xr3:uid="{47D7ED67-4135-4227-A884-EB47174ED581}" name="Coastal Region" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{41CC5C72-302E-42DC-96EF-966AE29CDBEF}" name="Description" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{F90EBD04-4BA7-4952-A20B-2F9CB4512BCE}" name="City Population (Total)" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{8BF939FD-0C7E-4D5B-8550-48C36771ECB9}" name="National HDI" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{55A1BD7C-91C1-4086-B424-3AD1F292C066}" name="Culture Additive" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{49423110-5733-4638-B829-6BCE84E13431}" name="Culture Cost" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{16E85861-02C1-42B1-B650-7AE680AFBCB8}" name="Economic Cost" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{027A8570-4D49-4446-AD33-59BFA4DA3162}" name="Military Cost" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{160CCB0B-9916-4031-9F0D-50CB0E1AB6C7}" name="Score" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3849,8 +4014,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q435"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H236" sqref="H236"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3950,7 +4115,9 @@
       <c r="H2" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="I2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>1096</v>
+      </c>
       <c r="J2" s="5"/>
       <c r="K2" s="3">
         <v>6000</v>
@@ -3987,7 +4154,9 @@
       <c r="H3" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="I3" s="3"/>
+      <c r="I3" s="3" t="s">
+        <v>1096</v>
+      </c>
       <c r="J3" s="5"/>
       <c r="K3" s="3">
         <v>3200</v>
@@ -4024,7 +4193,9 @@
       <c r="H4" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="I4" s="3"/>
+      <c r="I4" s="3" t="s">
+        <v>1096</v>
+      </c>
       <c r="J4" s="5"/>
       <c r="K4" s="3">
         <v>32000</v>
@@ -4061,7 +4232,9 @@
       <c r="H5" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="3" t="s">
+        <v>1096</v>
+      </c>
       <c r="J5" s="5"/>
       <c r="K5" s="3">
         <v>290000</v>
@@ -4098,7 +4271,9 @@
       <c r="H6" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="I6" s="3"/>
+      <c r="I6" s="3" t="s">
+        <v>1096</v>
+      </c>
       <c r="J6" s="5"/>
       <c r="K6" s="3">
         <v>4200</v>
@@ -4135,7 +4310,9 @@
       <c r="H7" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="I7" s="3"/>
+      <c r="I7" s="3" t="s">
+        <v>1096</v>
+      </c>
       <c r="J7" s="5"/>
       <c r="K7" s="3">
         <v>31000</v>
@@ -12694,14 +12871,20 @@
       <c r="E237" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F237" s="3"/>
+      <c r="F237" s="3" t="s">
+        <v>1097</v>
+      </c>
       <c r="G237" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="H237" s="3"/>
+      <c r="H237" s="3" t="s">
+        <v>1098</v>
+      </c>
       <c r="I237" s="3"/>
       <c r="J237" s="5"/>
-      <c r="K237" s="3"/>
+      <c r="K237" s="3">
+        <v>200000</v>
+      </c>
       <c r="L237" s="3"/>
       <c r="M237" s="3"/>
       <c r="N237" s="3"/>
@@ -12725,14 +12908,20 @@
       <c r="E238" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F238" s="3"/>
+      <c r="F238" s="3" t="s">
+        <v>1102</v>
+      </c>
       <c r="G238" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="H238" s="3"/>
+      <c r="H238" s="3" t="s">
+        <v>1100</v>
+      </c>
       <c r="I238" s="3"/>
       <c r="J238" s="5"/>
-      <c r="K238" s="3"/>
+      <c r="K238" s="3">
+        <v>480000</v>
+      </c>
       <c r="L238" s="3"/>
       <c r="M238" s="3"/>
       <c r="N238" s="3"/>
@@ -12756,14 +12945,20 @@
       <c r="E239" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F239" s="3"/>
+      <c r="F239" s="3" t="s">
+        <v>1099</v>
+      </c>
       <c r="G239" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="H239" s="3"/>
+      <c r="H239" s="3" t="s">
+        <v>1100</v>
+      </c>
       <c r="I239" s="3"/>
       <c r="J239" s="5"/>
-      <c r="K239" s="3"/>
+      <c r="K239" s="3">
+        <v>630000</v>
+      </c>
       <c r="L239" s="3"/>
       <c r="M239" s="3"/>
       <c r="N239" s="3"/>
@@ -12787,14 +12982,20 @@
       <c r="E240" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F240" s="3"/>
+      <c r="F240" s="3" t="s">
+        <v>1103</v>
+      </c>
       <c r="G240" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="H240" s="3"/>
+      <c r="H240" s="3" t="s">
+        <v>1100</v>
+      </c>
       <c r="I240" s="3"/>
       <c r="J240" s="5"/>
-      <c r="K240" s="3"/>
+      <c r="K240" s="3">
+        <v>410000</v>
+      </c>
       <c r="L240" s="3"/>
       <c r="M240" s="3"/>
       <c r="N240" s="3"/>
@@ -12855,14 +13056,20 @@
       <c r="E242" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F242" s="3"/>
+      <c r="F242" s="3" t="s">
+        <v>1104</v>
+      </c>
       <c r="G242" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="H242" s="3"/>
+      <c r="H242" s="3" t="s">
+        <v>1101</v>
+      </c>
       <c r="I242" s="3"/>
       <c r="J242" s="5"/>
-      <c r="K242" s="3"/>
+      <c r="K242" s="3">
+        <v>960000</v>
+      </c>
       <c r="L242" s="3"/>
       <c r="M242" s="3"/>
       <c r="N242" s="3"/>
@@ -12923,14 +13130,20 @@
       <c r="E244" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F244" s="3"/>
+      <c r="F244" s="3" t="s">
+        <v>1116</v>
+      </c>
       <c r="G244" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H244" s="3"/>
+      <c r="H244" s="3" t="s">
+        <v>1117</v>
+      </c>
       <c r="I244" s="3"/>
       <c r="J244" s="5"/>
-      <c r="K244" s="3"/>
+      <c r="K244" s="3">
+        <v>3300000</v>
+      </c>
       <c r="L244" s="3"/>
       <c r="M244" s="3"/>
       <c r="N244" s="3"/>
@@ -12954,14 +13167,20 @@
       <c r="E245" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F245" s="3"/>
+      <c r="F245" s="3" t="s">
+        <v>1119</v>
+      </c>
       <c r="G245" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H245" s="3"/>
+      <c r="H245" s="3" t="s">
+        <v>1118</v>
+      </c>
       <c r="I245" s="3"/>
       <c r="J245" s="5"/>
-      <c r="K245" s="3"/>
+      <c r="K245" s="3">
+        <v>760000</v>
+      </c>
       <c r="L245" s="3"/>
       <c r="M245" s="3"/>
       <c r="N245" s="3"/>
@@ -13022,14 +13241,20 @@
       <c r="E247" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F247" s="3"/>
+      <c r="F247" s="3" t="s">
+        <v>1120</v>
+      </c>
       <c r="G247" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H247" s="3"/>
+      <c r="H247" s="3" t="s">
+        <v>1121</v>
+      </c>
       <c r="I247" s="3"/>
       <c r="J247" s="5"/>
-      <c r="K247" s="3"/>
+      <c r="K247" s="3">
+        <v>920000</v>
+      </c>
       <c r="L247" s="3"/>
       <c r="M247" s="3"/>
       <c r="N247" s="3"/>
@@ -13053,14 +13278,20 @@
       <c r="E248" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F248" s="3"/>
+      <c r="F248" s="3" t="s">
+        <v>1126</v>
+      </c>
       <c r="G248" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H248" s="3"/>
+      <c r="H248" s="3" t="s">
+        <v>1123</v>
+      </c>
       <c r="I248" s="3"/>
       <c r="J248" s="5"/>
-      <c r="K248" s="3"/>
+      <c r="K248" s="3">
+        <v>1200000</v>
+      </c>
       <c r="L248" s="3"/>
       <c r="M248" s="3"/>
       <c r="N248" s="3"/>
@@ -13084,14 +13315,20 @@
       <c r="E249" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F249" s="3"/>
+      <c r="F249" s="3" t="s">
+        <v>1122</v>
+      </c>
       <c r="G249" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H249" s="3"/>
+      <c r="H249" s="3" t="s">
+        <v>1123</v>
+      </c>
       <c r="I249" s="3"/>
       <c r="J249" s="5"/>
-      <c r="K249" s="3"/>
+      <c r="K249" s="3">
+        <v>4300000</v>
+      </c>
       <c r="L249" s="3"/>
       <c r="M249" s="3"/>
       <c r="N249" s="3"/>
@@ -13115,14 +13352,20 @@
       <c r="E250" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F250" s="3"/>
+      <c r="F250" s="3" t="s">
+        <v>1128</v>
+      </c>
       <c r="G250" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H250" s="3"/>
+      <c r="H250" s="3" t="s">
+        <v>1124</v>
+      </c>
       <c r="I250" s="3"/>
       <c r="J250" s="5"/>
-      <c r="K250" s="3"/>
+      <c r="K250" s="3">
+        <v>100000</v>
+      </c>
       <c r="L250" s="3"/>
       <c r="M250" s="3"/>
       <c r="N250" s="3"/>
@@ -13146,14 +13389,20 @@
       <c r="E251" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F251" s="3"/>
+      <c r="F251" s="3" t="s">
+        <v>1127</v>
+      </c>
       <c r="G251" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H251" s="3"/>
+      <c r="H251" s="3" t="s">
+        <v>1124</v>
+      </c>
       <c r="I251" s="3"/>
       <c r="J251" s="5"/>
-      <c r="K251" s="3"/>
+      <c r="K251" s="3">
+        <v>7400000</v>
+      </c>
       <c r="L251" s="3"/>
       <c r="M251" s="3"/>
       <c r="N251" s="3"/>
@@ -13214,14 +13463,20 @@
       <c r="E253" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F253" s="3"/>
+      <c r="F253" s="3" t="s">
+        <v>1130</v>
+      </c>
       <c r="G253" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H253" s="3"/>
+      <c r="H253" s="3" t="s">
+        <v>1125</v>
+      </c>
       <c r="I253" s="3"/>
       <c r="J253" s="5"/>
-      <c r="K253" s="3"/>
+      <c r="K253" s="3">
+        <v>980000</v>
+      </c>
       <c r="L253" s="3"/>
       <c r="M253" s="3"/>
       <c r="N253" s="3"/>
@@ -13245,14 +13500,20 @@
       <c r="E254" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F254" s="3"/>
+      <c r="F254" s="3" t="s">
+        <v>1129</v>
+      </c>
       <c r="G254" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H254" s="3"/>
+      <c r="H254" s="3" t="s">
+        <v>1125</v>
+      </c>
       <c r="I254" s="3"/>
       <c r="J254" s="5"/>
-      <c r="K254" s="3"/>
+      <c r="K254" s="3">
+        <v>1000000</v>
+      </c>
       <c r="L254" s="3"/>
       <c r="M254" s="3"/>
       <c r="N254" s="3"/>
@@ -13350,14 +13611,20 @@
       <c r="E257" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F257" s="3"/>
+      <c r="F257" s="3" t="s">
+        <v>1131</v>
+      </c>
       <c r="G257" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H257" s="3"/>
+      <c r="H257" s="3" t="s">
+        <v>1132</v>
+      </c>
       <c r="I257" s="3"/>
       <c r="J257" s="5"/>
-      <c r="K257" s="3"/>
+      <c r="K257" s="3">
+        <v>130000</v>
+      </c>
       <c r="L257" s="3"/>
       <c r="M257" s="3"/>
       <c r="N257" s="3"/>
@@ -13381,14 +13648,20 @@
       <c r="E258" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F258" s="3"/>
+      <c r="F258" s="3" t="s">
+        <v>1133</v>
+      </c>
       <c r="G258" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H258" s="3"/>
+      <c r="H258" s="3" t="s">
+        <v>1134</v>
+      </c>
       <c r="I258" s="3"/>
       <c r="J258" s="5"/>
-      <c r="K258" s="3"/>
+      <c r="K258" s="3">
+        <v>3700000</v>
+      </c>
       <c r="L258" s="3"/>
       <c r="M258" s="3"/>
       <c r="N258" s="3"/>
@@ -13412,14 +13685,20 @@
       <c r="E259" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F259" s="3"/>
+      <c r="F259" s="3" t="s">
+        <v>1135</v>
+      </c>
       <c r="G259" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H259" s="3"/>
+      <c r="H259" s="3" t="s">
+        <v>1136</v>
+      </c>
       <c r="I259" s="3"/>
       <c r="J259" s="5"/>
-      <c r="K259" s="3"/>
+      <c r="K259" s="3">
+        <v>960000</v>
+      </c>
       <c r="L259" s="3"/>
       <c r="M259" s="3"/>
       <c r="N259" s="3"/>
@@ -13443,14 +13722,20 @@
       <c r="E260" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F260" s="3"/>
+      <c r="F260" s="3" t="s">
+        <v>1137</v>
+      </c>
       <c r="G260" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H260" s="3"/>
+      <c r="H260" s="3" t="s">
+        <v>1136</v>
+      </c>
       <c r="I260" s="3"/>
       <c r="J260" s="5"/>
-      <c r="K260" s="3"/>
+      <c r="K260" s="3">
+        <v>3700000</v>
+      </c>
       <c r="L260" s="3"/>
       <c r="M260" s="3"/>
       <c r="N260" s="3"/>
@@ -13474,14 +13759,20 @@
       <c r="E261" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F261" s="3"/>
+      <c r="F261" s="3" t="s">
+        <v>1138</v>
+      </c>
       <c r="G261" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="H261" s="3"/>
+      <c r="H261" s="3" t="s">
+        <v>1139</v>
+      </c>
       <c r="I261" s="3"/>
       <c r="J261" s="5"/>
-      <c r="K261" s="3"/>
+      <c r="K261" s="3">
+        <v>5600000</v>
+      </c>
       <c r="L261" s="3"/>
       <c r="M261" s="3"/>
       <c r="N261" s="3"/>
@@ -13616,14 +13907,20 @@
       <c r="E265" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F265" s="3"/>
+      <c r="F265" s="3" t="s">
+        <v>1140</v>
+      </c>
       <c r="G265" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="H265" s="3"/>
+      <c r="H265" s="3" t="s">
+        <v>1141</v>
+      </c>
       <c r="I265" s="3"/>
       <c r="J265" s="5"/>
-      <c r="K265" s="3"/>
+      <c r="K265" s="3">
+        <v>1700000</v>
+      </c>
       <c r="L265" s="3"/>
       <c r="M265" s="3"/>
       <c r="N265" s="3"/>
@@ -13647,14 +13944,20 @@
       <c r="E266" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F266" s="3"/>
+      <c r="F266" s="3" t="s">
+        <v>1143</v>
+      </c>
       <c r="G266" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="H266" s="3"/>
+      <c r="H266" s="3" t="s">
+        <v>1143</v>
+      </c>
       <c r="I266" s="3"/>
       <c r="J266" s="5"/>
-      <c r="K266" s="3"/>
+      <c r="K266" s="3">
+        <v>140000</v>
+      </c>
       <c r="L266" s="3"/>
       <c r="M266" s="3"/>
       <c r="N266" s="3"/>
@@ -13715,14 +14018,20 @@
       <c r="E268" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F268" s="3"/>
+      <c r="F268" s="3" t="s">
+        <v>1144</v>
+      </c>
       <c r="G268" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="H268" s="3"/>
+      <c r="H268" s="3" t="s">
+        <v>1142</v>
+      </c>
       <c r="I268" s="3"/>
       <c r="J268" s="5"/>
-      <c r="K268" s="3"/>
+      <c r="K268" s="3">
+        <v>1100000</v>
+      </c>
       <c r="L268" s="3"/>
       <c r="M268" s="3"/>
       <c r="N268" s="3"/>
@@ -13746,14 +14055,20 @@
       <c r="E269" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F269" s="3"/>
+      <c r="F269" s="3" t="s">
+        <v>1145</v>
+      </c>
       <c r="G269" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="H269" s="3"/>
+      <c r="H269" s="3" t="s">
+        <v>1146</v>
+      </c>
       <c r="I269" s="3"/>
       <c r="J269" s="5"/>
-      <c r="K269" s="3"/>
+      <c r="K269" s="3">
+        <v>700000</v>
+      </c>
       <c r="L269" s="3"/>
       <c r="M269" s="3"/>
       <c r="N269" s="3"/>
@@ -13777,14 +14092,20 @@
       <c r="E270" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F270" s="3"/>
+      <c r="F270" s="3" t="s">
+        <v>1147</v>
+      </c>
       <c r="G270" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H270" s="3"/>
+      <c r="H270" s="3" t="s">
+        <v>1148</v>
+      </c>
       <c r="I270" s="3"/>
       <c r="J270" s="5"/>
-      <c r="K270" s="3"/>
+      <c r="K270" s="3">
+        <v>20000</v>
+      </c>
       <c r="L270" s="3"/>
       <c r="M270" s="3"/>
       <c r="N270" s="3"/>
@@ -13808,14 +14129,20 @@
       <c r="E271" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F271" s="3"/>
+      <c r="F271" s="3" t="s">
+        <v>1150</v>
+      </c>
       <c r="G271" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H271" s="3"/>
+      <c r="H271" s="3" t="s">
+        <v>1150</v>
+      </c>
       <c r="I271" s="3"/>
       <c r="J271" s="5"/>
-      <c r="K271" s="3"/>
+      <c r="K271" s="3">
+        <v>23000</v>
+      </c>
       <c r="L271" s="3"/>
       <c r="M271" s="3"/>
       <c r="N271" s="3"/>
@@ -13839,14 +14166,20 @@
       <c r="E272" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F272" s="3"/>
+      <c r="F272" s="3" t="s">
+        <v>1149</v>
+      </c>
       <c r="G272" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H272" s="3"/>
+      <c r="H272" s="3" t="s">
+        <v>1149</v>
+      </c>
       <c r="I272" s="3"/>
       <c r="J272" s="5"/>
-      <c r="K272" s="3"/>
+      <c r="K272" s="3">
+        <v>950000</v>
+      </c>
       <c r="L272" s="3"/>
       <c r="M272" s="3"/>
       <c r="N272" s="3"/>
@@ -13907,14 +14240,20 @@
       <c r="E274" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F274" s="3"/>
+      <c r="F274" s="3" t="s">
+        <v>1105</v>
+      </c>
       <c r="G274" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="H274" s="3"/>
+      <c r="H274" s="3" t="s">
+        <v>1106</v>
+      </c>
       <c r="I274" s="3"/>
       <c r="J274" s="5"/>
-      <c r="K274" s="3"/>
+      <c r="K274" s="3">
+        <v>2700000</v>
+      </c>
       <c r="L274" s="3"/>
       <c r="M274" s="3"/>
       <c r="N274" s="3"/>
@@ -15461,14 +15800,20 @@
       <c r="E322" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F322" s="3"/>
+      <c r="F322" s="3" t="s">
+        <v>1113</v>
+      </c>
       <c r="G322" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="H322" s="3"/>
+      <c r="H322" s="3" t="s">
+        <v>1114</v>
+      </c>
       <c r="I322" s="3"/>
       <c r="J322" s="5"/>
-      <c r="K322" s="3"/>
+      <c r="K322" s="3">
+        <v>1100000</v>
+      </c>
       <c r="L322" s="3"/>
       <c r="M322" s="3"/>
       <c r="N322" s="3"/>
@@ -15492,14 +15837,20 @@
       <c r="E323" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F323" s="3"/>
+      <c r="F323" s="3" t="s">
+        <v>1115</v>
+      </c>
       <c r="G323" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="H323" s="3"/>
+      <c r="H323" s="3" t="s">
+        <v>1114</v>
+      </c>
       <c r="I323" s="3"/>
       <c r="J323" s="5"/>
-      <c r="K323" s="3"/>
+      <c r="K323" s="3">
+        <v>190000</v>
+      </c>
       <c r="L323" s="3"/>
       <c r="M323" s="3"/>
       <c r="N323" s="3"/>
@@ -18132,14 +18483,20 @@
       <c r="E397" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F397" s="3"/>
+      <c r="F397" s="3" t="s">
+        <v>1111</v>
+      </c>
       <c r="G397" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H397" s="3"/>
+      <c r="H397" s="3" t="s">
+        <v>1112</v>
+      </c>
       <c r="I397" s="3"/>
       <c r="J397" s="5"/>
-      <c r="K397" s="3"/>
+      <c r="K397" s="3">
+        <v>940000</v>
+      </c>
       <c r="L397" s="3"/>
       <c r="M397" s="3"/>
       <c r="N397" s="3"/>
@@ -18163,14 +18520,20 @@
       <c r="E398" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F398" s="3"/>
+      <c r="F398" s="3" t="s">
+        <v>1109</v>
+      </c>
       <c r="G398" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H398" s="3"/>
+      <c r="H398" s="3" t="s">
+        <v>1110</v>
+      </c>
       <c r="I398" s="3"/>
       <c r="J398" s="5"/>
-      <c r="K398" s="3"/>
+      <c r="K398" s="3">
+        <v>2200000</v>
+      </c>
       <c r="L398" s="3"/>
       <c r="M398" s="3"/>
       <c r="N398" s="3"/>
@@ -18287,14 +18650,20 @@
       <c r="E402" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F402" s="3"/>
+      <c r="F402" s="3" t="s">
+        <v>1107</v>
+      </c>
       <c r="G402" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="H402" s="3"/>
+      <c r="H402" s="3" t="s">
+        <v>1108</v>
+      </c>
       <c r="I402" s="3"/>
       <c r="J402" s="5"/>
-      <c r="K402" s="3"/>
+      <c r="K402" s="3">
+        <v>1800000</v>
+      </c>
       <c r="L402" s="3"/>
       <c r="M402" s="3"/>
       <c r="N402" s="3"/>

--- a/MapFiles/ProvinceInfoExcel.xlsx
+++ b/MapFiles/ProvinceInfoExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\redss\Desktop\APPDEV\Tauresium\MapFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C631B2DC-1A55-485A-B79E-7F745F473ADA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5418781-07DD-45C2-827D-9F8DCF5AD5A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1BFF37CF-5075-4621-9872-3602807B8ECF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1BFF37CF-5075-4621-9872-3602807B8ECF}"/>
   </bookViews>
   <sheets>
     <sheet name="Provinces" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2243" uniqueCount="1151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2417" uniqueCount="1278">
   <si>
     <t>Alaska_BristolBay</t>
   </si>
@@ -1750,9 +1750,6 @@
     <t>Punjab</t>
   </si>
   <si>
-    <t>Central Tibet</t>
-  </si>
-  <si>
     <t>Trondelag</t>
   </si>
   <si>
@@ -3488,6 +3485,390 @@
   </si>
   <si>
     <t>Fada</t>
+  </si>
+  <si>
+    <t>Niamey</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Agadez</t>
+  </si>
+  <si>
+    <t>Yamoussoukro</t>
+  </si>
+  <si>
+    <t>Ivory Coast</t>
+  </si>
+  <si>
+    <t>Korhogo</t>
+  </si>
+  <si>
+    <t>Conakry</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Menabe</t>
+  </si>
+  <si>
+    <t>Kola</t>
+  </si>
+  <si>
+    <t>Leningrad</t>
+  </si>
+  <si>
+    <t>Novgorod</t>
+  </si>
+  <si>
+    <t>Arkhangelsk</t>
+  </si>
+  <si>
+    <t>Smolensk</t>
+  </si>
+  <si>
+    <t>Kankan</t>
+  </si>
+  <si>
+    <t>Bamako</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Krasnodar</t>
+  </si>
+  <si>
+    <t>Timbuktu</t>
+  </si>
+  <si>
+    <t>Morondava</t>
+  </si>
+  <si>
+    <t>Moscow</t>
+  </si>
+  <si>
+    <t>Voronezh</t>
+  </si>
+  <si>
+    <t>Saratov</t>
+  </si>
+  <si>
+    <t>Komi</t>
+  </si>
+  <si>
+    <t>Kirov</t>
+  </si>
+  <si>
+    <t>Yugra</t>
+  </si>
+  <si>
+    <t>Krasnodar Krai</t>
+  </si>
+  <si>
+    <t>Aktobe</t>
+  </si>
+  <si>
+    <t>Saint Petersburg</t>
+  </si>
+  <si>
+    <t>Samara</t>
+  </si>
+  <si>
+    <t>Veliky Novgorod</t>
+  </si>
+  <si>
+    <t>Murmansk</t>
+  </si>
+  <si>
+    <t>Syktyvkar</t>
+  </si>
+  <si>
+    <t>Irkustk</t>
+  </si>
+  <si>
+    <t>Atyrau</t>
+  </si>
+  <si>
+    <t>Khanty-Mansiysk</t>
+  </si>
+  <si>
+    <t>Salekhard</t>
+  </si>
+  <si>
+    <t>Yamalia</t>
+  </si>
+  <si>
+    <t>Krasoyarsk</t>
+  </si>
+  <si>
+    <t>Sakha</t>
+  </si>
+  <si>
+    <t>Magadan</t>
+  </si>
+  <si>
+    <t>Surgut</t>
+  </si>
+  <si>
+    <t>Abakan</t>
+  </si>
+  <si>
+    <t>Yakutsk</t>
+  </si>
+  <si>
+    <t>Irkutsk</t>
+  </si>
+  <si>
+    <t>Norilsk</t>
+  </si>
+  <si>
+    <t>Tiksi</t>
+  </si>
+  <si>
+    <t>Komsomolsk-on-Amur</t>
+  </si>
+  <si>
+    <t>Khabarovsk Krai</t>
+  </si>
+  <si>
+    <t>Chukotka</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Mirny</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Anadyr</t>
+  </si>
+  <si>
+    <t>Kabul</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Kandahar</t>
+  </si>
+  <si>
+    <t>Ashgabat</t>
+  </si>
+  <si>
+    <t>Dasoguz</t>
+  </si>
+  <si>
+    <t>Tashkent</t>
+  </si>
+  <si>
+    <t>Dushanbe</t>
+  </si>
+  <si>
+    <t>Bishkek</t>
+  </si>
+  <si>
+    <t>Harbin</t>
+  </si>
+  <si>
+    <t>Inner Mongolia</t>
+  </si>
+  <si>
+    <t>Heilongjiang</t>
+  </si>
+  <si>
+    <t>Wuhai</t>
+  </si>
+  <si>
+    <t>Gansu</t>
+  </si>
+  <si>
+    <t>Qinghai</t>
+  </si>
+  <si>
+    <t>Xining</t>
+  </si>
+  <si>
+    <t>Lanzhou</t>
+  </si>
+  <si>
+    <t>Shigatse</t>
+  </si>
+  <si>
+    <t>Tibet</t>
+  </si>
+  <si>
+    <t>Xinjiang</t>
+  </si>
+  <si>
+    <t>Korea</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Thimphu</t>
+  </si>
+  <si>
+    <t>Urumqi</t>
+  </si>
+  <si>
+    <t>Hami</t>
+  </si>
+  <si>
+    <t>Pyongyang</t>
+  </si>
+  <si>
+    <t>Seoul</t>
+  </si>
+  <si>
+    <t>Sokcho</t>
+  </si>
+  <si>
+    <t>Bangkok</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Pattaya</t>
+  </si>
+  <si>
+    <t>Ranong</t>
+  </si>
+  <si>
+    <t>Hat Yai</t>
+  </si>
+  <si>
+    <t>Hanoi</t>
+  </si>
+  <si>
+    <t>Hue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ho Chi Minh City </t>
+  </si>
+  <si>
+    <t>Medan</t>
+  </si>
+  <si>
+    <t>Sumatra</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>Palembang</t>
+  </si>
+  <si>
+    <t>Jakarta</t>
+  </si>
+  <si>
+    <t>Surabaya</t>
+  </si>
+  <si>
+    <t>Pontianak</t>
+  </si>
+  <si>
+    <t>Palangkaraya</t>
+  </si>
+  <si>
+    <t>Balikpapan</t>
+  </si>
+  <si>
+    <t>Tarakan</t>
+  </si>
+  <si>
+    <t>Phillipines</t>
+  </si>
+  <si>
+    <t>Queensland</t>
+  </si>
+  <si>
+    <t>Borneo</t>
+  </si>
+  <si>
+    <t>New Guinea</t>
+  </si>
+  <si>
+    <t>Sorong</t>
+  </si>
+  <si>
+    <t>Jayapura</t>
+  </si>
+  <si>
+    <t>Port Moresby</t>
+  </si>
+  <si>
+    <t>Manila</t>
+  </si>
+  <si>
+    <t>Davao City</t>
+  </si>
+  <si>
+    <t>Bandar Seri Begawan</t>
+  </si>
+  <si>
+    <t>Brisbane</t>
+  </si>
+  <si>
+    <t>Cairns</t>
+  </si>
+  <si>
+    <t>Canberra</t>
+  </si>
+  <si>
+    <t>New South Wales</t>
+  </si>
+  <si>
+    <t>Midura</t>
+  </si>
+  <si>
+    <t>Adelaide</t>
+  </si>
+  <si>
+    <t>South Australia</t>
+  </si>
+  <si>
+    <t>Port Lincoln</t>
+  </si>
+  <si>
+    <t>Western Australia</t>
+  </si>
+  <si>
+    <t>Albany</t>
+  </si>
+  <si>
+    <t>Perth</t>
+  </si>
+  <si>
+    <t>Wiluna</t>
+  </si>
+  <si>
+    <t>Newman</t>
+  </si>
+  <si>
+    <t>Kintore</t>
+  </si>
+  <si>
+    <t>North Australia</t>
+  </si>
+  <si>
+    <t>Darwin</t>
   </si>
 </sst>
 </file>
@@ -4014,8 +4395,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q435"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A421" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K432" sqref="K432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4063,16 +4444,16 @@
         <v>506</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>505</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>517</v>
@@ -4087,7 +4468,7 @@
         <v>520</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4107,16 +4488,16 @@
         <v>508</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>510</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="3">
@@ -4146,16 +4527,16 @@
         <v>508</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>510</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="3">
@@ -4185,16 +4566,16 @@
         <v>509</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>510</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="3">
@@ -4224,16 +4605,16 @@
         <v>508</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="3">
@@ -4263,16 +4644,16 @@
         <v>508</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>510</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="3">
@@ -4302,16 +4683,16 @@
         <v>509</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="3">
@@ -4341,13 +4722,13 @@
         <v>509</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="5"/>
@@ -4378,13 +4759,13 @@
         <v>508</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>510</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="5"/>
@@ -4415,13 +4796,13 @@
         <v>509</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>510</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="5"/>
@@ -4452,13 +4833,13 @@
         <v>508</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>510</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="5"/>
@@ -4489,13 +4870,13 @@
         <v>508</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>510</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="5"/>
@@ -4526,13 +4907,13 @@
         <v>508</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="5"/>
@@ -4563,13 +4944,13 @@
         <v>509</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="5"/>
@@ -4600,13 +4981,13 @@
         <v>509</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="5"/>
@@ -4637,13 +5018,13 @@
         <v>509</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="5"/>
@@ -4674,13 +5055,13 @@
         <v>509</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="5"/>
@@ -4711,13 +5092,13 @@
         <v>509</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="5"/>
@@ -4748,13 +5129,13 @@
         <v>508</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="5"/>
@@ -4785,13 +5166,13 @@
         <v>509</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="5"/>
@@ -4822,13 +5203,13 @@
         <v>509</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="5"/>
@@ -4859,13 +5240,13 @@
         <v>509</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="5"/>
@@ -4896,13 +5277,13 @@
         <v>508</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>510</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="5"/>
@@ -4933,13 +5314,13 @@
         <v>508</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>510</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="5"/>
@@ -4970,13 +5351,13 @@
         <v>508</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="5"/>
@@ -5007,13 +5388,13 @@
         <v>508</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="5"/>
@@ -5044,13 +5425,13 @@
         <v>508</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="5"/>
@@ -5081,13 +5462,13 @@
         <v>508</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="5"/>
@@ -5118,13 +5499,13 @@
         <v>509</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="5"/>
@@ -5155,13 +5536,13 @@
         <v>509</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="5"/>
@@ -5198,7 +5579,7 @@
         <v>512</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="5" t="s">
@@ -5233,13 +5614,13 @@
         <v>509</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="5"/>
@@ -5270,13 +5651,13 @@
         <v>508</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="5"/>
@@ -5307,13 +5688,13 @@
         <v>509</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="5"/>
@@ -5344,13 +5725,13 @@
         <v>509</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="5"/>
@@ -5381,13 +5762,13 @@
         <v>509</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="5"/>
@@ -5418,13 +5799,13 @@
         <v>509</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="5"/>
@@ -5455,13 +5836,13 @@
         <v>509</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="5"/>
@@ -5492,13 +5873,13 @@
         <v>509</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="5"/>
@@ -5529,13 +5910,13 @@
         <v>509</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="5"/>
@@ -5566,13 +5947,13 @@
         <v>509</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="5"/>
@@ -5603,13 +5984,13 @@
         <v>508</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="5"/>
@@ -5640,17 +6021,17 @@
         <v>508</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="K43" s="3">
         <v>700000</v>
@@ -5681,13 +6062,13 @@
         <v>508</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="5"/>
@@ -5718,13 +6099,13 @@
         <v>509</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="5"/>
@@ -5755,7 +6136,7 @@
         <v>509</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>514</v>
@@ -5792,13 +6173,13 @@
         <v>508</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="5"/>
@@ -5829,13 +6210,13 @@
         <v>508</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="5"/>
@@ -5866,13 +6247,13 @@
         <v>508</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="5"/>
@@ -5903,13 +6284,13 @@
         <v>509</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="I50" s="3"/>
       <c r="J50" s="5"/>
@@ -5940,13 +6321,13 @@
         <v>508</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="I51" s="3"/>
       <c r="J51" s="5"/>
@@ -5977,13 +6358,13 @@
         <v>508</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="I52" s="3"/>
       <c r="J52" s="5"/>
@@ -6014,13 +6395,13 @@
         <v>509</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="5"/>
@@ -6051,13 +6432,13 @@
         <v>508</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I54" s="3"/>
       <c r="J54" s="5"/>
@@ -6088,13 +6469,13 @@
         <v>508</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I55" s="3"/>
       <c r="J55" s="5" t="s">
@@ -6129,13 +6510,13 @@
         <v>508</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="I56" s="3"/>
       <c r="J56" s="5"/>
@@ -6166,13 +6547,13 @@
         <v>508</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I57" s="3"/>
       <c r="J57" s="5"/>
@@ -6203,13 +6584,13 @@
         <v>508</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="I58" s="3"/>
       <c r="J58" s="5"/>
@@ -6240,13 +6621,13 @@
         <v>508</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="I59" s="3"/>
       <c r="J59" s="5"/>
@@ -6277,13 +6658,13 @@
         <v>508</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="I60" s="3"/>
       <c r="J60" s="5"/>
@@ -6314,13 +6695,13 @@
         <v>509</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="I61" s="3"/>
       <c r="J61" s="5"/>
@@ -6351,13 +6732,13 @@
         <v>508</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="I62" s="3"/>
       <c r="J62" s="5"/>
@@ -6388,13 +6769,13 @@
         <v>508</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I63" s="3"/>
       <c r="J63" s="5"/>
@@ -6425,13 +6806,13 @@
         <v>509</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I64" s="3"/>
       <c r="J64" s="5"/>
@@ -6462,13 +6843,13 @@
         <v>508</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I65" s="3"/>
       <c r="J65" s="5"/>
@@ -6499,13 +6880,13 @@
         <v>508</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I66" s="3"/>
       <c r="J66" s="5"/>
@@ -6536,13 +6917,13 @@
         <v>509</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I67" s="3"/>
       <c r="J67" s="5"/>
@@ -6573,13 +6954,13 @@
         <v>508</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="I68" s="3"/>
       <c r="J68" s="5"/>
@@ -6610,13 +6991,13 @@
         <v>509</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I69" s="3"/>
       <c r="J69" s="5"/>
@@ -6647,13 +7028,13 @@
         <v>508</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I70" s="3"/>
       <c r="J70" s="5"/>
@@ -6684,13 +7065,13 @@
         <v>509</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I71" s="3"/>
       <c r="J71" s="5" t="s">
@@ -6725,13 +7106,13 @@
         <v>509</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="I72" s="3"/>
       <c r="J72" s="5"/>
@@ -6762,13 +7143,13 @@
         <v>509</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="I73" s="3"/>
       <c r="J73" s="5"/>
@@ -6799,13 +7180,13 @@
         <v>508</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G74" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I74" s="3"/>
       <c r="J74" s="5"/>
@@ -6836,13 +7217,13 @@
         <v>509</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I75" s="3"/>
       <c r="J75" s="5"/>
@@ -6873,13 +7254,13 @@
         <v>509</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I76" s="3"/>
       <c r="J76" s="5"/>
@@ -6910,13 +7291,13 @@
         <v>508</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="I77" s="3"/>
       <c r="J77" s="5"/>
@@ -6947,13 +7328,13 @@
         <v>509</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="I78" s="3"/>
       <c r="J78" s="5"/>
@@ -6984,13 +7365,13 @@
         <v>508</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G79" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="I79" s="3"/>
       <c r="J79" s="5" t="s">
@@ -7025,13 +7406,13 @@
         <v>509</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G80" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I80" s="3"/>
       <c r="J80" s="5"/>
@@ -7062,13 +7443,13 @@
         <v>509</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I81" s="3"/>
       <c r="J81" s="5"/>
@@ -7099,13 +7480,13 @@
         <v>508</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="I82" s="3"/>
       <c r="J82" s="5"/>
@@ -7136,13 +7517,13 @@
         <v>508</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I83" s="3"/>
       <c r="J83" s="5"/>
@@ -7173,13 +7554,13 @@
         <v>508</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I84" s="3"/>
       <c r="J84" s="5"/>
@@ -7210,13 +7591,13 @@
         <v>509</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="I85" s="3"/>
       <c r="J85" s="5"/>
@@ -7247,13 +7628,13 @@
         <v>509</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="I86" s="3"/>
       <c r="J86" s="5"/>
@@ -7284,13 +7665,13 @@
         <v>508</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="I87" s="3"/>
       <c r="J87" s="5"/>
@@ -7321,13 +7702,13 @@
         <v>509</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="I88" s="3"/>
       <c r="J88" s="5"/>
@@ -7358,13 +7739,13 @@
         <v>508</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I89" s="3"/>
       <c r="J89" s="5"/>
@@ -7395,13 +7776,13 @@
         <v>508</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G90" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="I90" s="3"/>
       <c r="J90" s="5"/>
@@ -7432,13 +7813,13 @@
         <v>509</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="I91" s="3"/>
       <c r="J91" s="5"/>
@@ -7469,13 +7850,13 @@
         <v>508</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G92" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="I92" s="3"/>
       <c r="J92" s="5"/>
@@ -7506,13 +7887,13 @@
         <v>508</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>510</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="I93" s="3"/>
       <c r="J93" s="5"/>
@@ -7543,13 +7924,13 @@
         <v>508</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>510</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="I94" s="3"/>
       <c r="J94" s="5"/>
@@ -7580,13 +7961,13 @@
         <v>509</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G95" s="3" t="s">
         <v>510</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="I95" s="3"/>
       <c r="J95" s="5"/>
@@ -7617,13 +7998,13 @@
         <v>508</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G96" s="3" t="s">
         <v>510</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="I96" s="3"/>
       <c r="J96" s="5"/>
@@ -7654,13 +8035,13 @@
         <v>508</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G97" s="3" t="s">
         <v>510</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="I97" s="3"/>
       <c r="J97" s="5"/>
@@ -7691,13 +8072,13 @@
         <v>508</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>510</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="I98" s="3"/>
       <c r="J98" s="5"/>
@@ -7728,13 +8109,13 @@
         <v>508</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G99" s="3" t="s">
         <v>510</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="I99" s="3"/>
       <c r="J99" s="5"/>
@@ -7765,13 +8146,13 @@
         <v>508</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>510</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I100" s="3"/>
       <c r="J100" s="5"/>
@@ -7802,13 +8183,13 @@
         <v>508</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="I101" s="3"/>
       <c r="J101" s="5"/>
@@ -7839,13 +8220,13 @@
         <v>508</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="I102" s="3"/>
       <c r="J102" s="5"/>
@@ -7876,13 +8257,13 @@
         <v>508</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G103" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="I103" s="3"/>
       <c r="J103" s="5"/>
@@ -7913,13 +8294,13 @@
         <v>508</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G104" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="I104" s="3"/>
       <c r="J104" s="5"/>
@@ -7950,13 +8331,13 @@
         <v>508</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G105" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="I105" s="3"/>
       <c r="J105" s="5"/>
@@ -7987,13 +8368,13 @@
         <v>508</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G106" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="I106" s="3"/>
       <c r="J106" s="5"/>
@@ -8024,13 +8405,13 @@
         <v>508</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G107" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="I107" s="3"/>
       <c r="J107" s="5"/>
@@ -8061,13 +8442,13 @@
         <v>509</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G108" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="I108" s="3"/>
       <c r="J108" s="5"/>
@@ -8098,13 +8479,13 @@
         <v>508</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G109" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I109" s="3"/>
       <c r="J109" s="5"/>
@@ -8135,13 +8516,13 @@
         <v>508</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="G110" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I110" s="3"/>
       <c r="J110" s="5"/>
@@ -8172,13 +8553,13 @@
         <v>509</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G111" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="I111" s="3"/>
       <c r="J111" s="5"/>
@@ -8209,13 +8590,13 @@
         <v>508</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G112" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I112" s="3"/>
       <c r="J112" s="5"/>
@@ -8246,13 +8627,13 @@
         <v>509</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="G113" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I113" s="3"/>
       <c r="J113" s="5"/>
@@ -8283,13 +8664,13 @@
         <v>509</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="G114" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="I114" s="3"/>
       <c r="J114" s="5"/>
@@ -8320,13 +8701,13 @@
         <v>508</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="G115" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="I115" s="3"/>
       <c r="J115" s="5"/>
@@ -8357,13 +8738,13 @@
         <v>509</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="G116" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="I116" s="3"/>
       <c r="J116" s="5"/>
@@ -8400,7 +8781,7 @@
         <v>513</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="I117" s="3"/>
       <c r="J117" s="5"/>
@@ -8437,7 +8818,7 @@
         <v>513</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I118" s="3"/>
       <c r="J118" s="5" t="s">
@@ -8472,13 +8853,13 @@
         <v>508</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="G119" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="I119" s="3"/>
       <c r="J119" s="5"/>
@@ -8509,13 +8890,13 @@
         <v>508</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G120" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="I120" s="3"/>
       <c r="J120" s="5"/>
@@ -8546,13 +8927,13 @@
         <v>508</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G121" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="I121" s="3"/>
       <c r="J121" s="5"/>
@@ -8583,13 +8964,13 @@
         <v>509</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G122" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="I122" s="3"/>
       <c r="J122" s="5"/>
@@ -8620,13 +9001,13 @@
         <v>509</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G123" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I123" s="3"/>
       <c r="J123" s="5"/>
@@ -8657,13 +9038,13 @@
         <v>508</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="G124" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="I124" s="3"/>
       <c r="J124" s="5"/>
@@ -8694,13 +9075,13 @@
         <v>508</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="G125" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="I125" s="3"/>
       <c r="J125" s="5"/>
@@ -8731,13 +9112,13 @@
         <v>509</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G126" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="I126" s="3"/>
       <c r="J126" s="5"/>
@@ -8768,13 +9149,13 @@
         <v>509</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G127" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I127" s="3"/>
       <c r="J127" s="5"/>
@@ -8805,13 +9186,13 @@
         <v>508</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="G128" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I128" s="3"/>
       <c r="J128" s="5"/>
@@ -8842,13 +9223,13 @@
         <v>508</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="G129" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="I129" s="3"/>
       <c r="J129" s="5"/>
@@ -8879,13 +9260,13 @@
         <v>509</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="G130" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="I130" s="3"/>
       <c r="J130" s="5"/>
@@ -8916,13 +9297,13 @@
         <v>509</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="G131" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I131" s="3"/>
       <c r="J131" s="5"/>
@@ -8953,13 +9334,13 @@
         <v>508</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="G132" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="I132" s="3"/>
       <c r="J132" s="5"/>
@@ -8990,13 +9371,13 @@
         <v>508</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="G133" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="I133" s="3"/>
       <c r="J133" s="5"/>
@@ -9027,13 +9408,13 @@
         <v>508</v>
       </c>
       <c r="F134" s="14" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G134" s="14" t="s">
         <v>514</v>
       </c>
       <c r="H134" s="14" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="I134" s="14"/>
       <c r="J134" s="15"/>
@@ -9064,13 +9445,13 @@
         <v>509</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="G135" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="I135" s="3"/>
       <c r="J135" s="5"/>
@@ -9101,13 +9482,13 @@
         <v>509</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="G136" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="I136" s="3"/>
       <c r="J136" s="5"/>
@@ -9138,13 +9519,13 @@
         <v>509</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G137" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I137" s="3"/>
       <c r="J137" s="5"/>
@@ -9175,13 +9556,13 @@
         <v>508</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="G138" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="I138" s="3"/>
       <c r="J138" s="5"/>
@@ -9212,13 +9593,13 @@
         <v>509</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="G139" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="I139" s="3"/>
       <c r="J139" s="5"/>
@@ -9249,13 +9630,13 @@
         <v>509</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="G140" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="I140" s="3"/>
       <c r="J140" s="5"/>
@@ -9286,13 +9667,13 @@
         <v>508</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="G141" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I141" s="3"/>
       <c r="J141" s="5"/>
@@ -9323,13 +9704,13 @@
         <v>509</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="G142" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="I142" s="3"/>
       <c r="J142" s="5"/>
@@ -9360,13 +9741,13 @@
         <v>509</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G143" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I143" s="3"/>
       <c r="J143" s="5"/>
@@ -9397,13 +9778,13 @@
         <v>509</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="G144" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="I144" s="3"/>
       <c r="J144" s="5"/>
@@ -9434,13 +9815,13 @@
         <v>509</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="G145" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H145" s="3" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="I145" s="3"/>
       <c r="J145" s="5"/>
@@ -9471,13 +9852,13 @@
         <v>508</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="G146" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I146" s="3"/>
       <c r="J146" s="5"/>
@@ -9508,13 +9889,13 @@
         <v>509</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G147" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="I147" s="3"/>
       <c r="J147" s="5"/>
@@ -9545,13 +9926,13 @@
         <v>509</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="G148" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="I148" s="3"/>
       <c r="J148" s="5"/>
@@ -9582,13 +9963,13 @@
         <v>508</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="G149" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="I149" s="3"/>
       <c r="J149" s="5"/>
@@ -9619,13 +10000,13 @@
         <v>509</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="G150" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="I150" s="3"/>
       <c r="J150" s="5"/>
@@ -9656,13 +10037,13 @@
         <v>509</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="G151" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="I151" s="3"/>
       <c r="J151" s="5"/>
@@ -9693,13 +10074,13 @@
         <v>508</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="G152" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="I152" s="3"/>
       <c r="J152" s="5"/>
@@ -9730,13 +10111,13 @@
         <v>508</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="G153" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="I153" s="3"/>
       <c r="J153" s="5"/>
@@ -9767,13 +10148,13 @@
         <v>508</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="G154" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H154" s="3" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I154" s="3"/>
       <c r="J154" s="5"/>
@@ -9804,13 +10185,13 @@
         <v>508</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G155" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H155" s="3" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I155" s="3"/>
       <c r="J155" s="5"/>
@@ -9841,13 +10222,13 @@
         <v>508</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G156" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H156" s="3" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I156" s="3"/>
       <c r="J156" s="5"/>
@@ -9878,13 +10259,13 @@
         <v>509</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="G157" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H157" s="3" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="I157" s="3"/>
       <c r="J157" s="5"/>
@@ -9915,13 +10296,13 @@
         <v>508</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G158" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H158" s="3" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="I158" s="3"/>
       <c r="J158" s="5"/>
@@ -9952,13 +10333,13 @@
         <v>509</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="G159" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H159" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="I159" s="3"/>
       <c r="J159" s="5"/>
@@ -9989,13 +10370,13 @@
         <v>508</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G160" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H160" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I160" s="3"/>
       <c r="J160" s="5"/>
@@ -10026,17 +10407,17 @@
         <v>509</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G161" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H161" s="3" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="I161" s="3"/>
       <c r="J161" s="5" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="K161" s="3">
         <v>18000</v>
@@ -10065,13 +10446,13 @@
         <v>508</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G162" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H162" s="3" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="I162" s="3"/>
       <c r="J162" s="5"/>
@@ -10108,7 +10489,7 @@
         <v>511</v>
       </c>
       <c r="H163" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I163" s="3"/>
       <c r="J163" s="5"/>
@@ -10139,13 +10520,13 @@
         <v>508</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="G164" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H164" s="3" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I164" s="3"/>
       <c r="J164" s="5"/>
@@ -10176,13 +10557,13 @@
         <v>508</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="G165" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H165" s="3" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="I165" s="3"/>
       <c r="J165" s="5"/>
@@ -10213,13 +10594,13 @@
         <v>509</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="G166" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H166" s="3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="I166" s="3"/>
       <c r="J166" s="5"/>
@@ -10250,13 +10631,13 @@
         <v>508</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="G167" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H167" s="3" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="I167" s="3"/>
       <c r="J167" s="5"/>
@@ -10287,13 +10668,13 @@
         <v>508</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G168" s="3" t="s">
         <v>510</v>
       </c>
       <c r="H168" s="3" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="I168" s="3"/>
       <c r="J168" s="5"/>
@@ -10324,13 +10705,13 @@
         <v>508</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="G169" s="3" t="s">
         <v>510</v>
       </c>
       <c r="H169" s="3" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="I169" s="3"/>
       <c r="J169" s="5"/>
@@ -10361,13 +10742,13 @@
         <v>508</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G170" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H170" s="3" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="I170" s="3"/>
       <c r="J170" s="5"/>
@@ -10398,13 +10779,13 @@
         <v>508</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="G171" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H171" s="3" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="I171" s="3"/>
       <c r="J171" s="5"/>
@@ -10435,13 +10816,13 @@
         <v>508</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="G172" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H172" s="3" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="I172" s="3"/>
       <c r="J172" s="5"/>
@@ -10472,13 +10853,13 @@
         <v>508</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="G173" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H173" s="3" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="I173" s="3"/>
       <c r="J173" s="5"/>
@@ -10509,13 +10890,13 @@
         <v>508</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="G174" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H174" s="3" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="I174" s="3"/>
       <c r="J174" s="5"/>
@@ -10546,13 +10927,13 @@
         <v>508</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="G175" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H175" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I175" s="3"/>
       <c r="J175" s="5"/>
@@ -10583,13 +10964,13 @@
         <v>508</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="G176" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H176" s="3" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="I176" s="3"/>
       <c r="J176" s="5"/>
@@ -10626,7 +11007,7 @@
         <v>513</v>
       </c>
       <c r="H177" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I177" s="3"/>
       <c r="J177" s="5" t="s">
@@ -10661,7 +11042,7 @@
         <v>508</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="G178" s="3" t="s">
         <v>512</v>
@@ -10698,13 +11079,13 @@
         <v>509</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G179" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H179" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I179" s="3"/>
       <c r="J179" s="5"/>
@@ -10735,13 +11116,13 @@
         <v>509</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G180" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H180" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I180" s="3"/>
       <c r="J180" s="5"/>
@@ -10772,13 +11153,13 @@
         <v>509</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="G181" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H181" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I181" s="3"/>
       <c r="J181" s="5"/>
@@ -10809,13 +11190,13 @@
         <v>508</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="G182" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H182" s="3" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I182" s="3"/>
       <c r="J182" s="5"/>
@@ -10846,13 +11227,13 @@
         <v>509</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="G183" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I183" s="3"/>
       <c r="J183" s="5"/>
@@ -10883,13 +11264,13 @@
         <v>509</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="G184" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H184" s="3" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="I184" s="3"/>
       <c r="J184" s="5" t="s">
@@ -10924,13 +11305,13 @@
         <v>509</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="G185" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H185" s="3" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="I185" s="3"/>
       <c r="J185" s="5"/>
@@ -10961,13 +11342,13 @@
         <v>508</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="G186" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H186" s="3" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="I186" s="3"/>
       <c r="J186" s="5"/>
@@ -11004,7 +11385,7 @@
         <v>512</v>
       </c>
       <c r="H187" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I187" s="3"/>
       <c r="J187" s="5" t="s">
@@ -11039,13 +11420,13 @@
         <v>509</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="G188" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H188" s="3" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="I188" s="3"/>
       <c r="J188" s="5"/>
@@ -11076,13 +11457,13 @@
         <v>509</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G189" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H189" s="3" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="I189" s="3"/>
       <c r="J189" s="5"/>
@@ -11113,13 +11494,13 @@
         <v>509</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G190" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H190" s="3" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="I190" s="3"/>
       <c r="J190" s="5"/>
@@ -11150,13 +11531,13 @@
         <v>509</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="G191" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H191" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I191" s="3"/>
       <c r="J191" s="5"/>
@@ -11187,13 +11568,13 @@
         <v>509</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="G192" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H192" s="3" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="I192" s="3"/>
       <c r="J192" s="5"/>
@@ -11224,13 +11605,13 @@
         <v>509</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="G193" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H193" s="3" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="I193" s="3"/>
       <c r="J193" s="5"/>
@@ -11261,13 +11642,13 @@
         <v>508</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="G194" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H194" s="3" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="I194" s="3"/>
       <c r="J194" s="5"/>
@@ -11298,13 +11679,13 @@
         <v>509</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="G195" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H195" s="3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="I195" s="3"/>
       <c r="J195" s="5"/>
@@ -11335,13 +11716,13 @@
         <v>509</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G196" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H196" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I196" s="3"/>
       <c r="J196" s="5"/>
@@ -11372,13 +11753,13 @@
         <v>509</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="G197" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H197" s="3" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="I197" s="3"/>
       <c r="J197" s="5"/>
@@ -11409,13 +11790,13 @@
         <v>508</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G198" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H198" s="3" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="I198" s="3"/>
       <c r="J198" s="5"/>
@@ -11446,13 +11827,13 @@
         <v>509</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G199" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H199" s="3" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="I199" s="3"/>
       <c r="J199" s="5"/>
@@ -11483,13 +11864,13 @@
         <v>508</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="G200" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H200" s="3" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="I200" s="3"/>
       <c r="J200" s="5" t="s">
@@ -11524,13 +11905,13 @@
         <v>508</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G201" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H201" s="3" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="I201" s="3"/>
       <c r="J201" s="5"/>
@@ -11561,13 +11942,13 @@
         <v>509</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="G202" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H202" s="3" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="I202" s="3"/>
       <c r="J202" s="5"/>
@@ -11639,13 +12020,13 @@
         <v>508</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="G204" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H204" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="I204" s="3"/>
       <c r="J204" s="5"/>
@@ -11676,13 +12057,13 @@
         <v>509</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G205" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H205" s="3" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="I205" s="3"/>
       <c r="J205" s="5"/>
@@ -11713,13 +12094,13 @@
         <v>509</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G206" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H206" s="3" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="I206" s="3"/>
       <c r="J206" s="5"/>
@@ -11750,13 +12131,13 @@
         <v>509</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="G207" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H207" s="3" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I207" s="3"/>
       <c r="J207" s="5"/>
@@ -11787,13 +12168,13 @@
         <v>509</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="G208" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H208" s="3" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="I208" s="3"/>
       <c r="J208" s="5"/>
@@ -11824,13 +12205,13 @@
         <v>508</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="G209" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H209" s="3" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="I209" s="3"/>
       <c r="J209" s="5"/>
@@ -11861,13 +12242,13 @@
         <v>509</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="G210" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H210" s="3" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="I210" s="3"/>
       <c r="J210" s="5"/>
@@ -11898,13 +12279,13 @@
         <v>509</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="G211" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H211" s="3" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="I211" s="3"/>
       <c r="J211" s="5"/>
@@ -11935,13 +12316,13 @@
         <v>508</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="G212" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H212" s="3" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="I212" s="3"/>
       <c r="J212" s="5"/>
@@ -11972,13 +12353,13 @@
         <v>509</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="G213" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H213" s="3" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="I213" s="3"/>
       <c r="J213" s="5"/>
@@ -12009,13 +12390,13 @@
         <v>508</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="G214" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H214" s="3" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="I214" s="3"/>
       <c r="J214" s="5"/>
@@ -12046,13 +12427,13 @@
         <v>509</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="G215" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H215" s="3" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="I215" s="3"/>
       <c r="J215" s="5"/>
@@ -12083,13 +12464,13 @@
         <v>508</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="G216" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H216" s="3" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="I216" s="3"/>
       <c r="J216" s="5"/>
@@ -12120,17 +12501,17 @@
         <v>508</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G217" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H217" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I217" s="3"/>
       <c r="J217" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="K217" s="3">
         <v>740000</v>
@@ -12161,13 +12542,13 @@
         <v>508</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="G218" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H218" s="3" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="I218" s="3"/>
       <c r="J218" s="5"/>
@@ -12198,13 +12579,13 @@
         <v>509</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="G219" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H219" s="3" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="I219" s="3"/>
       <c r="J219" s="5"/>
@@ -12235,13 +12616,13 @@
         <v>508</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="G220" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H220" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="I220" s="3"/>
       <c r="J220" s="5"/>
@@ -12272,13 +12653,13 @@
         <v>509</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="G221" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H221" s="3" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="I221" s="3"/>
       <c r="J221" s="5"/>
@@ -12309,13 +12690,13 @@
         <v>509</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="G222" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H222" s="3" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="I222" s="3"/>
       <c r="J222" s="5" t="s">
@@ -12350,13 +12731,13 @@
         <v>508</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="G223" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H223" s="3" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="I223" s="3"/>
       <c r="J223" s="5"/>
@@ -12387,13 +12768,13 @@
         <v>509</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="G224" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H224" s="3" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="I224" s="3"/>
       <c r="J224" s="5"/>
@@ -12424,13 +12805,13 @@
         <v>508</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="G225" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H225" s="3" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="I225" s="3"/>
       <c r="J225" s="5"/>
@@ -12461,13 +12842,13 @@
         <v>509</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="G226" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H226" s="3" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="I226" s="3"/>
       <c r="J226" s="5"/>
@@ -12498,17 +12879,17 @@
         <v>508</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G227" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H227" s="3" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="I227" s="3"/>
       <c r="J227" s="5" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="K227" s="3">
         <v>11000000</v>
@@ -12539,13 +12920,13 @@
         <v>508</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="G228" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H228" s="3" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="I228" s="3"/>
       <c r="J228" s="5"/>
@@ -12576,13 +12957,13 @@
         <v>509</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="G229" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H229" s="3" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="I229" s="3"/>
       <c r="J229" s="5"/>
@@ -12613,13 +12994,13 @@
         <v>509</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="G230" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H230" s="3" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="I230" s="3"/>
       <c r="J230" s="5"/>
@@ -12650,13 +13031,13 @@
         <v>509</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="G231" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H231" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="I231" s="3"/>
       <c r="J231" s="5"/>
@@ -12687,13 +13068,13 @@
         <v>508</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="G232" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H232" s="3" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="I232" s="3"/>
       <c r="J232" s="5"/>
@@ -12724,13 +13105,13 @@
         <v>509</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G233" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H233" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I233" s="3"/>
       <c r="J233" s="5"/>
@@ -12761,13 +13142,13 @@
         <v>509</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G234" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H234" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I234" s="3"/>
       <c r="J234" s="5"/>
@@ -12798,13 +13179,13 @@
         <v>509</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="G235" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H235" s="3" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="I235" s="3"/>
       <c r="J235" s="5"/>
@@ -12835,13 +13216,13 @@
         <v>508</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="G236" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H236" s="3" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="I236" s="3"/>
       <c r="J236" s="5"/>
@@ -12872,13 +13253,13 @@
         <v>508</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="G237" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H237" s="3" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="I237" s="3"/>
       <c r="J237" s="5"/>
@@ -12909,13 +13290,13 @@
         <v>508</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G238" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H238" s="3" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I238" s="3"/>
       <c r="J238" s="5"/>
@@ -12946,13 +13327,13 @@
         <v>509</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="G239" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H239" s="3" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I239" s="3"/>
       <c r="J239" s="5"/>
@@ -12983,13 +13364,13 @@
         <v>509</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="G240" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H240" s="3" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I240" s="3"/>
       <c r="J240" s="5"/>
@@ -13057,13 +13438,13 @@
         <v>508</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="G242" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H242" s="3" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I242" s="3"/>
       <c r="J242" s="5"/>
@@ -13094,13 +13475,13 @@
         <v>509</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G243" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H243" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I243" s="3"/>
       <c r="J243" s="5"/>
@@ -13131,13 +13512,13 @@
         <v>509</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="G244" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H244" s="3" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="I244" s="3"/>
       <c r="J244" s="5"/>
@@ -13168,13 +13549,13 @@
         <v>509</v>
       </c>
       <c r="F245" s="3" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="G245" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H245" s="3" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="I245" s="3"/>
       <c r="J245" s="5"/>
@@ -13242,13 +13623,13 @@
         <v>508</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="G247" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H247" s="3" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="I247" s="3"/>
       <c r="J247" s="5"/>
@@ -13279,13 +13660,13 @@
         <v>508</v>
       </c>
       <c r="F248" s="3" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="G248" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H248" s="3" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="I248" s="3"/>
       <c r="J248" s="5"/>
@@ -13316,13 +13697,13 @@
         <v>509</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="G249" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H249" s="3" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="I249" s="3"/>
       <c r="J249" s="5"/>
@@ -13353,13 +13734,13 @@
         <v>508</v>
       </c>
       <c r="F250" s="3" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G250" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H250" s="3" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="I250" s="3"/>
       <c r="J250" s="5"/>
@@ -13390,13 +13771,13 @@
         <v>509</v>
       </c>
       <c r="F251" s="3" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G251" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H251" s="3" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="I251" s="3"/>
       <c r="J251" s="5"/>
@@ -13427,13 +13808,13 @@
         <v>509</v>
       </c>
       <c r="F252" s="3" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="G252" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H252" s="3" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="I252" s="3"/>
       <c r="J252" s="5"/>
@@ -13464,13 +13845,13 @@
         <v>508</v>
       </c>
       <c r="F253" s="3" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="G253" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H253" s="3" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="I253" s="3"/>
       <c r="J253" s="5"/>
@@ -13501,13 +13882,13 @@
         <v>508</v>
       </c>
       <c r="F254" s="3" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="G254" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H254" s="3" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="I254" s="3"/>
       <c r="J254" s="5"/>
@@ -13538,7 +13919,7 @@
         <v>509</v>
       </c>
       <c r="F255" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G255" s="3" t="s">
         <v>513</v>
@@ -13575,7 +13956,7 @@
         <v>509</v>
       </c>
       <c r="F256" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G256" s="3" t="s">
         <v>513</v>
@@ -13612,13 +13993,13 @@
         <v>509</v>
       </c>
       <c r="F257" s="3" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="G257" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H257" s="3" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="I257" s="3"/>
       <c r="J257" s="5"/>
@@ -13649,13 +14030,13 @@
         <v>508</v>
       </c>
       <c r="F258" s="3" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="G258" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H258" s="3" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="I258" s="3"/>
       <c r="J258" s="5"/>
@@ -13686,13 +14067,13 @@
         <v>508</v>
       </c>
       <c r="F259" s="3" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="G259" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H259" s="3" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="I259" s="3"/>
       <c r="J259" s="5"/>
@@ -13723,13 +14104,13 @@
         <v>508</v>
       </c>
       <c r="F260" s="3" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="G260" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H260" s="3" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="I260" s="3"/>
       <c r="J260" s="5"/>
@@ -13760,13 +14141,13 @@
         <v>509</v>
       </c>
       <c r="F261" s="3" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="G261" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H261" s="3" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="I261" s="3"/>
       <c r="J261" s="5"/>
@@ -13797,13 +14178,13 @@
         <v>508</v>
       </c>
       <c r="F262" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="G262" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H262" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I262" s="3"/>
       <c r="J262" s="5"/>
@@ -13834,13 +14215,13 @@
         <v>508</v>
       </c>
       <c r="F263" s="3" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="G263" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H263" s="3" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="I263" s="3"/>
       <c r="J263" s="5"/>
@@ -13871,13 +14252,13 @@
         <v>509</v>
       </c>
       <c r="F264" s="3" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="G264" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H264" s="3" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="I264" s="3"/>
       <c r="J264" s="5"/>
@@ -13908,13 +14289,13 @@
         <v>509</v>
       </c>
       <c r="F265" s="3" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="G265" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H265" s="3" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="I265" s="3"/>
       <c r="J265" s="5"/>
@@ -13945,13 +14326,13 @@
         <v>508</v>
       </c>
       <c r="F266" s="3" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G266" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H266" s="3" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="I266" s="3"/>
       <c r="J266" s="5"/>
@@ -14019,13 +14400,13 @@
         <v>509</v>
       </c>
       <c r="F268" s="3" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G268" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H268" s="3" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="I268" s="3"/>
       <c r="J268" s="5"/>
@@ -14056,13 +14437,13 @@
         <v>509</v>
       </c>
       <c r="F269" s="3" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G269" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H269" s="3" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="I269" s="3"/>
       <c r="J269" s="5"/>
@@ -14093,13 +14474,13 @@
         <v>509</v>
       </c>
       <c r="F270" s="3" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G270" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H270" s="3" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="I270" s="3"/>
       <c r="J270" s="5"/>
@@ -14130,13 +14511,13 @@
         <v>509</v>
       </c>
       <c r="F271" s="3" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G271" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H271" s="3" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="I271" s="3"/>
       <c r="J271" s="5"/>
@@ -14167,13 +14548,13 @@
         <v>509</v>
       </c>
       <c r="F272" s="3" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G272" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H272" s="3" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="I272" s="3"/>
       <c r="J272" s="5"/>
@@ -14204,13 +14585,13 @@
         <v>509</v>
       </c>
       <c r="F273" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G273" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H273" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I273" s="3"/>
       <c r="J273" s="5"/>
@@ -14241,13 +14622,13 @@
         <v>508</v>
       </c>
       <c r="F274" s="3" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="G274" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H274" s="3" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="I274" s="3"/>
       <c r="J274" s="5"/>
@@ -14277,14 +14658,20 @@
       <c r="E275" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F275" s="3"/>
+      <c r="F275" s="3" t="s">
+        <v>1152</v>
+      </c>
       <c r="G275" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H275" s="3"/>
+      <c r="H275" s="3" t="s">
+        <v>1151</v>
+      </c>
       <c r="I275" s="3"/>
       <c r="J275" s="5"/>
-      <c r="K275" s="3"/>
+      <c r="K275" s="3">
+        <v>110000</v>
+      </c>
       <c r="L275" s="3"/>
       <c r="M275" s="3"/>
       <c r="N275" s="3"/>
@@ -14308,14 +14695,20 @@
       <c r="E276" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F276" s="3"/>
+      <c r="F276" s="3" t="s">
+        <v>1150</v>
+      </c>
       <c r="G276" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="H276" s="3"/>
+      <c r="H276" s="3" t="s">
+        <v>1151</v>
+      </c>
       <c r="I276" s="3"/>
       <c r="J276" s="5"/>
-      <c r="K276" s="3"/>
+      <c r="K276" s="3">
+        <v>1000000</v>
+      </c>
       <c r="L276" s="3"/>
       <c r="M276" s="3"/>
       <c r="N276" s="3"/>
@@ -14340,13 +14733,13 @@
         <v>508</v>
       </c>
       <c r="F277" s="3" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G277" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H277" s="3" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="I277" s="3"/>
       <c r="J277" s="5"/>
@@ -14376,14 +14769,20 @@
       <c r="E278" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F278" s="3"/>
+      <c r="F278" s="3" t="s">
+        <v>1155</v>
+      </c>
       <c r="G278" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="H278" s="3"/>
+      <c r="H278" s="3" t="s">
+        <v>1154</v>
+      </c>
       <c r="I278" s="3"/>
       <c r="J278" s="5"/>
-      <c r="K278" s="3"/>
+      <c r="K278" s="3">
+        <v>280000</v>
+      </c>
       <c r="L278" s="3"/>
       <c r="M278" s="3"/>
       <c r="N278" s="3"/>
@@ -14407,14 +14806,20 @@
       <c r="E279" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F279" s="3"/>
+      <c r="F279" s="3" t="s">
+        <v>1153</v>
+      </c>
       <c r="G279" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="H279" s="3"/>
+      <c r="H279" s="3" t="s">
+        <v>1154</v>
+      </c>
       <c r="I279" s="3"/>
       <c r="J279" s="5"/>
-      <c r="K279" s="3"/>
+      <c r="K279" s="3">
+        <v>360000</v>
+      </c>
       <c r="L279" s="3"/>
       <c r="M279" s="3"/>
       <c r="N279" s="3"/>
@@ -14439,13 +14844,13 @@
         <v>508</v>
       </c>
       <c r="F280" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G280" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H280" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I280" s="3"/>
       <c r="J280" s="5"/>
@@ -14475,14 +14880,20 @@
       <c r="E281" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F281" s="3"/>
+      <c r="F281" s="3" t="s">
+        <v>1164</v>
+      </c>
       <c r="G281" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H281" s="3"/>
+      <c r="H281" s="3" t="s">
+        <v>1157</v>
+      </c>
       <c r="I281" s="3"/>
       <c r="J281" s="5"/>
-      <c r="K281" s="3"/>
+      <c r="K281" s="3">
+        <v>190000</v>
+      </c>
       <c r="L281" s="3"/>
       <c r="M281" s="3"/>
       <c r="N281" s="3"/>
@@ -14506,14 +14917,20 @@
       <c r="E282" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F282" s="3"/>
+      <c r="F282" s="3" t="s">
+        <v>1156</v>
+      </c>
       <c r="G282" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H282" s="3"/>
+      <c r="H282" s="3" t="s">
+        <v>1157</v>
+      </c>
       <c r="I282" s="3"/>
       <c r="J282" s="5"/>
-      <c r="K282" s="3"/>
+      <c r="K282" s="3">
+        <v>1600000</v>
+      </c>
       <c r="L282" s="3"/>
       <c r="M282" s="3"/>
       <c r="N282" s="3"/>
@@ -14538,13 +14955,13 @@
         <v>508</v>
       </c>
       <c r="F283" s="3" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="G283" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H283" s="3" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="I283" s="3"/>
       <c r="J283" s="5"/>
@@ -14574,14 +14991,20 @@
       <c r="E284" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F284" s="3"/>
+      <c r="F284" s="3" t="s">
+        <v>1165</v>
+      </c>
       <c r="G284" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H284" s="3"/>
+      <c r="H284" s="3" t="s">
+        <v>1166</v>
+      </c>
       <c r="I284" s="3"/>
       <c r="J284" s="5"/>
-      <c r="K284" s="3"/>
+      <c r="K284" s="3">
+        <v>2700000</v>
+      </c>
       <c r="L284" s="3"/>
       <c r="M284" s="3"/>
       <c r="N284" s="3"/>
@@ -14605,14 +15028,20 @@
       <c r="E285" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F285" s="3"/>
+      <c r="F285" s="3" t="s">
+        <v>1168</v>
+      </c>
       <c r="G285" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="H285" s="3"/>
+      <c r="H285" s="3" t="s">
+        <v>1166</v>
+      </c>
       <c r="I285" s="3"/>
       <c r="J285" s="5"/>
-      <c r="K285" s="3"/>
+      <c r="K285" s="3">
+        <v>54000</v>
+      </c>
       <c r="L285" s="3"/>
       <c r="M285" s="3"/>
       <c r="N285" s="3"/>
@@ -14637,13 +15066,13 @@
         <v>508</v>
       </c>
       <c r="F286" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G286" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H286" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I286" s="3"/>
       <c r="J286" s="5"/>
@@ -14674,13 +15103,13 @@
         <v>508</v>
       </c>
       <c r="F287" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G287" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H287" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I287" s="3"/>
       <c r="J287" s="5"/>
@@ -14711,13 +15140,13 @@
         <v>508</v>
       </c>
       <c r="F288" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G288" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H288" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I288" s="3"/>
       <c r="J288" s="5"/>
@@ -14747,14 +15176,20 @@
       <c r="E289" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F289" s="3"/>
+      <c r="F289" s="3" t="s">
+        <v>1169</v>
+      </c>
       <c r="G289" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H289" s="3"/>
+      <c r="H289" s="3" t="s">
+        <v>1158</v>
+      </c>
       <c r="I289" s="3"/>
       <c r="J289" s="5"/>
-      <c r="K289" s="3"/>
+      <c r="K289" s="3">
+        <v>120000</v>
+      </c>
       <c r="L289" s="3"/>
       <c r="M289" s="3"/>
       <c r="N289" s="3"/>
@@ -14778,14 +15213,20 @@
       <c r="E290" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F290" s="3"/>
+      <c r="F290" s="3" t="s">
+        <v>1167</v>
+      </c>
       <c r="G290" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H290" s="3"/>
+      <c r="H290" s="3" t="s">
+        <v>1176</v>
+      </c>
       <c r="I290" s="3"/>
       <c r="J290" s="5"/>
-      <c r="K290" s="3"/>
+      <c r="K290" s="3">
+        <v>720000</v>
+      </c>
       <c r="L290" s="3"/>
       <c r="M290" s="3"/>
       <c r="N290" s="3"/>
@@ -14809,14 +15250,20 @@
       <c r="E291" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F291" s="3"/>
+      <c r="F291" s="3" t="s">
+        <v>1181</v>
+      </c>
       <c r="G291" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="H291" s="3"/>
+      <c r="H291" s="3" t="s">
+        <v>1159</v>
+      </c>
       <c r="I291" s="3"/>
       <c r="J291" s="5"/>
-      <c r="K291" s="3"/>
+      <c r="K291" s="3">
+        <v>300000</v>
+      </c>
       <c r="L291" s="3"/>
       <c r="M291" s="3"/>
       <c r="N291" s="3"/>
@@ -14877,14 +15324,20 @@
       <c r="E293" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F293" s="3"/>
+      <c r="F293" s="3" t="s">
+        <v>1178</v>
+      </c>
       <c r="G293" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H293" s="3"/>
+      <c r="H293" s="3" t="s">
+        <v>1160</v>
+      </c>
       <c r="I293" s="3"/>
       <c r="J293" s="5"/>
-      <c r="K293" s="3"/>
+      <c r="K293" s="3">
+        <v>5300000</v>
+      </c>
       <c r="L293" s="3"/>
       <c r="M293" s="3"/>
       <c r="N293" s="3"/>
@@ -14908,14 +15361,20 @@
       <c r="E294" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F294" s="3"/>
+      <c r="F294" s="3" t="s">
+        <v>1180</v>
+      </c>
       <c r="G294" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H294" s="3"/>
+      <c r="H294" s="3" t="s">
+        <v>1161</v>
+      </c>
       <c r="I294" s="3"/>
       <c r="J294" s="5"/>
-      <c r="K294" s="3"/>
+      <c r="K294" s="3">
+        <v>210000</v>
+      </c>
       <c r="L294" s="3"/>
       <c r="M294" s="3"/>
       <c r="N294" s="3"/>
@@ -14939,14 +15398,20 @@
       <c r="E295" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F295" s="3"/>
+      <c r="F295" s="3" t="s">
+        <v>1162</v>
+      </c>
       <c r="G295" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="H295" s="3"/>
+      <c r="H295" s="3" t="s">
+        <v>1162</v>
+      </c>
       <c r="I295" s="3"/>
       <c r="J295" s="5"/>
-      <c r="K295" s="3"/>
+      <c r="K295" s="3">
+        <v>340000</v>
+      </c>
       <c r="L295" s="3"/>
       <c r="M295" s="3"/>
       <c r="N295" s="3"/>
@@ -14970,14 +15435,20 @@
       <c r="E296" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F296" s="3"/>
+      <c r="F296" s="3" t="s">
+        <v>1163</v>
+      </c>
       <c r="G296" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H296" s="3"/>
+      <c r="H296" s="3" t="s">
+        <v>1163</v>
+      </c>
       <c r="I296" s="3"/>
       <c r="J296" s="5"/>
-      <c r="K296" s="3"/>
+      <c r="K296" s="3">
+        <v>320000</v>
+      </c>
       <c r="L296" s="3"/>
       <c r="M296" s="3"/>
       <c r="N296" s="3"/>
@@ -15001,14 +15472,20 @@
       <c r="E297" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F297" s="3"/>
+      <c r="F297" s="3" t="s">
+        <v>1170</v>
+      </c>
       <c r="G297" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H297" s="3"/>
+      <c r="H297" s="3" t="s">
+        <v>1170</v>
+      </c>
       <c r="I297" s="3"/>
       <c r="J297" s="5"/>
-      <c r="K297" s="3"/>
+      <c r="K297" s="3">
+        <v>13000000</v>
+      </c>
       <c r="L297" s="3"/>
       <c r="M297" s="3"/>
       <c r="N297" s="3"/>
@@ -15032,14 +15509,20 @@
       <c r="E298" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F298" s="3"/>
+      <c r="F298" s="3" t="s">
+        <v>1177</v>
+      </c>
       <c r="G298" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="H298" s="3"/>
+      <c r="H298" s="3" t="s">
+        <v>1113</v>
+      </c>
       <c r="I298" s="3"/>
       <c r="J298" s="5"/>
-      <c r="K298" s="3"/>
+      <c r="K298" s="3">
+        <v>500000</v>
+      </c>
       <c r="L298" s="3"/>
       <c r="M298" s="3"/>
       <c r="N298" s="3"/>
@@ -15100,14 +15583,20 @@
       <c r="E300" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F300" s="3"/>
+      <c r="F300" s="3" t="s">
+        <v>1171</v>
+      </c>
       <c r="G300" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H300" s="3"/>
+      <c r="H300" s="3" t="s">
+        <v>1171</v>
+      </c>
       <c r="I300" s="3"/>
       <c r="J300" s="5"/>
-      <c r="K300" s="3"/>
+      <c r="K300" s="3">
+        <v>1000000</v>
+      </c>
       <c r="L300" s="3"/>
       <c r="M300" s="3"/>
       <c r="N300" s="3"/>
@@ -15131,14 +15620,20 @@
       <c r="E301" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F301" s="3"/>
+      <c r="F301" s="3" t="s">
+        <v>1172</v>
+      </c>
       <c r="G301" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="H301" s="3"/>
+      <c r="H301" s="3" t="s">
+        <v>1172</v>
+      </c>
       <c r="I301" s="3"/>
       <c r="J301" s="5"/>
-      <c r="K301" s="3"/>
+      <c r="K301" s="3">
+        <v>830000</v>
+      </c>
       <c r="L301" s="3"/>
       <c r="M301" s="3"/>
       <c r="N301" s="3"/>
@@ -15162,14 +15657,20 @@
       <c r="E302" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F302" s="3"/>
+      <c r="F302" s="3" t="s">
+        <v>1182</v>
+      </c>
       <c r="G302" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="H302" s="3"/>
+      <c r="H302" s="3" t="s">
+        <v>1173</v>
+      </c>
       <c r="I302" s="3"/>
       <c r="J302" s="5"/>
-      <c r="K302" s="3"/>
+      <c r="K302" s="3">
+        <v>230000</v>
+      </c>
       <c r="L302" s="3"/>
       <c r="M302" s="3"/>
       <c r="N302" s="3"/>
@@ -15194,7 +15695,7 @@
         <v>508</v>
       </c>
       <c r="F303" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G303" s="3" t="s">
         <v>510</v>
@@ -15230,14 +15731,20 @@
       <c r="E304" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F304" s="3"/>
+      <c r="F304" s="3" t="s">
+        <v>1174</v>
+      </c>
       <c r="G304" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H304" s="3"/>
+      <c r="H304" s="3" t="s">
+        <v>1174</v>
+      </c>
       <c r="I304" s="3"/>
       <c r="J304" s="5"/>
-      <c r="K304" s="3"/>
+      <c r="K304" s="3">
+        <v>470000</v>
+      </c>
       <c r="L304" s="3"/>
       <c r="M304" s="3"/>
       <c r="N304" s="3"/>
@@ -15268,7 +15775,7 @@
         <v>512</v>
       </c>
       <c r="H305" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I305" s="3"/>
       <c r="J305" s="5"/>
@@ -15298,14 +15805,20 @@
       <c r="E306" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F306" s="3"/>
+      <c r="F306" s="3" t="s">
+        <v>1184</v>
+      </c>
       <c r="G306" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="H306" s="3"/>
+      <c r="H306" s="3" t="s">
+        <v>1113</v>
+      </c>
       <c r="I306" s="3"/>
       <c r="J306" s="5"/>
-      <c r="K306" s="3"/>
+      <c r="K306" s="3">
+        <v>290000</v>
+      </c>
       <c r="L306" s="3"/>
       <c r="M306" s="3"/>
       <c r="N306" s="3"/>
@@ -15329,14 +15842,20 @@
       <c r="E307" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F307" s="3"/>
+      <c r="F307" s="3" t="s">
+        <v>1185</v>
+      </c>
       <c r="G307" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="H307" s="3"/>
+      <c r="H307" s="3" t="s">
+        <v>1175</v>
+      </c>
       <c r="I307" s="3"/>
       <c r="J307" s="5"/>
-      <c r="K307" s="3"/>
+      <c r="K307" s="3">
+        <v>80000</v>
+      </c>
       <c r="L307" s="3"/>
       <c r="M307" s="3"/>
       <c r="N307" s="3"/>
@@ -15360,14 +15879,20 @@
       <c r="E308" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F308" s="3"/>
+      <c r="F308" s="3" t="s">
+        <v>1186</v>
+      </c>
       <c r="G308" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="H308" s="3"/>
+      <c r="H308" s="3" t="s">
+        <v>1187</v>
+      </c>
       <c r="I308" s="3"/>
       <c r="J308" s="5"/>
-      <c r="K308" s="3"/>
+      <c r="K308" s="3">
+        <v>42000</v>
+      </c>
       <c r="L308" s="3"/>
       <c r="M308" s="3"/>
       <c r="N308" s="3"/>
@@ -15391,14 +15916,20 @@
       <c r="E309" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F309" s="3"/>
+      <c r="F309" s="3" t="s">
+        <v>1179</v>
+      </c>
       <c r="G309" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="H309" s="3"/>
+      <c r="H309" s="3" t="s">
+        <v>1179</v>
+      </c>
       <c r="I309" s="3"/>
       <c r="J309" s="5"/>
-      <c r="K309" s="3"/>
+      <c r="K309" s="3">
+        <v>1100000</v>
+      </c>
       <c r="L309" s="3"/>
       <c r="M309" s="3"/>
       <c r="N309" s="3"/>
@@ -15422,14 +15953,20 @@
       <c r="E310" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F310" s="3"/>
+      <c r="F310" s="3" t="s">
+        <v>1191</v>
+      </c>
       <c r="G310" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="H310" s="3"/>
+      <c r="H310" s="3" t="s">
+        <v>1187</v>
+      </c>
       <c r="I310" s="3"/>
       <c r="J310" s="5"/>
-      <c r="K310" s="3"/>
+      <c r="K310" s="3">
+        <v>450000</v>
+      </c>
       <c r="L310" s="3"/>
       <c r="M310" s="3"/>
       <c r="N310" s="3"/>
@@ -15453,14 +15990,20 @@
       <c r="E311" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F311" s="3"/>
+      <c r="F311" s="3" t="s">
+        <v>1195</v>
+      </c>
       <c r="G311" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="H311" s="3"/>
+      <c r="H311" s="3" t="s">
+        <v>1188</v>
+      </c>
       <c r="I311" s="3"/>
       <c r="J311" s="5"/>
-      <c r="K311" s="3"/>
+      <c r="K311" s="3">
+        <v>170000</v>
+      </c>
       <c r="L311" s="3"/>
       <c r="M311" s="3"/>
       <c r="N311" s="3"/>
@@ -15484,14 +16027,20 @@
       <c r="E312" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F312" s="3"/>
+      <c r="F312" s="3" t="s">
+        <v>1188</v>
+      </c>
       <c r="G312" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="H312" s="3"/>
+      <c r="H312" s="3" t="s">
+        <v>1188</v>
+      </c>
       <c r="I312" s="3"/>
       <c r="J312" s="5"/>
-      <c r="K312" s="3"/>
+      <c r="K312" s="3">
+        <v>970000</v>
+      </c>
       <c r="L312" s="3"/>
       <c r="M312" s="3"/>
       <c r="N312" s="3"/>
@@ -15515,14 +16064,20 @@
       <c r="E313" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F313" s="3"/>
+      <c r="F313" s="3" t="s">
+        <v>1192</v>
+      </c>
       <c r="G313" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="H313" s="3"/>
+      <c r="H313" s="3" t="s">
+        <v>1188</v>
+      </c>
       <c r="I313" s="3"/>
       <c r="J313" s="5"/>
-      <c r="K313" s="3"/>
+      <c r="K313" s="3">
+        <v>160000</v>
+      </c>
       <c r="L313" s="3"/>
       <c r="M313" s="3"/>
       <c r="N313" s="3"/>
@@ -15546,14 +16101,20 @@
       <c r="E314" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F314" s="3"/>
+      <c r="F314" s="3" t="s">
+        <v>1194</v>
+      </c>
       <c r="G314" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="H314" s="3"/>
+      <c r="H314" s="3" t="s">
+        <v>1183</v>
+      </c>
       <c r="I314" s="3"/>
       <c r="J314" s="5"/>
-      <c r="K314" s="3"/>
+      <c r="K314" s="3">
+        <v>580000</v>
+      </c>
       <c r="L314" s="3"/>
       <c r="M314" s="3"/>
       <c r="N314" s="3"/>
@@ -15577,14 +16138,20 @@
       <c r="E315" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F315" s="3"/>
+      <c r="F315" s="3" t="s">
+        <v>1193</v>
+      </c>
       <c r="G315" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="H315" s="3"/>
+      <c r="H315" s="3" t="s">
+        <v>1189</v>
+      </c>
       <c r="I315" s="3"/>
       <c r="J315" s="5"/>
-      <c r="K315" s="3"/>
+      <c r="K315" s="3">
+        <v>310000</v>
+      </c>
       <c r="L315" s="3"/>
       <c r="M315" s="3"/>
       <c r="N315" s="3"/>
@@ -15608,14 +16175,20 @@
       <c r="E316" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F316" s="3"/>
+      <c r="F316" s="3" t="s">
+        <v>1196</v>
+      </c>
       <c r="G316" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="H316" s="3"/>
+      <c r="H316" s="3" t="s">
+        <v>1189</v>
+      </c>
       <c r="I316" s="3"/>
       <c r="J316" s="5"/>
-      <c r="K316" s="3"/>
+      <c r="K316" s="3">
+        <v>5000</v>
+      </c>
       <c r="L316" s="3"/>
       <c r="M316" s="3"/>
       <c r="N316" s="3"/>
@@ -15639,14 +16212,20 @@
       <c r="E317" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F317" s="3"/>
+      <c r="F317" s="3" t="s">
+        <v>1202</v>
+      </c>
       <c r="G317" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="H317" s="3"/>
+      <c r="H317" s="3" t="s">
+        <v>1189</v>
+      </c>
       <c r="I317" s="3"/>
       <c r="J317" s="5"/>
-      <c r="K317" s="3"/>
+      <c r="K317" s="3">
+        <v>37000</v>
+      </c>
       <c r="L317" s="3"/>
       <c r="M317" s="3"/>
       <c r="N317" s="3"/>
@@ -15670,14 +16249,20 @@
       <c r="E318" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F318" s="3"/>
+      <c r="F318" s="3" t="s">
+        <v>1197</v>
+      </c>
       <c r="G318" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="H318" s="3"/>
+      <c r="H318" s="3" t="s">
+        <v>1198</v>
+      </c>
       <c r="I318" s="3"/>
       <c r="J318" s="5"/>
-      <c r="K318" s="3"/>
+      <c r="K318" s="3">
+        <v>260000</v>
+      </c>
       <c r="L318" s="3"/>
       <c r="M318" s="3"/>
       <c r="N318" s="3"/>
@@ -15701,14 +16286,20 @@
       <c r="E319" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F319" s="3"/>
+      <c r="F319" s="3" t="s">
+        <v>1190</v>
+      </c>
       <c r="G319" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="H319" s="3"/>
+      <c r="H319" s="3" t="s">
+        <v>1190</v>
+      </c>
       <c r="I319" s="3"/>
       <c r="J319" s="5"/>
-      <c r="K319" s="3"/>
+      <c r="K319" s="3">
+        <v>95000</v>
+      </c>
       <c r="L319" s="3"/>
       <c r="M319" s="3"/>
       <c r="N319" s="3"/>
@@ -15732,14 +16323,20 @@
       <c r="E320" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F320" s="3"/>
+      <c r="F320" s="3" t="s">
+        <v>1204</v>
+      </c>
       <c r="G320" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="H320" s="3"/>
+      <c r="H320" s="3" t="s">
+        <v>1199</v>
+      </c>
       <c r="I320" s="3"/>
       <c r="J320" s="5"/>
-      <c r="K320" s="3"/>
+      <c r="K320" s="3">
+        <v>13000</v>
+      </c>
       <c r="L320" s="3"/>
       <c r="M320" s="3"/>
       <c r="N320" s="3"/>
@@ -15764,13 +16361,13 @@
         <v>508</v>
       </c>
       <c r="F321" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G321" s="3" t="s">
         <v>510</v>
       </c>
       <c r="H321" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I321" s="3"/>
       <c r="J321" s="5"/>
@@ -15801,13 +16398,13 @@
         <v>509</v>
       </c>
       <c r="F322" s="3" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="G322" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H322" s="3" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="I322" s="3"/>
       <c r="J322" s="5"/>
@@ -15838,13 +16435,13 @@
         <v>509</v>
       </c>
       <c r="F323" s="3" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="G323" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H323" s="3" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="I323" s="3"/>
       <c r="J323" s="5"/>
@@ -15875,13 +16472,13 @@
         <v>509</v>
       </c>
       <c r="F324" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G324" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H324" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I324" s="3"/>
       <c r="J324" s="5"/>
@@ -15911,14 +16508,20 @@
       <c r="E325" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F325" s="3"/>
+      <c r="F325" s="3" t="s">
+        <v>1208</v>
+      </c>
       <c r="G325" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="H325" s="3"/>
+      <c r="H325" s="3" t="s">
+        <v>1203</v>
+      </c>
       <c r="I325" s="3"/>
       <c r="J325" s="5"/>
-      <c r="K325" s="3"/>
+      <c r="K325" s="3">
+        <v>610000</v>
+      </c>
       <c r="L325" s="3"/>
       <c r="M325" s="3"/>
       <c r="N325" s="3"/>
@@ -15942,14 +16545,20 @@
       <c r="E326" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F326" s="3"/>
+      <c r="F326" s="3" t="s">
+        <v>1205</v>
+      </c>
       <c r="G326" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="H326" s="3"/>
+      <c r="H326" s="3" t="s">
+        <v>1203</v>
+      </c>
       <c r="I326" s="3"/>
       <c r="J326" s="5"/>
-      <c r="K326" s="3"/>
+      <c r="K326" s="3">
+        <v>4400000</v>
+      </c>
       <c r="L326" s="3"/>
       <c r="M326" s="3"/>
       <c r="N326" s="3"/>
@@ -15973,14 +16582,20 @@
       <c r="E327" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F327" s="3"/>
+      <c r="F327" s="3" t="s">
+        <v>1209</v>
+      </c>
       <c r="G327" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="H327" s="3"/>
+      <c r="H327" s="3" t="s">
+        <v>1200</v>
+      </c>
       <c r="I327" s="3"/>
       <c r="J327" s="5"/>
-      <c r="K327" s="3"/>
+      <c r="K327" s="3">
+        <v>1000000</v>
+      </c>
       <c r="L327" s="3"/>
       <c r="M327" s="3"/>
       <c r="N327" s="3"/>
@@ -16004,14 +16619,20 @@
       <c r="E328" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F328" s="3"/>
+      <c r="F328" s="3" t="s">
+        <v>1210</v>
+      </c>
       <c r="G328" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="H328" s="3"/>
+      <c r="H328" s="3" t="s">
+        <v>1200</v>
+      </c>
       <c r="I328" s="3"/>
       <c r="J328" s="5"/>
-      <c r="K328" s="3"/>
+      <c r="K328" s="3">
+        <v>210000</v>
+      </c>
       <c r="L328" s="3"/>
       <c r="M328" s="3"/>
       <c r="N328" s="3"/>
@@ -16035,14 +16656,20 @@
       <c r="E329" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F329" s="3"/>
+      <c r="F329" s="3" t="s">
+        <v>1211</v>
+      </c>
       <c r="G329" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="H329" s="3"/>
+      <c r="H329" s="3" t="s">
+        <v>1201</v>
+      </c>
       <c r="I329" s="3"/>
       <c r="J329" s="5"/>
-      <c r="K329" s="3"/>
+      <c r="K329" s="3">
+        <v>2500000</v>
+      </c>
       <c r="L329" s="3"/>
       <c r="M329" s="3"/>
       <c r="N329" s="3"/>
@@ -16066,14 +16693,20 @@
       <c r="E330" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F330" s="3"/>
+      <c r="F330" s="3" t="s">
+        <v>1212</v>
+      </c>
       <c r="G330" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="H330" s="3"/>
+      <c r="H330" s="3" t="s">
+        <v>1206</v>
+      </c>
       <c r="I330" s="3"/>
       <c r="J330" s="5"/>
-      <c r="K330" s="3"/>
+      <c r="K330" s="3">
+        <v>860000</v>
+      </c>
       <c r="L330" s="3"/>
       <c r="M330" s="3"/>
       <c r="N330" s="3"/>
@@ -16097,14 +16730,20 @@
       <c r="E331" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F331" s="3"/>
+      <c r="F331" s="3" t="s">
+        <v>1213</v>
+      </c>
       <c r="G331" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="H331" s="3"/>
+      <c r="H331" s="3" t="s">
+        <v>1207</v>
+      </c>
       <c r="I331" s="3"/>
       <c r="J331" s="5"/>
-      <c r="K331" s="3"/>
+      <c r="K331" s="3">
+        <v>1000000</v>
+      </c>
       <c r="L331" s="3"/>
       <c r="M331" s="3"/>
       <c r="N331" s="3"/>
@@ -16166,13 +16805,13 @@
         <v>509</v>
       </c>
       <c r="F333" s="3" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="G333" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H333" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="I333" s="3"/>
       <c r="J333" s="5"/>
@@ -16202,14 +16841,20 @@
       <c r="E334" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F334" s="3"/>
+      <c r="F334" s="3" t="s">
+        <v>1214</v>
+      </c>
       <c r="G334" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H334" s="3"/>
+      <c r="H334" s="3" t="s">
+        <v>1216</v>
+      </c>
       <c r="I334" s="3"/>
       <c r="J334" s="5"/>
-      <c r="K334" s="3"/>
+      <c r="K334" s="3">
+        <v>10000000</v>
+      </c>
       <c r="L334" s="3"/>
       <c r="M334" s="3"/>
       <c r="N334" s="3"/>
@@ -16275,13 +16920,13 @@
         <v>509</v>
       </c>
       <c r="F336" s="3" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="G336" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H336" s="3" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="I336" s="3"/>
       <c r="J336" s="5" t="s">
@@ -16316,13 +16961,13 @@
         <v>508</v>
       </c>
       <c r="F337" s="3" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="G337" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H337" s="3" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="I337" s="3"/>
       <c r="J337" s="5"/>
@@ -16353,13 +16998,13 @@
         <v>508</v>
       </c>
       <c r="F338" s="3" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="G338" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H338" s="3" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="I338" s="3"/>
       <c r="J338" s="5"/>
@@ -16390,7 +17035,7 @@
         <v>508</v>
       </c>
       <c r="F339" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G339" s="3" t="s">
         <v>514</v>
@@ -16427,13 +17072,13 @@
         <v>508</v>
       </c>
       <c r="F340" s="3" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="G340" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H340" s="3" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="I340" s="3"/>
       <c r="J340" s="5"/>
@@ -16464,13 +17109,13 @@
         <v>508</v>
       </c>
       <c r="F341" s="3" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="G341" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H341" s="3" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="I341" s="3"/>
       <c r="J341" s="5"/>
@@ -16501,13 +17146,13 @@
         <v>509</v>
       </c>
       <c r="F342" s="3" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="G342" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H342" s="3" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I342" s="3"/>
       <c r="J342" s="5" t="s">
@@ -16542,13 +17187,13 @@
         <v>509</v>
       </c>
       <c r="F343" s="3" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="G343" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H343" s="3" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I343" s="3"/>
       <c r="J343" s="5" t="s">
@@ -16583,13 +17228,13 @@
         <v>509</v>
       </c>
       <c r="F344" s="3" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="G344" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H344" s="3" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I344" s="3"/>
       <c r="J344" s="5"/>
@@ -16620,13 +17265,13 @@
         <v>509</v>
       </c>
       <c r="F345" s="3" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="G345" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H345" s="3" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I345" s="3"/>
       <c r="J345" s="5"/>
@@ -16657,13 +17302,13 @@
         <v>509</v>
       </c>
       <c r="F346" s="3" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="G346" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H346" s="3" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I346" s="3"/>
       <c r="J346" s="5" t="s">
@@ -16698,13 +17343,13 @@
         <v>509</v>
       </c>
       <c r="F347" s="3" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="G347" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H347" s="3" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="I347" s="3"/>
       <c r="J347" s="5"/>
@@ -16735,13 +17380,13 @@
         <v>509</v>
       </c>
       <c r="F348" s="3" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="G348" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H348" s="3" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="I348" s="3"/>
       <c r="J348" s="5"/>
@@ -16772,13 +17417,13 @@
         <v>509</v>
       </c>
       <c r="F349" s="3" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="G349" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H349" s="3" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="I349" s="3"/>
       <c r="J349" s="5"/>
@@ -16809,13 +17454,13 @@
         <v>509</v>
       </c>
       <c r="F350" s="3" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="G350" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H350" s="3" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="I350" s="3"/>
       <c r="J350" s="5"/>
@@ -16846,13 +17491,13 @@
         <v>509</v>
       </c>
       <c r="F351" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G351" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H351" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="I351" s="3"/>
       <c r="J351" s="5"/>
@@ -16883,13 +17528,13 @@
         <v>509</v>
       </c>
       <c r="F352" s="3" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="G352" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H352" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="I352" s="3"/>
       <c r="J352" s="5"/>
@@ -16920,13 +17565,13 @@
         <v>509</v>
       </c>
       <c r="F353" s="3" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="G353" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H353" s="3" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="I353" s="3"/>
       <c r="J353" s="5"/>
@@ -16957,13 +17602,13 @@
         <v>509</v>
       </c>
       <c r="F354" s="3" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="G354" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H354" s="3" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="I354" s="3"/>
       <c r="J354" s="5"/>
@@ -16994,13 +17639,13 @@
         <v>509</v>
       </c>
       <c r="F355" s="3" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="G355" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H355" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="I355" s="3"/>
       <c r="J355" s="5"/>
@@ -17031,13 +17676,13 @@
         <v>509</v>
       </c>
       <c r="F356" s="3" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="G356" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H356" s="3" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="I356" s="3"/>
       <c r="J356" s="5"/>
@@ -17067,14 +17712,20 @@
       <c r="E357" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F357" s="3"/>
+      <c r="F357" s="3" t="s">
+        <v>1217</v>
+      </c>
       <c r="G357" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="H357" s="3"/>
+      <c r="H357" s="3" t="s">
+        <v>1215</v>
+      </c>
       <c r="I357" s="3"/>
       <c r="J357" s="5"/>
-      <c r="K357" s="3"/>
+      <c r="K357" s="3">
+        <v>630000</v>
+      </c>
       <c r="L357" s="3"/>
       <c r="M357" s="3"/>
       <c r="N357" s="3"/>
@@ -17098,14 +17749,20 @@
       <c r="E358" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F358" s="3"/>
+      <c r="F358" s="3" t="s">
+        <v>1221</v>
+      </c>
       <c r="G358" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="H358" s="3"/>
+      <c r="H358" s="3" t="s">
+        <v>1218</v>
+      </c>
       <c r="I358" s="3"/>
       <c r="J358" s="5"/>
-      <c r="K358" s="3"/>
+      <c r="K358" s="3">
+        <v>3700000</v>
+      </c>
       <c r="L358" s="3"/>
       <c r="M358" s="3"/>
       <c r="N358" s="3"/>
@@ -17129,14 +17786,20 @@
       <c r="E359" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F359" s="3"/>
+      <c r="F359" s="3" t="s">
+        <v>1220</v>
+      </c>
       <c r="G359" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="H359" s="3"/>
+      <c r="H359" s="3" t="s">
+        <v>1219</v>
+      </c>
       <c r="I359" s="3"/>
       <c r="J359" s="5"/>
-      <c r="K359" s="3"/>
+      <c r="K359" s="3">
+        <v>2200000</v>
+      </c>
       <c r="L359" s="3"/>
       <c r="M359" s="3"/>
       <c r="N359" s="3"/>
@@ -17160,14 +17823,20 @@
       <c r="E360" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F360" s="3"/>
+      <c r="F360" s="3" t="s">
+        <v>1227</v>
+      </c>
       <c r="G360" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="H360" s="3"/>
+      <c r="H360" s="3" t="s">
+        <v>1226</v>
+      </c>
       <c r="I360" s="3"/>
       <c r="J360" s="5"/>
-      <c r="K360" s="3"/>
+      <c r="K360" s="3">
+        <v>110000</v>
+      </c>
       <c r="L360" s="3"/>
       <c r="M360" s="3"/>
       <c r="N360" s="3"/>
@@ -17198,7 +17867,7 @@
         <v>512</v>
       </c>
       <c r="H361" s="3" t="s">
-        <v>571</v>
+        <v>1223</v>
       </c>
       <c r="I361" s="3"/>
       <c r="J361" s="5" t="s">
@@ -17232,14 +17901,20 @@
       <c r="E362" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F362" s="3"/>
+      <c r="F362" s="3" t="s">
+        <v>1222</v>
+      </c>
       <c r="G362" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="H362" s="3"/>
+      <c r="H362" s="3" t="s">
+        <v>1223</v>
+      </c>
       <c r="I362" s="3"/>
       <c r="J362" s="5"/>
-      <c r="K362" s="3"/>
+      <c r="K362" s="3">
+        <v>700000</v>
+      </c>
       <c r="L362" s="3"/>
       <c r="M362" s="3"/>
       <c r="N362" s="3"/>
@@ -17263,14 +17938,20 @@
       <c r="E363" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F363" s="3"/>
+      <c r="F363" s="3" t="s">
+        <v>1229</v>
+      </c>
       <c r="G363" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="H363" s="3"/>
+      <c r="H363" s="3" t="s">
+        <v>1224</v>
+      </c>
       <c r="I363" s="3"/>
       <c r="J363" s="5"/>
-      <c r="K363" s="3"/>
+      <c r="K363" s="3">
+        <v>580000</v>
+      </c>
       <c r="L363" s="3"/>
       <c r="M363" s="3"/>
       <c r="N363" s="3"/>
@@ -17294,14 +17975,20 @@
       <c r="E364" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F364" s="3"/>
+      <c r="F364" s="3" t="s">
+        <v>1228</v>
+      </c>
       <c r="G364" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="H364" s="3"/>
+      <c r="H364" s="3" t="s">
+        <v>1224</v>
+      </c>
       <c r="I364" s="3"/>
       <c r="J364" s="5"/>
-      <c r="K364" s="3"/>
+      <c r="K364" s="3">
+        <v>3500000</v>
+      </c>
       <c r="L364" s="3"/>
       <c r="M364" s="3"/>
       <c r="N364" s="3"/>
@@ -17325,14 +18012,20 @@
       <c r="E365" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F365" s="3"/>
+      <c r="F365" s="3" t="s">
+        <v>1230</v>
+      </c>
       <c r="G365" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H365" s="3"/>
+      <c r="H365" s="3" t="s">
+        <v>1225</v>
+      </c>
       <c r="I365" s="3"/>
       <c r="J365" s="5"/>
-      <c r="K365" s="3"/>
+      <c r="K365" s="3">
+        <v>2800000</v>
+      </c>
       <c r="L365" s="3"/>
       <c r="M365" s="3"/>
       <c r="N365" s="3"/>
@@ -17356,14 +18049,20 @@
       <c r="E366" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F366" s="3"/>
+      <c r="F366" s="3" t="s">
+        <v>1232</v>
+      </c>
       <c r="G366" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H366" s="3"/>
+      <c r="H366" s="3" t="s">
+        <v>1225</v>
+      </c>
       <c r="I366" s="3"/>
       <c r="J366" s="5"/>
-      <c r="K366" s="3"/>
+      <c r="K366" s="3">
+        <v>89000</v>
+      </c>
       <c r="L366" s="3"/>
       <c r="M366" s="3"/>
       <c r="N366" s="3"/>
@@ -17387,14 +18086,20 @@
       <c r="E367" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F367" s="3"/>
+      <c r="F367" s="3" t="s">
+        <v>1231</v>
+      </c>
       <c r="G367" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H367" s="3"/>
+      <c r="H367" s="3" t="s">
+        <v>1225</v>
+      </c>
       <c r="I367" s="3"/>
       <c r="J367" s="5"/>
-      <c r="K367" s="3"/>
+      <c r="K367" s="3">
+        <v>9700000</v>
+      </c>
       <c r="L367" s="3"/>
       <c r="M367" s="3"/>
       <c r="N367" s="3"/>
@@ -17419,13 +18124,13 @@
         <v>508</v>
       </c>
       <c r="F368" s="3" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="G368" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H368" s="3" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="I368" s="3"/>
       <c r="J368" s="5"/>
@@ -17456,13 +18161,13 @@
         <v>508</v>
       </c>
       <c r="F369" s="3" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="G369" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H369" s="3" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="I369" s="3"/>
       <c r="J369" s="5"/>
@@ -17493,13 +18198,13 @@
         <v>508</v>
       </c>
       <c r="F370" s="3" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="G370" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H370" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="I370" s="3"/>
       <c r="J370" s="5"/>
@@ -17530,13 +18235,13 @@
         <v>508</v>
       </c>
       <c r="F371" s="3" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="G371" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H371" s="3" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="I371" s="3"/>
       <c r="J371" s="5"/>
@@ -17567,13 +18272,13 @@
         <v>508</v>
       </c>
       <c r="F372" s="3" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="G372" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H372" s="3" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="I372" s="3"/>
       <c r="J372" s="5"/>
@@ -17604,13 +18309,13 @@
         <v>509</v>
       </c>
       <c r="F373" s="3" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="G373" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H373" s="3" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="I373" s="3"/>
       <c r="J373" s="5"/>
@@ -17641,13 +18346,13 @@
         <v>509</v>
       </c>
       <c r="F374" s="3" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="G374" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H374" s="3" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="I374" s="3"/>
       <c r="J374" s="5" t="s">
@@ -17682,13 +18387,13 @@
         <v>508</v>
       </c>
       <c r="F375" s="3" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="G375" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H375" s="3" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="I375" s="3"/>
       <c r="J375" s="5"/>
@@ -17719,13 +18424,13 @@
         <v>508</v>
       </c>
       <c r="F376" s="3" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="G376" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H376" s="3" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="I376" s="3"/>
       <c r="J376" s="5"/>
@@ -17756,13 +18461,13 @@
         <v>508</v>
       </c>
       <c r="F377" s="3" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="G377" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H377" s="3" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="I377" s="3"/>
       <c r="J377" s="5"/>
@@ -17793,13 +18498,13 @@
         <v>508</v>
       </c>
       <c r="F378" s="3" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="G378" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H378" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="I378" s="3"/>
       <c r="J378" s="5"/>
@@ -17830,13 +18535,13 @@
         <v>509</v>
       </c>
       <c r="F379" s="3" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="G379" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H379" s="3" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="I379" s="3"/>
       <c r="J379" s="5"/>
@@ -17867,13 +18572,13 @@
         <v>508</v>
       </c>
       <c r="F380" s="3" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="G380" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H380" s="3" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="I380" s="3"/>
       <c r="J380" s="5"/>
@@ -17904,13 +18609,13 @@
         <v>509</v>
       </c>
       <c r="F381" s="3" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="G381" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H381" s="3" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="I381" s="3"/>
       <c r="J381" s="5"/>
@@ -17941,13 +18646,13 @@
         <v>509</v>
       </c>
       <c r="F382" s="3" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="G382" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H382" s="3" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="I382" s="3"/>
       <c r="J382" s="5"/>
@@ -17978,13 +18683,13 @@
         <v>509</v>
       </c>
       <c r="F383" s="3" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="G383" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H383" s="3" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="I383" s="3"/>
       <c r="J383" s="5" t="s">
@@ -18019,13 +18724,13 @@
         <v>508</v>
       </c>
       <c r="F384" s="3" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="G384" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H384" s="3" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="I384" s="3"/>
       <c r="J384" s="5" t="s">
@@ -18060,13 +18765,13 @@
         <v>509</v>
       </c>
       <c r="F385" s="3" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="G385" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H385" s="3" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="I385" s="3"/>
       <c r="J385" s="5"/>
@@ -18097,13 +18802,13 @@
         <v>509</v>
       </c>
       <c r="F386" s="3" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="G386" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H386" s="3" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="I386" s="3"/>
       <c r="J386" s="5"/>
@@ -18134,13 +18839,13 @@
         <v>508</v>
       </c>
       <c r="F387" s="3" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="G387" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H387" s="3" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="I387" s="3"/>
       <c r="J387" s="5"/>
@@ -18171,7 +18876,7 @@
         <v>509</v>
       </c>
       <c r="F388" s="3" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="G388" s="3" t="s">
         <v>513</v>
@@ -18212,13 +18917,13 @@
         <v>508</v>
       </c>
       <c r="F389" s="3" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="G389" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H389" s="3" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I389" s="3"/>
       <c r="J389" s="5"/>
@@ -18249,13 +18954,13 @@
         <v>508</v>
       </c>
       <c r="F390" s="3" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="G390" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H390" s="3" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="I390" s="3"/>
       <c r="J390" s="5"/>
@@ -18359,14 +19064,20 @@
       <c r="E393" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F393" s="3"/>
+      <c r="F393" s="3" t="s">
+        <v>1236</v>
+      </c>
       <c r="G393" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="H393" s="3"/>
+      <c r="H393" s="3" t="s">
+        <v>1234</v>
+      </c>
       <c r="I393" s="3"/>
       <c r="J393" s="5"/>
-      <c r="K393" s="3"/>
+      <c r="K393" s="3">
+        <v>110000</v>
+      </c>
       <c r="L393" s="3"/>
       <c r="M393" s="3"/>
       <c r="N393" s="3"/>
@@ -18390,14 +19101,20 @@
       <c r="E394" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F394" s="3"/>
+      <c r="F394" s="3" t="s">
+        <v>1233</v>
+      </c>
       <c r="G394" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="H394" s="3"/>
+      <c r="H394" s="3" t="s">
+        <v>1234</v>
+      </c>
       <c r="I394" s="3"/>
       <c r="J394" s="5"/>
-      <c r="K394" s="3"/>
+      <c r="K394" s="3">
+        <v>8300000</v>
+      </c>
       <c r="L394" s="3"/>
       <c r="M394" s="3"/>
       <c r="N394" s="3"/>
@@ -18421,14 +19138,20 @@
       <c r="E395" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F395" s="3"/>
+      <c r="F395" s="3" t="s">
+        <v>1237</v>
+      </c>
       <c r="G395" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="H395" s="3"/>
+      <c r="H395" s="3" t="s">
+        <v>1234</v>
+      </c>
       <c r="I395" s="3"/>
       <c r="J395" s="5"/>
-      <c r="K395" s="3"/>
+      <c r="K395" s="3">
+        <v>16000</v>
+      </c>
       <c r="L395" s="3"/>
       <c r="M395" s="3"/>
       <c r="N395" s="3"/>
@@ -18452,14 +19175,20 @@
       <c r="E396" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F396" s="3"/>
+      <c r="F396" s="3" t="s">
+        <v>1238</v>
+      </c>
       <c r="G396" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="H396" s="3"/>
+      <c r="H396" s="3" t="s">
+        <v>1234</v>
+      </c>
       <c r="I396" s="3"/>
       <c r="J396" s="5"/>
-      <c r="K396" s="3"/>
+      <c r="K396" s="3">
+        <v>150000</v>
+      </c>
       <c r="L396" s="3"/>
       <c r="M396" s="3"/>
       <c r="N396" s="3"/>
@@ -18484,13 +19213,13 @@
         <v>509</v>
       </c>
       <c r="F397" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="G397" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H397" s="3" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="I397" s="3"/>
       <c r="J397" s="5"/>
@@ -18521,13 +19250,13 @@
         <v>509</v>
       </c>
       <c r="F398" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="G398" s="3" t="s">
         <v>513</v>
       </c>
       <c r="H398" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I398" s="3"/>
       <c r="J398" s="5"/>
@@ -18557,14 +19286,20 @@
       <c r="E399" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F399" s="3"/>
+      <c r="F399" s="3" t="s">
+        <v>1239</v>
+      </c>
       <c r="G399" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="H399" s="3"/>
+      <c r="H399" s="3" t="s">
+        <v>1235</v>
+      </c>
       <c r="I399" s="3"/>
       <c r="J399" s="5"/>
-      <c r="K399" s="3"/>
+      <c r="K399" s="3">
+        <v>8000000</v>
+      </c>
       <c r="L399" s="3"/>
       <c r="M399" s="3"/>
       <c r="N399" s="3"/>
@@ -18588,14 +19323,20 @@
       <c r="E400" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F400" s="3"/>
+      <c r="F400" s="3" t="s">
+        <v>1240</v>
+      </c>
       <c r="G400" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="H400" s="3"/>
+      <c r="H400" s="3" t="s">
+        <v>1235</v>
+      </c>
       <c r="I400" s="3"/>
       <c r="J400" s="5"/>
-      <c r="K400" s="3"/>
+      <c r="K400" s="3">
+        <v>450000</v>
+      </c>
       <c r="L400" s="3"/>
       <c r="M400" s="3"/>
       <c r="N400" s="3"/>
@@ -18619,14 +19360,20 @@
       <c r="E401" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F401" s="3"/>
+      <c r="F401" s="3" t="s">
+        <v>1241</v>
+      </c>
       <c r="G401" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="H401" s="3"/>
+      <c r="H401" s="3" t="s">
+        <v>1235</v>
+      </c>
       <c r="I401" s="3"/>
       <c r="J401" s="5"/>
-      <c r="K401" s="3"/>
+      <c r="K401" s="3">
+        <v>9000000</v>
+      </c>
       <c r="L401" s="3"/>
       <c r="M401" s="3"/>
       <c r="N401" s="3"/>
@@ -18651,13 +19398,13 @@
         <v>508</v>
       </c>
       <c r="F402" s="3" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G402" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H402" s="3" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="I402" s="3"/>
       <c r="J402" s="5"/>
@@ -18687,14 +19434,20 @@
       <c r="E403" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F403" s="3"/>
+      <c r="F403" s="3" t="s">
+        <v>1242</v>
+      </c>
       <c r="G403" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="H403" s="3"/>
+      <c r="H403" s="3" t="s">
+        <v>1243</v>
+      </c>
       <c r="I403" s="3"/>
       <c r="J403" s="5"/>
-      <c r="K403" s="3"/>
+      <c r="K403" s="3">
+        <v>2200000</v>
+      </c>
       <c r="L403" s="3"/>
       <c r="M403" s="3"/>
       <c r="N403" s="3"/>
@@ -18718,14 +19471,20 @@
       <c r="E404" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F404" s="3"/>
+      <c r="F404" s="3" t="s">
+        <v>1245</v>
+      </c>
       <c r="G404" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="H404" s="3"/>
+      <c r="H404" s="3" t="s">
+        <v>1243</v>
+      </c>
       <c r="I404" s="3"/>
       <c r="J404" s="5"/>
-      <c r="K404" s="3"/>
+      <c r="K404" s="3">
+        <v>1800000</v>
+      </c>
       <c r="L404" s="3"/>
       <c r="M404" s="3"/>
       <c r="N404" s="3"/>
@@ -18749,14 +19508,20 @@
       <c r="E405" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F405" s="3"/>
+      <c r="F405" s="3" t="s">
+        <v>1246</v>
+      </c>
       <c r="G405" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="H405" s="3"/>
+      <c r="H405" s="3" t="s">
+        <v>1244</v>
+      </c>
       <c r="I405" s="3"/>
       <c r="J405" s="5"/>
-      <c r="K405" s="3"/>
+      <c r="K405" s="3">
+        <v>10000000</v>
+      </c>
       <c r="L405" s="3"/>
       <c r="M405" s="3"/>
       <c r="N405" s="3"/>
@@ -18780,14 +19545,20 @@
       <c r="E406" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F406" s="3"/>
+      <c r="F406" s="3" t="s">
+        <v>1247</v>
+      </c>
       <c r="G406" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="H406" s="3"/>
+      <c r="H406" s="3" t="s">
+        <v>1244</v>
+      </c>
       <c r="I406" s="3"/>
       <c r="J406" s="5"/>
-      <c r="K406" s="3"/>
+      <c r="K406" s="3">
+        <v>2800000</v>
+      </c>
       <c r="L406" s="3"/>
       <c r="M406" s="3"/>
       <c r="N406" s="3"/>
@@ -18811,14 +19582,20 @@
       <c r="E407" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F407" s="3"/>
+      <c r="F407" s="3" t="s">
+        <v>1248</v>
+      </c>
       <c r="G407" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="H407" s="3"/>
+      <c r="H407" s="3" t="s">
+        <v>1254</v>
+      </c>
       <c r="I407" s="3"/>
       <c r="J407" s="5"/>
-      <c r="K407" s="3"/>
+      <c r="K407" s="3">
+        <v>660000</v>
+      </c>
       <c r="L407" s="3"/>
       <c r="M407" s="3"/>
       <c r="N407" s="3"/>
@@ -18842,14 +19619,20 @@
       <c r="E408" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F408" s="3"/>
+      <c r="F408" s="3" t="s">
+        <v>1249</v>
+      </c>
       <c r="G408" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="H408" s="3"/>
+      <c r="H408" s="3" t="s">
+        <v>1254</v>
+      </c>
       <c r="I408" s="3"/>
       <c r="J408" s="5"/>
-      <c r="K408" s="3"/>
+      <c r="K408" s="3">
+        <v>270000</v>
+      </c>
       <c r="L408" s="3"/>
       <c r="M408" s="3"/>
       <c r="N408" s="3"/>
@@ -18873,14 +19656,20 @@
       <c r="E409" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F409" s="3"/>
+      <c r="F409" s="3" t="s">
+        <v>1250</v>
+      </c>
       <c r="G409" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="H409" s="3"/>
+      <c r="H409" s="3" t="s">
+        <v>1254</v>
+      </c>
       <c r="I409" s="3"/>
       <c r="J409" s="5"/>
-      <c r="K409" s="3"/>
+      <c r="K409" s="3">
+        <v>850000</v>
+      </c>
       <c r="L409" s="3"/>
       <c r="M409" s="3"/>
       <c r="N409" s="3"/>
@@ -18904,14 +19693,20 @@
       <c r="E410" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F410" s="3"/>
+      <c r="F410" s="3" t="s">
+        <v>1251</v>
+      </c>
       <c r="G410" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="H410" s="3"/>
+      <c r="H410" s="3" t="s">
+        <v>1254</v>
+      </c>
       <c r="I410" s="3"/>
       <c r="J410" s="5"/>
-      <c r="K410" s="3"/>
+      <c r="K410" s="3">
+        <v>270000</v>
+      </c>
       <c r="L410" s="3"/>
       <c r="M410" s="3"/>
       <c r="N410" s="3"/>
@@ -18936,13 +19731,13 @@
         <v>508</v>
       </c>
       <c r="F411" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G411" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H411" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I411" s="3"/>
       <c r="J411" s="5"/>
@@ -18972,14 +19767,20 @@
       <c r="E412" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F412" s="3"/>
+      <c r="F412" s="3" t="s">
+        <v>1256</v>
+      </c>
       <c r="G412" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="H412" s="3"/>
+      <c r="H412" s="3" t="s">
+        <v>1255</v>
+      </c>
       <c r="I412" s="3"/>
       <c r="J412" s="5"/>
-      <c r="K412" s="3"/>
+      <c r="K412" s="3">
+        <v>250000</v>
+      </c>
       <c r="L412" s="3"/>
       <c r="M412" s="3"/>
       <c r="N412" s="3"/>
@@ -19003,14 +19804,20 @@
       <c r="E413" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F413" s="3"/>
+      <c r="F413" s="3" t="s">
+        <v>1257</v>
+      </c>
       <c r="G413" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="H413" s="3"/>
+      <c r="H413" s="3" t="s">
+        <v>1255</v>
+      </c>
       <c r="I413" s="3"/>
       <c r="J413" s="5"/>
-      <c r="K413" s="3"/>
+      <c r="K413" s="3">
+        <v>310000</v>
+      </c>
       <c r="L413" s="3"/>
       <c r="M413" s="3"/>
       <c r="N413" s="3"/>
@@ -19034,14 +19841,20 @@
       <c r="E414" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F414" s="3"/>
+      <c r="F414" s="3" t="s">
+        <v>1258</v>
+      </c>
       <c r="G414" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="H414" s="3"/>
+      <c r="H414" s="3" t="s">
+        <v>1255</v>
+      </c>
       <c r="I414" s="3"/>
       <c r="J414" s="5"/>
-      <c r="K414" s="3"/>
+      <c r="K414" s="3">
+        <v>360000</v>
+      </c>
       <c r="L414" s="3"/>
       <c r="M414" s="3"/>
       <c r="N414" s="3"/>
@@ -19065,14 +19878,20 @@
       <c r="E415" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F415" s="3"/>
+      <c r="F415" s="3" t="s">
+        <v>1259</v>
+      </c>
       <c r="G415" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="H415" s="3"/>
+      <c r="H415" s="3" t="s">
+        <v>1252</v>
+      </c>
       <c r="I415" s="3"/>
       <c r="J415" s="5"/>
-      <c r="K415" s="3"/>
+      <c r="K415" s="3">
+        <v>1700000</v>
+      </c>
       <c r="L415" s="3"/>
       <c r="M415" s="3"/>
       <c r="N415" s="3"/>
@@ -19096,14 +19915,20 @@
       <c r="E416" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F416" s="3"/>
+      <c r="F416" s="3" t="s">
+        <v>1260</v>
+      </c>
       <c r="G416" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="H416" s="3"/>
+      <c r="H416" s="3" t="s">
+        <v>1252</v>
+      </c>
       <c r="I416" s="3"/>
       <c r="J416" s="5"/>
-      <c r="K416" s="3"/>
+      <c r="K416" s="3">
+        <v>1600000</v>
+      </c>
       <c r="L416" s="3"/>
       <c r="M416" s="3"/>
       <c r="N416" s="3"/>
@@ -19127,14 +19952,20 @@
       <c r="E417" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F417" s="3"/>
+      <c r="F417" s="3" t="s">
+        <v>1261</v>
+      </c>
       <c r="G417" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="H417" s="3"/>
+      <c r="H417" s="3" t="s">
+        <v>1254</v>
+      </c>
       <c r="I417" s="3"/>
       <c r="J417" s="5"/>
-      <c r="K417" s="3"/>
+      <c r="K417" s="3">
+        <v>100000</v>
+      </c>
       <c r="L417" s="3"/>
       <c r="M417" s="3"/>
       <c r="N417" s="3"/>
@@ -19158,14 +19989,20 @@
       <c r="E418" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F418" s="3"/>
+      <c r="F418" s="3" t="s">
+        <v>1263</v>
+      </c>
       <c r="G418" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="H418" s="3"/>
+      <c r="H418" s="3" t="s">
+        <v>1253</v>
+      </c>
       <c r="I418" s="3"/>
       <c r="J418" s="5"/>
-      <c r="K418" s="3"/>
+      <c r="K418" s="3">
+        <v>150000</v>
+      </c>
       <c r="L418" s="3"/>
       <c r="M418" s="3"/>
       <c r="N418" s="3"/>
@@ -19189,14 +20026,20 @@
       <c r="E419" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F419" s="3"/>
+      <c r="F419" s="3" t="s">
+        <v>1262</v>
+      </c>
       <c r="G419" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="H419" s="3"/>
+      <c r="H419" s="3" t="s">
+        <v>1253</v>
+      </c>
       <c r="I419" s="3"/>
       <c r="J419" s="5"/>
-      <c r="K419" s="3"/>
+      <c r="K419" s="3">
+        <v>2200000</v>
+      </c>
       <c r="L419" s="3"/>
       <c r="M419" s="3"/>
       <c r="N419" s="3"/>
@@ -19220,14 +20063,20 @@
       <c r="E420" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F420" s="3"/>
+      <c r="F420" s="3" t="s">
+        <v>1264</v>
+      </c>
       <c r="G420" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="H420" s="3"/>
+      <c r="H420" s="3" t="s">
+        <v>1265</v>
+      </c>
       <c r="I420" s="3"/>
       <c r="J420" s="5"/>
-      <c r="K420" s="3"/>
+      <c r="K420" s="3">
+        <v>390000</v>
+      </c>
       <c r="L420" s="3"/>
       <c r="M420" s="3"/>
       <c r="N420" s="3"/>
@@ -19252,13 +20101,13 @@
         <v>508</v>
       </c>
       <c r="F421" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G421" s="3" t="s">
         <v>512</v>
       </c>
       <c r="H421" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I421" s="3"/>
       <c r="J421" s="5"/>
@@ -19288,14 +20137,20 @@
       <c r="E422" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F422" s="3"/>
+      <c r="F422" s="3" t="s">
+        <v>1266</v>
+      </c>
       <c r="G422" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="H422" s="3"/>
+      <c r="H422" s="3" t="s">
+        <v>1265</v>
+      </c>
       <c r="I422" s="3"/>
       <c r="J422" s="5"/>
-      <c r="K422" s="3"/>
+      <c r="K422" s="3">
+        <v>30000</v>
+      </c>
       <c r="L422" s="3"/>
       <c r="M422" s="3"/>
       <c r="N422" s="3"/>
@@ -19319,14 +20174,20 @@
       <c r="E423" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F423" s="3"/>
+      <c r="F423" s="3" t="s">
+        <v>1267</v>
+      </c>
       <c r="G423" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="H423" s="3"/>
+      <c r="H423" s="3" t="s">
+        <v>1268</v>
+      </c>
       <c r="I423" s="3"/>
       <c r="J423" s="5"/>
-      <c r="K423" s="3"/>
+      <c r="K423" s="3">
+        <v>1300000</v>
+      </c>
       <c r="L423" s="3"/>
       <c r="M423" s="3"/>
       <c r="N423" s="3"/>
@@ -19350,14 +20211,20 @@
       <c r="E424" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F424" s="3"/>
+      <c r="F424" s="3" t="s">
+        <v>1269</v>
+      </c>
       <c r="G424" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="H424" s="3"/>
+      <c r="H424" s="3" t="s">
+        <v>1268</v>
+      </c>
       <c r="I424" s="3"/>
       <c r="J424" s="5"/>
-      <c r="K424" s="3"/>
+      <c r="K424" s="3">
+        <v>16000</v>
+      </c>
       <c r="L424" s="3"/>
       <c r="M424" s="3"/>
       <c r="N424" s="3"/>
@@ -19381,14 +20248,20 @@
       <c r="E425" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F425" s="3"/>
+      <c r="F425" s="3" t="s">
+        <v>1271</v>
+      </c>
       <c r="G425" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="H425" s="3"/>
+      <c r="H425" s="3" t="s">
+        <v>1270</v>
+      </c>
       <c r="I425" s="3"/>
       <c r="J425" s="5"/>
-      <c r="K425" s="3"/>
+      <c r="K425" s="3">
+        <v>97000</v>
+      </c>
       <c r="L425" s="3"/>
       <c r="M425" s="3"/>
       <c r="N425" s="3"/>
@@ -19412,14 +20285,20 @@
       <c r="E426" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F426" s="3"/>
+      <c r="F426" s="3" t="s">
+        <v>1272</v>
+      </c>
       <c r="G426" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="H426" s="3"/>
+      <c r="H426" s="3" t="s">
+        <v>1270</v>
+      </c>
       <c r="I426" s="3"/>
       <c r="J426" s="5"/>
-      <c r="K426" s="3"/>
+      <c r="K426" s="3">
+        <v>1900000</v>
+      </c>
       <c r="L426" s="3"/>
       <c r="M426" s="3"/>
       <c r="N426" s="3"/>
@@ -19443,14 +20322,20 @@
       <c r="E427" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F427" s="3"/>
+      <c r="F427" s="3" t="s">
+        <v>1273</v>
+      </c>
       <c r="G427" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="H427" s="3"/>
+      <c r="H427" s="3" t="s">
+        <v>1270</v>
+      </c>
       <c r="I427" s="3"/>
       <c r="J427" s="5"/>
-      <c r="K427" s="3"/>
+      <c r="K427" s="3">
+        <v>1600</v>
+      </c>
       <c r="L427" s="3"/>
       <c r="M427" s="3"/>
       <c r="N427" s="3"/>
@@ -19474,14 +20359,20 @@
       <c r="E428" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F428" s="3"/>
+      <c r="F428" s="3" t="s">
+        <v>1274</v>
+      </c>
       <c r="G428" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="H428" s="3"/>
+      <c r="H428" s="3" t="s">
+        <v>1270</v>
+      </c>
       <c r="I428" s="3"/>
       <c r="J428" s="5"/>
-      <c r="K428" s="3"/>
+      <c r="K428" s="3">
+        <v>6700</v>
+      </c>
       <c r="L428" s="3"/>
       <c r="M428" s="3"/>
       <c r="N428" s="3"/>
@@ -19506,13 +20397,13 @@
         <v>509</v>
       </c>
       <c r="F429" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G429" s="3" t="s">
         <v>515</v>
       </c>
       <c r="H429" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="I429" s="3"/>
       <c r="J429" s="5"/>
@@ -19542,14 +20433,20 @@
       <c r="E430" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F430" s="3"/>
+      <c r="F430" s="3" t="s">
+        <v>1275</v>
+      </c>
       <c r="G430" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="H430" s="3"/>
+      <c r="H430" s="3" t="s">
+        <v>1276</v>
+      </c>
       <c r="I430" s="3"/>
       <c r="J430" s="5"/>
-      <c r="K430" s="3"/>
+      <c r="K430" s="3">
+        <v>410</v>
+      </c>
       <c r="L430" s="3"/>
       <c r="M430" s="3"/>
       <c r="N430" s="3"/>
@@ -19573,14 +20470,20 @@
       <c r="E431" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F431" s="3"/>
+      <c r="F431" s="3" t="s">
+        <v>1277</v>
+      </c>
       <c r="G431" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="H431" s="3"/>
+      <c r="H431" s="3" t="s">
+        <v>1276</v>
+      </c>
       <c r="I431" s="3"/>
       <c r="J431" s="5"/>
-      <c r="K431" s="3"/>
+      <c r="K431" s="3">
+        <v>140000</v>
+      </c>
       <c r="L431" s="3"/>
       <c r="M431" s="3"/>
       <c r="N431" s="3"/>
@@ -19605,13 +20508,13 @@
         <v>508</v>
       </c>
       <c r="F432" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G432" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H432" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I432" s="3"/>
       <c r="J432" s="5"/>
@@ -19642,17 +20545,17 @@
         <v>508</v>
       </c>
       <c r="F433" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G433" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H433" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I433" s="3"/>
       <c r="J433" s="5" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="K433" s="3">
         <v>210000</v>
@@ -19681,13 +20584,13 @@
         <v>508</v>
       </c>
       <c r="F434" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G434" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H434" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I434" s="3"/>
       <c r="J434" s="5"/>
@@ -19718,13 +20621,13 @@
         <v>508</v>
       </c>
       <c r="F435" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G435" s="3" t="s">
         <v>514</v>
       </c>
       <c r="H435" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I435" s="3"/>
       <c r="J435" s="5"/>

--- a/MapFiles/ProvinceInfoExcel.xlsx
+++ b/MapFiles/ProvinceInfoExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\redss\Desktop\APPDEV\Tauresium\MapFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BC19E4-E262-4DDA-8EC6-BFD56A7C1C63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66040135-93D6-446A-A3BA-099992BAC682}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1BFF37CF-5075-4621-9872-3602807B8ECF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2845" uniqueCount="1291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2846" uniqueCount="1292">
   <si>
     <t>Alaska_BristolBay</t>
   </si>
@@ -3908,6 +3908,9 @@
   </si>
   <si>
     <t>Czechia</t>
+  </si>
+  <si>
+    <t>National GDP per capita</t>
   </si>
 </sst>
 </file>
@@ -4023,7 +4026,11 @@
     <cellStyle name="Accent6" xfId="1" builtinId="49"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="19">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -4109,26 +4116,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{900D1FC3-4705-4B37-B942-9E487D49F0F7}" name="MapDelimited" displayName="MapDelimited" ref="A1:Q435" totalsRowShown="0" dataDxfId="17" headerRowCellStyle="Accent6">
-  <autoFilter ref="A1:Q435" xr:uid="{4CD343CA-A3F4-4269-8F72-399E2F7E63B8}"/>
-  <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{9F744807-C2B5-4143-AAE6-E8F8B12ECFFA}" name="Province_ID" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{A6D3CA8F-012D-43E6-BFBF-EB2425F370CC}" name="Vertex_1" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{3D6650CB-8928-4579-9605-7D36AFE62B5C}" name="Vertex_2" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{259CD02D-AB10-48C1-A15F-80F86FD949D1}" name="Vertex_3" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{55708A32-D0DC-44DA-8F0D-B515A3F5C608}" name="Coastal?" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{70567373-7149-4072-B40C-F12E25F01158}" name="Capital" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{50D709BB-24E3-418E-917C-1FC90D5E3D67}" name="Climate" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{392E9EF2-6D86-4F40-BA63-FDDE5FAFA031}" name="Region" dataDxfId="9"/>
-    <tableColumn id="20" xr3:uid="{47D7ED67-4135-4227-A884-EB47174ED581}" name="Coastal Region" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{41CC5C72-302E-42DC-96EF-966AE29CDBEF}" name="Description" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{F90EBD04-4BA7-4952-A20B-2F9CB4512BCE}" name="City Population (Total)" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{8BF939FD-0C7E-4D5B-8550-48C36771ECB9}" name="National HDI" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{55A1BD7C-91C1-4086-B424-3AD1F292C066}" name="Culture Additive" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{49423110-5733-4638-B829-6BCE84E13431}" name="Culture Cost" dataDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{16E85861-02C1-42B1-B650-7AE680AFBCB8}" name="Economic Cost" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{027A8570-4D49-4446-AD33-59BFA4DA3162}" name="Military Cost" dataDxfId="1"/>
-    <tableColumn id="16" xr3:uid="{160CCB0B-9916-4031-9F0D-50CB0E1AB6C7}" name="Score" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{900D1FC3-4705-4B37-B942-9E487D49F0F7}" name="MapDelimited" displayName="MapDelimited" ref="A1:R435" totalsRowShown="0" dataDxfId="18" headerRowCellStyle="Accent6">
+  <autoFilter ref="A1:R435" xr:uid="{4CD343CA-A3F4-4269-8F72-399E2F7E63B8}"/>
+  <tableColumns count="18">
+    <tableColumn id="1" xr3:uid="{9F744807-C2B5-4143-AAE6-E8F8B12ECFFA}" name="Province_ID" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{A6D3CA8F-012D-43E6-BFBF-EB2425F370CC}" name="Vertex_1" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{3D6650CB-8928-4579-9605-7D36AFE62B5C}" name="Vertex_2" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{259CD02D-AB10-48C1-A15F-80F86FD949D1}" name="Vertex_3" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{55708A32-D0DC-44DA-8F0D-B515A3F5C608}" name="Coastal?" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{70567373-7149-4072-B40C-F12E25F01158}" name="Capital" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{50D709BB-24E3-418E-917C-1FC90D5E3D67}" name="Climate" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{392E9EF2-6D86-4F40-BA63-FDDE5FAFA031}" name="Region" dataDxfId="10"/>
+    <tableColumn id="20" xr3:uid="{47D7ED67-4135-4227-A884-EB47174ED581}" name="Coastal Region" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{41CC5C72-302E-42DC-96EF-966AE29CDBEF}" name="Description" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{F90EBD04-4BA7-4952-A20B-2F9CB4512BCE}" name="City Population (Total)" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{8BF939FD-0C7E-4D5B-8550-48C36771ECB9}" name="National HDI" dataDxfId="6"/>
+    <tableColumn id="18" xr3:uid="{8BB1ED30-91C0-4AC8-837C-940FCD6211C7}" name="National GDP per capita" dataDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{55A1BD7C-91C1-4086-B424-3AD1F292C066}" name="Culture Additive" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{49423110-5733-4638-B829-6BCE84E13431}" name="Culture Cost" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{16E85861-02C1-42B1-B650-7AE680AFBCB8}" name="Economic Cost" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{027A8570-4D49-4446-AD33-59BFA4DA3162}" name="Military Cost" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{160CCB0B-9916-4031-9F0D-50CB0E1AB6C7}" name="Score" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4432,10 +4440,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7623E4B0-46DF-436C-8850-8D25B6394BB2}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q435"/>
+  <dimension ref="A1:R435"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A401" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M442" sqref="M442"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K64" sqref="K64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4450,14 +4458,15 @@
     <col min="10" max="10" width="21.7109375" customWidth="1"/>
     <col min="11" max="11" width="28.7109375" customWidth="1"/>
     <col min="12" max="12" width="14.5703125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" customWidth="1"/>
-    <col min="15" max="15" width="16.28515625" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" customWidth="1"/>
-    <col min="17" max="17" width="9.85546875" customWidth="1"/>
+    <col min="13" max="13" width="24.7109375" style="4" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>499</v>
       </c>
@@ -4495,22 +4504,25 @@
         <v>1070</v>
       </c>
       <c r="M1" s="6" t="s">
+        <v>1291</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>520</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>1071</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4545,13 +4557,16 @@
       <c r="L2" s="3">
         <v>0.92600000000000005</v>
       </c>
-      <c r="M2" s="3"/>
+      <c r="M2" s="3">
+        <v>63051</v>
+      </c>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
-    </row>
-    <row r="3" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R2" s="3"/>
+    </row>
+    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -4586,13 +4601,16 @@
       <c r="L3" s="3">
         <v>0.92600000000000005</v>
       </c>
-      <c r="M3" s="3"/>
+      <c r="M3" s="3">
+        <v>63051</v>
+      </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
-    </row>
-    <row r="4" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -4627,13 +4645,16 @@
       <c r="L4" s="3">
         <v>0.92600000000000005</v>
       </c>
-      <c r="M4" s="3"/>
+      <c r="M4" s="3">
+        <v>63051</v>
+      </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
-    </row>
-    <row r="5" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -4668,13 +4689,16 @@
       <c r="L5" s="3">
         <v>0.92600000000000005</v>
       </c>
-      <c r="M5" s="3"/>
+      <c r="M5" s="3">
+        <v>63051</v>
+      </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
-    </row>
-    <row r="6" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -4709,13 +4733,16 @@
       <c r="L6" s="3">
         <v>0.92600000000000005</v>
       </c>
-      <c r="M6" s="3"/>
+      <c r="M6" s="3">
+        <v>63051</v>
+      </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
-    </row>
-    <row r="7" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -4750,13 +4777,16 @@
       <c r="L7" s="3">
         <v>0.92600000000000005</v>
       </c>
-      <c r="M7" s="3"/>
+      <c r="M7" s="3">
+        <v>63051</v>
+      </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
-    </row>
-    <row r="8" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -4791,13 +4821,16 @@
       <c r="L8" s="3">
         <v>0.92900000000000005</v>
       </c>
-      <c r="M8" s="3"/>
+      <c r="M8" s="3">
+        <v>42080</v>
+      </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
-    </row>
-    <row r="9" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -4832,13 +4865,16 @@
       <c r="L9" s="3">
         <v>0.92900000000000005</v>
       </c>
-      <c r="M9" s="3"/>
+      <c r="M9" s="3">
+        <v>42080</v>
+      </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
-    </row>
-    <row r="10" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -4873,13 +4909,16 @@
       <c r="L10" s="3">
         <v>0.92900000000000005</v>
       </c>
-      <c r="M10" s="3"/>
+      <c r="M10" s="3">
+        <v>42080</v>
+      </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
-    </row>
-    <row r="11" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -4914,13 +4953,16 @@
       <c r="L11" s="3">
         <v>0.92900000000000005</v>
       </c>
-      <c r="M11" s="3"/>
+      <c r="M11" s="3">
+        <v>42080</v>
+      </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -4955,13 +4997,16 @@
       <c r="L12" s="3">
         <v>0.92900000000000005</v>
       </c>
-      <c r="M12" s="3"/>
+      <c r="M12" s="3">
+        <v>42080</v>
+      </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
-    </row>
-    <row r="13" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -4996,13 +5041,16 @@
       <c r="L13" s="3">
         <v>0.92900000000000005</v>
       </c>
-      <c r="M13" s="3"/>
+      <c r="M13" s="3">
+        <v>42080</v>
+      </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
-    </row>
-    <row r="14" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -5037,13 +5085,16 @@
       <c r="L14" s="3">
         <v>0.92900000000000005</v>
       </c>
-      <c r="M14" s="3"/>
+      <c r="M14" s="3">
+        <v>42080</v>
+      </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
-    </row>
-    <row r="15" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R14" s="3"/>
+    </row>
+    <row r="15" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -5078,13 +5129,16 @@
       <c r="L15" s="3">
         <v>0.92900000000000005</v>
       </c>
-      <c r="M15" s="3"/>
+      <c r="M15" s="3">
+        <v>42080</v>
+      </c>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
-    </row>
-    <row r="16" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R15" s="3"/>
+    </row>
+    <row r="16" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -5119,13 +5173,16 @@
       <c r="L16" s="3">
         <v>0.92900000000000005</v>
       </c>
-      <c r="M16" s="3"/>
+      <c r="M16" s="3">
+        <v>42080</v>
+      </c>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -5160,13 +5217,16 @@
       <c r="L17" s="3">
         <v>0.92900000000000005</v>
       </c>
-      <c r="M17" s="3"/>
+      <c r="M17" s="3">
+        <v>42080</v>
+      </c>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
-    </row>
-    <row r="18" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R17" s="3"/>
+    </row>
+    <row r="18" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -5201,13 +5261,16 @@
       <c r="L18" s="3">
         <v>0.92900000000000005</v>
       </c>
-      <c r="M18" s="3"/>
+      <c r="M18" s="3">
+        <v>42080</v>
+      </c>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
-    </row>
-    <row r="19" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R18" s="3"/>
+    </row>
+    <row r="19" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -5242,13 +5305,16 @@
       <c r="L19" s="3">
         <v>0.92900000000000005</v>
       </c>
-      <c r="M19" s="3"/>
+      <c r="M19" s="3">
+        <v>42080</v>
+      </c>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -5283,13 +5349,16 @@
       <c r="L20" s="3">
         <v>0.92900000000000005</v>
       </c>
-      <c r="M20" s="3"/>
+      <c r="M20" s="3">
+        <v>42080</v>
+      </c>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
-    </row>
-    <row r="21" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R20" s="3"/>
+    </row>
+    <row r="21" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -5324,13 +5393,16 @@
       <c r="L21" s="3">
         <v>0.92900000000000005</v>
       </c>
-      <c r="M21" s="3"/>
+      <c r="M21" s="3">
+        <v>42080</v>
+      </c>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
-    </row>
-    <row r="22" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R21" s="3"/>
+    </row>
+    <row r="22" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -5365,13 +5437,16 @@
       <c r="L22" s="3">
         <v>0.92900000000000005</v>
       </c>
-      <c r="M22" s="3"/>
+      <c r="M22" s="3">
+        <v>42080</v>
+      </c>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
-    </row>
-    <row r="23" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R22" s="3"/>
+    </row>
+    <row r="23" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -5406,13 +5481,16 @@
       <c r="L23" s="3">
         <v>0.92900000000000005</v>
       </c>
-      <c r="M23" s="3"/>
+      <c r="M23" s="3">
+        <v>42080</v>
+      </c>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
-    </row>
-    <row r="24" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R23" s="3"/>
+    </row>
+    <row r="24" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -5447,13 +5525,16 @@
       <c r="L24" s="3">
         <v>0.92900000000000005</v>
       </c>
-      <c r="M24" s="3"/>
+      <c r="M24" s="3">
+        <v>42080</v>
+      </c>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
-    </row>
-    <row r="25" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R24" s="3"/>
+    </row>
+    <row r="25" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -5488,13 +5569,16 @@
       <c r="L25" s="3">
         <v>0.92900000000000005</v>
       </c>
-      <c r="M25" s="3"/>
+      <c r="M25" s="3">
+        <v>42080</v>
+      </c>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
-    </row>
-    <row r="26" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R25" s="3"/>
+    </row>
+    <row r="26" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -5529,13 +5613,16 @@
       <c r="L26" s="3">
         <v>0.92900000000000005</v>
       </c>
-      <c r="M26" s="3"/>
+      <c r="M26" s="3">
+        <v>42080</v>
+      </c>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
-    </row>
-    <row r="27" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R26" s="3"/>
+    </row>
+    <row r="27" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -5570,13 +5657,16 @@
       <c r="L27" s="3">
         <v>0.92900000000000005</v>
       </c>
-      <c r="M27" s="3"/>
+      <c r="M27" s="3">
+        <v>42080</v>
+      </c>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
-    </row>
-    <row r="28" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R27" s="3"/>
+    </row>
+    <row r="28" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -5611,13 +5701,16 @@
       <c r="L28" s="3">
         <v>0.92600000000000005</v>
       </c>
-      <c r="M28" s="3"/>
+      <c r="M28" s="3">
+        <v>63051</v>
+      </c>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
-    </row>
-    <row r="29" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R28" s="3"/>
+    </row>
+    <row r="29" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -5652,13 +5745,16 @@
       <c r="L29" s="3">
         <v>0.92600000000000005</v>
       </c>
-      <c r="M29" s="3"/>
+      <c r="M29" s="3">
+        <v>63051</v>
+      </c>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
-    </row>
-    <row r="30" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R29" s="3"/>
+    </row>
+    <row r="30" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -5693,13 +5789,16 @@
       <c r="L30" s="3">
         <v>0.92600000000000005</v>
       </c>
-      <c r="M30" s="3"/>
+      <c r="M30" s="3">
+        <v>63051</v>
+      </c>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
-    </row>
-    <row r="31" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R30" s="3"/>
+    </row>
+    <row r="31" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -5736,15 +5835,18 @@
       <c r="L31" s="3">
         <v>0.92600000000000005</v>
       </c>
-      <c r="M31" s="17">
+      <c r="M31" s="3">
+        <v>63051</v>
+      </c>
+      <c r="N31" s="17">
         <v>0.05</v>
       </c>
-      <c r="N31" s="3"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
-    </row>
-    <row r="32" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R31" s="3"/>
+    </row>
+    <row r="32" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -5779,13 +5881,16 @@
       <c r="L32" s="3">
         <v>0.92600000000000005</v>
       </c>
-      <c r="M32" s="3"/>
+      <c r="M32" s="3">
+        <v>63051</v>
+      </c>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
-    </row>
-    <row r="33" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R32" s="3"/>
+    </row>
+    <row r="33" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -5820,13 +5925,16 @@
       <c r="L33" s="3">
         <v>0.92600000000000005</v>
       </c>
-      <c r="M33" s="3"/>
+      <c r="M33" s="3">
+        <v>63051</v>
+      </c>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
-    </row>
-    <row r="34" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R33" s="3"/>
+    </row>
+    <row r="34" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -5861,13 +5969,16 @@
       <c r="L34" s="3">
         <v>0.92600000000000005</v>
       </c>
-      <c r="M34" s="3"/>
+      <c r="M34" s="3">
+        <v>63051</v>
+      </c>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
-    </row>
-    <row r="35" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R34" s="3"/>
+    </row>
+    <row r="35" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -5902,13 +6013,16 @@
       <c r="L35" s="3">
         <v>0.92600000000000005</v>
       </c>
-      <c r="M35" s="3"/>
+      <c r="M35" s="3">
+        <v>63051</v>
+      </c>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
-    </row>
-    <row r="36" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R35" s="3"/>
+    </row>
+    <row r="36" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -5943,13 +6057,16 @@
       <c r="L36" s="3">
         <v>0.92600000000000005</v>
       </c>
-      <c r="M36" s="3"/>
+      <c r="M36" s="3">
+        <v>63051</v>
+      </c>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
-    </row>
-    <row r="37" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R36" s="3"/>
+    </row>
+    <row r="37" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -5984,13 +6101,16 @@
       <c r="L37" s="3">
         <v>0.92600000000000005</v>
       </c>
-      <c r="M37" s="3"/>
+      <c r="M37" s="3">
+        <v>63051</v>
+      </c>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
-    </row>
-    <row r="38" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R37" s="3"/>
+    </row>
+    <row r="38" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -6025,13 +6145,16 @@
       <c r="L38" s="3">
         <v>0.92600000000000005</v>
       </c>
-      <c r="M38" s="3"/>
+      <c r="M38" s="3">
+        <v>63051</v>
+      </c>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
-    </row>
-    <row r="39" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R38" s="3"/>
+    </row>
+    <row r="39" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -6066,13 +6189,16 @@
       <c r="L39" s="3">
         <v>0.92600000000000005</v>
       </c>
-      <c r="M39" s="3"/>
+      <c r="M39" s="3">
+        <v>63051</v>
+      </c>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -6107,13 +6233,16 @@
       <c r="L40" s="3">
         <v>0.92600000000000005</v>
       </c>
-      <c r="M40" s="3"/>
+      <c r="M40" s="3">
+        <v>63051</v>
+      </c>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
@@ -6148,13 +6277,16 @@
       <c r="L41" s="3">
         <v>0.92600000000000005</v>
       </c>
-      <c r="M41" s="3"/>
+      <c r="M41" s="3">
+        <v>63051</v>
+      </c>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
-    </row>
-    <row r="42" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R41" s="3"/>
+    </row>
+    <row r="42" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -6189,13 +6321,16 @@
       <c r="L42" s="3">
         <v>0.92600000000000005</v>
       </c>
-      <c r="M42" s="3"/>
+      <c r="M42" s="3">
+        <v>63051</v>
+      </c>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
-    </row>
-    <row r="43" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R42" s="3"/>
+    </row>
+    <row r="43" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
@@ -6232,15 +6367,18 @@
       <c r="L43" s="3">
         <v>0.92600000000000005</v>
       </c>
-      <c r="M43" s="17">
+      <c r="M43" s="3">
+        <v>63051</v>
+      </c>
+      <c r="N43" s="17">
         <v>0.15</v>
       </c>
-      <c r="N43" s="3"/>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
-    </row>
-    <row r="44" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R43" s="3"/>
+    </row>
+    <row r="44" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
@@ -6275,13 +6413,16 @@
       <c r="L44" s="3">
         <v>0.92600000000000005</v>
       </c>
-      <c r="M44" s="3"/>
+      <c r="M44" s="3">
+        <v>63051</v>
+      </c>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
-    </row>
-    <row r="45" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R44" s="3"/>
+    </row>
+    <row r="45" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
@@ -6316,13 +6457,16 @@
       <c r="L45" s="3">
         <v>0.92600000000000005</v>
       </c>
-      <c r="M45" s="3"/>
+      <c r="M45" s="3">
+        <v>63051</v>
+      </c>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
-    </row>
-    <row r="46" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R45" s="3"/>
+    </row>
+    <row r="46" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
@@ -6357,13 +6501,16 @@
       <c r="L46" s="3">
         <v>0.92600000000000005</v>
       </c>
-      <c r="M46" s="3"/>
+      <c r="M46" s="3">
+        <v>63051</v>
+      </c>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
-    </row>
-    <row r="47" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R46" s="3"/>
+    </row>
+    <row r="47" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
@@ -6398,13 +6545,16 @@
       <c r="L47" s="3">
         <v>0.92600000000000005</v>
       </c>
-      <c r="M47" s="3"/>
+      <c r="M47" s="3">
+        <v>63051</v>
+      </c>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
-    </row>
-    <row r="48" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R47" s="3"/>
+    </row>
+    <row r="48" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
@@ -6439,13 +6589,16 @@
       <c r="L48" s="3">
         <v>0.92600000000000005</v>
       </c>
-      <c r="M48" s="3"/>
+      <c r="M48" s="3">
+        <v>63051</v>
+      </c>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
-    </row>
-    <row r="49" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R48" s="3"/>
+    </row>
+    <row r="49" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
@@ -6480,13 +6633,16 @@
       <c r="L49" s="3">
         <v>0.77900000000000003</v>
       </c>
-      <c r="M49" s="3"/>
+      <c r="M49" s="3">
+        <v>8069</v>
+      </c>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
-    </row>
-    <row r="50" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R49" s="3"/>
+    </row>
+    <row r="50" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
@@ -6521,13 +6677,16 @@
       <c r="L50" s="3">
         <v>0.77900000000000003</v>
       </c>
-      <c r="M50" s="3"/>
+      <c r="M50" s="3">
+        <v>8069</v>
+      </c>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
-    </row>
-    <row r="51" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R50" s="3"/>
+    </row>
+    <row r="51" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
@@ -6562,13 +6721,16 @@
       <c r="L51" s="3">
         <v>0.77900000000000003</v>
       </c>
-      <c r="M51" s="3"/>
+      <c r="M51" s="3">
+        <v>8069</v>
+      </c>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
-    </row>
-    <row r="52" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R51" s="3"/>
+    </row>
+    <row r="52" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
@@ -6603,13 +6765,16 @@
       <c r="L52" s="3">
         <v>0.77900000000000003</v>
       </c>
-      <c r="M52" s="3"/>
+      <c r="M52" s="3">
+        <v>8069</v>
+      </c>
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
-    </row>
-    <row r="53" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R52" s="3"/>
+    </row>
+    <row r="53" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
@@ -6644,13 +6809,16 @@
       <c r="L53" s="3">
         <v>0.77900000000000003</v>
       </c>
-      <c r="M53" s="3"/>
+      <c r="M53" s="3">
+        <v>8069</v>
+      </c>
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
-    </row>
-    <row r="54" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R53" s="3"/>
+    </row>
+    <row r="54" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
@@ -6685,13 +6853,16 @@
       <c r="L54" s="3">
         <v>0.77900000000000003</v>
       </c>
-      <c r="M54" s="3"/>
+      <c r="M54" s="3">
+        <v>8069</v>
+      </c>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
-    </row>
-    <row r="55" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R54" s="3"/>
+    </row>
+    <row r="55" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
@@ -6728,15 +6899,18 @@
       <c r="L55" s="3">
         <v>0.77900000000000003</v>
       </c>
-      <c r="M55" s="17">
+      <c r="M55" s="3">
+        <v>8069</v>
+      </c>
+      <c r="N55" s="17">
         <v>0.05</v>
       </c>
-      <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
@@ -6771,13 +6945,16 @@
       <c r="L56" s="3">
         <v>0.77900000000000003</v>
       </c>
-      <c r="M56" s="3"/>
+      <c r="M56" s="3">
+        <v>8069</v>
+      </c>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
@@ -6812,13 +6989,16 @@
       <c r="L57" s="3">
         <v>0.66</v>
       </c>
-      <c r="M57" s="3"/>
+      <c r="M57" s="3">
+        <v>1832</v>
+      </c>
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
-    </row>
-    <row r="58" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R57" s="3"/>
+    </row>
+    <row r="58" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
@@ -6853,13 +7033,16 @@
       <c r="L58" s="3">
         <v>0.81499999999999995</v>
       </c>
-      <c r="M58" s="3"/>
+      <c r="M58" s="3">
+        <v>14090</v>
+      </c>
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
-    </row>
-    <row r="59" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R58" s="3"/>
+    </row>
+    <row r="59" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
@@ -6894,13 +7077,16 @@
       <c r="L59" s="3">
         <v>0.78300000000000003</v>
       </c>
-      <c r="M59" s="3"/>
+      <c r="M59" s="3">
+        <v>8822</v>
+      </c>
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
       <c r="P59" s="3"/>
       <c r="Q59" s="3"/>
-    </row>
-    <row r="60" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R59" s="3"/>
+    </row>
+    <row r="60" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
@@ -6935,13 +7121,16 @@
       <c r="L60" s="3">
         <v>0.75600000000000001</v>
       </c>
-      <c r="M60" s="3"/>
+      <c r="M60" s="3">
+        <v>7445</v>
+      </c>
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
       <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
-    </row>
-    <row r="61" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R60" s="3"/>
+    </row>
+    <row r="61" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
@@ -6976,13 +7165,16 @@
       <c r="L61" s="3">
         <v>0.76700000000000002</v>
       </c>
-      <c r="M61" s="3"/>
+      <c r="M61" s="3">
+        <v>5207</v>
+      </c>
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
       <c r="P61" s="3"/>
       <c r="Q61" s="3"/>
-    </row>
-    <row r="62" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R61" s="3"/>
+    </row>
+    <row r="62" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
@@ -7017,13 +7209,16 @@
       <c r="L62" s="3">
         <v>0.76700000000000002</v>
       </c>
-      <c r="M62" s="3"/>
+      <c r="M62" s="3">
+        <v>5207</v>
+      </c>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
       <c r="P62" s="3"/>
       <c r="Q62" s="3"/>
-    </row>
-    <row r="63" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R62" s="3"/>
+    </row>
+    <row r="63" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>61</v>
       </c>
@@ -7058,13 +7253,16 @@
       <c r="L63" s="3">
         <v>0.71099999999999997</v>
       </c>
-      <c r="M63" s="3"/>
+      <c r="M63" s="3">
+        <v>1739</v>
+      </c>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
       <c r="P63" s="3"/>
       <c r="Q63" s="3"/>
-    </row>
-    <row r="64" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R63" s="3"/>
+    </row>
+    <row r="64" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>62</v>
       </c>
@@ -7099,13 +7297,16 @@
       <c r="L64" s="3">
         <v>0.71099999999999997</v>
       </c>
-      <c r="M64" s="3"/>
+      <c r="M64" s="3">
+        <v>1739</v>
+      </c>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
       <c r="P64" s="3"/>
       <c r="Q64" s="3"/>
-    </row>
-    <row r="65" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R64" s="3"/>
+    </row>
+    <row r="65" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>63</v>
       </c>
@@ -7140,13 +7341,16 @@
       <c r="L65" s="3">
         <v>0.71099999999999997</v>
       </c>
-      <c r="M65" s="3"/>
+      <c r="M65" s="3">
+        <v>1739</v>
+      </c>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
       <c r="P65" s="3"/>
       <c r="Q65" s="3"/>
-    </row>
-    <row r="66" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R65" s="3"/>
+    </row>
+    <row r="66" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>64</v>
       </c>
@@ -7181,13 +7385,16 @@
       <c r="L66" s="3">
         <v>0.68200000000000005</v>
       </c>
-      <c r="M66" s="3"/>
+      <c r="M66" s="3">
+        <v>8073</v>
+      </c>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
       <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
-    </row>
-    <row r="67" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R66" s="3"/>
+    </row>
+    <row r="67" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>65</v>
       </c>
@@ -7222,13 +7429,16 @@
       <c r="L67" s="3">
         <v>0.76500000000000001</v>
       </c>
-      <c r="M67" s="3"/>
+      <c r="M67" s="3">
+        <v>6450</v>
+      </c>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>66</v>
       </c>
@@ -7263,13 +7473,16 @@
       <c r="L68" s="3">
         <v>0.75900000000000001</v>
       </c>
-      <c r="M68" s="3"/>
+      <c r="M68" s="3">
+        <v>5845</v>
+      </c>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
       <c r="P68" s="3"/>
       <c r="Q68" s="3"/>
-    </row>
-    <row r="69" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R68" s="3"/>
+    </row>
+    <row r="69" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>67</v>
       </c>
@@ -7304,13 +7517,16 @@
       <c r="L69" s="3">
         <v>0.77700000000000002</v>
       </c>
-      <c r="M69" s="3"/>
+      <c r="M69" s="3">
+        <v>5845</v>
+      </c>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
       <c r="P69" s="3"/>
       <c r="Q69" s="3"/>
-    </row>
-    <row r="70" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R69" s="3"/>
+    </row>
+    <row r="70" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>68</v>
       </c>
@@ -7345,13 +7561,16 @@
       <c r="L70" s="3">
         <v>0.77700000000000002</v>
       </c>
-      <c r="M70" s="17"/>
-      <c r="N70" s="3"/>
+      <c r="M70" s="3">
+        <v>5845</v>
+      </c>
+      <c r="N70" s="17"/>
       <c r="O70" s="3"/>
       <c r="P70" s="3"/>
       <c r="Q70" s="3"/>
-    </row>
-    <row r="71" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R70" s="3"/>
+    </row>
+    <row r="71" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>69</v>
       </c>
@@ -7388,15 +7607,18 @@
       <c r="L71" s="3">
         <v>0.77700000000000002</v>
       </c>
-      <c r="M71" s="17">
+      <c r="M71" s="3">
+        <v>5845</v>
+      </c>
+      <c r="N71" s="17">
         <v>0.1</v>
       </c>
-      <c r="N71" s="3"/>
       <c r="O71" s="3"/>
       <c r="P71" s="3"/>
       <c r="Q71" s="3"/>
-    </row>
-    <row r="72" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R71" s="3"/>
+    </row>
+    <row r="72" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>70</v>
       </c>
@@ -7431,13 +7653,16 @@
       <c r="L72" s="3">
         <v>0.71799999999999997</v>
       </c>
-      <c r="M72" s="3"/>
+      <c r="M72" s="3">
+        <v>3322</v>
+      </c>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
       <c r="P72" s="3"/>
       <c r="Q72" s="3"/>
-    </row>
-    <row r="73" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R72" s="3"/>
+    </row>
+    <row r="73" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
@@ -7472,13 +7697,16 @@
       <c r="L73" s="3">
         <v>0.76500000000000001</v>
       </c>
-      <c r="M73" s="3"/>
+      <c r="M73" s="3">
+        <v>6450</v>
+      </c>
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
       <c r="P73" s="3"/>
       <c r="Q73" s="3"/>
-    </row>
-    <row r="74" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R73" s="3"/>
+    </row>
+    <row r="74" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
@@ -7513,13 +7741,16 @@
       <c r="L74" s="3">
         <v>0.76500000000000001</v>
       </c>
-      <c r="M74" s="3"/>
+      <c r="M74" s="3">
+        <v>6450</v>
+      </c>
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
       <c r="P74" s="3"/>
       <c r="Q74" s="3"/>
-    </row>
-    <row r="75" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R74" s="3"/>
+    </row>
+    <row r="75" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
@@ -7554,13 +7785,16 @@
       <c r="L75" s="3">
         <v>0.76500000000000001</v>
       </c>
-      <c r="M75" s="3"/>
+      <c r="M75" s="3">
+        <v>6450</v>
+      </c>
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
       <c r="P75" s="3"/>
       <c r="Q75" s="3"/>
-    </row>
-    <row r="76" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R75" s="3"/>
+    </row>
+    <row r="76" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>74</v>
       </c>
@@ -7595,13 +7829,16 @@
       <c r="L76" s="3">
         <v>0.76500000000000001</v>
       </c>
-      <c r="M76" s="3"/>
+      <c r="M76" s="3">
+        <v>6450</v>
+      </c>
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
       <c r="P76" s="3"/>
       <c r="Q76" s="3"/>
-    </row>
-    <row r="77" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R76" s="3"/>
+    </row>
+    <row r="77" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>75</v>
       </c>
@@ -7636,13 +7873,16 @@
       <c r="L77" s="3">
         <v>0.76500000000000001</v>
       </c>
-      <c r="M77" s="3"/>
+      <c r="M77" s="3">
+        <v>6450</v>
+      </c>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
       <c r="P77" s="3"/>
       <c r="Q77" s="3"/>
-    </row>
-    <row r="78" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R77" s="3"/>
+    </row>
+    <row r="78" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>76</v>
       </c>
@@ -7677,13 +7917,16 @@
       <c r="L78" s="3">
         <v>0.76500000000000001</v>
       </c>
-      <c r="M78" s="3"/>
+      <c r="M78" s="3">
+        <v>6450</v>
+      </c>
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
       <c r="P78" s="3"/>
       <c r="Q78" s="3"/>
-    </row>
-    <row r="79" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R78" s="3"/>
+    </row>
+    <row r="79" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>77</v>
       </c>
@@ -7720,15 +7963,18 @@
       <c r="L79" s="3">
         <v>0.76500000000000001</v>
       </c>
-      <c r="M79" s="17">
+      <c r="M79" s="3">
+        <v>6450</v>
+      </c>
+      <c r="N79" s="17">
         <v>0.1</v>
       </c>
-      <c r="N79" s="3"/>
       <c r="O79" s="3"/>
       <c r="P79" s="3"/>
       <c r="Q79" s="3"/>
-    </row>
-    <row r="80" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R79" s="3"/>
+    </row>
+    <row r="80" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>78</v>
       </c>
@@ -7763,13 +8009,16 @@
       <c r="L80" s="3">
         <v>0.72799999999999998</v>
       </c>
-      <c r="M80" s="3"/>
+      <c r="M80" s="3">
+        <v>4909</v>
+      </c>
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
       <c r="P80" s="3"/>
       <c r="Q80" s="3"/>
-    </row>
-    <row r="81" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R80" s="3"/>
+    </row>
+    <row r="81" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>79</v>
       </c>
@@ -7804,13 +8053,16 @@
       <c r="L81" s="3">
         <v>0.72799999999999998</v>
       </c>
-      <c r="M81" s="3"/>
+      <c r="M81" s="3">
+        <v>4909</v>
+      </c>
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
       <c r="P81" s="3"/>
       <c r="Q81" s="3"/>
-    </row>
-    <row r="82" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R81" s="3"/>
+    </row>
+    <row r="82" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>80</v>
       </c>
@@ -7845,13 +8097,16 @@
       <c r="L82" s="3">
         <v>0.81699999999999995</v>
       </c>
-      <c r="M82" s="3"/>
+      <c r="M82" s="3">
+        <v>15332</v>
+      </c>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>81</v>
       </c>
@@ -7886,13 +8141,16 @@
       <c r="L83" s="3">
         <v>0.71799999999999997</v>
       </c>
-      <c r="M83" s="3"/>
+      <c r="M83" s="3">
+        <v>3322</v>
+      </c>
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
       <c r="P83" s="3"/>
       <c r="Q83" s="3"/>
-    </row>
-    <row r="84" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R83" s="3"/>
+    </row>
+    <row r="84" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>82</v>
       </c>
@@ -7927,13 +8185,16 @@
       <c r="L84" s="3">
         <v>0.85099999999999998</v>
       </c>
-      <c r="M84" s="3"/>
+      <c r="M84" s="3">
+        <v>12612</v>
+      </c>
       <c r="N84" s="3"/>
       <c r="O84" s="3"/>
       <c r="P84" s="3"/>
       <c r="Q84" s="3"/>
-    </row>
-    <row r="85" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R84" s="3"/>
+    </row>
+    <row r="85" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>83</v>
       </c>
@@ -7968,13 +8229,16 @@
       <c r="L85" s="3">
         <v>0.84499999999999997</v>
       </c>
-      <c r="M85" s="3"/>
+      <c r="M85" s="3">
+        <v>8433</v>
+      </c>
       <c r="N85" s="3"/>
       <c r="O85" s="3"/>
       <c r="P85" s="3"/>
       <c r="Q85" s="3"/>
-    </row>
-    <row r="86" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R85" s="3"/>
+    </row>
+    <row r="86" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>84</v>
       </c>
@@ -8009,13 +8273,16 @@
       <c r="L86" s="3">
         <v>0.84499999999999997</v>
       </c>
-      <c r="M86" s="3"/>
+      <c r="M86" s="3">
+        <v>8433</v>
+      </c>
       <c r="N86" s="3"/>
       <c r="O86" s="3"/>
       <c r="P86" s="3"/>
       <c r="Q86" s="3"/>
-    </row>
-    <row r="87" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R86" s="3"/>
+    </row>
+    <row r="87" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>85</v>
       </c>
@@ -8050,13 +8317,16 @@
       <c r="L87" s="3">
         <v>0.84499999999999997</v>
       </c>
-      <c r="M87" s="3"/>
+      <c r="M87" s="3">
+        <v>8433</v>
+      </c>
       <c r="N87" s="3"/>
       <c r="O87" s="3"/>
       <c r="P87" s="3"/>
       <c r="Q87" s="3"/>
-    </row>
-    <row r="88" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R87" s="3"/>
+    </row>
+    <row r="88" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>86</v>
       </c>
@@ -8091,13 +8361,16 @@
       <c r="L88" s="3">
         <v>0.84499999999999997</v>
       </c>
-      <c r="M88" s="3"/>
+      <c r="M88" s="3">
+        <v>8433</v>
+      </c>
       <c r="N88" s="3"/>
       <c r="O88" s="3"/>
       <c r="P88" s="3"/>
       <c r="Q88" s="3"/>
-    </row>
-    <row r="89" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R88" s="3"/>
+    </row>
+    <row r="89" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>87</v>
       </c>
@@ -8132,13 +8405,16 @@
       <c r="L89" s="3">
         <v>0.85099999999999998</v>
       </c>
-      <c r="M89" s="3"/>
+      <c r="M89" s="3">
+        <v>12612</v>
+      </c>
       <c r="N89" s="3"/>
       <c r="O89" s="3"/>
       <c r="P89" s="3"/>
       <c r="Q89" s="3"/>
-    </row>
-    <row r="90" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R89" s="3"/>
+    </row>
+    <row r="90" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>88</v>
       </c>
@@ -8173,13 +8449,16 @@
       <c r="L90" s="3">
         <v>0.84499999999999997</v>
       </c>
-      <c r="M90" s="3"/>
+      <c r="M90" s="3">
+        <v>8433</v>
+      </c>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>89</v>
       </c>
@@ -8214,13 +8493,16 @@
       <c r="L91" s="3">
         <v>0.84499999999999997</v>
       </c>
-      <c r="M91" s="3"/>
+      <c r="M91" s="3">
+        <v>8433</v>
+      </c>
       <c r="N91" s="3"/>
       <c r="O91" s="3"/>
       <c r="P91" s="3"/>
       <c r="Q91" s="3"/>
-    </row>
-    <row r="92" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R91" s="3"/>
+    </row>
+    <row r="92" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>90</v>
       </c>
@@ -8255,13 +8537,16 @@
       <c r="L92" s="3">
         <v>0.84499999999999997</v>
       </c>
-      <c r="M92" s="3"/>
+      <c r="M92" s="3">
+        <v>8433</v>
+      </c>
       <c r="N92" s="3"/>
       <c r="O92" s="3"/>
       <c r="P92" s="3"/>
       <c r="Q92" s="3"/>
-    </row>
-    <row r="93" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R92" s="3"/>
+    </row>
+    <row r="93" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>91</v>
       </c>
@@ -8296,13 +8581,16 @@
       <c r="L93" s="3">
         <v>0.94899999999999995</v>
       </c>
-      <c r="M93" s="3"/>
+      <c r="M93" s="3">
+        <v>53353</v>
+      </c>
       <c r="N93" s="3"/>
       <c r="O93" s="3"/>
       <c r="P93" s="3"/>
       <c r="Q93" s="3"/>
-    </row>
-    <row r="94" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R93" s="3"/>
+    </row>
+    <row r="94" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>92</v>
       </c>
@@ -8337,13 +8625,16 @@
       <c r="L94" s="3">
         <v>0.94899999999999995</v>
       </c>
-      <c r="M94" s="3"/>
+      <c r="M94" s="3">
+        <v>53353</v>
+      </c>
       <c r="N94" s="3"/>
       <c r="O94" s="3"/>
       <c r="P94" s="3"/>
       <c r="Q94" s="3"/>
-    </row>
-    <row r="95" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R94" s="3"/>
+    </row>
+    <row r="95" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>93</v>
       </c>
@@ -8378,13 +8669,16 @@
       <c r="L95" s="3">
         <v>0.94899999999999995</v>
       </c>
-      <c r="M95" s="3"/>
+      <c r="M95" s="3">
+        <v>53353</v>
+      </c>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>94</v>
       </c>
@@ -8419,13 +8713,16 @@
       <c r="L96" s="3">
         <v>0.94899999999999995</v>
       </c>
-      <c r="M96" s="3"/>
+      <c r="M96" s="3">
+        <v>53353</v>
+      </c>
       <c r="N96" s="3"/>
       <c r="O96" s="3"/>
       <c r="P96" s="3"/>
       <c r="Q96" s="3"/>
-    </row>
-    <row r="97" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R96" s="3"/>
+    </row>
+    <row r="97" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>95</v>
       </c>
@@ -8460,13 +8757,16 @@
       <c r="L97" s="3">
         <v>0.94899999999999995</v>
       </c>
-      <c r="M97" s="3"/>
+      <c r="M97" s="3">
+        <v>53353</v>
+      </c>
       <c r="N97" s="3"/>
       <c r="O97" s="3"/>
       <c r="P97" s="3"/>
       <c r="Q97" s="3"/>
-    </row>
-    <row r="98" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R97" s="3"/>
+    </row>
+    <row r="98" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>96</v>
       </c>
@@ -8501,13 +8801,16 @@
       <c r="L98" s="3">
         <v>0.94899999999999995</v>
       </c>
-      <c r="M98" s="3"/>
+      <c r="M98" s="3">
+        <v>53353</v>
+      </c>
       <c r="N98" s="3"/>
       <c r="O98" s="3"/>
       <c r="P98" s="3"/>
       <c r="Q98" s="3"/>
-    </row>
-    <row r="99" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R98" s="3"/>
+    </row>
+    <row r="99" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>97</v>
       </c>
@@ -8542,13 +8845,16 @@
       <c r="L99" s="3">
         <v>0.94899999999999995</v>
       </c>
-      <c r="M99" s="3"/>
+      <c r="M99" s="3">
+        <v>53353</v>
+      </c>
       <c r="N99" s="3"/>
       <c r="O99" s="3"/>
       <c r="P99" s="3"/>
       <c r="Q99" s="3"/>
-    </row>
-    <row r="100" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R99" s="3"/>
+    </row>
+    <row r="100" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>98</v>
       </c>
@@ -8583,13 +8889,16 @@
       <c r="L100" s="3">
         <v>0.94899999999999995</v>
       </c>
-      <c r="M100" s="3"/>
+      <c r="M100" s="3">
+        <v>57189</v>
+      </c>
       <c r="N100" s="3"/>
       <c r="O100" s="3"/>
       <c r="P100" s="3"/>
       <c r="Q100" s="3"/>
-    </row>
-    <row r="101" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R100" s="3"/>
+    </row>
+    <row r="101" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>99</v>
       </c>
@@ -8624,13 +8933,16 @@
       <c r="L101" s="3">
         <v>0.93200000000000005</v>
       </c>
-      <c r="M101" s="3"/>
+      <c r="M101" s="3">
+        <v>39229</v>
+      </c>
       <c r="N101" s="3"/>
       <c r="O101" s="3"/>
       <c r="P101" s="3"/>
       <c r="Q101" s="3"/>
-    </row>
-    <row r="102" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R101" s="3"/>
+    </row>
+    <row r="102" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>100</v>
       </c>
@@ -8665,13 +8977,16 @@
       <c r="L102" s="3">
         <v>0.95499999999999996</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3">
+        <v>79669</v>
+      </c>
       <c r="N102" s="3"/>
       <c r="O102" s="3"/>
       <c r="P102" s="3"/>
       <c r="Q102" s="3"/>
-    </row>
-    <row r="103" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R102" s="3"/>
+    </row>
+    <row r="103" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>101</v>
       </c>
@@ -8706,13 +9021,16 @@
       <c r="L103" s="3">
         <v>0.93200000000000005</v>
       </c>
-      <c r="M103" s="3"/>
+      <c r="M103" s="3">
+        <v>39229</v>
+      </c>
       <c r="N103" s="3"/>
       <c r="O103" s="3"/>
       <c r="P103" s="3"/>
       <c r="Q103" s="3"/>
-    </row>
-    <row r="104" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R103" s="3"/>
+    </row>
+    <row r="104" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>102</v>
       </c>
@@ -8747,13 +9065,16 @@
       <c r="L104" s="3">
         <v>0.93200000000000005</v>
       </c>
-      <c r="M104" s="3"/>
+      <c r="M104" s="3">
+        <v>39229</v>
+      </c>
       <c r="N104" s="3"/>
       <c r="O104" s="3"/>
       <c r="P104" s="3"/>
       <c r="Q104" s="3"/>
-    </row>
-    <row r="105" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R104" s="3"/>
+    </row>
+    <row r="105" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>103</v>
       </c>
@@ -8788,13 +9109,16 @@
       <c r="L105" s="3">
         <v>0.93200000000000005</v>
       </c>
-      <c r="M105" s="3"/>
+      <c r="M105" s="3">
+        <v>39229</v>
+      </c>
       <c r="N105" s="3"/>
       <c r="O105" s="3"/>
       <c r="P105" s="3"/>
       <c r="Q105" s="3"/>
-    </row>
-    <row r="106" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R105" s="3"/>
+    </row>
+    <row r="106" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>104</v>
       </c>
@@ -8829,13 +9153,16 @@
       <c r="L106" s="3">
         <v>0.93200000000000005</v>
       </c>
-      <c r="M106" s="3"/>
+      <c r="M106" s="3">
+        <v>39229</v>
+      </c>
       <c r="N106" s="3"/>
       <c r="O106" s="3"/>
       <c r="P106" s="3"/>
       <c r="Q106" s="3"/>
-    </row>
-    <row r="107" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R106" s="3"/>
+    </row>
+    <row r="107" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>105</v>
       </c>
@@ -8870,13 +9197,16 @@
       <c r="L107" s="3">
         <v>0.90100000000000002</v>
       </c>
-      <c r="M107" s="3"/>
+      <c r="M107" s="3">
+        <v>39257</v>
+      </c>
       <c r="N107" s="3"/>
       <c r="O107" s="3"/>
       <c r="P107" s="3"/>
       <c r="Q107" s="3"/>
-    </row>
-    <row r="108" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R107" s="3"/>
+    </row>
+    <row r="108" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>106</v>
       </c>
@@ -8911,13 +9241,16 @@
       <c r="L108" s="3">
         <v>0.90100000000000002</v>
       </c>
-      <c r="M108" s="3"/>
+      <c r="M108" s="3">
+        <v>39257</v>
+      </c>
       <c r="N108" s="3"/>
       <c r="O108" s="3"/>
       <c r="P108" s="3"/>
       <c r="Q108" s="3"/>
-    </row>
-    <row r="109" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R108" s="3"/>
+    </row>
+    <row r="109" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>107</v>
       </c>
@@ -8952,13 +9285,16 @@
       <c r="L109" s="3">
         <v>0.90100000000000002</v>
       </c>
-      <c r="M109" s="3"/>
+      <c r="M109" s="3">
+        <v>39257</v>
+      </c>
       <c r="N109" s="3"/>
       <c r="O109" s="3"/>
       <c r="P109" s="3"/>
       <c r="Q109" s="3"/>
-    </row>
-    <row r="110" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R109" s="3"/>
+    </row>
+    <row r="110" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>108</v>
       </c>
@@ -8993,13 +9329,16 @@
       <c r="L110" s="3">
         <v>0.90100000000000002</v>
       </c>
-      <c r="M110" s="3"/>
+      <c r="M110" s="3">
+        <v>39257</v>
+      </c>
       <c r="N110" s="3"/>
       <c r="O110" s="3"/>
       <c r="P110" s="3"/>
       <c r="Q110" s="3"/>
-    </row>
-    <row r="111" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R110" s="3"/>
+    </row>
+    <row r="111" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>109</v>
       </c>
@@ -9034,13 +9373,16 @@
       <c r="L111" s="3">
         <v>0.90100000000000002</v>
       </c>
-      <c r="M111" s="3"/>
+      <c r="M111" s="3">
+        <v>39257</v>
+      </c>
       <c r="N111" s="3"/>
       <c r="O111" s="3"/>
       <c r="P111" s="3"/>
       <c r="Q111" s="3"/>
-    </row>
-    <row r="112" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R111" s="3"/>
+    </row>
+    <row r="112" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>110</v>
       </c>
@@ -9075,13 +9417,16 @@
       <c r="L112" s="3">
         <v>0.90100000000000002</v>
       </c>
-      <c r="M112" s="3"/>
+      <c r="M112" s="3">
+        <v>39257</v>
+      </c>
       <c r="N112" s="3"/>
       <c r="O112" s="3"/>
       <c r="P112" s="3"/>
       <c r="Q112" s="3"/>
-    </row>
-    <row r="113" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R112" s="3"/>
+    </row>
+    <row r="113" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>111</v>
       </c>
@@ -9116,13 +9461,16 @@
       <c r="L113" s="3">
         <v>0.90100000000000002</v>
       </c>
-      <c r="M113" s="3"/>
+      <c r="M113" s="3">
+        <v>39257</v>
+      </c>
       <c r="N113" s="3"/>
       <c r="O113" s="3"/>
       <c r="P113" s="3"/>
       <c r="Q113" s="3"/>
-    </row>
-    <row r="114" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R113" s="3"/>
+    </row>
+    <row r="114" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>112</v>
       </c>
@@ -9157,13 +9505,16 @@
       <c r="L114" s="3">
         <v>0.95499999999999996</v>
       </c>
-      <c r="M114" s="3"/>
+      <c r="M114" s="3">
+        <v>81867</v>
+      </c>
       <c r="N114" s="3"/>
       <c r="O114" s="3"/>
       <c r="P114" s="3"/>
       <c r="Q114" s="3"/>
-    </row>
-    <row r="115" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R114" s="3"/>
+    </row>
+    <row r="115" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>113</v>
       </c>
@@ -9198,13 +9549,16 @@
       <c r="L115" s="3">
         <v>0.94399999999999995</v>
       </c>
-      <c r="M115" s="3"/>
+      <c r="M115" s="3">
+        <v>51290</v>
+      </c>
       <c r="N115" s="3"/>
       <c r="O115" s="3"/>
       <c r="P115" s="3"/>
       <c r="Q115" s="3"/>
-    </row>
-    <row r="116" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R115" s="3"/>
+    </row>
+    <row r="116" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>114</v>
       </c>
@@ -9239,13 +9593,16 @@
       <c r="L116" s="3">
         <v>0.89200000000000002</v>
       </c>
-      <c r="M116" s="3"/>
+      <c r="M116" s="3">
+        <v>30657</v>
+      </c>
       <c r="N116" s="3"/>
       <c r="O116" s="3"/>
       <c r="P116" s="3"/>
       <c r="Q116" s="3"/>
-    </row>
-    <row r="117" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R116" s="3"/>
+    </row>
+    <row r="117" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>115</v>
       </c>
@@ -9280,13 +9637,16 @@
       <c r="L117" s="3">
         <v>0.89200000000000002</v>
       </c>
-      <c r="M117" s="17"/>
-      <c r="N117" s="3"/>
+      <c r="M117" s="3">
+        <v>30657</v>
+      </c>
+      <c r="N117" s="17"/>
       <c r="O117" s="3"/>
       <c r="P117" s="3"/>
       <c r="Q117" s="3"/>
-    </row>
-    <row r="118" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R117" s="3"/>
+    </row>
+    <row r="118" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>116</v>
       </c>
@@ -9323,15 +9683,18 @@
       <c r="L118" s="3">
         <v>0.89200000000000002</v>
       </c>
-      <c r="M118" s="17">
+      <c r="M118" s="3">
+        <v>30657</v>
+      </c>
+      <c r="N118" s="17">
         <v>0.2</v>
       </c>
-      <c r="N118" s="3"/>
       <c r="O118" s="3"/>
       <c r="P118" s="3"/>
       <c r="Q118" s="3"/>
-    </row>
-    <row r="119" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R118" s="3"/>
+    </row>
+    <row r="119" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>117</v>
       </c>
@@ -9366,13 +9729,16 @@
       <c r="L119" s="3">
         <v>0.89200000000000002</v>
       </c>
-      <c r="M119" s="3"/>
+      <c r="M119" s="3">
+        <v>30657</v>
+      </c>
       <c r="N119" s="3"/>
       <c r="O119" s="3"/>
       <c r="P119" s="3"/>
       <c r="Q119" s="3"/>
-    </row>
-    <row r="120" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R119" s="3"/>
+    </row>
+    <row r="120" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>118</v>
       </c>
@@ -9412,8 +9778,9 @@
       <c r="O120" s="3"/>
       <c r="P120" s="3"/>
       <c r="Q120" s="3"/>
-    </row>
-    <row r="121" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R120" s="3"/>
+    </row>
+    <row r="121" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>119</v>
       </c>
@@ -9453,8 +9820,9 @@
       <c r="O121" s="3"/>
       <c r="P121" s="3"/>
       <c r="Q121" s="3"/>
-    </row>
-    <row r="122" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R121" s="3"/>
+    </row>
+    <row r="122" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>120</v>
       </c>
@@ -9494,8 +9862,9 @@
       <c r="O122" s="3"/>
       <c r="P122" s="3"/>
       <c r="Q122" s="3"/>
-    </row>
-    <row r="123" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R122" s="3"/>
+    </row>
+    <row r="123" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>121</v>
       </c>
@@ -9535,8 +9904,9 @@
       <c r="O123" s="3"/>
       <c r="P123" s="3"/>
       <c r="Q123" s="3"/>
-    </row>
-    <row r="124" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R123" s="3"/>
+    </row>
+    <row r="124" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>122</v>
       </c>
@@ -9576,8 +9946,9 @@
       <c r="O124" s="3"/>
       <c r="P124" s="3"/>
       <c r="Q124" s="3"/>
-    </row>
-    <row r="125" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R124" s="3"/>
+    </row>
+    <row r="125" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>123</v>
       </c>
@@ -9617,8 +9988,9 @@
       <c r="O125" s="3"/>
       <c r="P125" s="3"/>
       <c r="Q125" s="3"/>
-    </row>
-    <row r="126" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R125" s="3"/>
+    </row>
+    <row r="126" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>124</v>
       </c>
@@ -9658,8 +10030,9 @@
       <c r="O126" s="3"/>
       <c r="P126" s="3"/>
       <c r="Q126" s="3"/>
-    </row>
-    <row r="127" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R126" s="3"/>
+    </row>
+    <row r="127" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>125</v>
       </c>
@@ -9699,8 +10072,9 @@
       <c r="O127" s="3"/>
       <c r="P127" s="3"/>
       <c r="Q127" s="3"/>
-    </row>
-    <row r="128" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R127" s="3"/>
+    </row>
+    <row r="128" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>126</v>
       </c>
@@ -9740,8 +10114,9 @@
       <c r="O128" s="3"/>
       <c r="P128" s="3"/>
       <c r="Q128" s="3"/>
-    </row>
-    <row r="129" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R128" s="3"/>
+    </row>
+    <row r="129" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>127</v>
       </c>
@@ -9781,8 +10156,9 @@
       <c r="O129" s="3"/>
       <c r="P129" s="3"/>
       <c r="Q129" s="3"/>
-    </row>
-    <row r="130" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R129" s="3"/>
+    </row>
+    <row r="130" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>128</v>
       </c>
@@ -9822,8 +10198,9 @@
       <c r="O130" s="3"/>
       <c r="P130" s="3"/>
       <c r="Q130" s="3"/>
-    </row>
-    <row r="131" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R130" s="3"/>
+    </row>
+    <row r="131" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>129</v>
       </c>
@@ -9863,8 +10240,9 @@
       <c r="O131" s="3"/>
       <c r="P131" s="3"/>
       <c r="Q131" s="3"/>
-    </row>
-    <row r="132" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R131" s="3"/>
+    </row>
+    <row r="132" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>130</v>
       </c>
@@ -9904,8 +10282,9 @@
       <c r="O132" s="3"/>
       <c r="P132" s="3"/>
       <c r="Q132" s="3"/>
-    </row>
-    <row r="133" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R132" s="3"/>
+    </row>
+    <row r="133" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>131</v>
       </c>
@@ -9945,8 +10324,9 @@
       <c r="O133" s="3"/>
       <c r="P133" s="3"/>
       <c r="Q133" s="3"/>
-    </row>
-    <row r="134" spans="1:17" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R133" s="3"/>
+    </row>
+    <row r="134" spans="1:18" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="12" t="s">
         <v>132</v>
       </c>
@@ -9981,13 +10361,14 @@
       <c r="L134" s="3">
         <v>0.94699999999999995</v>
       </c>
-      <c r="M134" s="16"/>
+      <c r="M134" s="3"/>
       <c r="N134" s="16"/>
       <c r="O134" s="16"/>
       <c r="P134" s="16"/>
       <c r="Q134" s="16"/>
-    </row>
-    <row r="135" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R134" s="16"/>
+    </row>
+    <row r="135" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>133</v>
       </c>
@@ -10027,8 +10408,9 @@
       <c r="O135" s="3"/>
       <c r="P135" s="3"/>
       <c r="Q135" s="3"/>
-    </row>
-    <row r="136" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R135" s="3"/>
+    </row>
+    <row r="136" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>134</v>
       </c>
@@ -10068,8 +10450,9 @@
       <c r="O136" s="3"/>
       <c r="P136" s="3"/>
       <c r="Q136" s="3"/>
-    </row>
-    <row r="137" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R136" s="3"/>
+    </row>
+    <row r="137" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>135</v>
       </c>
@@ -10109,8 +10492,9 @@
       <c r="O137" s="3"/>
       <c r="P137" s="3"/>
       <c r="Q137" s="3"/>
-    </row>
-    <row r="138" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R137" s="3"/>
+    </row>
+    <row r="138" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>136</v>
       </c>
@@ -10150,8 +10534,9 @@
       <c r="O138" s="3"/>
       <c r="P138" s="3"/>
       <c r="Q138" s="3"/>
-    </row>
-    <row r="139" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R138" s="3"/>
+    </row>
+    <row r="139" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>137</v>
       </c>
@@ -10191,8 +10576,9 @@
       <c r="O139" s="3"/>
       <c r="P139" s="3"/>
       <c r="Q139" s="3"/>
-    </row>
-    <row r="140" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R139" s="3"/>
+    </row>
+    <row r="140" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>138</v>
       </c>
@@ -10232,8 +10618,9 @@
       <c r="O140" s="3"/>
       <c r="P140" s="3"/>
       <c r="Q140" s="3"/>
-    </row>
-    <row r="141" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R140" s="3"/>
+    </row>
+    <row r="141" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>139</v>
       </c>
@@ -10273,8 +10660,9 @@
       <c r="O141" s="3"/>
       <c r="P141" s="3"/>
       <c r="Q141" s="3"/>
-    </row>
-    <row r="142" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R141" s="3"/>
+    </row>
+    <row r="142" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>140</v>
       </c>
@@ -10314,8 +10702,9 @@
       <c r="O142" s="3"/>
       <c r="P142" s="3"/>
       <c r="Q142" s="3"/>
-    </row>
-    <row r="143" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R142" s="3"/>
+    </row>
+    <row r="143" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>141</v>
       </c>
@@ -10355,8 +10744,9 @@
       <c r="O143" s="3"/>
       <c r="P143" s="3"/>
       <c r="Q143" s="3"/>
-    </row>
-    <row r="144" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R143" s="3"/>
+    </row>
+    <row r="144" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>142</v>
       </c>
@@ -10396,8 +10786,9 @@
       <c r="O144" s="3"/>
       <c r="P144" s="3"/>
       <c r="Q144" s="3"/>
-    </row>
-    <row r="145" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R144" s="3"/>
+    </row>
+    <row r="145" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>143</v>
       </c>
@@ -10437,8 +10828,9 @@
       <c r="O145" s="3"/>
       <c r="P145" s="3"/>
       <c r="Q145" s="3"/>
-    </row>
-    <row r="146" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R145" s="3"/>
+    </row>
+    <row r="146" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>144</v>
       </c>
@@ -10478,8 +10870,9 @@
       <c r="O146" s="3"/>
       <c r="P146" s="3"/>
       <c r="Q146" s="3"/>
-    </row>
-    <row r="147" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R146" s="3"/>
+    </row>
+    <row r="147" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>145</v>
       </c>
@@ -10519,8 +10912,9 @@
       <c r="O147" s="3"/>
       <c r="P147" s="3"/>
       <c r="Q147" s="3"/>
-    </row>
-    <row r="148" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R147" s="3"/>
+    </row>
+    <row r="148" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>146</v>
       </c>
@@ -10560,8 +10954,9 @@
       <c r="O148" s="3"/>
       <c r="P148" s="3"/>
       <c r="Q148" s="3"/>
-    </row>
-    <row r="149" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R148" s="3"/>
+    </row>
+    <row r="149" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>147</v>
       </c>
@@ -10601,8 +10996,9 @@
       <c r="O149" s="3"/>
       <c r="P149" s="3"/>
       <c r="Q149" s="3"/>
-    </row>
-    <row r="150" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R149" s="3"/>
+    </row>
+    <row r="150" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>148</v>
       </c>
@@ -10642,8 +11038,9 @@
       <c r="O150" s="3"/>
       <c r="P150" s="3"/>
       <c r="Q150" s="3"/>
-    </row>
-    <row r="151" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R150" s="3"/>
+    </row>
+    <row r="151" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>149</v>
       </c>
@@ -10683,8 +11080,9 @@
       <c r="O151" s="3"/>
       <c r="P151" s="3"/>
       <c r="Q151" s="3"/>
-    </row>
-    <row r="152" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R151" s="3"/>
+    </row>
+    <row r="152" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>150</v>
       </c>
@@ -10724,8 +11122,9 @@
       <c r="O152" s="3"/>
       <c r="P152" s="3"/>
       <c r="Q152" s="3"/>
-    </row>
-    <row r="153" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R152" s="3"/>
+    </row>
+    <row r="153" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>151</v>
       </c>
@@ -10765,8 +11164,9 @@
       <c r="O153" s="3"/>
       <c r="P153" s="3"/>
       <c r="Q153" s="3"/>
-    </row>
-    <row r="154" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R153" s="3"/>
+    </row>
+    <row r="154" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>152</v>
       </c>
@@ -10806,8 +11206,9 @@
       <c r="O154" s="3"/>
       <c r="P154" s="3"/>
       <c r="Q154" s="3"/>
-    </row>
-    <row r="155" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R154" s="3"/>
+    </row>
+    <row r="155" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>153</v>
       </c>
@@ -10847,8 +11248,9 @@
       <c r="O155" s="3"/>
       <c r="P155" s="3"/>
       <c r="Q155" s="3"/>
-    </row>
-    <row r="156" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R155" s="3"/>
+    </row>
+    <row r="156" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>154</v>
       </c>
@@ -10888,8 +11290,9 @@
       <c r="O156" s="3"/>
       <c r="P156" s="3"/>
       <c r="Q156" s="3"/>
-    </row>
-    <row r="157" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R156" s="3"/>
+    </row>
+    <row r="157" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>155</v>
       </c>
@@ -10929,8 +11332,9 @@
       <c r="O157" s="3"/>
       <c r="P157" s="3"/>
       <c r="Q157" s="3"/>
-    </row>
-    <row r="158" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R157" s="3"/>
+    </row>
+    <row r="158" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>156</v>
       </c>
@@ -10970,8 +11374,9 @@
       <c r="O158" s="3"/>
       <c r="P158" s="3"/>
       <c r="Q158" s="3"/>
-    </row>
-    <row r="159" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R158" s="3"/>
+    </row>
+    <row r="159" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>157</v>
       </c>
@@ -11011,8 +11416,9 @@
       <c r="O159" s="3"/>
       <c r="P159" s="3"/>
       <c r="Q159" s="3"/>
-    </row>
-    <row r="160" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R159" s="3"/>
+    </row>
+    <row r="160" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>158</v>
       </c>
@@ -11052,8 +11458,9 @@
       <c r="O160" s="3"/>
       <c r="P160" s="3"/>
       <c r="Q160" s="3"/>
-    </row>
-    <row r="161" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R160" s="3"/>
+    </row>
+    <row r="161" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>159</v>
       </c>
@@ -11095,8 +11502,9 @@
       <c r="O161" s="3"/>
       <c r="P161" s="3"/>
       <c r="Q161" s="3"/>
-    </row>
-    <row r="162" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R161" s="3"/>
+    </row>
+    <row r="162" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>160</v>
       </c>
@@ -11136,8 +11544,9 @@
       <c r="O162" s="3"/>
       <c r="P162" s="3"/>
       <c r="Q162" s="3"/>
-    </row>
-    <row r="163" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R162" s="3"/>
+    </row>
+    <row r="163" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>161</v>
       </c>
@@ -11177,8 +11586,9 @@
       <c r="O163" s="3"/>
       <c r="P163" s="3"/>
       <c r="Q163" s="3"/>
-    </row>
-    <row r="164" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R163" s="3"/>
+    </row>
+    <row r="164" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>162</v>
       </c>
@@ -11218,8 +11628,9 @@
       <c r="O164" s="3"/>
       <c r="P164" s="3"/>
       <c r="Q164" s="3"/>
-    </row>
-    <row r="165" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R164" s="3"/>
+    </row>
+    <row r="165" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>163</v>
       </c>
@@ -11259,8 +11670,9 @@
       <c r="O165" s="3"/>
       <c r="P165" s="3"/>
       <c r="Q165" s="3"/>
-    </row>
-    <row r="166" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R165" s="3"/>
+    </row>
+    <row r="166" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>164</v>
       </c>
@@ -11300,8 +11712,9 @@
       <c r="O166" s="3"/>
       <c r="P166" s="3"/>
       <c r="Q166" s="3"/>
-    </row>
-    <row r="167" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R166" s="3"/>
+    </row>
+    <row r="167" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>165</v>
       </c>
@@ -11341,8 +11754,9 @@
       <c r="O167" s="3"/>
       <c r="P167" s="3"/>
       <c r="Q167" s="3"/>
-    </row>
-    <row r="168" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R167" s="3"/>
+    </row>
+    <row r="168" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>166</v>
       </c>
@@ -11382,8 +11796,9 @@
       <c r="O168" s="3"/>
       <c r="P168" s="3"/>
       <c r="Q168" s="3"/>
-    </row>
-    <row r="169" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R168" s="3"/>
+    </row>
+    <row r="169" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>167</v>
       </c>
@@ -11423,8 +11838,9 @@
       <c r="O169" s="3"/>
       <c r="P169" s="3"/>
       <c r="Q169" s="3"/>
-    </row>
-    <row r="170" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R169" s="3"/>
+    </row>
+    <row r="170" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>168</v>
       </c>
@@ -11464,8 +11880,9 @@
       <c r="O170" s="3"/>
       <c r="P170" s="3"/>
       <c r="Q170" s="3"/>
-    </row>
-    <row r="171" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R170" s="3"/>
+    </row>
+    <row r="171" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>169</v>
       </c>
@@ -11505,8 +11922,9 @@
       <c r="O171" s="3"/>
       <c r="P171" s="3"/>
       <c r="Q171" s="3"/>
-    </row>
-    <row r="172" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R171" s="3"/>
+    </row>
+    <row r="172" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>170</v>
       </c>
@@ -11546,8 +11964,9 @@
       <c r="O172" s="3"/>
       <c r="P172" s="3"/>
       <c r="Q172" s="3"/>
-    </row>
-    <row r="173" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R172" s="3"/>
+    </row>
+    <row r="173" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>171</v>
       </c>
@@ -11587,8 +12006,9 @@
       <c r="O173" s="3"/>
       <c r="P173" s="3"/>
       <c r="Q173" s="3"/>
-    </row>
-    <row r="174" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R173" s="3"/>
+    </row>
+    <row r="174" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>172</v>
       </c>
@@ -11628,8 +12048,9 @@
       <c r="O174" s="3"/>
       <c r="P174" s="3"/>
       <c r="Q174" s="3"/>
-    </row>
-    <row r="175" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R174" s="3"/>
+    </row>
+    <row r="175" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>173</v>
       </c>
@@ -11669,8 +12090,9 @@
       <c r="O175" s="3"/>
       <c r="P175" s="3"/>
       <c r="Q175" s="3"/>
-    </row>
-    <row r="176" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R175" s="3"/>
+    </row>
+    <row r="176" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>174</v>
       </c>
@@ -11710,8 +12132,9 @@
       <c r="O176" s="3"/>
       <c r="P176" s="3"/>
       <c r="Q176" s="3"/>
-    </row>
-    <row r="177" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R176" s="3"/>
+    </row>
+    <row r="177" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>175</v>
       </c>
@@ -11748,15 +12171,16 @@
       <c r="L177" s="3">
         <v>0.82</v>
       </c>
-      <c r="M177" s="17">
+      <c r="M177" s="3"/>
+      <c r="N177" s="17">
         <v>0.15</v>
       </c>
-      <c r="N177" s="3"/>
       <c r="O177" s="3"/>
       <c r="P177" s="3"/>
       <c r="Q177" s="3"/>
-    </row>
-    <row r="178" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R177" s="3"/>
+    </row>
+    <row r="178" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>176</v>
       </c>
@@ -11796,8 +12220,9 @@
       <c r="O178" s="3"/>
       <c r="P178" s="3"/>
       <c r="Q178" s="3"/>
-    </row>
-    <row r="179" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R178" s="3"/>
+    </row>
+    <row r="179" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>177</v>
       </c>
@@ -11837,8 +12262,9 @@
       <c r="O179" s="3"/>
       <c r="P179" s="3"/>
       <c r="Q179" s="3"/>
-    </row>
-    <row r="180" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R179" s="3"/>
+    </row>
+    <row r="180" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>178</v>
       </c>
@@ -11878,8 +12304,9 @@
       <c r="O180" s="3"/>
       <c r="P180" s="3"/>
       <c r="Q180" s="3"/>
-    </row>
-    <row r="181" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R180" s="3"/>
+    </row>
+    <row r="181" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>179</v>
       </c>
@@ -11919,8 +12346,9 @@
       <c r="O181" s="3"/>
       <c r="P181" s="3"/>
       <c r="Q181" s="3"/>
-    </row>
-    <row r="182" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R181" s="3"/>
+    </row>
+    <row r="182" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>180</v>
       </c>
@@ -11960,8 +12388,9 @@
       <c r="O182" s="3"/>
       <c r="P182" s="3"/>
       <c r="Q182" s="3"/>
-    </row>
-    <row r="183" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R182" s="3"/>
+    </row>
+    <row r="183" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>181</v>
       </c>
@@ -12001,8 +12430,9 @@
       <c r="O183" s="3"/>
       <c r="P183" s="3"/>
       <c r="Q183" s="3"/>
-    </row>
-    <row r="184" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R183" s="3"/>
+    </row>
+    <row r="184" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>182</v>
       </c>
@@ -12039,15 +12469,16 @@
       <c r="L184" s="3">
         <v>0.78300000000000003</v>
       </c>
-      <c r="M184" s="17">
+      <c r="M184" s="3"/>
+      <c r="N184" s="17">
         <v>0.05</v>
       </c>
-      <c r="N184" s="3"/>
       <c r="O184" s="3"/>
       <c r="P184" s="3"/>
       <c r="Q184" s="3"/>
-    </row>
-    <row r="185" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R184" s="3"/>
+    </row>
+    <row r="185" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>183</v>
       </c>
@@ -12087,8 +12518,9 @@
       <c r="O185" s="3"/>
       <c r="P185" s="3"/>
       <c r="Q185" s="3"/>
-    </row>
-    <row r="186" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R185" s="3"/>
+    </row>
+    <row r="186" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>184</v>
       </c>
@@ -12128,8 +12560,9 @@
       <c r="O186" s="3"/>
       <c r="P186" s="3"/>
       <c r="Q186" s="3"/>
-    </row>
-    <row r="187" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R186" s="3"/>
+    </row>
+    <row r="187" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>185</v>
       </c>
@@ -12166,15 +12599,16 @@
       <c r="L187" s="3">
         <v>0.78300000000000003</v>
       </c>
-      <c r="M187" s="17">
+      <c r="M187" s="3"/>
+      <c r="N187" s="17">
         <v>0.1</v>
       </c>
-      <c r="N187" s="3"/>
       <c r="O187" s="3"/>
       <c r="P187" s="3"/>
       <c r="Q187" s="3"/>
-    </row>
-    <row r="188" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R187" s="3"/>
+    </row>
+    <row r="188" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>186</v>
       </c>
@@ -12214,8 +12648,9 @@
       <c r="O188" s="3"/>
       <c r="P188" s="3"/>
       <c r="Q188" s="3"/>
-    </row>
-    <row r="189" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R188" s="3"/>
+    </row>
+    <row r="189" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>187</v>
       </c>
@@ -12255,8 +12690,9 @@
       <c r="O189" s="3"/>
       <c r="P189" s="3"/>
       <c r="Q189" s="3"/>
-    </row>
-    <row r="190" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R189" s="3"/>
+    </row>
+    <row r="190" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>188</v>
       </c>
@@ -12296,8 +12732,9 @@
       <c r="O190" s="3"/>
       <c r="P190" s="3"/>
       <c r="Q190" s="3"/>
-    </row>
-    <row r="191" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R190" s="3"/>
+    </row>
+    <row r="191" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>189</v>
       </c>
@@ -12337,8 +12774,9 @@
       <c r="O191" s="3"/>
       <c r="P191" s="3"/>
       <c r="Q191" s="3"/>
-    </row>
-    <row r="192" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R191" s="3"/>
+    </row>
+    <row r="192" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>190</v>
       </c>
@@ -12378,8 +12816,9 @@
       <c r="O192" s="3"/>
       <c r="P192" s="3"/>
       <c r="Q192" s="3"/>
-    </row>
-    <row r="193" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R192" s="3"/>
+    </row>
+    <row r="193" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>191</v>
       </c>
@@ -12419,8 +12858,9 @@
       <c r="O193" s="3"/>
       <c r="P193" s="3"/>
       <c r="Q193" s="3"/>
-    </row>
-    <row r="194" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R193" s="3"/>
+    </row>
+    <row r="194" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>192</v>
       </c>
@@ -12460,8 +12900,9 @@
       <c r="O194" s="3"/>
       <c r="P194" s="3"/>
       <c r="Q194" s="3"/>
-    </row>
-    <row r="195" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R194" s="3"/>
+    </row>
+    <row r="195" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>193</v>
       </c>
@@ -12501,8 +12942,9 @@
       <c r="O195" s="3"/>
       <c r="P195" s="3"/>
       <c r="Q195" s="3"/>
-    </row>
-    <row r="196" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R195" s="3"/>
+    </row>
+    <row r="196" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>194</v>
       </c>
@@ -12542,8 +12984,9 @@
       <c r="O196" s="3"/>
       <c r="P196" s="3"/>
       <c r="Q196" s="3"/>
-    </row>
-    <row r="197" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R196" s="3"/>
+    </row>
+    <row r="197" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>195</v>
       </c>
@@ -12583,8 +13026,9 @@
       <c r="O197" s="3"/>
       <c r="P197" s="3"/>
       <c r="Q197" s="3"/>
-    </row>
-    <row r="198" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R197" s="3"/>
+    </row>
+    <row r="198" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>196</v>
       </c>
@@ -12624,8 +13068,9 @@
       <c r="O198" s="3"/>
       <c r="P198" s="3"/>
       <c r="Q198" s="3"/>
-    </row>
-    <row r="199" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R198" s="3"/>
+    </row>
+    <row r="199" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>197</v>
       </c>
@@ -12665,8 +13110,9 @@
       <c r="O199" s="3"/>
       <c r="P199" s="3"/>
       <c r="Q199" s="3"/>
-    </row>
-    <row r="200" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R199" s="3"/>
+    </row>
+    <row r="200" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>198</v>
       </c>
@@ -12703,15 +13149,16 @@
       <c r="L200" s="3">
         <v>0.91900000000000004</v>
       </c>
-      <c r="M200" s="17">
+      <c r="M200" s="3"/>
+      <c r="N200" s="17">
         <v>0.4</v>
       </c>
-      <c r="N200" s="3"/>
       <c r="O200" s="3"/>
       <c r="P200" s="3"/>
       <c r="Q200" s="3"/>
-    </row>
-    <row r="201" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R200" s="3"/>
+    </row>
+    <row r="201" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>199</v>
       </c>
@@ -12751,8 +13198,9 @@
       <c r="O201" s="3"/>
       <c r="P201" s="3"/>
       <c r="Q201" s="3"/>
-    </row>
-    <row r="202" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R201" s="3"/>
+    </row>
+    <row r="202" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>200</v>
       </c>
@@ -12792,8 +13240,9 @@
       <c r="O202" s="3"/>
       <c r="P202" s="3"/>
       <c r="Q202" s="3"/>
-    </row>
-    <row r="203" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R202" s="3"/>
+    </row>
+    <row r="203" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>201</v>
       </c>
@@ -12830,15 +13279,16 @@
       <c r="L203" s="3">
         <v>0.85399999999999998</v>
       </c>
-      <c r="M203" s="17">
+      <c r="M203" s="3"/>
+      <c r="N203" s="17">
         <v>0.3</v>
       </c>
-      <c r="N203" s="3"/>
       <c r="O203" s="3"/>
       <c r="P203" s="3"/>
       <c r="Q203" s="3"/>
-    </row>
-    <row r="204" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R203" s="3"/>
+    </row>
+    <row r="204" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>202</v>
       </c>
@@ -12878,8 +13328,9 @@
       <c r="O204" s="3"/>
       <c r="P204" s="3"/>
       <c r="Q204" s="3"/>
-    </row>
-    <row r="205" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R204" s="3"/>
+    </row>
+    <row r="205" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>203</v>
       </c>
@@ -12919,8 +13370,9 @@
       <c r="O205" s="3"/>
       <c r="P205" s="3"/>
       <c r="Q205" s="3"/>
-    </row>
-    <row r="206" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R205" s="3"/>
+    </row>
+    <row r="206" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>204</v>
       </c>
@@ -12960,8 +13412,9 @@
       <c r="O206" s="3"/>
       <c r="P206" s="3"/>
       <c r="Q206" s="3"/>
-    </row>
-    <row r="207" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R206" s="3"/>
+    </row>
+    <row r="207" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>205</v>
       </c>
@@ -13001,8 +13454,9 @@
       <c r="O207" s="3"/>
       <c r="P207" s="3"/>
       <c r="Q207" s="3"/>
-    </row>
-    <row r="208" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R207" s="3"/>
+    </row>
+    <row r="208" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>206</v>
       </c>
@@ -13042,8 +13496,9 @@
       <c r="O208" s="3"/>
       <c r="P208" s="3"/>
       <c r="Q208" s="3"/>
-    </row>
-    <row r="209" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R208" s="3"/>
+    </row>
+    <row r="209" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>207</v>
       </c>
@@ -13083,8 +13538,9 @@
       <c r="O209" s="3"/>
       <c r="P209" s="3"/>
       <c r="Q209" s="3"/>
-    </row>
-    <row r="210" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R209" s="3"/>
+    </row>
+    <row r="210" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>208</v>
       </c>
@@ -13124,8 +13580,9 @@
       <c r="O210" s="3"/>
       <c r="P210" s="3"/>
       <c r="Q210" s="3"/>
-    </row>
-    <row r="211" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R210" s="3"/>
+    </row>
+    <row r="211" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>209</v>
       </c>
@@ -13165,8 +13622,9 @@
       <c r="O211" s="3"/>
       <c r="P211" s="3"/>
       <c r="Q211" s="3"/>
-    </row>
-    <row r="212" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R211" s="3"/>
+    </row>
+    <row r="212" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>210</v>
       </c>
@@ -13206,8 +13664,9 @@
       <c r="O212" s="3"/>
       <c r="P212" s="3"/>
       <c r="Q212" s="3"/>
-    </row>
-    <row r="213" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R212" s="3"/>
+    </row>
+    <row r="213" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>211</v>
       </c>
@@ -13247,8 +13706,9 @@
       <c r="O213" s="3"/>
       <c r="P213" s="3"/>
       <c r="Q213" s="3"/>
-    </row>
-    <row r="214" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R213" s="3"/>
+    </row>
+    <row r="214" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>212</v>
       </c>
@@ -13288,8 +13748,9 @@
       <c r="O214" s="3"/>
       <c r="P214" s="3"/>
       <c r="Q214" s="3"/>
-    </row>
-    <row r="215" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R214" s="3"/>
+    </row>
+    <row r="215" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>213</v>
       </c>
@@ -13329,8 +13790,9 @@
       <c r="O215" s="3"/>
       <c r="P215" s="3"/>
       <c r="Q215" s="3"/>
-    </row>
-    <row r="216" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R215" s="3"/>
+    </row>
+    <row r="216" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>214</v>
       </c>
@@ -13370,8 +13832,9 @@
       <c r="O216" s="3"/>
       <c r="P216" s="3"/>
       <c r="Q216" s="3"/>
-    </row>
-    <row r="217" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R216" s="3"/>
+    </row>
+    <row r="217" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>215</v>
       </c>
@@ -13408,15 +13871,16 @@
       <c r="L217" s="3">
         <v>0.70699999999999996</v>
       </c>
-      <c r="M217" s="17">
+      <c r="M217" s="3"/>
+      <c r="N217" s="17">
         <v>0.05</v>
       </c>
-      <c r="N217" s="3"/>
       <c r="O217" s="3"/>
       <c r="P217" s="3"/>
       <c r="Q217" s="3"/>
-    </row>
-    <row r="218" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R217" s="3"/>
+    </row>
+    <row r="218" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>216</v>
       </c>
@@ -13456,8 +13920,9 @@
       <c r="O218" s="3"/>
       <c r="P218" s="3"/>
       <c r="Q218" s="3"/>
-    </row>
-    <row r="219" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R218" s="3"/>
+    </row>
+    <row r="219" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>217</v>
       </c>
@@ -13497,8 +13962,9 @@
       <c r="O219" s="3"/>
       <c r="P219" s="3"/>
       <c r="Q219" s="3"/>
-    </row>
-    <row r="220" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R219" s="3"/>
+    </row>
+    <row r="220" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>218</v>
       </c>
@@ -13538,8 +14004,9 @@
       <c r="O220" s="3"/>
       <c r="P220" s="3"/>
       <c r="Q220" s="3"/>
-    </row>
-    <row r="221" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R220" s="3"/>
+    </row>
+    <row r="221" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>219</v>
       </c>
@@ -13579,8 +14046,9 @@
       <c r="O221" s="3"/>
       <c r="P221" s="3"/>
       <c r="Q221" s="3"/>
-    </row>
-    <row r="222" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R221" s="3"/>
+    </row>
+    <row r="222" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>220</v>
       </c>
@@ -13617,15 +14085,16 @@
       <c r="L222" s="3">
         <v>0.70699999999999996</v>
       </c>
-      <c r="M222" s="17">
+      <c r="M222" s="3"/>
+      <c r="N222" s="17">
         <v>0.3</v>
       </c>
-      <c r="N222" s="3"/>
       <c r="O222" s="3"/>
       <c r="P222" s="3"/>
       <c r="Q222" s="3"/>
-    </row>
-    <row r="223" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R222" s="3"/>
+    </row>
+    <row r="223" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>221</v>
       </c>
@@ -13665,8 +14134,9 @@
       <c r="O223" s="3"/>
       <c r="P223" s="3"/>
       <c r="Q223" s="3"/>
-    </row>
-    <row r="224" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R223" s="3"/>
+    </row>
+    <row r="224" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>222</v>
       </c>
@@ -13706,8 +14176,9 @@
       <c r="O224" s="3"/>
       <c r="P224" s="3"/>
       <c r="Q224" s="3"/>
-    </row>
-    <row r="225" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R224" s="3"/>
+    </row>
+    <row r="225" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>223</v>
       </c>
@@ -13747,8 +14218,9 @@
       <c r="O225" s="3"/>
       <c r="P225" s="3"/>
       <c r="Q225" s="3"/>
-    </row>
-    <row r="226" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R225" s="3"/>
+    </row>
+    <row r="226" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>224</v>
       </c>
@@ -13788,8 +14260,9 @@
       <c r="O226" s="3"/>
       <c r="P226" s="3"/>
       <c r="Q226" s="3"/>
-    </row>
-    <row r="227" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R226" s="3"/>
+    </row>
+    <row r="227" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>225</v>
       </c>
@@ -13826,15 +14299,16 @@
       <c r="L227" s="3">
         <v>0.74</v>
       </c>
-      <c r="M227" s="17">
+      <c r="M227" s="3"/>
+      <c r="N227" s="17">
         <v>0.05</v>
       </c>
-      <c r="N227" s="3"/>
       <c r="O227" s="3"/>
       <c r="P227" s="3"/>
       <c r="Q227" s="3"/>
-    </row>
-    <row r="228" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R227" s="3"/>
+    </row>
+    <row r="228" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>226</v>
       </c>
@@ -13874,8 +14348,9 @@
       <c r="O228" s="3"/>
       <c r="P228" s="3"/>
       <c r="Q228" s="3"/>
-    </row>
-    <row r="229" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R228" s="3"/>
+    </row>
+    <row r="229" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>227</v>
       </c>
@@ -13915,8 +14390,9 @@
       <c r="O229" s="3"/>
       <c r="P229" s="3"/>
       <c r="Q229" s="3"/>
-    </row>
-    <row r="230" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R229" s="3"/>
+    </row>
+    <row r="230" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>228</v>
       </c>
@@ -13956,8 +14432,9 @@
       <c r="O230" s="3"/>
       <c r="P230" s="3"/>
       <c r="Q230" s="3"/>
-    </row>
-    <row r="231" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R230" s="3"/>
+    </row>
+    <row r="231" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>229</v>
       </c>
@@ -13997,8 +14474,9 @@
       <c r="O231" s="3"/>
       <c r="P231" s="3"/>
       <c r="Q231" s="3"/>
-    </row>
-    <row r="232" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R231" s="3"/>
+    </row>
+    <row r="232" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>230</v>
       </c>
@@ -14038,8 +14516,9 @@
       <c r="O232" s="3"/>
       <c r="P232" s="3"/>
       <c r="Q232" s="3"/>
-    </row>
-    <row r="233" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R232" s="3"/>
+    </row>
+    <row r="233" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>231</v>
       </c>
@@ -14079,8 +14558,9 @@
       <c r="O233" s="3"/>
       <c r="P233" s="3"/>
       <c r="Q233" s="3"/>
-    </row>
-    <row r="234" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R233" s="3"/>
+    </row>
+    <row r="234" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>232</v>
       </c>
@@ -14120,8 +14600,9 @@
       <c r="O234" s="3"/>
       <c r="P234" s="3"/>
       <c r="Q234" s="3"/>
-    </row>
-    <row r="235" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R234" s="3"/>
+    </row>
+    <row r="235" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>233</v>
       </c>
@@ -14161,8 +14642,9 @@
       <c r="O235" s="3"/>
       <c r="P235" s="3"/>
       <c r="Q235" s="3"/>
-    </row>
-    <row r="236" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R235" s="3"/>
+    </row>
+    <row r="236" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>234</v>
       </c>
@@ -14202,8 +14684,9 @@
       <c r="O236" s="3"/>
       <c r="P236" s="3"/>
       <c r="Q236" s="3"/>
-    </row>
-    <row r="237" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R236" s="3"/>
+    </row>
+    <row r="237" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>235</v>
       </c>
@@ -14243,8 +14726,9 @@
       <c r="O237" s="3"/>
       <c r="P237" s="3"/>
       <c r="Q237" s="3"/>
-    </row>
-    <row r="238" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R237" s="3"/>
+    </row>
+    <row r="238" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>236</v>
       </c>
@@ -14284,8 +14768,9 @@
       <c r="O238" s="3"/>
       <c r="P238" s="3"/>
       <c r="Q238" s="3"/>
-    </row>
-    <row r="239" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R238" s="3"/>
+    </row>
+    <row r="239" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>237</v>
       </c>
@@ -14325,8 +14810,9 @@
       <c r="O239" s="3"/>
       <c r="P239" s="3"/>
       <c r="Q239" s="3"/>
-    </row>
-    <row r="240" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R239" s="3"/>
+    </row>
+    <row r="240" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>238</v>
       </c>
@@ -14366,8 +14852,9 @@
       <c r="O240" s="3"/>
       <c r="P240" s="3"/>
       <c r="Q240" s="3"/>
-    </row>
-    <row r="241" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R240" s="3"/>
+    </row>
+    <row r="241" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>239</v>
       </c>
@@ -14407,8 +14894,9 @@
       <c r="O241" s="3"/>
       <c r="P241" s="3"/>
       <c r="Q241" s="3"/>
-    </row>
-    <row r="242" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R241" s="3"/>
+    </row>
+    <row r="242" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>240</v>
       </c>
@@ -14448,8 +14936,9 @@
       <c r="O242" s="3"/>
       <c r="P242" s="3"/>
       <c r="Q242" s="3"/>
-    </row>
-    <row r="243" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R242" s="3"/>
+    </row>
+    <row r="243" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>241</v>
       </c>
@@ -14489,8 +14978,9 @@
       <c r="O243" s="3"/>
       <c r="P243" s="3"/>
       <c r="Q243" s="3"/>
-    </row>
-    <row r="244" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R243" s="3"/>
+    </row>
+    <row r="244" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>242</v>
       </c>
@@ -14530,8 +15020,9 @@
       <c r="O244" s="3"/>
       <c r="P244" s="3"/>
       <c r="Q244" s="3"/>
-    </row>
-    <row r="245" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R244" s="3"/>
+    </row>
+    <row r="245" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>243</v>
       </c>
@@ -14571,8 +15062,9 @@
       <c r="O245" s="3"/>
       <c r="P245" s="3"/>
       <c r="Q245" s="3"/>
-    </row>
-    <row r="246" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R245" s="3"/>
+    </row>
+    <row r="246" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>244</v>
       </c>
@@ -14612,8 +15104,9 @@
       <c r="O246" s="3"/>
       <c r="P246" s="3"/>
       <c r="Q246" s="3"/>
-    </row>
-    <row r="247" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R246" s="3"/>
+    </row>
+    <row r="247" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>245</v>
       </c>
@@ -14653,8 +15146,9 @@
       <c r="O247" s="3"/>
       <c r="P247" s="3"/>
       <c r="Q247" s="3"/>
-    </row>
-    <row r="248" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R247" s="3"/>
+    </row>
+    <row r="248" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>246</v>
       </c>
@@ -14694,8 +15188,9 @@
       <c r="O248" s="3"/>
       <c r="P248" s="3"/>
       <c r="Q248" s="3"/>
-    </row>
-    <row r="249" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R248" s="3"/>
+    </row>
+    <row r="249" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>247</v>
       </c>
@@ -14735,8 +15230,9 @@
       <c r="O249" s="3"/>
       <c r="P249" s="3"/>
       <c r="Q249" s="3"/>
-    </row>
-    <row r="250" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R249" s="3"/>
+    </row>
+    <row r="250" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>248</v>
       </c>
@@ -14776,8 +15272,9 @@
       <c r="O250" s="3"/>
       <c r="P250" s="3"/>
       <c r="Q250" s="3"/>
-    </row>
-    <row r="251" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R250" s="3"/>
+    </row>
+    <row r="251" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>249</v>
       </c>
@@ -14817,8 +15314,9 @@
       <c r="O251" s="3"/>
       <c r="P251" s="3"/>
       <c r="Q251" s="3"/>
-    </row>
-    <row r="252" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R251" s="3"/>
+    </row>
+    <row r="252" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>250</v>
       </c>
@@ -14858,8 +15356,9 @@
       <c r="O252" s="3"/>
       <c r="P252" s="3"/>
       <c r="Q252" s="3"/>
-    </row>
-    <row r="253" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R252" s="3"/>
+    </row>
+    <row r="253" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>251</v>
       </c>
@@ -14899,8 +15398,9 @@
       <c r="O253" s="3"/>
       <c r="P253" s="3"/>
       <c r="Q253" s="3"/>
-    </row>
-    <row r="254" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R253" s="3"/>
+    </row>
+    <row r="254" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>252</v>
       </c>
@@ -14940,8 +15440,9 @@
       <c r="O254" s="3"/>
       <c r="P254" s="3"/>
       <c r="Q254" s="3"/>
-    </row>
-    <row r="255" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R254" s="3"/>
+    </row>
+    <row r="255" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>253</v>
       </c>
@@ -14981,8 +15482,9 @@
       <c r="O255" s="3"/>
       <c r="P255" s="3"/>
       <c r="Q255" s="3"/>
-    </row>
-    <row r="256" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R255" s="3"/>
+    </row>
+    <row r="256" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>254</v>
       </c>
@@ -15022,8 +15524,9 @@
       <c r="O256" s="3"/>
       <c r="P256" s="3"/>
       <c r="Q256" s="3"/>
-    </row>
-    <row r="257" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R256" s="3"/>
+    </row>
+    <row r="257" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>255</v>
       </c>
@@ -15063,8 +15566,9 @@
       <c r="O257" s="3"/>
       <c r="P257" s="3"/>
       <c r="Q257" s="3"/>
-    </row>
-    <row r="258" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R257" s="3"/>
+    </row>
+    <row r="258" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>256</v>
       </c>
@@ -15104,8 +15608,9 @@
       <c r="O258" s="3"/>
       <c r="P258" s="3"/>
       <c r="Q258" s="3"/>
-    </row>
-    <row r="259" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R258" s="3"/>
+    </row>
+    <row r="259" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>257</v>
       </c>
@@ -15145,8 +15650,9 @@
       <c r="O259" s="3"/>
       <c r="P259" s="3"/>
       <c r="Q259" s="3"/>
-    </row>
-    <row r="260" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R259" s="3"/>
+    </row>
+    <row r="260" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>258</v>
       </c>
@@ -15186,8 +15692,9 @@
       <c r="O260" s="3"/>
       <c r="P260" s="3"/>
       <c r="Q260" s="3"/>
-    </row>
-    <row r="261" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R260" s="3"/>
+    </row>
+    <row r="261" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>259</v>
       </c>
@@ -15227,8 +15734,9 @@
       <c r="O261" s="3"/>
       <c r="P261" s="3"/>
       <c r="Q261" s="3"/>
-    </row>
-    <row r="262" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R261" s="3"/>
+    </row>
+    <row r="262" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>260</v>
       </c>
@@ -15268,8 +15776,9 @@
       <c r="O262" s="3"/>
       <c r="P262" s="3"/>
       <c r="Q262" s="3"/>
-    </row>
-    <row r="263" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R262" s="3"/>
+    </row>
+    <row r="263" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>261</v>
       </c>
@@ -15309,8 +15818,9 @@
       <c r="O263" s="3"/>
       <c r="P263" s="3"/>
       <c r="Q263" s="3"/>
-    </row>
-    <row r="264" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R263" s="3"/>
+    </row>
+    <row r="264" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>262</v>
       </c>
@@ -15350,8 +15860,9 @@
       <c r="O264" s="3"/>
       <c r="P264" s="3"/>
       <c r="Q264" s="3"/>
-    </row>
-    <row r="265" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R264" s="3"/>
+    </row>
+    <row r="265" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>263</v>
       </c>
@@ -15391,8 +15902,9 @@
       <c r="O265" s="3"/>
       <c r="P265" s="3"/>
       <c r="Q265" s="3"/>
-    </row>
-    <row r="266" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R265" s="3"/>
+    </row>
+    <row r="266" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>264</v>
       </c>
@@ -15432,8 +15944,9 @@
       <c r="O266" s="3"/>
       <c r="P266" s="3"/>
       <c r="Q266" s="3"/>
-    </row>
-    <row r="267" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R266" s="3"/>
+    </row>
+    <row r="267" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>265</v>
       </c>
@@ -15473,8 +15986,9 @@
       <c r="O267" s="3"/>
       <c r="P267" s="3"/>
       <c r="Q267" s="3"/>
-    </row>
-    <row r="268" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R267" s="3"/>
+    </row>
+    <row r="268" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>266</v>
       </c>
@@ -15514,8 +16028,9 @@
       <c r="O268" s="3"/>
       <c r="P268" s="3"/>
       <c r="Q268" s="3"/>
-    </row>
-    <row r="269" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R268" s="3"/>
+    </row>
+    <row r="269" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>267</v>
       </c>
@@ -15555,8 +16070,9 @@
       <c r="O269" s="3"/>
       <c r="P269" s="3"/>
       <c r="Q269" s="3"/>
-    </row>
-    <row r="270" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R269" s="3"/>
+    </row>
+    <row r="270" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>268</v>
       </c>
@@ -15596,8 +16112,9 @@
       <c r="O270" s="3"/>
       <c r="P270" s="3"/>
       <c r="Q270" s="3"/>
-    </row>
-    <row r="271" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R270" s="3"/>
+    </row>
+    <row r="271" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>269</v>
       </c>
@@ -15637,8 +16154,9 @@
       <c r="O271" s="3"/>
       <c r="P271" s="3"/>
       <c r="Q271" s="3"/>
-    </row>
-    <row r="272" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R271" s="3"/>
+    </row>
+    <row r="272" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>270</v>
       </c>
@@ -15678,8 +16196,9 @@
       <c r="O272" s="3"/>
       <c r="P272" s="3"/>
       <c r="Q272" s="3"/>
-    </row>
-    <row r="273" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R272" s="3"/>
+    </row>
+    <row r="273" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>271</v>
       </c>
@@ -15719,8 +16238,9 @@
       <c r="O273" s="3"/>
       <c r="P273" s="3"/>
       <c r="Q273" s="3"/>
-    </row>
-    <row r="274" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R273" s="3"/>
+    </row>
+    <row r="274" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>272</v>
       </c>
@@ -15760,8 +16280,9 @@
       <c r="O274" s="3"/>
       <c r="P274" s="3"/>
       <c r="Q274" s="3"/>
-    </row>
-    <row r="275" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R274" s="3"/>
+    </row>
+    <row r="275" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>273</v>
       </c>
@@ -15801,8 +16322,9 @@
       <c r="O275" s="3"/>
       <c r="P275" s="3"/>
       <c r="Q275" s="3"/>
-    </row>
-    <row r="276" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R275" s="3"/>
+    </row>
+    <row r="276" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>274</v>
       </c>
@@ -15842,8 +16364,9 @@
       <c r="O276" s="3"/>
       <c r="P276" s="3"/>
       <c r="Q276" s="3"/>
-    </row>
-    <row r="277" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R276" s="3"/>
+    </row>
+    <row r="277" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>275</v>
       </c>
@@ -15883,8 +16406,9 @@
       <c r="O277" s="3"/>
       <c r="P277" s="3"/>
       <c r="Q277" s="3"/>
-    </row>
-    <row r="278" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R277" s="3"/>
+    </row>
+    <row r="278" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>276</v>
       </c>
@@ -15924,8 +16448,9 @@
       <c r="O278" s="3"/>
       <c r="P278" s="3"/>
       <c r="Q278" s="3"/>
-    </row>
-    <row r="279" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R278" s="3"/>
+    </row>
+    <row r="279" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>277</v>
       </c>
@@ -15965,8 +16490,9 @@
       <c r="O279" s="3"/>
       <c r="P279" s="3"/>
       <c r="Q279" s="3"/>
-    </row>
-    <row r="280" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R279" s="3"/>
+    </row>
+    <row r="280" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>278</v>
       </c>
@@ -16006,8 +16532,9 @@
       <c r="O280" s="3"/>
       <c r="P280" s="3"/>
       <c r="Q280" s="3"/>
-    </row>
-    <row r="281" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R280" s="3"/>
+    </row>
+    <row r="281" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>279</v>
       </c>
@@ -16047,8 +16574,9 @@
       <c r="O281" s="3"/>
       <c r="P281" s="3"/>
       <c r="Q281" s="3"/>
-    </row>
-    <row r="282" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R281" s="3"/>
+    </row>
+    <row r="282" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>280</v>
       </c>
@@ -16088,8 +16616,9 @@
       <c r="O282" s="3"/>
       <c r="P282" s="3"/>
       <c r="Q282" s="3"/>
-    </row>
-    <row r="283" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R282" s="3"/>
+    </row>
+    <row r="283" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>281</v>
       </c>
@@ -16129,8 +16658,9 @@
       <c r="O283" s="3"/>
       <c r="P283" s="3"/>
       <c r="Q283" s="3"/>
-    </row>
-    <row r="284" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R283" s="3"/>
+    </row>
+    <row r="284" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>282</v>
       </c>
@@ -16170,8 +16700,9 @@
       <c r="O284" s="3"/>
       <c r="P284" s="3"/>
       <c r="Q284" s="3"/>
-    </row>
-    <row r="285" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R284" s="3"/>
+    </row>
+    <row r="285" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>283</v>
       </c>
@@ -16211,8 +16742,9 @@
       <c r="O285" s="3"/>
       <c r="P285" s="3"/>
       <c r="Q285" s="3"/>
-    </row>
-    <row r="286" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R285" s="3"/>
+    </row>
+    <row r="286" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>284</v>
       </c>
@@ -16252,8 +16784,9 @@
       <c r="O286" s="3"/>
       <c r="P286" s="3"/>
       <c r="Q286" s="3"/>
-    </row>
-    <row r="287" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R286" s="3"/>
+    </row>
+    <row r="287" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>285</v>
       </c>
@@ -16293,8 +16826,9 @@
       <c r="O287" s="3"/>
       <c r="P287" s="3"/>
       <c r="Q287" s="3"/>
-    </row>
-    <row r="288" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R287" s="3"/>
+    </row>
+    <row r="288" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>286</v>
       </c>
@@ -16334,8 +16868,9 @@
       <c r="O288" s="3"/>
       <c r="P288" s="3"/>
       <c r="Q288" s="3"/>
-    </row>
-    <row r="289" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R288" s="3"/>
+    </row>
+    <row r="289" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>287</v>
       </c>
@@ -16375,8 +16910,9 @@
       <c r="O289" s="3"/>
       <c r="P289" s="3"/>
       <c r="Q289" s="3"/>
-    </row>
-    <row r="290" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R289" s="3"/>
+    </row>
+    <row r="290" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>288</v>
       </c>
@@ -16416,8 +16952,9 @@
       <c r="O290" s="3"/>
       <c r="P290" s="3"/>
       <c r="Q290" s="3"/>
-    </row>
-    <row r="291" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R290" s="3"/>
+    </row>
+    <row r="291" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>289</v>
       </c>
@@ -16457,8 +16994,9 @@
       <c r="O291" s="3"/>
       <c r="P291" s="3"/>
       <c r="Q291" s="3"/>
-    </row>
-    <row r="292" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R291" s="3"/>
+    </row>
+    <row r="292" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>290</v>
       </c>
@@ -16498,8 +17036,9 @@
       <c r="O292" s="3"/>
       <c r="P292" s="3"/>
       <c r="Q292" s="3"/>
-    </row>
-    <row r="293" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R292" s="3"/>
+    </row>
+    <row r="293" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>291</v>
       </c>
@@ -16539,8 +17078,9 @@
       <c r="O293" s="3"/>
       <c r="P293" s="3"/>
       <c r="Q293" s="3"/>
-    </row>
-    <row r="294" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R293" s="3"/>
+    </row>
+    <row r="294" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>292</v>
       </c>
@@ -16580,8 +17120,9 @@
       <c r="O294" s="3"/>
       <c r="P294" s="3"/>
       <c r="Q294" s="3"/>
-    </row>
-    <row r="295" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R294" s="3"/>
+    </row>
+    <row r="295" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>293</v>
       </c>
@@ -16621,8 +17162,9 @@
       <c r="O295" s="3"/>
       <c r="P295" s="3"/>
       <c r="Q295" s="3"/>
-    </row>
-    <row r="296" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R295" s="3"/>
+    </row>
+    <row r="296" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>294</v>
       </c>
@@ -16662,8 +17204,9 @@
       <c r="O296" s="3"/>
       <c r="P296" s="3"/>
       <c r="Q296" s="3"/>
-    </row>
-    <row r="297" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R296" s="3"/>
+    </row>
+    <row r="297" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>295</v>
       </c>
@@ -16703,8 +17246,9 @@
       <c r="O297" s="3"/>
       <c r="P297" s="3"/>
       <c r="Q297" s="3"/>
-    </row>
-    <row r="298" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R297" s="3"/>
+    </row>
+    <row r="298" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>296</v>
       </c>
@@ -16744,8 +17288,9 @@
       <c r="O298" s="3"/>
       <c r="P298" s="3"/>
       <c r="Q298" s="3"/>
-    </row>
-    <row r="299" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R298" s="3"/>
+    </row>
+    <row r="299" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>297</v>
       </c>
@@ -16785,8 +17330,9 @@
       <c r="O299" s="3"/>
       <c r="P299" s="3"/>
       <c r="Q299" s="3"/>
-    </row>
-    <row r="300" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R299" s="3"/>
+    </row>
+    <row r="300" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>298</v>
       </c>
@@ -16826,8 +17372,9 @@
       <c r="O300" s="3"/>
       <c r="P300" s="3"/>
       <c r="Q300" s="3"/>
-    </row>
-    <row r="301" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R300" s="3"/>
+    </row>
+    <row r="301" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>299</v>
       </c>
@@ -16867,8 +17414,9 @@
       <c r="O301" s="3"/>
       <c r="P301" s="3"/>
       <c r="Q301" s="3"/>
-    </row>
-    <row r="302" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R301" s="3"/>
+    </row>
+    <row r="302" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>300</v>
       </c>
@@ -16908,8 +17456,9 @@
       <c r="O302" s="3"/>
       <c r="P302" s="3"/>
       <c r="Q302" s="3"/>
-    </row>
-    <row r="303" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R302" s="3"/>
+    </row>
+    <row r="303" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>301</v>
       </c>
@@ -16949,8 +17498,9 @@
       <c r="O303" s="3"/>
       <c r="P303" s="3"/>
       <c r="Q303" s="3"/>
-    </row>
-    <row r="304" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R303" s="3"/>
+    </row>
+    <row r="304" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>302</v>
       </c>
@@ -16990,8 +17540,9 @@
       <c r="O304" s="3"/>
       <c r="P304" s="3"/>
       <c r="Q304" s="3"/>
-    </row>
-    <row r="305" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R304" s="3"/>
+    </row>
+    <row r="305" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>303</v>
       </c>
@@ -17031,8 +17582,9 @@
       <c r="O305" s="3"/>
       <c r="P305" s="3"/>
       <c r="Q305" s="3"/>
-    </row>
-    <row r="306" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R305" s="3"/>
+    </row>
+    <row r="306" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>304</v>
       </c>
@@ -17072,8 +17624,9 @@
       <c r="O306" s="3"/>
       <c r="P306" s="3"/>
       <c r="Q306" s="3"/>
-    </row>
-    <row r="307" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R306" s="3"/>
+    </row>
+    <row r="307" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>305</v>
       </c>
@@ -17113,8 +17666,9 @@
       <c r="O307" s="3"/>
       <c r="P307" s="3"/>
       <c r="Q307" s="3"/>
-    </row>
-    <row r="308" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R307" s="3"/>
+    </row>
+    <row r="308" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>306</v>
       </c>
@@ -17154,8 +17708,9 @@
       <c r="O308" s="3"/>
       <c r="P308" s="3"/>
       <c r="Q308" s="3"/>
-    </row>
-    <row r="309" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R308" s="3"/>
+    </row>
+    <row r="309" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>307</v>
       </c>
@@ -17195,8 +17750,9 @@
       <c r="O309" s="3"/>
       <c r="P309" s="3"/>
       <c r="Q309" s="3"/>
-    </row>
-    <row r="310" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R309" s="3"/>
+    </row>
+    <row r="310" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>308</v>
       </c>
@@ -17236,8 +17792,9 @@
       <c r="O310" s="3"/>
       <c r="P310" s="3"/>
       <c r="Q310" s="3"/>
-    </row>
-    <row r="311" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R310" s="3"/>
+    </row>
+    <row r="311" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>309</v>
       </c>
@@ -17277,8 +17834,9 @@
       <c r="O311" s="3"/>
       <c r="P311" s="3"/>
       <c r="Q311" s="3"/>
-    </row>
-    <row r="312" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R311" s="3"/>
+    </row>
+    <row r="312" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>310</v>
       </c>
@@ -17318,8 +17876,9 @@
       <c r="O312" s="3"/>
       <c r="P312" s="3"/>
       <c r="Q312" s="3"/>
-    </row>
-    <row r="313" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R312" s="3"/>
+    </row>
+    <row r="313" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>311</v>
       </c>
@@ -17359,8 +17918,9 @@
       <c r="O313" s="3"/>
       <c r="P313" s="3"/>
       <c r="Q313" s="3"/>
-    </row>
-    <row r="314" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R313" s="3"/>
+    </row>
+    <row r="314" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>312</v>
       </c>
@@ -17400,8 +17960,9 @@
       <c r="O314" s="3"/>
       <c r="P314" s="3"/>
       <c r="Q314" s="3"/>
-    </row>
-    <row r="315" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R314" s="3"/>
+    </row>
+    <row r="315" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>313</v>
       </c>
@@ -17441,8 +18002,9 @@
       <c r="O315" s="3"/>
       <c r="P315" s="3"/>
       <c r="Q315" s="3"/>
-    </row>
-    <row r="316" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R315" s="3"/>
+    </row>
+    <row r="316" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>314</v>
       </c>
@@ -17482,8 +18044,9 @@
       <c r="O316" s="3"/>
       <c r="P316" s="3"/>
       <c r="Q316" s="3"/>
-    </row>
-    <row r="317" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R316" s="3"/>
+    </row>
+    <row r="317" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>315</v>
       </c>
@@ -17523,8 +18086,9 @@
       <c r="O317" s="3"/>
       <c r="P317" s="3"/>
       <c r="Q317" s="3"/>
-    </row>
-    <row r="318" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R317" s="3"/>
+    </row>
+    <row r="318" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>316</v>
       </c>
@@ -17564,8 +18128,9 @@
       <c r="O318" s="3"/>
       <c r="P318" s="3"/>
       <c r="Q318" s="3"/>
-    </row>
-    <row r="319" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R318" s="3"/>
+    </row>
+    <row r="319" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>317</v>
       </c>
@@ -17605,8 +18170,9 @@
       <c r="O319" s="3"/>
       <c r="P319" s="3"/>
       <c r="Q319" s="3"/>
-    </row>
-    <row r="320" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R319" s="3"/>
+    </row>
+    <row r="320" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>318</v>
       </c>
@@ -17646,8 +18212,9 @@
       <c r="O320" s="3"/>
       <c r="P320" s="3"/>
       <c r="Q320" s="3"/>
-    </row>
-    <row r="321" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R320" s="3"/>
+    </row>
+    <row r="321" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>319</v>
       </c>
@@ -17687,8 +18254,9 @@
       <c r="O321" s="3"/>
       <c r="P321" s="3"/>
       <c r="Q321" s="3"/>
-    </row>
-    <row r="322" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R321" s="3"/>
+    </row>
+    <row r="322" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>320</v>
       </c>
@@ -17728,8 +18296,9 @@
       <c r="O322" s="3"/>
       <c r="P322" s="3"/>
       <c r="Q322" s="3"/>
-    </row>
-    <row r="323" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R322" s="3"/>
+    </row>
+    <row r="323" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>321</v>
       </c>
@@ -17769,8 +18338,9 @@
       <c r="O323" s="3"/>
       <c r="P323" s="3"/>
       <c r="Q323" s="3"/>
-    </row>
-    <row r="324" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R323" s="3"/>
+    </row>
+    <row r="324" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>322</v>
       </c>
@@ -17810,8 +18380,9 @@
       <c r="O324" s="3"/>
       <c r="P324" s="3"/>
       <c r="Q324" s="3"/>
-    </row>
-    <row r="325" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R324" s="3"/>
+    </row>
+    <row r="325" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>323</v>
       </c>
@@ -17851,8 +18422,9 @@
       <c r="O325" s="3"/>
       <c r="P325" s="3"/>
       <c r="Q325" s="3"/>
-    </row>
-    <row r="326" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R325" s="3"/>
+    </row>
+    <row r="326" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>324</v>
       </c>
@@ -17892,8 +18464,9 @@
       <c r="O326" s="3"/>
       <c r="P326" s="3"/>
       <c r="Q326" s="3"/>
-    </row>
-    <row r="327" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R326" s="3"/>
+    </row>
+    <row r="327" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>325</v>
       </c>
@@ -17933,8 +18506,9 @@
       <c r="O327" s="3"/>
       <c r="P327" s="3"/>
       <c r="Q327" s="3"/>
-    </row>
-    <row r="328" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R327" s="3"/>
+    </row>
+    <row r="328" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>326</v>
       </c>
@@ -17974,8 +18548,9 @@
       <c r="O328" s="3"/>
       <c r="P328" s="3"/>
       <c r="Q328" s="3"/>
-    </row>
-    <row r="329" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R328" s="3"/>
+    </row>
+    <row r="329" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>327</v>
       </c>
@@ -18015,8 +18590,9 @@
       <c r="O329" s="3"/>
       <c r="P329" s="3"/>
       <c r="Q329" s="3"/>
-    </row>
-    <row r="330" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R329" s="3"/>
+    </row>
+    <row r="330" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>328</v>
       </c>
@@ -18056,8 +18632,9 @@
       <c r="O330" s="3"/>
       <c r="P330" s="3"/>
       <c r="Q330" s="3"/>
-    </row>
-    <row r="331" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R330" s="3"/>
+    </row>
+    <row r="331" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>329</v>
       </c>
@@ -18097,8 +18674,9 @@
       <c r="O331" s="3"/>
       <c r="P331" s="3"/>
       <c r="Q331" s="3"/>
-    </row>
-    <row r="332" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R331" s="3"/>
+    </row>
+    <row r="332" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>330</v>
       </c>
@@ -18138,8 +18716,9 @@
       <c r="O332" s="3"/>
       <c r="P332" s="3"/>
       <c r="Q332" s="3"/>
-    </row>
-    <row r="333" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R332" s="3"/>
+    </row>
+    <row r="333" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>331</v>
       </c>
@@ -18179,8 +18758,9 @@
       <c r="O333" s="3"/>
       <c r="P333" s="3"/>
       <c r="Q333" s="3"/>
-    </row>
-    <row r="334" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R333" s="3"/>
+    </row>
+    <row r="334" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>332</v>
       </c>
@@ -18220,8 +18800,9 @@
       <c r="O334" s="3"/>
       <c r="P334" s="3"/>
       <c r="Q334" s="3"/>
-    </row>
-    <row r="335" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R334" s="3"/>
+    </row>
+    <row r="335" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>333</v>
       </c>
@@ -18258,15 +18839,16 @@
       <c r="L335" s="3">
         <v>0.76100000000000001</v>
       </c>
-      <c r="M335" s="17">
+      <c r="M335" s="3"/>
+      <c r="N335" s="17">
         <v>0.3</v>
       </c>
-      <c r="N335" s="3"/>
       <c r="O335" s="3"/>
       <c r="P335" s="3"/>
       <c r="Q335" s="3"/>
-    </row>
-    <row r="336" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R335" s="3"/>
+    </row>
+    <row r="336" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>334</v>
       </c>
@@ -18303,15 +18885,16 @@
       <c r="L336" s="3">
         <v>0.76100000000000001</v>
       </c>
-      <c r="M336" s="17">
+      <c r="M336" s="3"/>
+      <c r="N336" s="17">
         <v>0.2</v>
       </c>
-      <c r="N336" s="3"/>
       <c r="O336" s="3"/>
       <c r="P336" s="3"/>
       <c r="Q336" s="3"/>
-    </row>
-    <row r="337" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R336" s="3"/>
+    </row>
+    <row r="337" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>335</v>
       </c>
@@ -18351,8 +18934,9 @@
       <c r="O337" s="3"/>
       <c r="P337" s="3"/>
       <c r="Q337" s="3"/>
-    </row>
-    <row r="338" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R337" s="3"/>
+    </row>
+    <row r="338" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>336</v>
       </c>
@@ -18392,8 +18976,9 @@
       <c r="O338" s="3"/>
       <c r="P338" s="3"/>
       <c r="Q338" s="3"/>
-    </row>
-    <row r="339" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R338" s="3"/>
+    </row>
+    <row r="339" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>337</v>
       </c>
@@ -18433,8 +19018,9 @@
       <c r="O339" s="3"/>
       <c r="P339" s="3"/>
       <c r="Q339" s="3"/>
-    </row>
-    <row r="340" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R339" s="3"/>
+    </row>
+    <row r="340" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>338</v>
       </c>
@@ -18474,8 +19060,9 @@
       <c r="O340" s="3"/>
       <c r="P340" s="3"/>
       <c r="Q340" s="3"/>
-    </row>
-    <row r="341" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R340" s="3"/>
+    </row>
+    <row r="341" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>339</v>
       </c>
@@ -18515,8 +19102,9 @@
       <c r="O341" s="3"/>
       <c r="P341" s="3"/>
       <c r="Q341" s="3"/>
-    </row>
-    <row r="342" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R341" s="3"/>
+    </row>
+    <row r="342" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>340</v>
       </c>
@@ -18553,15 +19141,16 @@
       <c r="L342" s="3">
         <v>0.76100000000000001</v>
       </c>
-      <c r="M342" s="17">
+      <c r="M342" s="3"/>
+      <c r="N342" s="17">
         <v>0.1</v>
       </c>
-      <c r="N342" s="3"/>
       <c r="O342" s="3"/>
       <c r="P342" s="3"/>
       <c r="Q342" s="3"/>
-    </row>
-    <row r="343" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R342" s="3"/>
+    </row>
+    <row r="343" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>341</v>
       </c>
@@ -18598,15 +19187,16 @@
       <c r="L343" s="3">
         <v>0.76100000000000001</v>
       </c>
-      <c r="M343" s="17">
+      <c r="M343" s="3"/>
+      <c r="N343" s="17">
         <v>0.1</v>
       </c>
-      <c r="N343" s="3"/>
       <c r="O343" s="3"/>
       <c r="P343" s="3"/>
       <c r="Q343" s="3"/>
-    </row>
-    <row r="344" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R343" s="3"/>
+    </row>
+    <row r="344" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>342</v>
       </c>
@@ -18646,8 +19236,9 @@
       <c r="O344" s="3"/>
       <c r="P344" s="3"/>
       <c r="Q344" s="3"/>
-    </row>
-    <row r="345" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R344" s="3"/>
+    </row>
+    <row r="345" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>343</v>
       </c>
@@ -18687,8 +19278,9 @@
       <c r="O345" s="3"/>
       <c r="P345" s="3"/>
       <c r="Q345" s="3"/>
-    </row>
-    <row r="346" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R345" s="3"/>
+    </row>
+    <row r="346" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>344</v>
       </c>
@@ -18725,15 +19317,16 @@
       <c r="L346" s="3">
         <v>0.76100000000000001</v>
       </c>
-      <c r="M346" s="17">
+      <c r="M346" s="3"/>
+      <c r="N346" s="17">
         <v>0.1</v>
       </c>
-      <c r="N346" s="3"/>
       <c r="O346" s="3"/>
       <c r="P346" s="3"/>
       <c r="Q346" s="3"/>
-    </row>
-    <row r="347" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R346" s="3"/>
+    </row>
+    <row r="347" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>345</v>
       </c>
@@ -18773,8 +19366,9 @@
       <c r="O347" s="3"/>
       <c r="P347" s="3"/>
       <c r="Q347" s="3"/>
-    </row>
-    <row r="348" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R347" s="3"/>
+    </row>
+    <row r="348" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>346</v>
       </c>
@@ -18814,8 +19408,9 @@
       <c r="O348" s="3"/>
       <c r="P348" s="3"/>
       <c r="Q348" s="3"/>
-    </row>
-    <row r="349" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R348" s="3"/>
+    </row>
+    <row r="349" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>347</v>
       </c>
@@ -18855,8 +19450,9 @@
       <c r="O349" s="3"/>
       <c r="P349" s="3"/>
       <c r="Q349" s="3"/>
-    </row>
-    <row r="350" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R349" s="3"/>
+    </row>
+    <row r="350" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>348</v>
       </c>
@@ -18896,8 +19492,9 @@
       <c r="O350" s="3"/>
       <c r="P350" s="3"/>
       <c r="Q350" s="3"/>
-    </row>
-    <row r="351" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R350" s="3"/>
+    </row>
+    <row r="351" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>349</v>
       </c>
@@ -18937,8 +19534,9 @@
       <c r="O351" s="3"/>
       <c r="P351" s="3"/>
       <c r="Q351" s="3"/>
-    </row>
-    <row r="352" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R351" s="3"/>
+    </row>
+    <row r="352" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>350</v>
       </c>
@@ -18978,8 +19576,9 @@
       <c r="O352" s="3"/>
       <c r="P352" s="3"/>
       <c r="Q352" s="3"/>
-    </row>
-    <row r="353" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R352" s="3"/>
+    </row>
+    <row r="353" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>351</v>
       </c>
@@ -19019,8 +19618,9 @@
       <c r="O353" s="3"/>
       <c r="P353" s="3"/>
       <c r="Q353" s="3"/>
-    </row>
-    <row r="354" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R353" s="3"/>
+    </row>
+    <row r="354" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>352</v>
       </c>
@@ -19060,8 +19660,9 @@
       <c r="O354" s="3"/>
       <c r="P354" s="3"/>
       <c r="Q354" s="3"/>
-    </row>
-    <row r="355" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R354" s="3"/>
+    </row>
+    <row r="355" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>353</v>
       </c>
@@ -19101,8 +19702,9 @@
       <c r="O355" s="3"/>
       <c r="P355" s="3"/>
       <c r="Q355" s="3"/>
-    </row>
-    <row r="356" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R355" s="3"/>
+    </row>
+    <row r="356" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>354</v>
       </c>
@@ -19142,8 +19744,9 @@
       <c r="O356" s="3"/>
       <c r="P356" s="3"/>
       <c r="Q356" s="3"/>
-    </row>
-    <row r="357" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R356" s="3"/>
+    </row>
+    <row r="357" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>355</v>
       </c>
@@ -19183,8 +19786,9 @@
       <c r="O357" s="3"/>
       <c r="P357" s="3"/>
       <c r="Q357" s="3"/>
-    </row>
-    <row r="358" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R357" s="3"/>
+    </row>
+    <row r="358" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>356</v>
       </c>
@@ -19224,8 +19828,9 @@
       <c r="O358" s="3"/>
       <c r="P358" s="3"/>
       <c r="Q358" s="3"/>
-    </row>
-    <row r="359" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R358" s="3"/>
+    </row>
+    <row r="359" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>357</v>
       </c>
@@ -19265,8 +19870,9 @@
       <c r="O359" s="3"/>
       <c r="P359" s="3"/>
       <c r="Q359" s="3"/>
-    </row>
-    <row r="360" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R359" s="3"/>
+    </row>
+    <row r="360" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>358</v>
       </c>
@@ -19306,8 +19912,9 @@
       <c r="O360" s="3"/>
       <c r="P360" s="3"/>
       <c r="Q360" s="3"/>
-    </row>
-    <row r="361" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R360" s="3"/>
+    </row>
+    <row r="361" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>359</v>
       </c>
@@ -19344,15 +19951,16 @@
       <c r="L361" s="3">
         <v>0.76100000000000001</v>
       </c>
-      <c r="M361" s="17">
+      <c r="M361" s="3"/>
+      <c r="N361" s="17">
         <v>0.1</v>
       </c>
-      <c r="N361" s="3"/>
       <c r="O361" s="3"/>
       <c r="P361" s="3"/>
       <c r="Q361" s="3"/>
-    </row>
-    <row r="362" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R361" s="3"/>
+    </row>
+    <row r="362" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>360</v>
       </c>
@@ -19392,8 +20000,9 @@
       <c r="O362" s="3"/>
       <c r="P362" s="3"/>
       <c r="Q362" s="3"/>
-    </row>
-    <row r="363" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R362" s="3"/>
+    </row>
+    <row r="363" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>361</v>
       </c>
@@ -19433,8 +20042,9 @@
       <c r="O363" s="3"/>
       <c r="P363" s="3"/>
       <c r="Q363" s="3"/>
-    </row>
-    <row r="364" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R363" s="3"/>
+    </row>
+    <row r="364" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>362</v>
       </c>
@@ -19474,8 +20084,9 @@
       <c r="O364" s="3"/>
       <c r="P364" s="3"/>
       <c r="Q364" s="3"/>
-    </row>
-    <row r="365" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R364" s="3"/>
+    </row>
+    <row r="365" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>363</v>
       </c>
@@ -19515,8 +20126,9 @@
       <c r="O365" s="3"/>
       <c r="P365" s="3"/>
       <c r="Q365" s="3"/>
-    </row>
-    <row r="366" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R365" s="3"/>
+    </row>
+    <row r="366" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>364</v>
       </c>
@@ -19556,8 +20168,9 @@
       <c r="O366" s="3"/>
       <c r="P366" s="3"/>
       <c r="Q366" s="3"/>
-    </row>
-    <row r="367" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R366" s="3"/>
+    </row>
+    <row r="367" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>365</v>
       </c>
@@ -19597,8 +20210,9 @@
       <c r="O367" s="3"/>
       <c r="P367" s="3"/>
       <c r="Q367" s="3"/>
-    </row>
-    <row r="368" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R367" s="3"/>
+    </row>
+    <row r="368" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>366</v>
       </c>
@@ -19638,8 +20252,9 @@
       <c r="O368" s="3"/>
       <c r="P368" s="3"/>
       <c r="Q368" s="3"/>
-    </row>
-    <row r="369" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R368" s="3"/>
+    </row>
+    <row r="369" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>367</v>
       </c>
@@ -19679,8 +20294,9 @@
       <c r="O369" s="3"/>
       <c r="P369" s="3"/>
       <c r="Q369" s="3"/>
-    </row>
-    <row r="370" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R369" s="3"/>
+    </row>
+    <row r="370" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>368</v>
       </c>
@@ -19720,8 +20336,9 @@
       <c r="O370" s="3"/>
       <c r="P370" s="3"/>
       <c r="Q370" s="3"/>
-    </row>
-    <row r="371" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R370" s="3"/>
+    </row>
+    <row r="371" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>369</v>
       </c>
@@ -19761,8 +20378,9 @@
       <c r="O371" s="3"/>
       <c r="P371" s="3"/>
       <c r="Q371" s="3"/>
-    </row>
-    <row r="372" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R371" s="3"/>
+    </row>
+    <row r="372" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>370</v>
       </c>
@@ -19802,8 +20420,9 @@
       <c r="O372" s="3"/>
       <c r="P372" s="3"/>
       <c r="Q372" s="3"/>
-    </row>
-    <row r="373" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R372" s="3"/>
+    </row>
+    <row r="373" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>371</v>
       </c>
@@ -19843,8 +20462,9 @@
       <c r="O373" s="3"/>
       <c r="P373" s="3"/>
       <c r="Q373" s="3"/>
-    </row>
-    <row r="374" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R373" s="3"/>
+    </row>
+    <row r="374" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>372</v>
       </c>
@@ -19881,15 +20501,16 @@
       <c r="L374" s="3">
         <v>0.60199999999999998</v>
       </c>
-      <c r="M374" s="17">
+      <c r="M374" s="3"/>
+      <c r="N374" s="17">
         <v>0.2</v>
       </c>
-      <c r="N374" s="3"/>
       <c r="O374" s="3"/>
       <c r="P374" s="3"/>
       <c r="Q374" s="3"/>
-    </row>
-    <row r="375" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R374" s="3"/>
+    </row>
+    <row r="375" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>373</v>
       </c>
@@ -19929,8 +20550,9 @@
       <c r="O375" s="3"/>
       <c r="P375" s="3"/>
       <c r="Q375" s="3"/>
-    </row>
-    <row r="376" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R375" s="3"/>
+    </row>
+    <row r="376" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>374</v>
       </c>
@@ -19970,8 +20592,9 @@
       <c r="O376" s="3"/>
       <c r="P376" s="3"/>
       <c r="Q376" s="3"/>
-    </row>
-    <row r="377" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R376" s="3"/>
+    </row>
+    <row r="377" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>375</v>
       </c>
@@ -20011,8 +20634,9 @@
       <c r="O377" s="3"/>
       <c r="P377" s="3"/>
       <c r="Q377" s="3"/>
-    </row>
-    <row r="378" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R377" s="3"/>
+    </row>
+    <row r="378" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>376</v>
       </c>
@@ -20052,8 +20676,9 @@
       <c r="O378" s="3"/>
       <c r="P378" s="3"/>
       <c r="Q378" s="3"/>
-    </row>
-    <row r="379" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R378" s="3"/>
+    </row>
+    <row r="379" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>377</v>
       </c>
@@ -20093,8 +20718,9 @@
       <c r="O379" s="3"/>
       <c r="P379" s="3"/>
       <c r="Q379" s="3"/>
-    </row>
-    <row r="380" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R379" s="3"/>
+    </row>
+    <row r="380" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>378</v>
       </c>
@@ -20134,8 +20760,9 @@
       <c r="O380" s="3"/>
       <c r="P380" s="3"/>
       <c r="Q380" s="3"/>
-    </row>
-    <row r="381" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R380" s="3"/>
+    </row>
+    <row r="381" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>379</v>
       </c>
@@ -20175,8 +20802,9 @@
       <c r="O381" s="3"/>
       <c r="P381" s="3"/>
       <c r="Q381" s="3"/>
-    </row>
-    <row r="382" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R381" s="3"/>
+    </row>
+    <row r="382" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>380</v>
       </c>
@@ -20216,8 +20844,9 @@
       <c r="O382" s="3"/>
       <c r="P382" s="3"/>
       <c r="Q382" s="3"/>
-    </row>
-    <row r="383" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R382" s="3"/>
+    </row>
+    <row r="383" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>381</v>
       </c>
@@ -20254,15 +20883,16 @@
       <c r="L383" s="3">
         <v>0.64500000000000002</v>
       </c>
-      <c r="M383" s="17">
+      <c r="M383" s="3"/>
+      <c r="N383" s="17">
         <v>0.25</v>
       </c>
-      <c r="N383" s="3"/>
       <c r="O383" s="3"/>
       <c r="P383" s="3"/>
       <c r="Q383" s="3"/>
-    </row>
-    <row r="384" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R383" s="3"/>
+    </row>
+    <row r="384" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>382</v>
       </c>
@@ -20299,15 +20929,16 @@
       <c r="L384" s="3">
         <v>0.64500000000000002</v>
       </c>
-      <c r="M384" s="17">
+      <c r="M384" s="3"/>
+      <c r="N384" s="17">
         <v>0.15</v>
       </c>
-      <c r="N384" s="3"/>
       <c r="O384" s="3"/>
       <c r="P384" s="3"/>
       <c r="Q384" s="3"/>
-    </row>
-    <row r="385" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R384" s="3"/>
+    </row>
+    <row r="385" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>383</v>
       </c>
@@ -20347,8 +20978,9 @@
       <c r="O385" s="3"/>
       <c r="P385" s="3"/>
       <c r="Q385" s="3"/>
-    </row>
-    <row r="386" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R385" s="3"/>
+    </row>
+    <row r="386" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>384</v>
       </c>
@@ -20388,8 +21020,9 @@
       <c r="O386" s="3"/>
       <c r="P386" s="3"/>
       <c r="Q386" s="3"/>
-    </row>
-    <row r="387" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R386" s="3"/>
+    </row>
+    <row r="387" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>385</v>
       </c>
@@ -20429,8 +21062,9 @@
       <c r="O387" s="3"/>
       <c r="P387" s="3"/>
       <c r="Q387" s="3"/>
-    </row>
-    <row r="388" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R387" s="3"/>
+    </row>
+    <row r="388" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>386</v>
       </c>
@@ -20467,15 +21101,16 @@
       <c r="L388" s="3">
         <v>0.55700000000000005</v>
       </c>
-      <c r="M388" s="17">
+      <c r="M388" s="3"/>
+      <c r="N388" s="17">
         <v>0.15</v>
       </c>
-      <c r="N388" s="3"/>
       <c r="O388" s="3"/>
       <c r="P388" s="3"/>
       <c r="Q388" s="3"/>
-    </row>
-    <row r="389" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R388" s="3"/>
+    </row>
+    <row r="389" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>387</v>
       </c>
@@ -20515,8 +21150,9 @@
       <c r="O389" s="3"/>
       <c r="P389" s="3"/>
       <c r="Q389" s="3"/>
-    </row>
-    <row r="390" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R389" s="3"/>
+    </row>
+    <row r="390" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>388</v>
       </c>
@@ -20556,8 +21192,9 @@
       <c r="O390" s="3"/>
       <c r="P390" s="3"/>
       <c r="Q390" s="3"/>
-    </row>
-    <row r="391" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R390" s="3"/>
+    </row>
+    <row r="391" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>389</v>
       </c>
@@ -20597,8 +21234,9 @@
       <c r="O391" s="3"/>
       <c r="P391" s="3"/>
       <c r="Q391" s="3"/>
-    </row>
-    <row r="392" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R391" s="3"/>
+    </row>
+    <row r="392" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>390</v>
       </c>
@@ -20638,8 +21276,9 @@
       <c r="O392" s="3"/>
       <c r="P392" s="3"/>
       <c r="Q392" s="3"/>
-    </row>
-    <row r="393" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R392" s="3"/>
+    </row>
+    <row r="393" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>391</v>
       </c>
@@ -20679,8 +21318,9 @@
       <c r="O393" s="3"/>
       <c r="P393" s="3"/>
       <c r="Q393" s="3"/>
-    </row>
-    <row r="394" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R393" s="3"/>
+    </row>
+    <row r="394" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>392</v>
       </c>
@@ -20720,8 +21360,9 @@
       <c r="O394" s="3"/>
       <c r="P394" s="3"/>
       <c r="Q394" s="3"/>
-    </row>
-    <row r="395" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R394" s="3"/>
+    </row>
+    <row r="395" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>393</v>
       </c>
@@ -20761,8 +21402,9 @@
       <c r="O395" s="3"/>
       <c r="P395" s="3"/>
       <c r="Q395" s="3"/>
-    </row>
-    <row r="396" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R395" s="3"/>
+    </row>
+    <row r="396" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>394</v>
       </c>
@@ -20802,8 +21444,9 @@
       <c r="O396" s="3"/>
       <c r="P396" s="3"/>
       <c r="Q396" s="3"/>
-    </row>
-    <row r="397" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R396" s="3"/>
+    </row>
+    <row r="397" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>395</v>
       </c>
@@ -20843,8 +21486,9 @@
       <c r="O397" s="3"/>
       <c r="P397" s="3"/>
       <c r="Q397" s="3"/>
-    </row>
-    <row r="398" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R397" s="3"/>
+    </row>
+    <row r="398" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>396</v>
       </c>
@@ -20884,8 +21528,9 @@
       <c r="O398" s="3"/>
       <c r="P398" s="3"/>
       <c r="Q398" s="3"/>
-    </row>
-    <row r="399" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R398" s="3"/>
+    </row>
+    <row r="399" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>397</v>
       </c>
@@ -20925,8 +21570,9 @@
       <c r="O399" s="3"/>
       <c r="P399" s="3"/>
       <c r="Q399" s="3"/>
-    </row>
-    <row r="400" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R399" s="3"/>
+    </row>
+    <row r="400" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>398</v>
       </c>
@@ -20966,8 +21612,9 @@
       <c r="O400" s="3"/>
       <c r="P400" s="3"/>
       <c r="Q400" s="3"/>
-    </row>
-    <row r="401" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R400" s="3"/>
+    </row>
+    <row r="401" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>399</v>
       </c>
@@ -21007,8 +21654,9 @@
       <c r="O401" s="3"/>
       <c r="P401" s="3"/>
       <c r="Q401" s="3"/>
-    </row>
-    <row r="402" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R401" s="3"/>
+    </row>
+    <row r="402" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>400</v>
       </c>
@@ -21048,8 +21696,9 @@
       <c r="O402" s="3"/>
       <c r="P402" s="3"/>
       <c r="Q402" s="3"/>
-    </row>
-    <row r="403" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R402" s="3"/>
+    </row>
+    <row r="403" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>401</v>
       </c>
@@ -21089,8 +21738,9 @@
       <c r="O403" s="3"/>
       <c r="P403" s="3"/>
       <c r="Q403" s="3"/>
-    </row>
-    <row r="404" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R403" s="3"/>
+    </row>
+    <row r="404" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>402</v>
       </c>
@@ -21130,8 +21780,9 @@
       <c r="O404" s="3"/>
       <c r="P404" s="3"/>
       <c r="Q404" s="3"/>
-    </row>
-    <row r="405" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R404" s="3"/>
+    </row>
+    <row r="405" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>403</v>
       </c>
@@ -21171,8 +21822,9 @@
       <c r="O405" s="3"/>
       <c r="P405" s="3"/>
       <c r="Q405" s="3"/>
-    </row>
-    <row r="406" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R405" s="3"/>
+    </row>
+    <row r="406" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>404</v>
       </c>
@@ -21212,8 +21864,9 @@
       <c r="O406" s="3"/>
       <c r="P406" s="3"/>
       <c r="Q406" s="3"/>
-    </row>
-    <row r="407" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R406" s="3"/>
+    </row>
+    <row r="407" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>405</v>
       </c>
@@ -21253,8 +21906,9 @@
       <c r="O407" s="3"/>
       <c r="P407" s="3"/>
       <c r="Q407" s="3"/>
-    </row>
-    <row r="408" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R407" s="3"/>
+    </row>
+    <row r="408" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>406</v>
       </c>
@@ -21294,8 +21948,9 @@
       <c r="O408" s="3"/>
       <c r="P408" s="3"/>
       <c r="Q408" s="3"/>
-    </row>
-    <row r="409" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R408" s="3"/>
+    </row>
+    <row r="409" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>407</v>
       </c>
@@ -21335,8 +21990,9 @@
       <c r="O409" s="3"/>
       <c r="P409" s="3"/>
       <c r="Q409" s="3"/>
-    </row>
-    <row r="410" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R409" s="3"/>
+    </row>
+    <row r="410" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>408</v>
       </c>
@@ -21376,8 +22032,9 @@
       <c r="O410" s="3"/>
       <c r="P410" s="3"/>
       <c r="Q410" s="3"/>
-    </row>
-    <row r="411" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R410" s="3"/>
+    </row>
+    <row r="411" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>409</v>
       </c>
@@ -21417,8 +22074,9 @@
       <c r="O411" s="3"/>
       <c r="P411" s="3"/>
       <c r="Q411" s="3"/>
-    </row>
-    <row r="412" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R411" s="3"/>
+    </row>
+    <row r="412" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>410</v>
       </c>
@@ -21458,8 +22116,9 @@
       <c r="O412" s="3"/>
       <c r="P412" s="3"/>
       <c r="Q412" s="3"/>
-    </row>
-    <row r="413" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R412" s="3"/>
+    </row>
+    <row r="413" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>411</v>
       </c>
@@ -21499,8 +22158,9 @@
       <c r="O413" s="3"/>
       <c r="P413" s="3"/>
       <c r="Q413" s="3"/>
-    </row>
-    <row r="414" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R413" s="3"/>
+    </row>
+    <row r="414" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>412</v>
       </c>
@@ -21540,8 +22200,9 @@
       <c r="O414" s="3"/>
       <c r="P414" s="3"/>
       <c r="Q414" s="3"/>
-    </row>
-    <row r="415" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R414" s="3"/>
+    </row>
+    <row r="415" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>413</v>
       </c>
@@ -21581,8 +22242,9 @@
       <c r="O415" s="3"/>
       <c r="P415" s="3"/>
       <c r="Q415" s="3"/>
-    </row>
-    <row r="416" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R415" s="3"/>
+    </row>
+    <row r="416" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>414</v>
       </c>
@@ -21622,8 +22284,9 @@
       <c r="O416" s="3"/>
       <c r="P416" s="3"/>
       <c r="Q416" s="3"/>
-    </row>
-    <row r="417" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R416" s="3"/>
+    </row>
+    <row r="417" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>415</v>
       </c>
@@ -21663,8 +22326,9 @@
       <c r="O417" s="3"/>
       <c r="P417" s="3"/>
       <c r="Q417" s="3"/>
-    </row>
-    <row r="418" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R417" s="3"/>
+    </row>
+    <row r="418" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>416</v>
       </c>
@@ -21704,8 +22368,9 @@
       <c r="O418" s="3"/>
       <c r="P418" s="3"/>
       <c r="Q418" s="3"/>
-    </row>
-    <row r="419" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R418" s="3"/>
+    </row>
+    <row r="419" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>417</v>
       </c>
@@ -21745,8 +22410,9 @@
       <c r="O419" s="3"/>
       <c r="P419" s="3"/>
       <c r="Q419" s="3"/>
-    </row>
-    <row r="420" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R419" s="3"/>
+    </row>
+    <row r="420" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>418</v>
       </c>
@@ -21786,8 +22452,9 @@
       <c r="O420" s="3"/>
       <c r="P420" s="3"/>
       <c r="Q420" s="3"/>
-    </row>
-    <row r="421" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R420" s="3"/>
+    </row>
+    <row r="421" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>419</v>
       </c>
@@ -21827,8 +22494,9 @@
       <c r="O421" s="3"/>
       <c r="P421" s="3"/>
       <c r="Q421" s="3"/>
-    </row>
-    <row r="422" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R421" s="3"/>
+    </row>
+    <row r="422" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>420</v>
       </c>
@@ -21868,8 +22536,9 @@
       <c r="O422" s="3"/>
       <c r="P422" s="3"/>
       <c r="Q422" s="3"/>
-    </row>
-    <row r="423" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R422" s="3"/>
+    </row>
+    <row r="423" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>421</v>
       </c>
@@ -21909,8 +22578,9 @@
       <c r="O423" s="3"/>
       <c r="P423" s="3"/>
       <c r="Q423" s="3"/>
-    </row>
-    <row r="424" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R423" s="3"/>
+    </row>
+    <row r="424" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>422</v>
       </c>
@@ -21950,8 +22620,9 @@
       <c r="O424" s="3"/>
       <c r="P424" s="3"/>
       <c r="Q424" s="3"/>
-    </row>
-    <row r="425" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R424" s="3"/>
+    </row>
+    <row r="425" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>423</v>
       </c>
@@ -21991,8 +22662,9 @@
       <c r="O425" s="3"/>
       <c r="P425" s="3"/>
       <c r="Q425" s="3"/>
-    </row>
-    <row r="426" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R425" s="3"/>
+    </row>
+    <row r="426" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>424</v>
       </c>
@@ -22032,8 +22704,9 @@
       <c r="O426" s="3"/>
       <c r="P426" s="3"/>
       <c r="Q426" s="3"/>
-    </row>
-    <row r="427" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R426" s="3"/>
+    </row>
+    <row r="427" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>425</v>
       </c>
@@ -22073,8 +22746,9 @@
       <c r="O427" s="3"/>
       <c r="P427" s="3"/>
       <c r="Q427" s="3"/>
-    </row>
-    <row r="428" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R427" s="3"/>
+    </row>
+    <row r="428" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>426</v>
       </c>
@@ -22114,8 +22788,9 @@
       <c r="O428" s="3"/>
       <c r="P428" s="3"/>
       <c r="Q428" s="3"/>
-    </row>
-    <row r="429" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R428" s="3"/>
+    </row>
+    <row r="429" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>427</v>
       </c>
@@ -22155,8 +22830,9 @@
       <c r="O429" s="3"/>
       <c r="P429" s="3"/>
       <c r="Q429" s="3"/>
-    </row>
-    <row r="430" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R429" s="3"/>
+    </row>
+    <row r="430" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>428</v>
       </c>
@@ -22196,8 +22872,9 @@
       <c r="O430" s="3"/>
       <c r="P430" s="3"/>
       <c r="Q430" s="3"/>
-    </row>
-    <row r="431" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R430" s="3"/>
+    </row>
+    <row r="431" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>429</v>
       </c>
@@ -22237,8 +22914,9 @@
       <c r="O431" s="3"/>
       <c r="P431" s="3"/>
       <c r="Q431" s="3"/>
-    </row>
-    <row r="432" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R431" s="3"/>
+    </row>
+    <row r="432" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
         <v>430</v>
       </c>
@@ -22278,8 +22956,9 @@
       <c r="O432" s="3"/>
       <c r="P432" s="3"/>
       <c r="Q432" s="3"/>
-    </row>
-    <row r="433" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R432" s="3"/>
+    </row>
+    <row r="433" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
         <v>431</v>
       </c>
@@ -22321,8 +23000,9 @@
       <c r="O433" s="3"/>
       <c r="P433" s="3"/>
       <c r="Q433" s="3"/>
-    </row>
-    <row r="434" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R433" s="3"/>
+    </row>
+    <row r="434" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
         <v>432</v>
       </c>
@@ -22362,8 +23042,9 @@
       <c r="O434" s="3"/>
       <c r="P434" s="3"/>
       <c r="Q434" s="3"/>
-    </row>
-    <row r="435" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R434" s="3"/>
+    </row>
+    <row r="435" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>433</v>
       </c>
@@ -22403,6 +23084,7 @@
       <c r="O435" s="3"/>
       <c r="P435" s="3"/>
       <c r="Q435" s="3"/>
+      <c r="R435" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
